--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MCNP\dprk-elwr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7BD60EB-A31F-467F-9172-E4745220A9A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AABC29D-1680-4329-93CF-EF7D43E49D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,11 +36,11 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
   <metadataTypes count="1">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="1">
+  <futureMetadata name="XLRICHVALUE" count="2">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -48,17 +48,27 @@
         </ext>
       </extLst>
     </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1"/>
+        </ext>
+      </extLst>
+    </bk>
   </futureMetadata>
-  <valueMetadata count="1">
+  <valueMetadata count="2">
     <bk>
       <rc t="1" v="0"/>
+    </bk>
+    <bk>
+      <rc t="1" v="1"/>
     </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
   <si>
     <t>Input File</t>
   </si>
@@ -142,6 +152,12 @@
   </si>
   <si>
     <t>Fuel Rod</t>
+  </si>
+  <si>
+    <t>OPR1000</t>
+  </si>
+  <si>
+    <t>elwr-caseOPR1000-fuelA-blanket3.inp</t>
   </si>
 </sst>
 </file>
@@ -237,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -248,18 +264,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -320,9 +334,13 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
   <rv s="0">
     <v>0</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>1</v>
     <v>5</v>
   </rv>
 </rvData>
@@ -340,6 +358,7 @@
 <file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
 <richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rel r:id="rId1"/>
+  <rel r:id="rId2"/>
 </richValueRels>
 </file>
 
@@ -606,17 +625,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V11"/>
+  <dimension ref="A1:V14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W23" sqref="W23"/>
+      <selection activeCell="T25" sqref="T25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="34.33203125" customWidth="1"/>
     <col min="2" max="2" width="8.88671875" style="7"/>
-    <col min="3" max="3" width="10" style="10" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="8.88671875" style="7"/>
     <col min="7" max="7" width="8.88671875" style="7"/>
     <col min="8" max="8" width="6.21875" customWidth="1"/>
@@ -633,92 +652,40 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
+      <c r="B1"/>
+      <c r="D1"/>
+      <c r="G1"/>
+      <c r="M1"/>
+      <c r="S1"/>
+      <c r="T1"/>
+      <c r="V1"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
+      <c r="B2"/>
+      <c r="D2"/>
+      <c r="G2"/>
+      <c r="M2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="V2"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
+      <c r="B3"/>
+      <c r="D3"/>
+      <c r="G3"/>
+      <c r="M3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="V3"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
+      <c r="B4"/>
+      <c r="D4"/>
+      <c r="G4"/>
+      <c r="M4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="V4"/>
     </row>
     <row r="5" spans="1:22" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
@@ -740,7 +707,7 @@
         <v>10</v>
       </c>
       <c r="R6" s="3"/>
-      <c r="S6" s="12" t="s">
+      <c r="S6" s="11" t="s">
         <v>15</v>
       </c>
       <c r="T6" s="8" t="s">
@@ -755,7 +722,7 @@
       <c r="B7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="9" t="s">
@@ -803,7 +770,7 @@
       <c r="R7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="S7" s="13" t="s">
+      <c r="S7" s="12" t="s">
         <v>4</v>
       </c>
       <c r="T7" s="9" t="s">
@@ -820,10 +787,10 @@
       <c r="A8" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="15">
         <v>1.23</v>
       </c>
       <c r="D8" s="7">
@@ -848,11 +815,11 @@
       <c r="J8">
         <v>108</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="10">
         <f>F8*J8*I8*((H8*235+(1-H8)*238)/((H8*235+(1-H8)*238)+2*16))</f>
         <v>203289.89088492587</v>
       </c>
-      <c r="L8" s="11">
+      <c r="L8" s="10">
         <f>F8*J8</f>
         <v>24278.644651890612</v>
       </c>
@@ -860,7 +827,7 @@
         <v>7</v>
       </c>
       <c r="N8">
-        <v>7.0229999999999997E-3</v>
+        <v>7.2040000000000003E-3</v>
       </c>
       <c r="O8">
         <v>9.5</v>
@@ -868,22 +835,22 @@
       <c r="P8">
         <v>156</v>
       </c>
-      <c r="Q8" s="11">
+      <c r="Q8" s="10">
         <f>F8*P8*O8*((N8*235+(1-N8)*238)/((N8*235+(1-N8)*238)+2*16))</f>
-        <v>293668.60676235752</v>
-      </c>
-      <c r="R8" s="11">
+        <v>293668.52734053996</v>
+      </c>
+      <c r="R8" s="10">
         <f>F8*P8</f>
         <v>35069.153386064223</v>
       </c>
-      <c r="S8" s="14">
+      <c r="S8" s="13">
         <f>L8+R8</f>
         <v>59347.798037954839</v>
       </c>
       <c r="T8" s="7">
         <v>28.361339999999998</v>
       </c>
-      <c r="V8" s="19" t="e" vm="1">
+      <c r="V8" s="16" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
     </row>
@@ -891,10 +858,10 @@
       <c r="A9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="15">
         <v>1.23</v>
       </c>
       <c r="D9" s="7">
@@ -916,54 +883,45 @@
       <c r="I9">
         <v>9.5</v>
       </c>
-      <c r="J9">
-        <v>108</v>
-      </c>
-      <c r="K9" s="11">
+      <c r="K9" s="10">
         <f>F9*J9*I9*((H9*235+(1-H9)*238)/((H9*235+(1-H9)*238)+2*16))</f>
-        <v>203289.89088492587</v>
-      </c>
-      <c r="L9" s="11">
+        <v>0</v>
+      </c>
+      <c r="L9" s="10">
         <f>F9*J9</f>
-        <v>24278.644651890612</v>
+        <v>0</v>
       </c>
       <c r="M9" s="7" t="s">
         <v>22</v>
       </c>
       <c r="N9">
-        <v>7.0229999999999997E-3</v>
+        <v>7.2040000000000003E-3</v>
       </c>
       <c r="O9">
         <v>18.5</v>
       </c>
-      <c r="P9">
-        <v>156</v>
-      </c>
-      <c r="Q9" s="11">
+      <c r="Q9" s="10">
         <f>F9*P9*O9*((N9*235+(1-N9)*238)/((N9*235+(1-N9)*238)+2*16))</f>
-        <v>571880.97106353834</v>
-      </c>
-      <c r="R9" s="11">
+        <v>0</v>
+      </c>
+      <c r="R9" s="10">
         <f>F9*P9</f>
-        <v>35069.153386064223</v>
-      </c>
-      <c r="S9" s="14">
+        <v>0</v>
+      </c>
+      <c r="S9" s="13">
         <f>L9+R9</f>
-        <v>59347.798037954839</v>
-      </c>
-      <c r="T9" s="7">
-        <v>28.361339999999998</v>
-      </c>
-      <c r="V9" s="18"/>
+        <v>0</v>
+      </c>
+      <c r="V9" s="17"/>
     </row>
     <row r="10" spans="1:22" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="15">
         <v>1.23</v>
       </c>
       <c r="D10" s="7">
@@ -985,45 +943,36 @@
       <c r="I10">
         <v>9.5</v>
       </c>
-      <c r="J10">
-        <v>108</v>
-      </c>
-      <c r="K10" s="11">
+      <c r="K10" s="10">
         <f>F10*J10*I10*((H10*235+(1-H10)*238)/((H10*235+(1-H10)*238)+2*16))</f>
-        <v>203289.89088492587</v>
-      </c>
-      <c r="L10" s="11">
+        <v>0</v>
+      </c>
+      <c r="L10" s="10">
         <f>F10*J10</f>
-        <v>24278.644651890612</v>
+        <v>0</v>
       </c>
       <c r="M10" s="7" t="s">
         <v>7</v>
       </c>
       <c r="N10">
-        <v>7.0229999999999997E-3</v>
+        <v>7.2040000000000003E-3</v>
       </c>
       <c r="O10">
         <v>9.5</v>
       </c>
-      <c r="P10">
-        <v>156</v>
-      </c>
-      <c r="Q10" s="11">
+      <c r="Q10" s="10">
         <f>F10*P10*O10*((N10*235+(1-N10)*238)/((N10*235+(1-N10)*238)+2*16))</f>
-        <v>293668.60676235752</v>
-      </c>
-      <c r="R10" s="11">
+        <v>0</v>
+      </c>
+      <c r="R10" s="10">
         <f>F10*P10</f>
-        <v>35069.153386064223</v>
-      </c>
-      <c r="S10" s="14">
+        <v>0</v>
+      </c>
+      <c r="S10" s="13">
         <f>L10+R10</f>
-        <v>59347.798037954839</v>
-      </c>
-      <c r="T10" s="7">
-        <v>28.361339999999998</v>
-      </c>
-      <c r="V10" s="19" t="e" vm="1">
+        <v>0</v>
+      </c>
+      <c r="V10" s="16" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
     </row>
@@ -1031,10 +980,10 @@
       <c r="A11" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="15">
         <v>1.23</v>
       </c>
       <c r="D11" s="7">
@@ -1056,50 +1005,116 @@
       <c r="I11">
         <v>9.5</v>
       </c>
-      <c r="J11">
-        <v>108</v>
-      </c>
-      <c r="K11" s="11">
+      <c r="K11" s="10">
         <f>F11*J11*I11*((H11*235+(1-H11)*238)/((H11*235+(1-H11)*238)+2*16))</f>
-        <v>203289.89088492587</v>
-      </c>
-      <c r="L11" s="11">
+        <v>0</v>
+      </c>
+      <c r="L11" s="10">
         <f>F11*J11</f>
-        <v>24278.644651890612</v>
+        <v>0</v>
       </c>
       <c r="M11" s="7" t="s">
         <v>22</v>
       </c>
       <c r="N11">
-        <v>7.0229999999999997E-3</v>
+        <v>7.2040000000000003E-3</v>
       </c>
       <c r="O11">
         <v>18.5</v>
       </c>
-      <c r="P11">
+      <c r="Q11" s="10">
+        <f>F11*P11*O11*((N11*235+(1-N11)*238)/((N11*235+(1-N11)*238)+2*16))</f>
+        <v>0</v>
+      </c>
+      <c r="R11" s="10">
+        <f>F11*P11</f>
+        <v>0</v>
+      </c>
+      <c r="S11" s="13">
+        <f>L11+R11</f>
+        <v>0</v>
+      </c>
+      <c r="V11" s="17"/>
+    </row>
+    <row r="13" spans="1:22" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="15">
+        <v>1.1863300000000001</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0.40949999999999998</v>
+      </c>
+      <c r="E13">
+        <v>426.72</v>
+      </c>
+      <c r="F13" s="3">
+        <f>PI()*D13^2*E13</f>
+        <v>224.80226529528346</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I13">
+        <v>9.5</v>
+      </c>
+      <c r="J13">
+        <v>80</v>
+      </c>
+      <c r="K13" s="10">
+        <f>F13*J13*I13*((H13*235+(1-H13)*238)/((H13*235+(1-H13)*238)+2*16))</f>
+        <v>150585.10435920436</v>
+      </c>
+      <c r="L13" s="10">
+        <f>F13*J13</f>
+        <v>17984.181223622676</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="N13">
+        <v>7.2040000000000003E-3</v>
+      </c>
+      <c r="O13">
+        <v>9.5</v>
+      </c>
+      <c r="P13">
         <v>156</v>
       </c>
-      <c r="Q11" s="11">
-        <f>F11*P11*O11*((N11*235+(1-N11)*238)/((N11*235+(1-N11)*238)+2*16))</f>
-        <v>571880.97106353834</v>
-      </c>
-      <c r="R11" s="11">
-        <f>F11*P11</f>
+      <c r="Q13" s="10">
+        <f>F13*P13*O13*((N13*235+(1-N13)*238)/((N13*235+(1-N13)*238)+2*16))</f>
+        <v>293668.52734053996</v>
+      </c>
+      <c r="R13" s="10">
+        <f>F13*P13</f>
         <v>35069.153386064223</v>
       </c>
-      <c r="S11" s="14">
-        <f>L11+R11</f>
-        <v>59347.798037954839</v>
-      </c>
-      <c r="T11" s="7">
+      <c r="S13" s="13">
+        <f>L13+R13</f>
+        <v>53053.334609686899</v>
+      </c>
+      <c r="T13" s="7">
         <v>28.361339999999998</v>
       </c>
-      <c r="V11" s="18"/>
+      <c r="V13" s="17" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V14" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="V8:V9"/>
     <mergeCell ref="V10:V11"/>
+    <mergeCell ref="V13:V14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MCNP\dprk-elwr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AABC29D-1680-4329-93CF-EF7D43E49D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8B0EAE-14D6-4A92-AE38-F8B74A587271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
   <metadataTypes count="1">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="2">
+  <futureMetadata name="XLRICHVALUE" count="4">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -55,20 +55,40 @@
         </ext>
       </extLst>
     </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="3"/>
+        </ext>
+      </extLst>
+    </bk>
   </futureMetadata>
-  <valueMetadata count="2">
+  <valueMetadata count="4">
     <bk>
       <rc t="1" v="0"/>
     </bk>
     <bk>
       <rc t="1" v="1"/>
     </bk>
+    <bk>
+      <rc t="1" v="2"/>
+    </bk>
+    <bk>
+      <rc t="1" v="3"/>
+    </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="37">
   <si>
     <t>Input File</t>
   </si>
@@ -158,6 +178,27 @@
   </si>
   <si>
     <t>elwr-caseOPR1000-fuelA-blanket3.inp</t>
+  </si>
+  <si>
+    <t>elwr-caseOPR1000-fuelB-blanket3.inp</t>
+  </si>
+  <si>
+    <t>elwr-caseOPR1000-fuelA-blanket2.inp</t>
+  </si>
+  <si>
+    <t>elwr-caseOPR1000-fuelB-blanket2.inp</t>
+  </si>
+  <si>
+    <t>VVER-440</t>
+  </si>
+  <si>
+    <t>VVER-640</t>
+  </si>
+  <si>
+    <t>elwr-caseOPR1000-fuelA-blanket1.inp</t>
+  </si>
+  <si>
+    <t>elwr-caseOPR1000-fuelB-blanket1.inp</t>
   </si>
 </sst>
 </file>
@@ -334,13 +375,21 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="4">
   <rv s="0">
     <v>0</v>
     <v>5</v>
   </rv>
   <rv s="0">
     <v>1</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>2</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>3</v>
     <v>5</v>
   </rv>
 </rvData>
@@ -359,6 +408,8 @@
 <richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rel r:id="rId1"/>
   <rel r:id="rId2"/>
+  <rel r:id="rId3"/>
+  <rel r:id="rId4"/>
 </richValueRels>
 </file>
 
@@ -625,16 +676,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V14"/>
+  <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T25" sqref="T25"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="34.33203125" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="7"/>
+    <col min="2" max="2" width="11.109375" style="7" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="8.88671875" style="7"/>
     <col min="7" max="7" width="8.88671875" style="7"/>
@@ -645,7 +696,8 @@
     <col min="14" max="14" width="9.6640625" customWidth="1"/>
     <col min="15" max="15" width="7.21875" customWidth="1"/>
     <col min="17" max="17" width="10.6640625" customWidth="1"/>
-    <col min="19" max="20" width="8.88671875" style="7"/>
+    <col min="19" max="19" width="8.88671875" style="7"/>
+    <col min="20" max="20" width="11.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="6.5546875" customWidth="1"/>
     <col min="22" max="22" width="19.77734375" style="7" customWidth="1"/>
   </cols>
@@ -784,7 +836,7 @@
       </c>
     </row>
     <row r="8" spans="1:22" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -848,7 +900,8 @@
         <v>59347.798037954839</v>
       </c>
       <c r="T8" s="7">
-        <v>28.361339999999998</v>
+        <f>100000000/(238/(238+32)*4000000)</f>
+        <v>28.361344537815125</v>
       </c>
       <c r="V8" s="16" t="e" vm="1">
         <v>#VALUE!</v>
@@ -861,9 +914,7 @@
       <c r="B9" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="15">
-        <v>1.23</v>
-      </c>
+      <c r="C9" s="15"/>
       <c r="D9" s="7">
         <v>0.40949999999999998</v>
       </c>
@@ -883,13 +934,16 @@
       <c r="I9">
         <v>9.5</v>
       </c>
+      <c r="J9">
+        <v>108</v>
+      </c>
       <c r="K9" s="10">
         <f>F9*J9*I9*((H9*235+(1-H9)*238)/((H9*235+(1-H9)*238)+2*16))</f>
-        <v>0</v>
+        <v>203289.89088492587</v>
       </c>
       <c r="L9" s="10">
         <f>F9*J9</f>
-        <v>0</v>
+        <v>24278.644651890612</v>
       </c>
       <c r="M9" s="7" t="s">
         <v>22</v>
@@ -910,19 +964,19 @@
       </c>
       <c r="S9" s="13">
         <f>L9+R9</f>
-        <v>0</v>
+        <v>24278.644651890612</v>
       </c>
       <c r="V9" s="17"/>
     </row>
     <row r="10" spans="1:22" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="15">
-        <v>1.23</v>
+        <v>1.3210299999999999</v>
       </c>
       <c r="D10" s="7">
         <v>0.40949999999999998</v>
@@ -943,13 +997,16 @@
       <c r="I10">
         <v>9.5</v>
       </c>
+      <c r="J10">
+        <v>144</v>
+      </c>
       <c r="K10" s="10">
         <f>F10*J10*I10*((H10*235+(1-H10)*238)/((H10*235+(1-H10)*238)+2*16))</f>
-        <v>0</v>
+        <v>271053.18784656783</v>
       </c>
       <c r="L10" s="10">
         <f>F10*J10</f>
-        <v>0</v>
+        <v>32371.526202520818</v>
       </c>
       <c r="M10" s="7" t="s">
         <v>7</v>
@@ -960,19 +1017,26 @@
       <c r="O10">
         <v>9.5</v>
       </c>
+      <c r="P10">
+        <v>120</v>
+      </c>
       <c r="Q10" s="10">
         <f>F10*P10*O10*((N10*235+(1-N10)*238)/((N10*235+(1-N10)*238)+2*16))</f>
-        <v>0</v>
+        <v>225898.86718503071</v>
       </c>
       <c r="R10" s="10">
         <f>F10*P10</f>
-        <v>0</v>
+        <v>26976.271835434014</v>
       </c>
       <c r="S10" s="13">
         <f>L10+R10</f>
-        <v>0</v>
-      </c>
-      <c r="V10" s="16" t="e" vm="1">
+        <v>59347.798037954832</v>
+      </c>
+      <c r="T10" s="7">
+        <f>100000000/(238/(238+32)*4000000)</f>
+        <v>28.361344537815125</v>
+      </c>
+      <c r="V10" s="16" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
     </row>
@@ -983,9 +1047,7 @@
       <c r="B11" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="15">
-        <v>1.23</v>
-      </c>
+      <c r="C11" s="15"/>
       <c r="D11" s="7">
         <v>0.40949999999999998</v>
       </c>
@@ -1005,13 +1067,16 @@
       <c r="I11">
         <v>9.5</v>
       </c>
+      <c r="J11">
+        <v>144</v>
+      </c>
       <c r="K11" s="10">
         <f>F11*J11*I11*((H11*235+(1-H11)*238)/((H11*235+(1-H11)*238)+2*16))</f>
-        <v>0</v>
+        <v>271053.18784656783</v>
       </c>
       <c r="L11" s="10">
         <f>F11*J11</f>
-        <v>0</v>
+        <v>32371.526202520818</v>
       </c>
       <c r="M11" s="7" t="s">
         <v>22</v>
@@ -1032,12 +1097,12 @@
       </c>
       <c r="S11" s="13">
         <f>L11+R11</f>
-        <v>0</v>
+        <v>32371.526202520818</v>
       </c>
       <c r="V11" s="17"/>
     </row>
     <row r="13" spans="1:22" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B13" s="7" t="s">
@@ -1101,21 +1166,194 @@
         <v>53053.334609686899</v>
       </c>
       <c r="T13" s="7">
-        <v>28.361339999999998</v>
-      </c>
-      <c r="V13" s="17" t="e" vm="2">
+        <f>100000000/(238/(238+32)*4000000)</f>
+        <v>28.361344537815125</v>
+      </c>
+      <c r="V13" s="17" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="V14" s="17"/>
     </row>
+    <row r="15" spans="1:22" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="15">
+        <v>1.3231599999999999</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0.40949999999999998</v>
+      </c>
+      <c r="E15">
+        <v>426.72</v>
+      </c>
+      <c r="F15" s="3">
+        <f>PI()*D15^2*E15</f>
+        <v>224.80226529528346</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I15">
+        <v>9.5</v>
+      </c>
+      <c r="J15">
+        <v>124</v>
+      </c>
+      <c r="K15" s="10">
+        <f>F15*J15*I15*((H15*235+(1-H15)*238)/((H15*235+(1-H15)*238)+2*16))</f>
+        <v>233406.91175676673</v>
+      </c>
+      <c r="L15" s="10">
+        <f>F15*J15</f>
+        <v>27875.48089661515</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="N15">
+        <v>7.2040000000000003E-3</v>
+      </c>
+      <c r="O15">
+        <v>9.5</v>
+      </c>
+      <c r="P15">
+        <v>112</v>
+      </c>
+      <c r="Q15" s="10">
+        <f>F15*P15*O15*((N15*235+(1-N15)*238)/((N15*235+(1-N15)*238)+2*16))</f>
+        <v>210838.94270602867</v>
+      </c>
+      <c r="R15" s="10">
+        <f>F15*P15</f>
+        <v>25177.853713071749</v>
+      </c>
+      <c r="S15" s="13">
+        <f>L15+R15</f>
+        <v>53053.334609686899</v>
+      </c>
+      <c r="T15" s="7">
+        <f>100000000/(238/(238+32)*4000000)</f>
+        <v>28.361344537815125</v>
+      </c>
+      <c r="V15" s="17" t="e" vm="4">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16">
+        <v>7.2040000000000003E-3</v>
+      </c>
+      <c r="I16">
+        <v>18.5</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N16">
+        <v>7.2040000000000003E-3</v>
+      </c>
+      <c r="O16">
+        <v>18.5</v>
+      </c>
+      <c r="V16" s="17"/>
+    </row>
+    <row r="17" spans="1:22" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17">
+        <v>7.2040000000000003E-3</v>
+      </c>
+      <c r="I17">
+        <v>9.5</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="N17">
+        <v>7.2040000000000003E-3</v>
+      </c>
+      <c r="O17">
+        <v>9.5</v>
+      </c>
+      <c r="V17" s="17"/>
+    </row>
+    <row r="18" spans="1:22" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18">
+        <v>7.2040000000000003E-3</v>
+      </c>
+      <c r="I18">
+        <v>18.5</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N18">
+        <v>7.2040000000000003E-3</v>
+      </c>
+      <c r="O18">
+        <v>18.5</v>
+      </c>
+      <c r="V18" s="17"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B25" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B26" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="V8:V9"/>
     <mergeCell ref="V10:V11"/>
     <mergeCell ref="V13:V14"/>
+    <mergeCell ref="V15:V16"/>
+    <mergeCell ref="V17:V18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MCNP\dprk-elwr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8B0EAE-14D6-4A92-AE38-F8B74A587271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEEB7573-2AD4-461E-AD89-65A33B3A73A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="MCODE" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -88,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="67">
   <si>
     <t>Input File</t>
   </si>
@@ -105,9 +106,6 @@
     <t>Volume</t>
   </si>
   <si>
-    <t>Fuel Rod 1</t>
-  </si>
-  <si>
     <t>Material</t>
   </si>
   <si>
@@ -117,9 +115,6 @@
     <t>Number</t>
   </si>
   <si>
-    <t>Fuel Rod 2</t>
-  </si>
-  <si>
     <t>Subtotal</t>
   </si>
   <si>
@@ -199,6 +194,102 @@
   </si>
   <si>
     <t>elwr-caseOPR1000-fuelB-blanket1.inp</t>
+  </si>
+  <si>
+    <t>elwr-caseAP600-blanket1-fuelB.inp</t>
+  </si>
+  <si>
+    <t>Seed</t>
+  </si>
+  <si>
+    <t>7%e UO2</t>
+  </si>
+  <si>
+    <t>Blanket</t>
+  </si>
+  <si>
+    <t>nUO2</t>
+  </si>
+  <si>
+    <t>Blankets</t>
+  </si>
+  <si>
+    <t>2 rings</t>
+  </si>
+  <si>
+    <t>Burnup (MWd/kg)</t>
+  </si>
+  <si>
+    <t>k-eff</t>
+  </si>
+  <si>
+    <t>std-dev</t>
+  </si>
+  <si>
+    <t>delta rho</t>
+  </si>
+  <si>
+    <t>Time (days)</t>
+  </si>
+  <si>
+    <t>Power fraction</t>
+  </si>
+  <si>
+    <t>Seed Cells</t>
+  </si>
+  <si>
+    <t>Blanket Cells</t>
+  </si>
+  <si>
+    <t>U-235 (g)</t>
+  </si>
+  <si>
+    <t>U-238 (g)</t>
+  </si>
+  <si>
+    <t>Pu-239 (g)</t>
+  </si>
+  <si>
+    <t>Pu-240</t>
+  </si>
+  <si>
+    <t>Pu-241</t>
+  </si>
+  <si>
+    <t>Pu total</t>
+  </si>
+  <si>
+    <t>in Seed</t>
+  </si>
+  <si>
+    <t>in Blanket</t>
+  </si>
+  <si>
+    <t>in Total</t>
+  </si>
+  <si>
+    <t>3 rings</t>
+  </si>
+  <si>
+    <t>Pu-239/Pu</t>
+  </si>
+  <si>
+    <t>dollars</t>
+  </si>
+  <si>
+    <t>g of WGPu in 167 days FPO</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>elwr-caseAP600-fuelT.inp</t>
+  </si>
+  <si>
+    <t>Rod 1</t>
+  </si>
+  <si>
+    <t>Rod 2</t>
   </si>
 </sst>
 </file>
@@ -242,7 +333,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -290,11 +381,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -311,12 +442,40 @@
     <xf numFmtId="1" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -332,6 +491,920 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$5:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3.5259299999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35.259300000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>352.59300000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>705.18499999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1057.78</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1410.37</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1762.96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AE$5:$AE$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.99676721905182097</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97838396137014749</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.82225876457032909</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.71518272425249163</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.64487342924786006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.59463528123716991</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.55810202869026404</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-694A-4E2E-B019-D8DC1C243101}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="929015184"/>
+        <c:axId val="929017104"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="929015184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="180"/>
+          <c:min val="120"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="929017104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="929017104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.8"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="929015184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>560949</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>101405</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>263769</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>29308</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBDB860A-C0C5-710B-ABD6-F43989FE9162}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -676,10 +1749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V26"/>
+  <dimension ref="A1:V28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W13" sqref="W13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -742,28 +1815,28 @@
     <row r="5" spans="1:22" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D6" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="8" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="8" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="R6" s="3"/>
       <c r="S6" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="T6" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="U6" s="1"/>
     </row>
@@ -775,10 +1848,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>3</v>
@@ -787,37 +1860,37 @@
         <v>4</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L7" s="5" t="s">
         <v>4</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="R7" s="5" t="s">
         <v>4</v>
@@ -826,18 +1899,18 @@
         <v>4</v>
       </c>
       <c r="T7" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V7" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>2</v>
@@ -856,7 +1929,7 @@
         <v>224.80226529528346</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H8">
         <v>7.0000000000000007E-2</v>
@@ -876,7 +1949,7 @@
         <v>24278.644651890612</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N8">
         <v>7.2040000000000003E-3</v>
@@ -903,18 +1976,18 @@
         <f>100000000/(238/(238+32)*4000000)</f>
         <v>28.361344537815125</v>
       </c>
-      <c r="V8" s="16" t="e" vm="1">
+      <c r="V8" s="17" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="52.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="15"/>
+      <c r="C9" s="34"/>
       <c r="D9" s="7">
         <v>0.40949999999999998</v>
       </c>
@@ -926,7 +1999,7 @@
         <v>224.80226529528346</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H9">
         <v>7.0000000000000007E-2</v>
@@ -946,7 +2019,7 @@
         <v>24278.644651890612</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N9">
         <v>7.2040000000000003E-3</v>
@@ -966,11 +2039,11 @@
         <f>L9+R9</f>
         <v>24278.644651890612</v>
       </c>
-      <c r="V9" s="17"/>
+      <c r="V9" s="18"/>
     </row>
     <row r="10" spans="1:22" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>2</v>
@@ -989,7 +2062,7 @@
         <v>224.80226529528346</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H10">
         <v>7.0000000000000007E-2</v>
@@ -1009,7 +2082,7 @@
         <v>32371.526202520818</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N10">
         <v>7.2040000000000003E-3</v>
@@ -1036,18 +2109,18 @@
         <f>100000000/(238/(238+32)*4000000)</f>
         <v>28.361344537815125</v>
       </c>
-      <c r="V10" s="16" t="e" vm="2">
+      <c r="V10" s="17" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="15"/>
+      <c r="C11" s="34"/>
       <c r="D11" s="7">
         <v>0.40949999999999998</v>
       </c>
@@ -1059,7 +2132,7 @@
         <v>224.80226529528346</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H11">
         <v>7.0000000000000007E-2</v>
@@ -1079,7 +2152,7 @@
         <v>32371.526202520818</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N11">
         <v>7.2040000000000003E-3</v>
@@ -1099,98 +2172,46 @@
         <f>L11+R11</f>
         <v>32371.526202520818</v>
       </c>
-      <c r="V11" s="17"/>
+      <c r="V11" s="18"/>
     </row>
-    <row r="13" spans="1:22" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="15">
-        <v>1.1863300000000001</v>
-      </c>
-      <c r="D13" s="7">
-        <v>0.40949999999999998</v>
-      </c>
-      <c r="E13">
-        <v>426.72</v>
-      </c>
-      <c r="F13" s="3">
-        <f>PI()*D13^2*E13</f>
-        <v>224.80226529528346</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H13">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="I13">
-        <v>9.5</v>
-      </c>
-      <c r="J13">
-        <v>80</v>
-      </c>
-      <c r="K13" s="10">
-        <f>F13*J13*I13*((H13*235+(1-H13)*238)/((H13*235+(1-H13)*238)+2*16))</f>
-        <v>150585.10435920436</v>
-      </c>
-      <c r="L13" s="10">
-        <f>F13*J13</f>
-        <v>17984.181223622676</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="N13">
-        <v>7.2040000000000003E-3</v>
-      </c>
-      <c r="O13">
-        <v>9.5</v>
-      </c>
-      <c r="P13">
-        <v>156</v>
-      </c>
-      <c r="Q13" s="10">
-        <f>F13*P13*O13*((N13*235+(1-N13)*238)/((N13*235+(1-N13)*238)+2*16))</f>
-        <v>293668.52734053996</v>
-      </c>
-      <c r="R13" s="10">
-        <f>F13*P13</f>
-        <v>35069.153386064223</v>
-      </c>
-      <c r="S13" s="13">
-        <f>L13+R13</f>
-        <v>53053.334609686899</v>
-      </c>
-      <c r="T13" s="7">
-        <f>100000000/(238/(238+32)*4000000)</f>
-        <v>28.361344537815125</v>
-      </c>
-      <c r="V13" s="17" t="e" vm="3">
-        <v>#VALUE!</v>
-      </c>
+    <row r="12" spans="1:22" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="34"/>
+      <c r="F12" s="3"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="13"/>
+      <c r="V12" s="16"/>
     </row>
-    <row r="14" spans="1:22" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="V14" s="17"/>
+    <row r="13" spans="1:22" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="34"/>
+      <c r="F13" s="3"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="13"/>
+      <c r="V13" s="16"/>
     </row>
     <row r="15" spans="1:22" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C15" s="15">
-        <v>1.3231599999999999</v>
+        <v>1.1863300000000001</v>
       </c>
       <c r="D15" s="7">
         <v>0.40949999999999998</v>
@@ -1203,7 +2224,7 @@
         <v>224.80226529528346</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H15">
         <v>7.0000000000000007E-2</v>
@@ -1212,18 +2233,18 @@
         <v>9.5</v>
       </c>
       <c r="J15">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="K15" s="10">
         <f>F15*J15*I15*((H15*235+(1-H15)*238)/((H15*235+(1-H15)*238)+2*16))</f>
-        <v>233406.91175676673</v>
+        <v>150585.10435920436</v>
       </c>
       <c r="L15" s="10">
         <f>F15*J15</f>
-        <v>27875.48089661515</v>
+        <v>17984.181223622676</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N15">
         <v>7.2040000000000003E-3</v>
@@ -1232,15 +2253,15 @@
         <v>9.5</v>
       </c>
       <c r="P15">
-        <v>112</v>
+        <v>156</v>
       </c>
       <c r="Q15" s="10">
         <f>F15*P15*O15*((N15*235+(1-N15)*238)/((N15*235+(1-N15)*238)+2*16))</f>
-        <v>210838.94270602867</v>
+        <v>293668.52734053996</v>
       </c>
       <c r="R15" s="10">
         <f>F15*P15</f>
-        <v>25177.853713071749</v>
+        <v>35069.153386064223</v>
       </c>
       <c r="S15" s="13">
         <f>L15+R15</f>
@@ -1250,55 +2271,61 @@
         <f>100000000/(238/(238+32)*4000000)</f>
         <v>28.361344537815125</v>
       </c>
-      <c r="V15" s="17" t="e" vm="4">
+      <c r="V15" s="18" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16">
-        <v>7.2040000000000003E-3</v>
-      </c>
-      <c r="I16">
-        <v>18.5</v>
-      </c>
-      <c r="M16" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="N16">
-        <v>7.2040000000000003E-3</v>
-      </c>
-      <c r="O16">
-        <v>18.5</v>
-      </c>
-      <c r="V16" s="17"/>
+        <v>26</v>
+      </c>
+      <c r="V16" s="18"/>
     </row>
     <row r="17" spans="1:22" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
+      </c>
+      <c r="C17" s="15">
+        <v>1.3231599999999999</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0.40949999999999998</v>
+      </c>
+      <c r="E17">
+        <v>426.72</v>
+      </c>
+      <c r="F17" s="3">
+        <f>PI()*D17^2*E17</f>
+        <v>224.80226529528346</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H17">
-        <v>7.2040000000000003E-3</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I17">
         <v>9.5</v>
       </c>
+      <c r="J17">
+        <v>124</v>
+      </c>
+      <c r="K17" s="10">
+        <f>F17*J17*I17*((H17*235+(1-H17)*238)/((H17*235+(1-H17)*238)+2*16))</f>
+        <v>233406.91175676673</v>
+      </c>
+      <c r="L17" s="10">
+        <f>F17*J17</f>
+        <v>27875.48089661515</v>
+      </c>
       <c r="M17" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N17">
         <v>7.2040000000000003E-3</v>
@@ -1306,17 +2333,38 @@
       <c r="O17">
         <v>9.5</v>
       </c>
-      <c r="V17" s="17"/>
+      <c r="P17">
+        <v>112</v>
+      </c>
+      <c r="Q17" s="10">
+        <f>F17*P17*O17*((N17*235+(1-N17)*238)/((N17*235+(1-N17)*238)+2*16))</f>
+        <v>210838.94270602867</v>
+      </c>
+      <c r="R17" s="10">
+        <f>F17*P17</f>
+        <v>25177.853713071749</v>
+      </c>
+      <c r="S17" s="13">
+        <f>L17+R17</f>
+        <v>53053.334609686899</v>
+      </c>
+      <c r="T17" s="7">
+        <f>100000000/(238/(238+32)*4000000)</f>
+        <v>28.361344537815125</v>
+      </c>
+      <c r="V17" s="18" t="e" vm="4">
+        <v>#VALUE!</v>
+      </c>
     </row>
-    <row r="18" spans="1:22" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H18">
         <v>7.2040000000000003E-3</v>
@@ -1325,7 +2373,7 @@
         <v>18.5</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N18">
         <v>7.2040000000000003E-3</v>
@@ -1333,27 +2381,1991 @@
       <c r="O18">
         <v>18.5</v>
       </c>
-      <c r="V18" s="17"/>
+      <c r="V18" s="18"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B25" s="7" t="s">
+    <row r="19" spans="1:22" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="B19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19">
+        <v>7.2040000000000003E-3</v>
+      </c>
+      <c r="I19">
+        <v>9.5</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N19">
+        <v>7.2040000000000003E-3</v>
+      </c>
+      <c r="O19">
+        <v>9.5</v>
+      </c>
+      <c r="V19" s="18"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B26" s="7" t="s">
+    <row r="20" spans="1:22" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>34</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20">
+        <v>7.2040000000000003E-3</v>
+      </c>
+      <c r="I20">
+        <v>18.5</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="N20">
+        <v>7.2040000000000003E-3</v>
+      </c>
+      <c r="O20">
+        <v>18.5</v>
+      </c>
+      <c r="V20" s="18"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B27" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B28" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="V8:V9"/>
     <mergeCell ref="V10:V11"/>
-    <mergeCell ref="V13:V14"/>
     <mergeCell ref="V15:V16"/>
     <mergeCell ref="V17:V18"/>
+    <mergeCell ref="V19:V20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E48A428C-A2D0-4C30-9161-4343E51EC6DC}">
+  <dimension ref="A1:AY22"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.88671875" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" customWidth="1"/>
+    <col min="7" max="8" width="11.88671875" customWidth="1"/>
+    <col min="9" max="9" width="10.21875" style="7" customWidth="1"/>
+    <col min="10" max="10" width="12.109375" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="7"/>
+    <col min="12" max="12" width="9.77734375" customWidth="1"/>
+    <col min="14" max="14" width="8.88671875" style="7"/>
+    <col min="15" max="15" width="9.77734375" customWidth="1"/>
+    <col min="17" max="17" width="8.88671875" style="7"/>
+    <col min="18" max="18" width="9.77734375" customWidth="1"/>
+    <col min="20" max="20" width="8.88671875" style="7"/>
+    <col min="21" max="21" width="9.77734375" customWidth="1"/>
+    <col min="23" max="23" width="8.88671875" style="7"/>
+    <col min="24" max="24" width="9.77734375" customWidth="1"/>
+    <col min="26" max="26" width="8.88671875" style="7"/>
+    <col min="27" max="27" width="10.33203125" customWidth="1"/>
+    <col min="29" max="29" width="8.88671875" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="Z1" s="22"/>
+      <c r="AC1" s="22"/>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z2" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC2" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="W3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD3" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE3" s="29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1.3210299999999999</v>
+      </c>
+      <c r="F4">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="G4">
+        <v>0.234015</v>
+      </c>
+      <c r="H4" s="32">
+        <f>G4/0.0075</f>
+        <v>31.202000000000002</v>
+      </c>
+      <c r="I4" s="23">
+        <v>0.855182</v>
+      </c>
+      <c r="J4" s="19">
+        <v>0.144818</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4" s="7">
+        <v>0</v>
+      </c>
+      <c r="U4" s="31">
+        <v>0</v>
+      </c>
+      <c r="V4" s="31">
+        <v>0</v>
+      </c>
+      <c r="W4" s="7">
+        <v>0</v>
+      </c>
+      <c r="X4" s="31">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="31">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="31">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="7">
+        <v>3.5259299999999998</v>
+      </c>
+      <c r="D5">
+        <v>0.1</v>
+      </c>
+      <c r="E5">
+        <v>1.2801400000000001</v>
+      </c>
+      <c r="F5">
+        <v>1.9000000000000001E-4</v>
+      </c>
+      <c r="G5">
+        <v>0.218835</v>
+      </c>
+      <c r="H5" s="32">
+        <f t="shared" ref="H5:H11" si="0">G5/0.0075</f>
+        <v>29.178000000000001</v>
+      </c>
+      <c r="I5" s="23">
+        <v>0.85313700000000003</v>
+      </c>
+      <c r="J5" s="19">
+        <v>0.14686299999999999</v>
+      </c>
+      <c r="K5" s="23">
+        <v>18690</v>
+      </c>
+      <c r="L5" s="19">
+        <v>1599</v>
+      </c>
+      <c r="M5" s="19">
+        <f>K5+L5</f>
+        <v>20289</v>
+      </c>
+      <c r="N5" s="23">
+        <v>252200</v>
+      </c>
+      <c r="O5" s="19">
+        <v>224200</v>
+      </c>
+      <c r="P5" s="19">
+        <f>N5+O5</f>
+        <v>476400</v>
+      </c>
+      <c r="Q5" s="23">
+        <v>4.97</v>
+      </c>
+      <c r="R5" s="19">
+        <v>4.4950000000000001</v>
+      </c>
+      <c r="S5" s="19">
+        <f>Q5+R5</f>
+        <v>9.4649999999999999</v>
+      </c>
+      <c r="T5" s="23">
+        <v>1.443E-2</v>
+      </c>
+      <c r="U5" s="19">
+        <v>1.6140000000000002E-2</v>
+      </c>
+      <c r="V5" s="19">
+        <f>T5+U5</f>
+        <v>3.057E-2</v>
+      </c>
+      <c r="W5" s="23">
+        <v>6.0279999999999999E-5</v>
+      </c>
+      <c r="X5" s="19">
+        <v>6.7230000000000005E-5</v>
+      </c>
+      <c r="Y5" s="19">
+        <f>W5+X5</f>
+        <v>1.2751E-4</v>
+      </c>
+      <c r="Z5" s="23">
+        <f>Q5+T5+W5</f>
+        <v>4.9844902799999993</v>
+      </c>
+      <c r="AA5" s="19">
+        <f>R5+U5+X5</f>
+        <v>4.5112072300000001</v>
+      </c>
+      <c r="AB5" s="19">
+        <f>Z5+AA5</f>
+        <v>9.4956975099999994</v>
+      </c>
+      <c r="AC5" s="23">
+        <f>Q5/Z5</f>
+        <v>0.99709292642055281</v>
+      </c>
+      <c r="AD5" s="30">
+        <f>R5/AA5</f>
+        <v>0.99640734083501636</v>
+      </c>
+      <c r="AE5" s="30">
+        <f>S5/AB5</f>
+        <v>0.99676721905182097</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A6" s="25" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B6" s="26"/>
+      <c r="C6" s="7">
+        <v>35.259300000000003</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1.2679499999999999</v>
+      </c>
+      <c r="F6">
+        <v>2.1000000000000001E-4</v>
+      </c>
+      <c r="G6">
+        <v>0.21132500000000001</v>
+      </c>
+      <c r="H6" s="32">
+        <f t="shared" si="0"/>
+        <v>28.176666666666669</v>
+      </c>
+      <c r="I6" s="23">
+        <v>0.84282800000000002</v>
+      </c>
+      <c r="J6" s="19">
+        <v>0.15717200000000001</v>
+      </c>
+      <c r="K6" s="23">
+        <v>18230</v>
+      </c>
+      <c r="L6" s="19">
+        <v>1532</v>
+      </c>
+      <c r="M6" s="19">
+        <f t="shared" ref="M6:M11" si="1">K6+L6</f>
+        <v>19762</v>
+      </c>
+      <c r="N6" s="23">
+        <v>252100</v>
+      </c>
+      <c r="O6" s="19">
+        <v>224100</v>
+      </c>
+      <c r="P6" s="19">
+        <f t="shared" ref="P6:P11" si="2">N6+O6</f>
+        <v>476200</v>
+      </c>
+      <c r="Q6" s="23">
+        <v>117.6</v>
+      </c>
+      <c r="R6" s="19">
+        <v>100.1</v>
+      </c>
+      <c r="S6" s="19">
+        <f t="shared" ref="S6:S11" si="3">Q6+R6</f>
+        <v>217.7</v>
+      </c>
+      <c r="T6" s="23">
+        <v>2.08</v>
+      </c>
+      <c r="U6" s="19">
+        <v>2.5310000000000001</v>
+      </c>
+      <c r="V6" s="19">
+        <f t="shared" ref="V6:V11" si="4">T6+U6</f>
+        <v>4.6110000000000007</v>
+      </c>
+      <c r="W6" s="23">
+        <v>9.1579999999999995E-2</v>
+      </c>
+      <c r="X6" s="19">
+        <v>0.1072</v>
+      </c>
+      <c r="Y6" s="19">
+        <f t="shared" ref="Y6:Y11" si="5">W6+X6</f>
+        <v>0.19878000000000001</v>
+      </c>
+      <c r="Z6" s="23">
+        <f t="shared" ref="Z6:Z11" si="6">Q6+T6+W6</f>
+        <v>119.77157999999999</v>
+      </c>
+      <c r="AA6" s="19">
+        <f t="shared" ref="AA6:AA11" si="7">R6+U6+X6</f>
+        <v>102.73820000000001</v>
+      </c>
+      <c r="AB6" s="19">
+        <f t="shared" ref="AB6:AB11" si="8">Z6+AA6</f>
+        <v>222.50977999999998</v>
+      </c>
+      <c r="AC6" s="23">
+        <f t="shared" ref="AC6:AE11" si="9">Q6/Z6</f>
+        <v>0.98186898761793084</v>
+      </c>
+      <c r="AD6" s="30">
+        <f t="shared" si="9"/>
+        <v>0.9743211385833116</v>
+      </c>
+      <c r="AE6" s="30">
+        <f t="shared" si="9"/>
+        <v>0.97838396137014749</v>
+      </c>
+      <c r="AG6" s="35">
+        <f>4.77*222.50978*7</f>
+        <v>7429.6015541999986</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A7" s="25"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="7">
+        <v>352.59300000000002</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>1.1862299999999999</v>
+      </c>
+      <c r="F7">
+        <v>1.9000000000000001E-4</v>
+      </c>
+      <c r="G7">
+        <v>0.15699299999999999</v>
+      </c>
+      <c r="H7" s="32">
+        <f t="shared" si="0"/>
+        <v>20.932400000000001</v>
+      </c>
+      <c r="I7" s="23">
+        <v>0.79603299999999999</v>
+      </c>
+      <c r="J7" s="19">
+        <v>0.20396700000000001</v>
+      </c>
+      <c r="K7" s="23">
+        <v>14010</v>
+      </c>
+      <c r="L7" s="19">
+        <v>1078</v>
+      </c>
+      <c r="M7" s="19">
+        <f t="shared" si="1"/>
+        <v>15088</v>
+      </c>
+      <c r="N7" s="23">
+        <v>250600</v>
+      </c>
+      <c r="O7" s="19">
+        <v>223200</v>
+      </c>
+      <c r="P7" s="19">
+        <f t="shared" si="2"/>
+        <v>473800</v>
+      </c>
+      <c r="Q7" s="23">
+        <v>893.3</v>
+      </c>
+      <c r="R7" s="19">
+        <v>576.79999999999995</v>
+      </c>
+      <c r="S7" s="19">
+        <f t="shared" si="3"/>
+        <v>1470.1</v>
+      </c>
+      <c r="T7" s="23">
+        <v>122.3</v>
+      </c>
+      <c r="U7" s="19">
+        <v>103.5</v>
+      </c>
+      <c r="V7" s="19">
+        <f t="shared" si="4"/>
+        <v>225.8</v>
+      </c>
+      <c r="W7" s="23">
+        <v>56.26</v>
+      </c>
+      <c r="X7" s="19">
+        <v>35.72</v>
+      </c>
+      <c r="Y7" s="19">
+        <f t="shared" si="5"/>
+        <v>91.97999999999999</v>
+      </c>
+      <c r="Z7" s="23">
+        <f t="shared" si="6"/>
+        <v>1071.8599999999999</v>
+      </c>
+      <c r="AA7" s="19">
+        <f t="shared" si="7"/>
+        <v>716.02</v>
+      </c>
+      <c r="AB7" s="19">
+        <f t="shared" si="8"/>
+        <v>1787.8799999999999</v>
+      </c>
+      <c r="AC7" s="23">
+        <f t="shared" si="9"/>
+        <v>0.83341107980519846</v>
+      </c>
+      <c r="AD7" s="30">
+        <f t="shared" si="9"/>
+        <v>0.8055640903885366</v>
+      </c>
+      <c r="AE7" s="30">
+        <f t="shared" si="9"/>
+        <v>0.82225876457032909</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A8" s="25"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="7">
+        <v>705.18499999999995</v>
+      </c>
+      <c r="D8">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1.1071800000000001</v>
+      </c>
+      <c r="F8">
+        <v>2.1000000000000001E-4</v>
+      </c>
+      <c r="G8">
+        <v>9.6804000000000001E-2</v>
+      </c>
+      <c r="H8" s="32">
+        <f t="shared" si="0"/>
+        <v>12.907200000000001</v>
+      </c>
+      <c r="I8" s="23">
+        <v>0.76228899999999999</v>
+      </c>
+      <c r="J8" s="19">
+        <v>0.23771100000000001</v>
+      </c>
+      <c r="K8" s="23">
+        <v>10220</v>
+      </c>
+      <c r="L8" s="19">
+        <v>720.4</v>
+      </c>
+      <c r="M8" s="19">
+        <f t="shared" si="1"/>
+        <v>10940.4</v>
+      </c>
+      <c r="N8" s="23">
+        <v>248800</v>
+      </c>
+      <c r="O8" s="19">
+        <v>221900</v>
+      </c>
+      <c r="P8" s="19">
+        <f t="shared" si="2"/>
+        <v>470700</v>
+      </c>
+      <c r="Q8" s="23">
+        <v>1315</v>
+      </c>
+      <c r="R8" s="19">
+        <v>837.7</v>
+      </c>
+      <c r="S8" s="19">
+        <f t="shared" si="3"/>
+        <v>2152.6999999999998</v>
+      </c>
+      <c r="T8" s="23">
+        <v>291</v>
+      </c>
+      <c r="U8" s="19">
+        <v>240.4</v>
+      </c>
+      <c r="V8" s="19">
+        <f t="shared" si="4"/>
+        <v>531.4</v>
+      </c>
+      <c r="W8" s="23">
+        <v>201</v>
+      </c>
+      <c r="X8" s="19">
+        <v>124.9</v>
+      </c>
+      <c r="Y8" s="19">
+        <f t="shared" si="5"/>
+        <v>325.89999999999998</v>
+      </c>
+      <c r="Z8" s="23">
+        <f t="shared" si="6"/>
+        <v>1807</v>
+      </c>
+      <c r="AA8" s="19">
+        <f t="shared" si="7"/>
+        <v>1203.0000000000002</v>
+      </c>
+      <c r="AB8" s="19">
+        <f t="shared" si="8"/>
+        <v>3010</v>
+      </c>
+      <c r="AC8" s="23">
+        <f t="shared" si="9"/>
+        <v>0.7277255118981738</v>
+      </c>
+      <c r="AD8" s="30">
+        <f t="shared" si="9"/>
+        <v>0.69634247714048203</v>
+      </c>
+      <c r="AE8" s="30">
+        <f t="shared" si="9"/>
+        <v>0.71518272425249163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A9" s="25"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="7">
+        <v>1057.78</v>
+      </c>
+      <c r="D9">
+        <v>30</v>
+      </c>
+      <c r="E9">
+        <v>1.03565</v>
+      </c>
+      <c r="F9">
+        <v>1.9000000000000001E-4</v>
+      </c>
+      <c r="G9">
+        <v>3.4423000000000002E-2</v>
+      </c>
+      <c r="H9" s="32">
+        <f t="shared" si="0"/>
+        <v>4.5897333333333341</v>
+      </c>
+      <c r="I9" s="23">
+        <v>0.73345199999999999</v>
+      </c>
+      <c r="J9" s="19">
+        <v>0.26654800000000001</v>
+      </c>
+      <c r="K9" s="23">
+        <v>7165</v>
+      </c>
+      <c r="L9" s="19">
+        <v>473.9</v>
+      </c>
+      <c r="M9" s="19">
+        <f t="shared" si="1"/>
+        <v>7638.9</v>
+      </c>
+      <c r="N9" s="23">
+        <v>246800</v>
+      </c>
+      <c r="O9" s="19">
+        <v>220500</v>
+      </c>
+      <c r="P9" s="19">
+        <f t="shared" si="2"/>
+        <v>467300</v>
+      </c>
+      <c r="Q9" s="23">
+        <v>1503</v>
+      </c>
+      <c r="R9" s="19">
+        <v>975.7</v>
+      </c>
+      <c r="S9" s="19">
+        <f t="shared" si="3"/>
+        <v>2478.6999999999998</v>
+      </c>
+      <c r="T9" s="23">
+        <v>457.8</v>
+      </c>
+      <c r="U9" s="19">
+        <v>366</v>
+      </c>
+      <c r="V9" s="19">
+        <f t="shared" si="4"/>
+        <v>823.8</v>
+      </c>
+      <c r="W9" s="23">
+        <v>334.8</v>
+      </c>
+      <c r="X9" s="19">
+        <v>206.4</v>
+      </c>
+      <c r="Y9" s="19">
+        <f t="shared" si="5"/>
+        <v>541.20000000000005</v>
+      </c>
+      <c r="Z9" s="23">
+        <f t="shared" si="6"/>
+        <v>2295.6</v>
+      </c>
+      <c r="AA9" s="19">
+        <f t="shared" si="7"/>
+        <v>1548.1000000000001</v>
+      </c>
+      <c r="AB9" s="19">
+        <f t="shared" si="8"/>
+        <v>3843.7</v>
+      </c>
+      <c r="AC9" s="23">
+        <f t="shared" si="9"/>
+        <v>0.65473078933612128</v>
+      </c>
+      <c r="AD9" s="30">
+        <f t="shared" si="9"/>
+        <v>0.63025644338221043</v>
+      </c>
+      <c r="AE9" s="30">
+        <f t="shared" si="9"/>
+        <v>0.64487342924786006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A10" s="25"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="7">
+        <v>1410.37</v>
+      </c>
+      <c r="D10">
+        <v>40</v>
+      </c>
+      <c r="E10">
+        <v>0.96836999999999995</v>
+      </c>
+      <c r="F10">
+        <v>1.9000000000000001E-4</v>
+      </c>
+      <c r="G10">
+        <v>-3.2662999999999998E-2</v>
+      </c>
+      <c r="H10" s="32">
+        <f t="shared" si="0"/>
+        <v>-4.3550666666666666</v>
+      </c>
+      <c r="I10" s="23">
+        <v>0.70491000000000004</v>
+      </c>
+      <c r="J10" s="19">
+        <v>0.29509000000000002</v>
+      </c>
+      <c r="K10" s="23">
+        <v>4755</v>
+      </c>
+      <c r="L10" s="19">
+        <v>304.8</v>
+      </c>
+      <c r="M10" s="19">
+        <f t="shared" si="1"/>
+        <v>5059.8</v>
+      </c>
+      <c r="N10" s="23">
+        <v>244600</v>
+      </c>
+      <c r="O10" s="19">
+        <v>218900</v>
+      </c>
+      <c r="P10" s="19">
+        <f t="shared" si="2"/>
+        <v>463500</v>
+      </c>
+      <c r="Q10" s="23">
+        <v>1555</v>
+      </c>
+      <c r="R10" s="19">
+        <v>1052</v>
+      </c>
+      <c r="S10" s="19">
+        <f t="shared" si="3"/>
+        <v>2607</v>
+      </c>
+      <c r="T10" s="23">
+        <v>605.20000000000005</v>
+      </c>
+      <c r="U10" s="19">
+        <v>472.7</v>
+      </c>
+      <c r="V10" s="19">
+        <f t="shared" si="4"/>
+        <v>1077.9000000000001</v>
+      </c>
+      <c r="W10" s="23">
+        <v>429.9</v>
+      </c>
+      <c r="X10" s="19">
+        <v>269.39999999999998</v>
+      </c>
+      <c r="Y10" s="19">
+        <f t="shared" si="5"/>
+        <v>699.3</v>
+      </c>
+      <c r="Z10" s="23">
+        <f t="shared" si="6"/>
+        <v>2590.1</v>
+      </c>
+      <c r="AA10" s="19">
+        <f t="shared" si="7"/>
+        <v>1794.1</v>
+      </c>
+      <c r="AB10" s="19">
+        <f t="shared" si="8"/>
+        <v>4384.2</v>
+      </c>
+      <c r="AC10" s="23">
+        <f t="shared" si="9"/>
+        <v>0.6003629203505656</v>
+      </c>
+      <c r="AD10" s="30">
+        <f t="shared" si="9"/>
+        <v>0.58636642327629451</v>
+      </c>
+      <c r="AE10" s="30">
+        <f t="shared" si="9"/>
+        <v>0.59463528123716991</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="27"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="22">
+        <v>1762.96</v>
+      </c>
+      <c r="D11" s="20">
+        <v>50</v>
+      </c>
+      <c r="E11" s="20">
+        <v>0.90683000000000002</v>
+      </c>
+      <c r="F11" s="20">
+        <v>2.1000000000000001E-4</v>
+      </c>
+      <c r="G11" s="20">
+        <v>-0.102743</v>
+      </c>
+      <c r="H11" s="33">
+        <f t="shared" si="0"/>
+        <v>-13.699066666666667</v>
+      </c>
+      <c r="I11" s="24">
+        <v>0.67607200000000001</v>
+      </c>
+      <c r="J11" s="21">
+        <v>0.32392799999999999</v>
+      </c>
+      <c r="K11" s="24">
+        <v>2954</v>
+      </c>
+      <c r="L11" s="21">
+        <v>190.3</v>
+      </c>
+      <c r="M11" s="21">
+        <f t="shared" si="1"/>
+        <v>3144.3</v>
+      </c>
+      <c r="N11" s="24">
+        <v>242200</v>
+      </c>
+      <c r="O11" s="21">
+        <v>217300</v>
+      </c>
+      <c r="P11" s="21">
+        <f t="shared" si="2"/>
+        <v>459500</v>
+      </c>
+      <c r="Q11" s="24">
+        <v>1536</v>
+      </c>
+      <c r="R11" s="21">
+        <v>1094</v>
+      </c>
+      <c r="S11" s="21">
+        <f t="shared" si="3"/>
+        <v>2630</v>
+      </c>
+      <c r="T11" s="24">
+        <v>721</v>
+      </c>
+      <c r="U11" s="21">
+        <v>559.5</v>
+      </c>
+      <c r="V11" s="21">
+        <f t="shared" si="4"/>
+        <v>1280.5</v>
+      </c>
+      <c r="W11" s="24">
+        <v>486</v>
+      </c>
+      <c r="X11" s="21">
+        <v>315.89999999999998</v>
+      </c>
+      <c r="Y11" s="21">
+        <f t="shared" si="5"/>
+        <v>801.9</v>
+      </c>
+      <c r="Z11" s="24">
+        <f t="shared" si="6"/>
+        <v>2743</v>
+      </c>
+      <c r="AA11" s="21">
+        <f t="shared" si="7"/>
+        <v>1969.4</v>
+      </c>
+      <c r="AB11" s="21">
+        <f t="shared" si="8"/>
+        <v>4712.3999999999996</v>
+      </c>
+      <c r="AC11" s="24">
+        <f t="shared" si="9"/>
+        <v>0.55997083485235144</v>
+      </c>
+      <c r="AD11" s="21">
+        <f t="shared" si="9"/>
+        <v>0.55549913679293184</v>
+      </c>
+      <c r="AE11" s="21">
+        <f t="shared" si="9"/>
+        <v>0.55810202869026404</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="22"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="T12" s="22"/>
+      <c r="W12" s="22"/>
+      <c r="Z12" s="22"/>
+      <c r="AC12" s="22"/>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="T13" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z13" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC13" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q14" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="T14" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="W14" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z14" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC14" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD14" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE14" s="29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="7">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>1.2304600000000001</v>
+      </c>
+      <c r="F15">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="G15">
+        <v>0.18729599999999999</v>
+      </c>
+      <c r="H15" s="32">
+        <f>G15/0.0075</f>
+        <v>24.972799999999999</v>
+      </c>
+      <c r="I15" s="23">
+        <v>0.63836199999999999</v>
+      </c>
+      <c r="J15" s="19">
+        <v>0.36163800000000001</v>
+      </c>
+      <c r="Z15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="31">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="7">
+        <v>3.5259299999999998</v>
+      </c>
+      <c r="D16">
+        <v>0.1</v>
+      </c>
+      <c r="E16">
+        <v>1.19181</v>
+      </c>
+      <c r="F16">
+        <v>2.3000000000000001E-4</v>
+      </c>
+      <c r="G16">
+        <v>0.16094</v>
+      </c>
+      <c r="H16" s="32">
+        <f t="shared" ref="H16:H22" si="10">G16/0.0075</f>
+        <v>21.458666666666666</v>
+      </c>
+      <c r="I16" s="23">
+        <v>0.634965</v>
+      </c>
+      <c r="J16" s="19">
+        <v>0.365035</v>
+      </c>
+      <c r="K16" s="23">
+        <v>14020</v>
+      </c>
+      <c r="L16" s="19">
+        <v>2069</v>
+      </c>
+      <c r="M16" s="19">
+        <f>K16+L16</f>
+        <v>16089</v>
+      </c>
+      <c r="N16" s="23">
+        <v>189200</v>
+      </c>
+      <c r="O16" s="19">
+        <v>291500</v>
+      </c>
+      <c r="P16" s="19">
+        <f>N16+O16</f>
+        <v>480700</v>
+      </c>
+      <c r="Q16" s="23">
+        <v>3.5760000000000001</v>
+      </c>
+      <c r="R16" s="19">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="S16" s="19">
+        <f>Q16+R16</f>
+        <v>13.776</v>
+      </c>
+      <c r="T16" s="23">
+        <v>1.0059999999999999E-2</v>
+      </c>
+      <c r="U16" s="19">
+        <v>6.6710000000000005E-2</v>
+      </c>
+      <c r="V16" s="19">
+        <f>T16+U16</f>
+        <v>7.6770000000000005E-2</v>
+      </c>
+      <c r="W16" s="23">
+        <v>9.9599999999999995E-6</v>
+      </c>
+      <c r="X16" s="19">
+        <v>4.7029999999999999E-4</v>
+      </c>
+      <c r="Y16" s="19">
+        <f>W16+X16</f>
+        <v>4.8025999999999999E-4</v>
+      </c>
+      <c r="Z16" s="23">
+        <f>Q16+T16+W16</f>
+        <v>3.5860699600000001</v>
+      </c>
+      <c r="AA16" s="19">
+        <f>R16+U16+X16</f>
+        <v>10.2671803</v>
+      </c>
+      <c r="AB16" s="19">
+        <f>Z16+AA16</f>
+        <v>13.853250259999999</v>
+      </c>
+      <c r="AC16" s="23">
+        <f>Q16/Z16</f>
+        <v>0.99719192316036132</v>
+      </c>
+      <c r="AD16" s="30">
+        <f>R16/AA16</f>
+        <v>0.99345679163733003</v>
+      </c>
+      <c r="AE16" s="30">
+        <f>S16/AB16</f>
+        <v>0.99442367252809594</v>
+      </c>
+      <c r="AG16" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A17" s="25" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B17" s="26"/>
+      <c r="C17" s="7">
+        <v>35.259300000000003</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1.1875899999999999</v>
+      </c>
+      <c r="F17">
+        <v>1.9000000000000001E-4</v>
+      </c>
+      <c r="G17">
+        <v>0.15795899999999999</v>
+      </c>
+      <c r="H17" s="32">
+        <f t="shared" si="10"/>
+        <v>21.061199999999999</v>
+      </c>
+      <c r="I17" s="23">
+        <v>0.61049100000000001</v>
+      </c>
+      <c r="J17" s="19">
+        <v>0.38950899999999999</v>
+      </c>
+      <c r="K17" s="23">
+        <v>13670</v>
+      </c>
+      <c r="L17" s="19">
+        <v>1907</v>
+      </c>
+      <c r="M17" s="19">
+        <f t="shared" ref="M17:M22" si="11">K17+L17</f>
+        <v>15577</v>
+      </c>
+      <c r="N17" s="23">
+        <v>189100</v>
+      </c>
+      <c r="O17" s="19">
+        <v>291200</v>
+      </c>
+      <c r="P17" s="19">
+        <f t="shared" ref="P17:P22" si="12">N17+O17</f>
+        <v>480300</v>
+      </c>
+      <c r="Q17" s="23">
+        <v>84.6</v>
+      </c>
+      <c r="R17" s="19">
+        <v>210.4</v>
+      </c>
+      <c r="S17" s="19">
+        <f t="shared" ref="S17:S22" si="13">Q17+R17</f>
+        <v>295</v>
+      </c>
+      <c r="T17" s="23">
+        <v>1.474</v>
+      </c>
+      <c r="U17" s="19">
+        <v>9.7750000000000004</v>
+      </c>
+      <c r="V17" s="19">
+        <f t="shared" ref="V17:V22" si="14">T17+U17</f>
+        <v>11.249000000000001</v>
+      </c>
+      <c r="W17" s="23">
+        <v>6.173E-2</v>
+      </c>
+      <c r="X17" s="19">
+        <v>8.0299999999999996E-2</v>
+      </c>
+      <c r="Y17" s="19">
+        <f t="shared" ref="Y17:Y22" si="15">W17+X17</f>
+        <v>0.14202999999999999</v>
+      </c>
+      <c r="Z17" s="23">
+        <f t="shared" ref="Z17:Z22" si="16">Q17+T17+W17</f>
+        <v>86.135729999999995</v>
+      </c>
+      <c r="AA17" s="19">
+        <f t="shared" ref="AA17:AA22" si="17">R17+U17+X17</f>
+        <v>220.25530000000001</v>
+      </c>
+      <c r="AB17" s="19">
+        <f t="shared" ref="AB17:AB22" si="18">Z17+AA17</f>
+        <v>306.39103</v>
+      </c>
+      <c r="AC17" s="23">
+        <f t="shared" ref="AC17:AC22" si="19">Q17/Z17</f>
+        <v>0.98217081343595736</v>
+      </c>
+      <c r="AD17" s="30">
+        <f t="shared" ref="AD17:AD22" si="20">R17/AA17</f>
+        <v>0.95525510623353904</v>
+      </c>
+      <c r="AE17" s="30">
+        <f t="shared" ref="AE17:AE22" si="21">S17/AB17</f>
+        <v>0.96282192073312334</v>
+      </c>
+      <c r="AG17" s="35">
+        <f>4.77*306.39103*7</f>
+        <v>10230.396491699998</v>
+      </c>
+      <c r="AY17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A18" s="25"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="7">
+        <v>352.59300000000002</v>
+      </c>
+      <c r="D18">
+        <v>10</v>
+      </c>
+      <c r="E18">
+        <v>1.11599</v>
+      </c>
+      <c r="F18">
+        <v>1.9000000000000001E-4</v>
+      </c>
+      <c r="G18">
+        <v>0.103935</v>
+      </c>
+      <c r="H18" s="32">
+        <f t="shared" si="10"/>
+        <v>13.858000000000001</v>
+      </c>
+      <c r="I18" s="23">
+        <v>0.54753300000000005</v>
+      </c>
+      <c r="J18" s="19">
+        <v>0.45246700000000001</v>
+      </c>
+      <c r="K18" s="23">
+        <v>10610</v>
+      </c>
+      <c r="L18" s="19">
+        <v>1002</v>
+      </c>
+      <c r="M18" s="19">
+        <f t="shared" si="11"/>
+        <v>11612</v>
+      </c>
+      <c r="N18" s="23">
+        <v>188000</v>
+      </c>
+      <c r="O18" s="19">
+        <v>289100</v>
+      </c>
+      <c r="P18" s="19">
+        <f t="shared" si="12"/>
+        <v>477100</v>
+      </c>
+      <c r="Q18" s="23">
+        <v>641.79999999999995</v>
+      </c>
+      <c r="R18" s="19">
+        <v>878.8</v>
+      </c>
+      <c r="S18" s="19">
+        <f t="shared" si="13"/>
+        <v>1520.6</v>
+      </c>
+      <c r="T18" s="23">
+        <v>86.36</v>
+      </c>
+      <c r="U18" s="19">
+        <v>250.7</v>
+      </c>
+      <c r="V18" s="19">
+        <f t="shared" si="14"/>
+        <v>337.06</v>
+      </c>
+      <c r="W18" s="23">
+        <v>37.18</v>
+      </c>
+      <c r="X18" s="19">
+        <v>124.9</v>
+      </c>
+      <c r="Y18" s="19">
+        <f t="shared" si="15"/>
+        <v>162.08000000000001</v>
+      </c>
+      <c r="Z18" s="23">
+        <f t="shared" si="16"/>
+        <v>765.33999999999992</v>
+      </c>
+      <c r="AA18" s="19">
+        <f t="shared" si="17"/>
+        <v>1254.4000000000001</v>
+      </c>
+      <c r="AB18" s="19">
+        <f t="shared" si="18"/>
+        <v>2019.74</v>
+      </c>
+      <c r="AC18" s="23">
+        <f t="shared" si="19"/>
+        <v>0.8385815454569211</v>
+      </c>
+      <c r="AD18" s="30">
+        <f t="shared" si="20"/>
+        <v>0.70057397959183665</v>
+      </c>
+      <c r="AE18" s="30">
+        <f t="shared" si="21"/>
+        <v>0.75286918118173618</v>
+      </c>
+    </row>
+    <row r="19" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A19" s="25"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="7">
+        <v>705.18499999999995</v>
+      </c>
+      <c r="D19">
+        <v>20</v>
+      </c>
+      <c r="E19">
+        <v>1.04758</v>
+      </c>
+      <c r="F19">
+        <v>2.3000000000000001E-4</v>
+      </c>
+      <c r="G19">
+        <v>4.5419000000000001E-2</v>
+      </c>
+      <c r="H19" s="32">
+        <f t="shared" si="10"/>
+        <v>6.0558666666666667</v>
+      </c>
+      <c r="I19" s="23">
+        <v>0.51253000000000004</v>
+      </c>
+      <c r="J19" s="19">
+        <v>0.48747000000000001</v>
+      </c>
+      <c r="K19" s="23">
+        <v>7969</v>
+      </c>
+      <c r="L19" s="19">
+        <v>503.3</v>
+      </c>
+      <c r="M19" s="19">
+        <f t="shared" si="11"/>
+        <v>8472.2999999999993</v>
+      </c>
+      <c r="N19" s="23">
+        <v>186800</v>
+      </c>
+      <c r="O19" s="19">
+        <v>286500</v>
+      </c>
+      <c r="P19" s="19">
+        <f t="shared" si="12"/>
+        <v>473300</v>
+      </c>
+      <c r="Q19" s="23">
+        <v>951.8</v>
+      </c>
+      <c r="R19" s="19">
+        <v>1143</v>
+      </c>
+      <c r="S19" s="19">
+        <f t="shared" si="13"/>
+        <v>2094.8000000000002</v>
+      </c>
+      <c r="T19" s="23">
+        <v>203.8</v>
+      </c>
+      <c r="U19" s="19">
+        <v>478.7</v>
+      </c>
+      <c r="V19" s="19">
+        <f t="shared" si="14"/>
+        <v>682.5</v>
+      </c>
+      <c r="W19" s="23">
+        <v>131.5</v>
+      </c>
+      <c r="X19" s="19">
+        <v>272.10000000000002</v>
+      </c>
+      <c r="Y19" s="19">
+        <f t="shared" si="15"/>
+        <v>403.6</v>
+      </c>
+      <c r="Z19" s="23">
+        <f t="shared" si="16"/>
+        <v>1287.0999999999999</v>
+      </c>
+      <c r="AA19" s="19">
+        <f t="shared" si="17"/>
+        <v>1893.8000000000002</v>
+      </c>
+      <c r="AB19" s="19">
+        <f t="shared" si="18"/>
+        <v>3180.9</v>
+      </c>
+      <c r="AC19" s="23">
+        <f t="shared" si="19"/>
+        <v>0.73949188097272944</v>
+      </c>
+      <c r="AD19" s="30">
+        <f t="shared" si="20"/>
+        <v>0.60354842116379759</v>
+      </c>
+      <c r="AE19" s="30">
+        <f t="shared" si="21"/>
+        <v>0.65855575466063065</v>
+      </c>
+    </row>
+    <row r="20" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A20" s="25"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="7">
+        <v>1057.78</v>
+      </c>
+      <c r="D20">
+        <v>30</v>
+      </c>
+      <c r="E20">
+        <v>0.98777000000000004</v>
+      </c>
+      <c r="F20">
+        <v>2.1000000000000001E-4</v>
+      </c>
+      <c r="G20">
+        <v>-1.2381E-2</v>
+      </c>
+      <c r="H20" s="32">
+        <f t="shared" si="10"/>
+        <v>-1.6508</v>
+      </c>
+      <c r="I20" s="23">
+        <v>0.484315</v>
+      </c>
+      <c r="J20" s="19">
+        <v>0.51568499999999995</v>
+      </c>
+      <c r="K20" s="23">
+        <v>5843</v>
+      </c>
+      <c r="L20" s="19">
+        <v>255.6</v>
+      </c>
+      <c r="M20" s="19">
+        <f t="shared" si="11"/>
+        <v>6098.6</v>
+      </c>
+      <c r="N20" s="23">
+        <v>185500</v>
+      </c>
+      <c r="O20" s="19">
+        <v>283700</v>
+      </c>
+      <c r="P20" s="19">
+        <f t="shared" si="12"/>
+        <v>469200</v>
+      </c>
+      <c r="Q20" s="23">
+        <v>1098</v>
+      </c>
+      <c r="R20" s="19">
+        <v>1272</v>
+      </c>
+      <c r="S20" s="19">
+        <f t="shared" si="13"/>
+        <v>2370</v>
+      </c>
+      <c r="T20" s="23">
+        <v>318.2</v>
+      </c>
+      <c r="U20" s="19">
+        <v>647.20000000000005</v>
+      </c>
+      <c r="V20" s="19">
+        <f t="shared" si="14"/>
+        <v>965.40000000000009</v>
+      </c>
+      <c r="W20" s="23">
+        <v>223.1</v>
+      </c>
+      <c r="X20" s="19">
+        <v>362.1</v>
+      </c>
+      <c r="Y20" s="19">
+        <f t="shared" si="15"/>
+        <v>585.20000000000005</v>
+      </c>
+      <c r="Z20" s="23">
+        <f t="shared" si="16"/>
+        <v>1639.3</v>
+      </c>
+      <c r="AA20" s="19">
+        <f t="shared" si="17"/>
+        <v>2281.3000000000002</v>
+      </c>
+      <c r="AB20" s="19">
+        <f t="shared" si="18"/>
+        <v>3920.6000000000004</v>
+      </c>
+      <c r="AC20" s="23">
+        <f t="shared" si="19"/>
+        <v>0.66979808454828282</v>
+      </c>
+      <c r="AD20" s="30">
+        <f t="shared" si="20"/>
+        <v>0.55757682023407706</v>
+      </c>
+      <c r="AE20" s="30">
+        <f t="shared" si="21"/>
+        <v>0.60449931132989843</v>
+      </c>
+    </row>
+    <row r="21" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A21" s="25"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="7">
+        <v>1410.37</v>
+      </c>
+      <c r="D21">
+        <v>40</v>
+      </c>
+      <c r="E21">
+        <v>0.93576000000000004</v>
+      </c>
+      <c r="F21">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="G21">
+        <v>-6.8650000000000003E-2</v>
+      </c>
+      <c r="H21" s="32">
+        <f t="shared" si="10"/>
+        <v>-9.1533333333333342</v>
+      </c>
+      <c r="I21" s="23">
+        <v>0.455762</v>
+      </c>
+      <c r="J21" s="19">
+        <v>0.544238</v>
+      </c>
+      <c r="K21" s="23">
+        <v>4146</v>
+      </c>
+      <c r="L21" s="19">
+        <v>129.80000000000001</v>
+      </c>
+      <c r="M21" s="19">
+        <f t="shared" si="11"/>
+        <v>4275.8</v>
+      </c>
+      <c r="N21" s="23">
+        <v>184100</v>
+      </c>
+      <c r="O21" s="19">
+        <v>280700</v>
+      </c>
+      <c r="P21" s="19">
+        <f t="shared" si="12"/>
+        <v>464800</v>
+      </c>
+      <c r="Q21" s="23">
+        <v>1154</v>
+      </c>
+      <c r="R21" s="19">
+        <v>1347</v>
+      </c>
+      <c r="S21" s="19">
+        <f t="shared" si="13"/>
+        <v>2501</v>
+      </c>
+      <c r="T21" s="23">
+        <v>421.4</v>
+      </c>
+      <c r="U21" s="19">
+        <v>765.5</v>
+      </c>
+      <c r="V21" s="19">
+        <f t="shared" si="14"/>
+        <v>1186.9000000000001</v>
+      </c>
+      <c r="W21" s="23">
+        <v>292.39999999999998</v>
+      </c>
+      <c r="X21" s="19">
+        <v>421.5</v>
+      </c>
+      <c r="Y21" s="19">
+        <f t="shared" si="15"/>
+        <v>713.9</v>
+      </c>
+      <c r="Z21" s="23">
+        <f t="shared" si="16"/>
+        <v>1867.8000000000002</v>
+      </c>
+      <c r="AA21" s="19">
+        <f t="shared" si="17"/>
+        <v>2534</v>
+      </c>
+      <c r="AB21" s="19">
+        <f t="shared" si="18"/>
+        <v>4401.8</v>
+      </c>
+      <c r="AC21" s="23">
+        <f t="shared" si="19"/>
+        <v>0.61783916907591818</v>
+      </c>
+      <c r="AD21" s="30">
+        <f t="shared" si="20"/>
+        <v>0.5315706393054459</v>
+      </c>
+      <c r="AE21" s="30">
+        <f t="shared" si="21"/>
+        <v>0.56817665500477077</v>
+      </c>
+    </row>
+    <row r="22" spans="1:51" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="27"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="22">
+        <v>1762.96</v>
+      </c>
+      <c r="D22" s="20">
+        <v>50</v>
+      </c>
+      <c r="E22" s="20">
+        <v>0.88985999999999998</v>
+      </c>
+      <c r="F22" s="20">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="G22" s="20">
+        <v>-0.12377199999999999</v>
+      </c>
+      <c r="H22" s="33">
+        <f t="shared" si="10"/>
+        <v>-16.502933333333335</v>
+      </c>
+      <c r="I22" s="24">
+        <v>0.427315</v>
+      </c>
+      <c r="J22" s="21">
+        <v>0.572685</v>
+      </c>
+      <c r="K22" s="24">
+        <v>2836</v>
+      </c>
+      <c r="L22" s="21">
+        <v>65.459999999999994</v>
+      </c>
+      <c r="M22" s="21">
+        <f t="shared" si="11"/>
+        <v>2901.46</v>
+      </c>
+      <c r="N22" s="24">
+        <v>182600</v>
+      </c>
+      <c r="O22" s="21">
+        <v>277600</v>
+      </c>
+      <c r="P22" s="21">
+        <f t="shared" si="12"/>
+        <v>460200</v>
+      </c>
+      <c r="Q22" s="24">
+        <v>1159</v>
+      </c>
+      <c r="R22" s="21">
+        <v>1396</v>
+      </c>
+      <c r="S22" s="21">
+        <f t="shared" si="13"/>
+        <v>2555</v>
+      </c>
+      <c r="T22" s="24">
+        <v>7.9</v>
+      </c>
+      <c r="U22" s="21">
+        <v>847.6</v>
+      </c>
+      <c r="V22" s="21">
+        <f t="shared" si="14"/>
+        <v>855.5</v>
+      </c>
+      <c r="W22" s="24">
+        <v>337.5</v>
+      </c>
+      <c r="X22" s="21">
+        <v>462.5</v>
+      </c>
+      <c r="Y22" s="21">
+        <f t="shared" si="15"/>
+        <v>800</v>
+      </c>
+      <c r="Z22" s="24">
+        <f t="shared" si="16"/>
+        <v>1504.4</v>
+      </c>
+      <c r="AA22" s="21">
+        <f t="shared" si="17"/>
+        <v>2706.1</v>
+      </c>
+      <c r="AB22" s="21">
+        <f t="shared" si="18"/>
+        <v>4210.5</v>
+      </c>
+      <c r="AC22" s="24">
+        <f t="shared" si="19"/>
+        <v>0.77040680670034556</v>
+      </c>
+      <c r="AD22" s="21">
+        <f t="shared" si="20"/>
+        <v>0.51587154946232583</v>
+      </c>
+      <c r="AE22" s="21">
+        <f t="shared" si="21"/>
+        <v>0.60681629260182879</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A6:B11"/>
+    <mergeCell ref="A17:B22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MCNP\dprk-elwr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEEB7573-2AD4-461E-AD89-65A33B3A73A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99DF00EA-2FAF-4C51-B411-626DDD904B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="MCODE" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="MCODE (2)" sheetId="3" r:id="rId1"/>
+    <sheet name="MCODE" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
   <metadataTypes count="1">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="4">
+  <futureMetadata name="XLRICHVALUE" count="6">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -70,8 +71,22 @@
         </ext>
       </extLst>
     </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="4"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="5"/>
+        </ext>
+      </extLst>
+    </bk>
   </futureMetadata>
-  <valueMetadata count="4">
+  <valueMetadata count="6">
     <bk>
       <rc t="1" v="0"/>
     </bk>
@@ -84,12 +99,18 @@
     <bk>
       <rc t="1" v="3"/>
     </bk>
+    <bk>
+      <rc t="1" v="4"/>
+    </bk>
+    <bk>
+      <rc t="1" v="5"/>
+    </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="83">
   <si>
     <t>Input File</t>
   </si>
@@ -290,12 +311,64 @@
   </si>
   <si>
     <t>Rod 2</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>elwr-coreA.inp</t>
+  </si>
+  <si>
+    <t>elwr-coreB.inp</t>
+  </si>
+  <si>
+    <t>elwr-coreC.inp</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>BOL k-eff</t>
+  </si>
+  <si>
+    <t>Total Fuel</t>
+  </si>
+  <si>
+    <t>Weight [kg]</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>of FAs</t>
+  </si>
+  <si>
+    <t>FA Picture</t>
+  </si>
+  <si>
+    <t>Subtotal PER FA</t>
+  </si>
+  <si>
+    <t>Subtotal IN CORE</t>
+  </si>
+  <si>
+    <t>Pwr density</t>
+  </si>
+  <si>
+    <t>167 days EFPO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -425,7 +498,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -445,18 +518,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -469,13 +545,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="11" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1448,7 +1527,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="4">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="6">
   <rv s="0">
     <v>0</v>
     <v>5</v>
@@ -1463,6 +1542,14 @@
   </rv>
   <rv s="0">
     <v>3</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>4</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>5</v>
     <v>5</v>
   </rv>
 </rvData>
@@ -1483,6 +1570,8 @@
   <rel r:id="rId2"/>
   <rel r:id="rId3"/>
   <rel r:id="rId4"/>
+  <rel r:id="rId5"/>
+  <rel r:id="rId6"/>
 </richValueRels>
 </file>
 
@@ -1748,10 +1837,630 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAC066E8-F6D1-4540-A521-7E3172A66DC3}">
+  <dimension ref="A1:AB28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="34.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="7"/>
+    <col min="7" max="7" width="8.88671875" style="7"/>
+    <col min="8" max="8" width="6.21875" customWidth="1"/>
+    <col min="9" max="9" width="7.44140625" customWidth="1"/>
+    <col min="11" max="11" width="12.21875" customWidth="1"/>
+    <col min="12" max="12" width="7.44140625" customWidth="1"/>
+    <col min="13" max="13" width="12.21875" customWidth="1"/>
+    <col min="14" max="14" width="7.44140625" customWidth="1"/>
+    <col min="15" max="15" width="8.88671875" style="7"/>
+    <col min="16" max="16" width="6.33203125" customWidth="1"/>
+    <col min="17" max="17" width="7.21875" customWidth="1"/>
+    <col min="19" max="19" width="9.44140625" customWidth="1"/>
+    <col min="20" max="20" width="7.77734375" customWidth="1"/>
+    <col min="21" max="21" width="12.88671875" customWidth="1"/>
+    <col min="22" max="22" width="10.33203125" customWidth="1"/>
+    <col min="23" max="23" width="6.88671875" style="7" customWidth="1"/>
+    <col min="24" max="24" width="8.6640625" style="7" customWidth="1"/>
+    <col min="25" max="25" width="11.77734375" style="7" customWidth="1"/>
+    <col min="26" max="26" width="11.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.44140625" customWidth="1"/>
+    <col min="28" max="28" width="22.21875" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1"/>
+      <c r="D1"/>
+      <c r="G1"/>
+      <c r="O1"/>
+      <c r="X1"/>
+      <c r="Y1"/>
+      <c r="Z1"/>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B2"/>
+      <c r="C2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2">
+        <f>100*167/4000</f>
+        <v>4.1749999999999998</v>
+      </c>
+      <c r="G2"/>
+      <c r="O2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B3"/>
+      <c r="D3"/>
+      <c r="G3"/>
+      <c r="O3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
+      <c r="Z3"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B4"/>
+      <c r="D4"/>
+      <c r="G4"/>
+      <c r="O4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
+      <c r="Z4"/>
+    </row>
+    <row r="5" spans="1:28" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W5" s="32"/>
+      <c r="AB5" s="32"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="D6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="N6" s="3"/>
+      <c r="O6" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="V6" s="3"/>
+      <c r="W6" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="X6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y6" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z6" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA6" s="1"/>
+    </row>
+    <row r="7" spans="1:28" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="V7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="W7" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="X7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y7" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="15">
+        <v>1.22766</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0.40949999999999998</v>
+      </c>
+      <c r="E8">
+        <v>144.16</v>
+      </c>
+      <c r="F8" s="3">
+        <f>PI()*D8^2*E8</f>
+        <v>75.945572190120131</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="I8">
+        <v>9.5</v>
+      </c>
+      <c r="J8">
+        <v>264</v>
+      </c>
+      <c r="K8" s="10">
+        <f>F8*J8*I8*((H8*235+(1-H8)*238)/((H8*235+(1-H8)*238)+2*16))</f>
+        <v>167888.31329069051</v>
+      </c>
+      <c r="L8" s="10">
+        <f>F8*J8</f>
+        <v>20049.631058191713</v>
+      </c>
+      <c r="M8" s="10">
+        <f>K8*W8</f>
+        <v>3525654.5791045008</v>
+      </c>
+      <c r="N8" s="10">
+        <f>L8*W8</f>
+        <v>421042.252222026</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>9.5</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8" s="10">
+        <f>F8*R8*Q8*((P8*235+(1-P8)*238)/((P8*235+(1-P8)*238)+2*16))</f>
+        <v>0</v>
+      </c>
+      <c r="T8" s="10">
+        <f>F8*R8</f>
+        <v>0</v>
+      </c>
+      <c r="U8" s="10">
+        <f>S8*W8</f>
+        <v>0</v>
+      </c>
+      <c r="V8" s="10">
+        <f>T8*W8</f>
+        <v>0</v>
+      </c>
+      <c r="W8" s="37">
+        <v>21</v>
+      </c>
+      <c r="X8" s="13">
+        <f>W8*(L8+T8)</f>
+        <v>421042.252222026</v>
+      </c>
+      <c r="Y8" s="13">
+        <f>(I8*L8+Q8*T8)*W8/1000</f>
+        <v>3999.9013961092464</v>
+      </c>
+      <c r="Z8" s="40">
+        <f>100000000/(W8*(K8+S8))</f>
+        <v>28.363527327001933</v>
+      </c>
+      <c r="AB8" s="7" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="15">
+        <v>1.2268699999999999</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0.40949999999999998</v>
+      </c>
+      <c r="E9">
+        <v>144.16</v>
+      </c>
+      <c r="F9" s="3">
+        <f>PI()*D9^2*E9</f>
+        <v>75.945572190120131</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="41">
+        <v>0.04</v>
+      </c>
+      <c r="I9">
+        <v>9.5</v>
+      </c>
+      <c r="J9">
+        <v>196</v>
+      </c>
+      <c r="K9" s="10">
+        <f>F9*J9*I9*((H9*235+(1-H9)*238)/((H9*235+(1-H9)*238)+2*16))</f>
+        <v>124643.42193135733</v>
+      </c>
+      <c r="L9" s="10">
+        <f>F9*J9</f>
+        <v>14885.332149263546</v>
+      </c>
+      <c r="M9" s="10">
+        <f>K9*W9</f>
+        <v>2617511.8605585038</v>
+      </c>
+      <c r="N9" s="10">
+        <f>L9*W9</f>
+        <v>312591.97513453447</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="P9">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="Q9">
+        <v>9.5</v>
+      </c>
+      <c r="R9">
+        <v>68</v>
+      </c>
+      <c r="S9" s="10">
+        <f>F9*R9*Q9*((P9*235+(1-P9)*238)/((P9*235+(1-P9)*238)+2*16))</f>
+        <v>43244.799905423883</v>
+      </c>
+      <c r="T9" s="10">
+        <f>F9*R9</f>
+        <v>5164.2989089281691</v>
+      </c>
+      <c r="U9" s="10">
+        <f>S9*W9</f>
+        <v>908140.79801390157</v>
+      </c>
+      <c r="V9" s="10">
+        <f>T9*W9</f>
+        <v>108450.27708749156</v>
+      </c>
+      <c r="W9" s="37">
+        <v>21</v>
+      </c>
+      <c r="X9" s="13">
+        <f>W9*(L9+T9)</f>
+        <v>421042.252222026</v>
+      </c>
+      <c r="Y9" s="13">
+        <f>(I9*L9+Q9*T9)*W9/1000</f>
+        <v>3999.9013961092469</v>
+      </c>
+      <c r="Z9" s="40">
+        <f>100000000/(W9*(K9+S9))</f>
+        <v>28.363542777492903</v>
+      </c>
+      <c r="AB9" s="7" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="15"/>
+      <c r="F10" s="3"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="37"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="33"/>
+    </row>
+    <row r="11" spans="1:28" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="34"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="36"/>
+      <c r="T11" s="36"/>
+      <c r="U11" s="36"/>
+      <c r="V11" s="36"/>
+      <c r="W11" s="37"/>
+      <c r="X11" s="37"/>
+      <c r="Y11" s="37"/>
+    </row>
+    <row r="12" spans="1:28" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="34"/>
+      <c r="S12" s="36"/>
+      <c r="T12" s="36"/>
+      <c r="U12" s="36"/>
+      <c r="V12" s="36"/>
+      <c r="W12" s="37"/>
+      <c r="X12" s="37"/>
+      <c r="Y12" s="37"/>
+    </row>
+    <row r="13" spans="1:28" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="34"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="34"/>
+      <c r="S13" s="36"/>
+      <c r="T13" s="36"/>
+      <c r="U13" s="36"/>
+      <c r="V13" s="36"/>
+      <c r="W13" s="37"/>
+      <c r="X13" s="37"/>
+      <c r="Y13" s="37"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="C14" s="34"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="34"/>
+      <c r="S14" s="34"/>
+      <c r="T14" s="34"/>
+      <c r="U14" s="34"/>
+      <c r="V14" s="34"/>
+      <c r="W14" s="35"/>
+      <c r="X14" s="35"/>
+      <c r="Y14" s="35"/>
+    </row>
+    <row r="15" spans="1:28" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="34"/>
+      <c r="R15" s="34"/>
+      <c r="S15" s="36"/>
+      <c r="T15" s="36"/>
+      <c r="U15" s="36"/>
+      <c r="V15" s="36"/>
+      <c r="W15" s="37"/>
+      <c r="X15" s="37"/>
+      <c r="Y15" s="37"/>
+    </row>
+    <row r="16" spans="1:28" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="34"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="34"/>
+      <c r="R16" s="34"/>
+      <c r="S16" s="34"/>
+      <c r="T16" s="34"/>
+      <c r="U16" s="34"/>
+      <c r="V16" s="34"/>
+      <c r="W16" s="35"/>
+      <c r="X16" s="35"/>
+      <c r="Y16" s="35"/>
+    </row>
+    <row r="17" spans="1:25" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="36"/>
+      <c r="T17" s="36"/>
+      <c r="U17" s="36"/>
+      <c r="V17" s="36"/>
+      <c r="W17" s="37"/>
+      <c r="X17" s="37"/>
+      <c r="Y17" s="37"/>
+    </row>
+    <row r="18" spans="1:25" ht="52.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:25" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:25" ht="53.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B27" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B28" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="W13" sqref="W13"/>
     </sheetView>
   </sheetViews>
@@ -1976,7 +2685,7 @@
         <f>100000000/(238/(238+32)*4000000)</f>
         <v>28.361344537815125</v>
       </c>
-      <c r="V8" s="17" t="e" vm="1">
+      <c r="V8" s="26" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
     </row>
@@ -1987,7 +2696,6 @@
       <c r="B9" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="34"/>
       <c r="D9" s="7">
         <v>0.40949999999999998</v>
       </c>
@@ -2039,7 +2747,7 @@
         <f>L9+R9</f>
         <v>24278.644651890612</v>
       </c>
-      <c r="V9" s="18"/>
+      <c r="V9" s="27"/>
     </row>
     <row r="10" spans="1:22" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
@@ -2109,7 +2817,7 @@
         <f>100000000/(238/(238+32)*4000000)</f>
         <v>28.361344537815125</v>
       </c>
-      <c r="V10" s="17" t="e" vm="2">
+      <c r="V10" s="26" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2120,7 +2828,6 @@
       <c r="B11" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="34"/>
       <c r="D11" s="7">
         <v>0.40949999999999998</v>
       </c>
@@ -2172,7 +2879,7 @@
         <f>L11+R11</f>
         <v>32371.526202520818</v>
       </c>
-      <c r="V11" s="18"/>
+      <c r="V11" s="27"/>
     </row>
     <row r="12" spans="1:22" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
@@ -2181,7 +2888,6 @@
       <c r="B12" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="34"/>
       <c r="F12" s="3"/>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
@@ -2194,7 +2900,6 @@
       <c r="A13" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="34"/>
       <c r="F13" s="3"/>
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
@@ -2271,7 +2976,7 @@
         <f>100000000/(238/(238+32)*4000000)</f>
         <v>28.361344537815125</v>
       </c>
-      <c r="V15" s="18" t="e" vm="3">
+      <c r="V15" s="27" t="e" vm="5">
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2282,7 +2987,7 @@
       <c r="B16" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="V16" s="18"/>
+      <c r="V16" s="27"/>
     </row>
     <row r="17" spans="1:22" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
@@ -2352,7 +3057,7 @@
         <f>100000000/(238/(238+32)*4000000)</f>
         <v>28.361344537815125</v>
       </c>
-      <c r="V17" s="18" t="e" vm="4">
+      <c r="V17" s="27" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2381,7 +3086,7 @@
       <c r="O18">
         <v>18.5</v>
       </c>
-      <c r="V18" s="18"/>
+      <c r="V18" s="27"/>
     </row>
     <row r="19" spans="1:22" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
@@ -2408,7 +3113,7 @@
       <c r="O19">
         <v>9.5</v>
       </c>
-      <c r="V19" s="18"/>
+      <c r="V19" s="27"/>
     </row>
     <row r="20" spans="1:22" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -2435,7 +3140,7 @@
       <c r="O20">
         <v>18.5</v>
       </c>
-      <c r="V20" s="18"/>
+      <c r="V20" s="27"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
@@ -2460,7 +3165,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E48A428C-A2D0-4C30-9161-4343E51EC6DC}">
   <dimension ref="A1:AY22"/>
   <sheetViews>
@@ -2493,16 +3198,16 @@
     <col min="29" max="29" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AC1" s="22"/>
+    <row r="1" spans="1:33" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="Z1" s="20"/>
+      <c r="AC1" s="20"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -2628,10 +3333,10 @@
       <c r="AC3" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="AD3" s="29" t="s">
+      <c r="AD3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AE3" s="29" t="s">
+      <c r="AE3" s="1" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2657,14 +3362,14 @@
       <c r="G4">
         <v>0.234015</v>
       </c>
-      <c r="H4" s="32">
+      <c r="H4" s="23">
         <f>G4/0.0075</f>
         <v>31.202000000000002</v>
       </c>
-      <c r="I4" s="23">
+      <c r="I4" s="21">
         <v>0.855182</v>
       </c>
-      <c r="J4" s="19">
+      <c r="J4" s="17">
         <v>0.144818</v>
       </c>
       <c r="Q4" s="7">
@@ -2679,28 +3384,28 @@
       <c r="T4" s="7">
         <v>0</v>
       </c>
-      <c r="U4" s="31">
+      <c r="U4">
         <v>0</v>
       </c>
-      <c r="V4" s="31">
+      <c r="V4">
         <v>0</v>
       </c>
       <c r="W4" s="7">
         <v>0</v>
       </c>
-      <c r="X4" s="31">
+      <c r="X4">
         <v>0</v>
       </c>
-      <c r="Y4" s="31">
+      <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4" s="7">
         <v>0</v>
       </c>
-      <c r="AA4" s="31">
+      <c r="AA4">
         <v>0</v>
       </c>
-      <c r="AB4" s="31">
+      <c r="AB4">
         <v>0</v>
       </c>
     </row>
@@ -2726,87 +3431,87 @@
       <c r="G5">
         <v>0.218835</v>
       </c>
-      <c r="H5" s="32">
+      <c r="H5" s="23">
         <f t="shared" ref="H5:H11" si="0">G5/0.0075</f>
         <v>29.178000000000001</v>
       </c>
-      <c r="I5" s="23">
+      <c r="I5" s="21">
         <v>0.85313700000000003</v>
       </c>
-      <c r="J5" s="19">
+      <c r="J5" s="17">
         <v>0.14686299999999999</v>
       </c>
-      <c r="K5" s="23">
+      <c r="K5" s="21">
         <v>18690</v>
       </c>
-      <c r="L5" s="19">
+      <c r="L5" s="17">
         <v>1599</v>
       </c>
-      <c r="M5" s="19">
+      <c r="M5" s="17">
         <f>K5+L5</f>
         <v>20289</v>
       </c>
-      <c r="N5" s="23">
+      <c r="N5" s="21">
         <v>252200</v>
       </c>
-      <c r="O5" s="19">
+      <c r="O5" s="17">
         <v>224200</v>
       </c>
-      <c r="P5" s="19">
+      <c r="P5" s="17">
         <f>N5+O5</f>
         <v>476400</v>
       </c>
-      <c r="Q5" s="23">
+      <c r="Q5" s="21">
         <v>4.97</v>
       </c>
-      <c r="R5" s="19">
+      <c r="R5" s="17">
         <v>4.4950000000000001</v>
       </c>
-      <c r="S5" s="19">
+      <c r="S5" s="17">
         <f>Q5+R5</f>
         <v>9.4649999999999999</v>
       </c>
-      <c r="T5" s="23">
+      <c r="T5" s="21">
         <v>1.443E-2</v>
       </c>
-      <c r="U5" s="19">
+      <c r="U5" s="17">
         <v>1.6140000000000002E-2</v>
       </c>
-      <c r="V5" s="19">
+      <c r="V5" s="17">
         <f>T5+U5</f>
         <v>3.057E-2</v>
       </c>
-      <c r="W5" s="23">
+      <c r="W5" s="21">
         <v>6.0279999999999999E-5</v>
       </c>
-      <c r="X5" s="19">
+      <c r="X5" s="17">
         <v>6.7230000000000005E-5</v>
       </c>
-      <c r="Y5" s="19">
+      <c r="Y5" s="17">
         <f>W5+X5</f>
         <v>1.2751E-4</v>
       </c>
-      <c r="Z5" s="23">
+      <c r="Z5" s="21">
         <f>Q5+T5+W5</f>
         <v>4.9844902799999993</v>
       </c>
-      <c r="AA5" s="19">
+      <c r="AA5" s="17">
         <f>R5+U5+X5</f>
         <v>4.5112072300000001</v>
       </c>
-      <c r="AB5" s="19">
+      <c r="AB5" s="17">
         <f>Z5+AA5</f>
         <v>9.4956975099999994</v>
       </c>
-      <c r="AC5" s="23">
+      <c r="AC5" s="21">
         <f>Q5/Z5</f>
         <v>0.99709292642055281</v>
       </c>
-      <c r="AD5" s="30">
+      <c r="AD5" s="17">
         <f>R5/AA5</f>
         <v>0.99640734083501636</v>
       </c>
-      <c r="AE5" s="30">
+      <c r="AE5" s="17">
         <f>S5/AB5</f>
         <v>0.99676721905182097</v>
       </c>
@@ -2815,10 +3520,10 @@
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="e" vm="2">
+      <c r="A6" s="28" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
-      <c r="B6" s="26"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="7">
         <v>35.259300000000003</v>
       </c>
@@ -2834,98 +3539,98 @@
       <c r="G6">
         <v>0.21132500000000001</v>
       </c>
-      <c r="H6" s="32">
+      <c r="H6" s="23">
         <f t="shared" si="0"/>
         <v>28.176666666666669</v>
       </c>
-      <c r="I6" s="23">
+      <c r="I6" s="21">
         <v>0.84282800000000002</v>
       </c>
-      <c r="J6" s="19">
+      <c r="J6" s="17">
         <v>0.15717200000000001</v>
       </c>
-      <c r="K6" s="23">
+      <c r="K6" s="21">
         <v>18230</v>
       </c>
-      <c r="L6" s="19">
+      <c r="L6" s="17">
         <v>1532</v>
       </c>
-      <c r="M6" s="19">
+      <c r="M6" s="17">
         <f t="shared" ref="M6:M11" si="1">K6+L6</f>
         <v>19762</v>
       </c>
-      <c r="N6" s="23">
+      <c r="N6" s="21">
         <v>252100</v>
       </c>
-      <c r="O6" s="19">
+      <c r="O6" s="17">
         <v>224100</v>
       </c>
-      <c r="P6" s="19">
+      <c r="P6" s="17">
         <f t="shared" ref="P6:P11" si="2">N6+O6</f>
         <v>476200</v>
       </c>
-      <c r="Q6" s="23">
+      <c r="Q6" s="21">
         <v>117.6</v>
       </c>
-      <c r="R6" s="19">
+      <c r="R6" s="17">
         <v>100.1</v>
       </c>
-      <c r="S6" s="19">
+      <c r="S6" s="17">
         <f t="shared" ref="S6:S11" si="3">Q6+R6</f>
         <v>217.7</v>
       </c>
-      <c r="T6" s="23">
+      <c r="T6" s="21">
         <v>2.08</v>
       </c>
-      <c r="U6" s="19">
+      <c r="U6" s="17">
         <v>2.5310000000000001</v>
       </c>
-      <c r="V6" s="19">
+      <c r="V6" s="17">
         <f t="shared" ref="V6:V11" si="4">T6+U6</f>
         <v>4.6110000000000007</v>
       </c>
-      <c r="W6" s="23">
+      <c r="W6" s="21">
         <v>9.1579999999999995E-2</v>
       </c>
-      <c r="X6" s="19">
+      <c r="X6" s="17">
         <v>0.1072</v>
       </c>
-      <c r="Y6" s="19">
+      <c r="Y6" s="17">
         <f t="shared" ref="Y6:Y11" si="5">W6+X6</f>
         <v>0.19878000000000001</v>
       </c>
-      <c r="Z6" s="23">
+      <c r="Z6" s="21">
         <f t="shared" ref="Z6:Z11" si="6">Q6+T6+W6</f>
         <v>119.77157999999999</v>
       </c>
-      <c r="AA6" s="19">
+      <c r="AA6" s="17">
         <f t="shared" ref="AA6:AA11" si="7">R6+U6+X6</f>
         <v>102.73820000000001</v>
       </c>
-      <c r="AB6" s="19">
+      <c r="AB6" s="17">
         <f t="shared" ref="AB6:AB11" si="8">Z6+AA6</f>
         <v>222.50977999999998</v>
       </c>
-      <c r="AC6" s="23">
+      <c r="AC6" s="21">
         <f t="shared" ref="AC6:AE11" si="9">Q6/Z6</f>
         <v>0.98186898761793084</v>
       </c>
-      <c r="AD6" s="30">
+      <c r="AD6" s="17">
         <f t="shared" si="9"/>
         <v>0.9743211385833116</v>
       </c>
-      <c r="AE6" s="30">
+      <c r="AE6" s="17">
         <f t="shared" si="9"/>
         <v>0.97838396137014749</v>
       </c>
-      <c r="AG6" s="35">
+      <c r="AG6" s="25">
         <f>4.77*222.50978*7</f>
         <v>7429.6015541999986</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A7" s="25"/>
-      <c r="B7" s="26"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="29"/>
       <c r="C7" s="7">
         <v>352.59300000000002</v>
       </c>
@@ -2941,94 +3646,94 @@
       <c r="G7">
         <v>0.15699299999999999</v>
       </c>
-      <c r="H7" s="32">
+      <c r="H7" s="23">
         <f t="shared" si="0"/>
         <v>20.932400000000001</v>
       </c>
-      <c r="I7" s="23">
+      <c r="I7" s="21">
         <v>0.79603299999999999</v>
       </c>
-      <c r="J7" s="19">
+      <c r="J7" s="17">
         <v>0.20396700000000001</v>
       </c>
-      <c r="K7" s="23">
+      <c r="K7" s="21">
         <v>14010</v>
       </c>
-      <c r="L7" s="19">
+      <c r="L7" s="17">
         <v>1078</v>
       </c>
-      <c r="M7" s="19">
+      <c r="M7" s="17">
         <f t="shared" si="1"/>
         <v>15088</v>
       </c>
-      <c r="N7" s="23">
+      <c r="N7" s="21">
         <v>250600</v>
       </c>
-      <c r="O7" s="19">
+      <c r="O7" s="17">
         <v>223200</v>
       </c>
-      <c r="P7" s="19">
+      <c r="P7" s="17">
         <f t="shared" si="2"/>
         <v>473800</v>
       </c>
-      <c r="Q7" s="23">
+      <c r="Q7" s="21">
         <v>893.3</v>
       </c>
-      <c r="R7" s="19">
+      <c r="R7" s="17">
         <v>576.79999999999995</v>
       </c>
-      <c r="S7" s="19">
+      <c r="S7" s="17">
         <f t="shared" si="3"/>
         <v>1470.1</v>
       </c>
-      <c r="T7" s="23">
+      <c r="T7" s="21">
         <v>122.3</v>
       </c>
-      <c r="U7" s="19">
+      <c r="U7" s="17">
         <v>103.5</v>
       </c>
-      <c r="V7" s="19">
+      <c r="V7" s="17">
         <f t="shared" si="4"/>
         <v>225.8</v>
       </c>
-      <c r="W7" s="23">
+      <c r="W7" s="21">
         <v>56.26</v>
       </c>
-      <c r="X7" s="19">
+      <c r="X7" s="17">
         <v>35.72</v>
       </c>
-      <c r="Y7" s="19">
+      <c r="Y7" s="17">
         <f t="shared" si="5"/>
         <v>91.97999999999999</v>
       </c>
-      <c r="Z7" s="23">
+      <c r="Z7" s="21">
         <f t="shared" si="6"/>
         <v>1071.8599999999999</v>
       </c>
-      <c r="AA7" s="19">
+      <c r="AA7" s="17">
         <f t="shared" si="7"/>
         <v>716.02</v>
       </c>
-      <c r="AB7" s="19">
+      <c r="AB7" s="17">
         <f t="shared" si="8"/>
         <v>1787.8799999999999</v>
       </c>
-      <c r="AC7" s="23">
+      <c r="AC7" s="21">
         <f t="shared" si="9"/>
         <v>0.83341107980519846</v>
       </c>
-      <c r="AD7" s="30">
+      <c r="AD7" s="17">
         <f t="shared" si="9"/>
         <v>0.8055640903885366</v>
       </c>
-      <c r="AE7" s="30">
+      <c r="AE7" s="17">
         <f t="shared" si="9"/>
         <v>0.82225876457032909</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A8" s="25"/>
-      <c r="B8" s="26"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="29"/>
       <c r="C8" s="7">
         <v>705.18499999999995</v>
       </c>
@@ -3044,94 +3749,94 @@
       <c r="G8">
         <v>9.6804000000000001E-2</v>
       </c>
-      <c r="H8" s="32">
+      <c r="H8" s="23">
         <f t="shared" si="0"/>
         <v>12.907200000000001</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="21">
         <v>0.76228899999999999</v>
       </c>
-      <c r="J8" s="19">
+      <c r="J8" s="17">
         <v>0.23771100000000001</v>
       </c>
-      <c r="K8" s="23">
+      <c r="K8" s="21">
         <v>10220</v>
       </c>
-      <c r="L8" s="19">
+      <c r="L8" s="17">
         <v>720.4</v>
       </c>
-      <c r="M8" s="19">
+      <c r="M8" s="17">
         <f t="shared" si="1"/>
         <v>10940.4</v>
       </c>
-      <c r="N8" s="23">
+      <c r="N8" s="21">
         <v>248800</v>
       </c>
-      <c r="O8" s="19">
+      <c r="O8" s="17">
         <v>221900</v>
       </c>
-      <c r="P8" s="19">
+      <c r="P8" s="17">
         <f t="shared" si="2"/>
         <v>470700</v>
       </c>
-      <c r="Q8" s="23">
+      <c r="Q8" s="21">
         <v>1315</v>
       </c>
-      <c r="R8" s="19">
+      <c r="R8" s="17">
         <v>837.7</v>
       </c>
-      <c r="S8" s="19">
+      <c r="S8" s="17">
         <f t="shared" si="3"/>
         <v>2152.6999999999998</v>
       </c>
-      <c r="T8" s="23">
+      <c r="T8" s="21">
         <v>291</v>
       </c>
-      <c r="U8" s="19">
+      <c r="U8" s="17">
         <v>240.4</v>
       </c>
-      <c r="V8" s="19">
+      <c r="V8" s="17">
         <f t="shared" si="4"/>
         <v>531.4</v>
       </c>
-      <c r="W8" s="23">
+      <c r="W8" s="21">
         <v>201</v>
       </c>
-      <c r="X8" s="19">
+      <c r="X8" s="17">
         <v>124.9</v>
       </c>
-      <c r="Y8" s="19">
+      <c r="Y8" s="17">
         <f t="shared" si="5"/>
         <v>325.89999999999998</v>
       </c>
-      <c r="Z8" s="23">
+      <c r="Z8" s="21">
         <f t="shared" si="6"/>
         <v>1807</v>
       </c>
-      <c r="AA8" s="19">
+      <c r="AA8" s="17">
         <f t="shared" si="7"/>
         <v>1203.0000000000002</v>
       </c>
-      <c r="AB8" s="19">
+      <c r="AB8" s="17">
         <f t="shared" si="8"/>
         <v>3010</v>
       </c>
-      <c r="AC8" s="23">
+      <c r="AC8" s="21">
         <f t="shared" si="9"/>
         <v>0.7277255118981738</v>
       </c>
-      <c r="AD8" s="30">
+      <c r="AD8" s="17">
         <f t="shared" si="9"/>
         <v>0.69634247714048203</v>
       </c>
-      <c r="AE8" s="30">
+      <c r="AE8" s="17">
         <f t="shared" si="9"/>
         <v>0.71518272425249163</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A9" s="25"/>
-      <c r="B9" s="26"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="29"/>
       <c r="C9" s="7">
         <v>1057.78</v>
       </c>
@@ -3147,94 +3852,94 @@
       <c r="G9">
         <v>3.4423000000000002E-2</v>
       </c>
-      <c r="H9" s="32">
+      <c r="H9" s="23">
         <f t="shared" si="0"/>
         <v>4.5897333333333341</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I9" s="21">
         <v>0.73345199999999999</v>
       </c>
-      <c r="J9" s="19">
+      <c r="J9" s="17">
         <v>0.26654800000000001</v>
       </c>
-      <c r="K9" s="23">
+      <c r="K9" s="21">
         <v>7165</v>
       </c>
-      <c r="L9" s="19">
+      <c r="L9" s="17">
         <v>473.9</v>
       </c>
-      <c r="M9" s="19">
+      <c r="M9" s="17">
         <f t="shared" si="1"/>
         <v>7638.9</v>
       </c>
-      <c r="N9" s="23">
+      <c r="N9" s="21">
         <v>246800</v>
       </c>
-      <c r="O9" s="19">
+      <c r="O9" s="17">
         <v>220500</v>
       </c>
-      <c r="P9" s="19">
+      <c r="P9" s="17">
         <f t="shared" si="2"/>
         <v>467300</v>
       </c>
-      <c r="Q9" s="23">
+      <c r="Q9" s="21">
         <v>1503</v>
       </c>
-      <c r="R9" s="19">
+      <c r="R9" s="17">
         <v>975.7</v>
       </c>
-      <c r="S9" s="19">
+      <c r="S9" s="17">
         <f t="shared" si="3"/>
         <v>2478.6999999999998</v>
       </c>
-      <c r="T9" s="23">
+      <c r="T9" s="21">
         <v>457.8</v>
       </c>
-      <c r="U9" s="19">
+      <c r="U9" s="17">
         <v>366</v>
       </c>
-      <c r="V9" s="19">
+      <c r="V9" s="17">
         <f t="shared" si="4"/>
         <v>823.8</v>
       </c>
-      <c r="W9" s="23">
+      <c r="W9" s="21">
         <v>334.8</v>
       </c>
-      <c r="X9" s="19">
+      <c r="X9" s="17">
         <v>206.4</v>
       </c>
-      <c r="Y9" s="19">
+      <c r="Y9" s="17">
         <f t="shared" si="5"/>
         <v>541.20000000000005</v>
       </c>
-      <c r="Z9" s="23">
+      <c r="Z9" s="21">
         <f t="shared" si="6"/>
         <v>2295.6</v>
       </c>
-      <c r="AA9" s="19">
+      <c r="AA9" s="17">
         <f t="shared" si="7"/>
         <v>1548.1000000000001</v>
       </c>
-      <c r="AB9" s="19">
+      <c r="AB9" s="17">
         <f t="shared" si="8"/>
         <v>3843.7</v>
       </c>
-      <c r="AC9" s="23">
+      <c r="AC9" s="21">
         <f t="shared" si="9"/>
         <v>0.65473078933612128</v>
       </c>
-      <c r="AD9" s="30">
+      <c r="AD9" s="17">
         <f t="shared" si="9"/>
         <v>0.63025644338221043</v>
       </c>
-      <c r="AE9" s="30">
+      <c r="AE9" s="17">
         <f t="shared" si="9"/>
         <v>0.64487342924786006</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A10" s="25"/>
-      <c r="B10" s="26"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="29"/>
       <c r="C10" s="7">
         <v>1410.37</v>
       </c>
@@ -3250,205 +3955,205 @@
       <c r="G10">
         <v>-3.2662999999999998E-2</v>
       </c>
-      <c r="H10" s="32">
+      <c r="H10" s="23">
         <f t="shared" si="0"/>
         <v>-4.3550666666666666</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I10" s="21">
         <v>0.70491000000000004</v>
       </c>
-      <c r="J10" s="19">
+      <c r="J10" s="17">
         <v>0.29509000000000002</v>
       </c>
-      <c r="K10" s="23">
+      <c r="K10" s="21">
         <v>4755</v>
       </c>
-      <c r="L10" s="19">
+      <c r="L10" s="17">
         <v>304.8</v>
       </c>
-      <c r="M10" s="19">
+      <c r="M10" s="17">
         <f t="shared" si="1"/>
         <v>5059.8</v>
       </c>
-      <c r="N10" s="23">
+      <c r="N10" s="21">
         <v>244600</v>
       </c>
-      <c r="O10" s="19">
+      <c r="O10" s="17">
         <v>218900</v>
       </c>
-      <c r="P10" s="19">
+      <c r="P10" s="17">
         <f t="shared" si="2"/>
         <v>463500</v>
       </c>
-      <c r="Q10" s="23">
+      <c r="Q10" s="21">
         <v>1555</v>
       </c>
-      <c r="R10" s="19">
+      <c r="R10" s="17">
         <v>1052</v>
       </c>
-      <c r="S10" s="19">
+      <c r="S10" s="17">
         <f t="shared" si="3"/>
         <v>2607</v>
       </c>
-      <c r="T10" s="23">
+      <c r="T10" s="21">
         <v>605.20000000000005</v>
       </c>
-      <c r="U10" s="19">
+      <c r="U10" s="17">
         <v>472.7</v>
       </c>
-      <c r="V10" s="19">
+      <c r="V10" s="17">
         <f t="shared" si="4"/>
         <v>1077.9000000000001</v>
       </c>
-      <c r="W10" s="23">
+      <c r="W10" s="21">
         <v>429.9</v>
       </c>
-      <c r="X10" s="19">
+      <c r="X10" s="17">
         <v>269.39999999999998</v>
       </c>
-      <c r="Y10" s="19">
+      <c r="Y10" s="17">
         <f t="shared" si="5"/>
         <v>699.3</v>
       </c>
-      <c r="Z10" s="23">
+      <c r="Z10" s="21">
         <f t="shared" si="6"/>
         <v>2590.1</v>
       </c>
-      <c r="AA10" s="19">
+      <c r="AA10" s="17">
         <f t="shared" si="7"/>
         <v>1794.1</v>
       </c>
-      <c r="AB10" s="19">
+      <c r="AB10" s="17">
         <f t="shared" si="8"/>
         <v>4384.2</v>
       </c>
-      <c r="AC10" s="23">
+      <c r="AC10" s="21">
         <f t="shared" si="9"/>
         <v>0.6003629203505656</v>
       </c>
-      <c r="AD10" s="30">
+      <c r="AD10" s="17">
         <f t="shared" si="9"/>
         <v>0.58636642327629451</v>
       </c>
-      <c r="AE10" s="30">
+      <c r="AE10" s="17">
         <f t="shared" si="9"/>
         <v>0.59463528123716991</v>
       </c>
     </row>
-    <row r="11" spans="1:33" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="27"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="22">
+    <row r="11" spans="1:33" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="30"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="20">
         <v>1762.96</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="18">
         <v>50</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="18">
         <v>0.90683000000000002</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="18">
         <v>2.1000000000000001E-4</v>
       </c>
-      <c r="G11" s="20">
+      <c r="G11" s="18">
         <v>-0.102743</v>
       </c>
-      <c r="H11" s="33">
+      <c r="H11" s="24">
         <f t="shared" si="0"/>
         <v>-13.699066666666667</v>
       </c>
-      <c r="I11" s="24">
+      <c r="I11" s="22">
         <v>0.67607200000000001</v>
       </c>
-      <c r="J11" s="21">
+      <c r="J11" s="19">
         <v>0.32392799999999999</v>
       </c>
-      <c r="K11" s="24">
+      <c r="K11" s="22">
         <v>2954</v>
       </c>
-      <c r="L11" s="21">
+      <c r="L11" s="19">
         <v>190.3</v>
       </c>
-      <c r="M11" s="21">
+      <c r="M11" s="19">
         <f t="shared" si="1"/>
         <v>3144.3</v>
       </c>
-      <c r="N11" s="24">
+      <c r="N11" s="22">
         <v>242200</v>
       </c>
-      <c r="O11" s="21">
+      <c r="O11" s="19">
         <v>217300</v>
       </c>
-      <c r="P11" s="21">
+      <c r="P11" s="19">
         <f t="shared" si="2"/>
         <v>459500</v>
       </c>
-      <c r="Q11" s="24">
+      <c r="Q11" s="22">
         <v>1536</v>
       </c>
-      <c r="R11" s="21">
+      <c r="R11" s="19">
         <v>1094</v>
       </c>
-      <c r="S11" s="21">
+      <c r="S11" s="19">
         <f t="shared" si="3"/>
         <v>2630</v>
       </c>
-      <c r="T11" s="24">
+      <c r="T11" s="22">
         <v>721</v>
       </c>
-      <c r="U11" s="21">
+      <c r="U11" s="19">
         <v>559.5</v>
       </c>
-      <c r="V11" s="21">
+      <c r="V11" s="19">
         <f t="shared" si="4"/>
         <v>1280.5</v>
       </c>
-      <c r="W11" s="24">
+      <c r="W11" s="22">
         <v>486</v>
       </c>
-      <c r="X11" s="21">
+      <c r="X11" s="19">
         <v>315.89999999999998</v>
       </c>
-      <c r="Y11" s="21">
+      <c r="Y11" s="19">
         <f t="shared" si="5"/>
         <v>801.9</v>
       </c>
-      <c r="Z11" s="24">
+      <c r="Z11" s="22">
         <f t="shared" si="6"/>
         <v>2743</v>
       </c>
-      <c r="AA11" s="21">
+      <c r="AA11" s="19">
         <f t="shared" si="7"/>
         <v>1969.4</v>
       </c>
-      <c r="AB11" s="21">
+      <c r="AB11" s="19">
         <f t="shared" si="8"/>
         <v>4712.3999999999996</v>
       </c>
-      <c r="AC11" s="24">
+      <c r="AC11" s="22">
         <f t="shared" si="9"/>
         <v>0.55997083485235144</v>
       </c>
-      <c r="AD11" s="21">
+      <c r="AD11" s="19">
         <f t="shared" si="9"/>
         <v>0.55549913679293184</v>
       </c>
-      <c r="AE11" s="21">
+      <c r="AE11" s="19">
         <f t="shared" si="9"/>
         <v>0.55810202869026404</v>
       </c>
     </row>
-    <row r="12" spans="1:33" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="22"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="Q12" s="22"/>
-      <c r="T12" s="22"/>
-      <c r="W12" s="22"/>
-      <c r="Z12" s="22"/>
-      <c r="AC12" s="22"/>
+    <row r="12" spans="1:33" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="20"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="W12" s="20"/>
+      <c r="Z12" s="20"/>
+      <c r="AC12" s="20"/>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
@@ -3574,10 +4279,10 @@
       <c r="AC14" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="AD14" s="29" t="s">
+      <c r="AD14" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AE14" s="29" t="s">
+      <c r="AE14" s="1" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3603,23 +4308,23 @@
       <c r="G15">
         <v>0.18729599999999999</v>
       </c>
-      <c r="H15" s="32">
+      <c r="H15" s="23">
         <f>G15/0.0075</f>
         <v>24.972799999999999</v>
       </c>
-      <c r="I15" s="23">
+      <c r="I15" s="21">
         <v>0.63836199999999999</v>
       </c>
-      <c r="J15" s="19">
+      <c r="J15" s="17">
         <v>0.36163800000000001</v>
       </c>
       <c r="Z15" s="7">
         <v>0</v>
       </c>
-      <c r="AA15" s="31">
+      <c r="AA15">
         <v>0</v>
       </c>
-      <c r="AB15" s="31">
+      <c r="AB15">
         <v>0</v>
       </c>
     </row>
@@ -3645,87 +4350,87 @@
       <c r="G16">
         <v>0.16094</v>
       </c>
-      <c r="H16" s="32">
+      <c r="H16" s="23">
         <f t="shared" ref="H16:H22" si="10">G16/0.0075</f>
         <v>21.458666666666666</v>
       </c>
-      <c r="I16" s="23">
+      <c r="I16" s="21">
         <v>0.634965</v>
       </c>
-      <c r="J16" s="19">
+      <c r="J16" s="17">
         <v>0.365035</v>
       </c>
-      <c r="K16" s="23">
+      <c r="K16" s="21">
         <v>14020</v>
       </c>
-      <c r="L16" s="19">
+      <c r="L16" s="17">
         <v>2069</v>
       </c>
-      <c r="M16" s="19">
+      <c r="M16" s="17">
         <f>K16+L16</f>
         <v>16089</v>
       </c>
-      <c r="N16" s="23">
+      <c r="N16" s="21">
         <v>189200</v>
       </c>
-      <c r="O16" s="19">
+      <c r="O16" s="17">
         <v>291500</v>
       </c>
-      <c r="P16" s="19">
+      <c r="P16" s="17">
         <f>N16+O16</f>
         <v>480700</v>
       </c>
-      <c r="Q16" s="23">
+      <c r="Q16" s="21">
         <v>3.5760000000000001</v>
       </c>
-      <c r="R16" s="19">
+      <c r="R16" s="17">
         <v>10.199999999999999</v>
       </c>
-      <c r="S16" s="19">
+      <c r="S16" s="17">
         <f>Q16+R16</f>
         <v>13.776</v>
       </c>
-      <c r="T16" s="23">
+      <c r="T16" s="21">
         <v>1.0059999999999999E-2</v>
       </c>
-      <c r="U16" s="19">
+      <c r="U16" s="17">
         <v>6.6710000000000005E-2</v>
       </c>
-      <c r="V16" s="19">
+      <c r="V16" s="17">
         <f>T16+U16</f>
         <v>7.6770000000000005E-2</v>
       </c>
-      <c r="W16" s="23">
+      <c r="W16" s="21">
         <v>9.9599999999999995E-6</v>
       </c>
-      <c r="X16" s="19">
+      <c r="X16" s="17">
         <v>4.7029999999999999E-4</v>
       </c>
-      <c r="Y16" s="19">
+      <c r="Y16" s="17">
         <f>W16+X16</f>
         <v>4.8025999999999999E-4</v>
       </c>
-      <c r="Z16" s="23">
+      <c r="Z16" s="21">
         <f>Q16+T16+W16</f>
         <v>3.5860699600000001</v>
       </c>
-      <c r="AA16" s="19">
+      <c r="AA16" s="17">
         <f>R16+U16+X16</f>
         <v>10.2671803</v>
       </c>
-      <c r="AB16" s="19">
+      <c r="AB16" s="17">
         <f>Z16+AA16</f>
         <v>13.853250259999999</v>
       </c>
-      <c r="AC16" s="23">
+      <c r="AC16" s="21">
         <f>Q16/Z16</f>
         <v>0.99719192316036132</v>
       </c>
-      <c r="AD16" s="30">
+      <c r="AD16" s="17">
         <f>R16/AA16</f>
         <v>0.99345679163733003</v>
       </c>
-      <c r="AE16" s="30">
+      <c r="AE16" s="17">
         <f>S16/AB16</f>
         <v>0.99442367252809594</v>
       </c>
@@ -3734,10 +4439,10 @@
       </c>
     </row>
     <row r="17" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A17" s="25" t="e" vm="1">
+      <c r="A17" s="28" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
-      <c r="B17" s="26"/>
+      <c r="B17" s="29"/>
       <c r="C17" s="7">
         <v>35.259300000000003</v>
       </c>
@@ -3753,91 +4458,91 @@
       <c r="G17">
         <v>0.15795899999999999</v>
       </c>
-      <c r="H17" s="32">
+      <c r="H17" s="23">
         <f t="shared" si="10"/>
         <v>21.061199999999999</v>
       </c>
-      <c r="I17" s="23">
+      <c r="I17" s="21">
         <v>0.61049100000000001</v>
       </c>
-      <c r="J17" s="19">
+      <c r="J17" s="17">
         <v>0.38950899999999999</v>
       </c>
-      <c r="K17" s="23">
+      <c r="K17" s="21">
         <v>13670</v>
       </c>
-      <c r="L17" s="19">
+      <c r="L17" s="17">
         <v>1907</v>
       </c>
-      <c r="M17" s="19">
+      <c r="M17" s="17">
         <f t="shared" ref="M17:M22" si="11">K17+L17</f>
         <v>15577</v>
       </c>
-      <c r="N17" s="23">
+      <c r="N17" s="21">
         <v>189100</v>
       </c>
-      <c r="O17" s="19">
+      <c r="O17" s="17">
         <v>291200</v>
       </c>
-      <c r="P17" s="19">
+      <c r="P17" s="17">
         <f t="shared" ref="P17:P22" si="12">N17+O17</f>
         <v>480300</v>
       </c>
-      <c r="Q17" s="23">
+      <c r="Q17" s="21">
         <v>84.6</v>
       </c>
-      <c r="R17" s="19">
+      <c r="R17" s="17">
         <v>210.4</v>
       </c>
-      <c r="S17" s="19">
+      <c r="S17" s="17">
         <f t="shared" ref="S17:S22" si="13">Q17+R17</f>
         <v>295</v>
       </c>
-      <c r="T17" s="23">
+      <c r="T17" s="21">
         <v>1.474</v>
       </c>
-      <c r="U17" s="19">
+      <c r="U17" s="17">
         <v>9.7750000000000004</v>
       </c>
-      <c r="V17" s="19">
+      <c r="V17" s="17">
         <f t="shared" ref="V17:V22" si="14">T17+U17</f>
         <v>11.249000000000001</v>
       </c>
-      <c r="W17" s="23">
+      <c r="W17" s="21">
         <v>6.173E-2</v>
       </c>
-      <c r="X17" s="19">
+      <c r="X17" s="17">
         <v>8.0299999999999996E-2</v>
       </c>
-      <c r="Y17" s="19">
+      <c r="Y17" s="17">
         <f t="shared" ref="Y17:Y22" si="15">W17+X17</f>
         <v>0.14202999999999999</v>
       </c>
-      <c r="Z17" s="23">
+      <c r="Z17" s="21">
         <f t="shared" ref="Z17:Z22" si="16">Q17+T17+W17</f>
         <v>86.135729999999995</v>
       </c>
-      <c r="AA17" s="19">
+      <c r="AA17" s="17">
         <f t="shared" ref="AA17:AA22" si="17">R17+U17+X17</f>
         <v>220.25530000000001</v>
       </c>
-      <c r="AB17" s="19">
+      <c r="AB17" s="17">
         <f t="shared" ref="AB17:AB22" si="18">Z17+AA17</f>
         <v>306.39103</v>
       </c>
-      <c r="AC17" s="23">
+      <c r="AC17" s="21">
         <f t="shared" ref="AC17:AC22" si="19">Q17/Z17</f>
         <v>0.98217081343595736</v>
       </c>
-      <c r="AD17" s="30">
+      <c r="AD17" s="17">
         <f t="shared" ref="AD17:AD22" si="20">R17/AA17</f>
         <v>0.95525510623353904</v>
       </c>
-      <c r="AE17" s="30">
+      <c r="AE17" s="17">
         <f t="shared" ref="AE17:AE22" si="21">S17/AB17</f>
         <v>0.96282192073312334</v>
       </c>
-      <c r="AG17" s="35">
+      <c r="AG17" s="25">
         <f>4.77*306.39103*7</f>
         <v>10230.396491699998</v>
       </c>
@@ -3846,8 +4551,8 @@
       </c>
     </row>
     <row r="18" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A18" s="25"/>
-      <c r="B18" s="26"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="29"/>
       <c r="C18" s="7">
         <v>352.59300000000002</v>
       </c>
@@ -3863,94 +4568,94 @@
       <c r="G18">
         <v>0.103935</v>
       </c>
-      <c r="H18" s="32">
+      <c r="H18" s="23">
         <f t="shared" si="10"/>
         <v>13.858000000000001</v>
       </c>
-      <c r="I18" s="23">
+      <c r="I18" s="21">
         <v>0.54753300000000005</v>
       </c>
-      <c r="J18" s="19">
+      <c r="J18" s="17">
         <v>0.45246700000000001</v>
       </c>
-      <c r="K18" s="23">
+      <c r="K18" s="21">
         <v>10610</v>
       </c>
-      <c r="L18" s="19">
+      <c r="L18" s="17">
         <v>1002</v>
       </c>
-      <c r="M18" s="19">
+      <c r="M18" s="17">
         <f t="shared" si="11"/>
         <v>11612</v>
       </c>
-      <c r="N18" s="23">
+      <c r="N18" s="21">
         <v>188000</v>
       </c>
-      <c r="O18" s="19">
+      <c r="O18" s="17">
         <v>289100</v>
       </c>
-      <c r="P18" s="19">
+      <c r="P18" s="17">
         <f t="shared" si="12"/>
         <v>477100</v>
       </c>
-      <c r="Q18" s="23">
+      <c r="Q18" s="21">
         <v>641.79999999999995</v>
       </c>
-      <c r="R18" s="19">
+      <c r="R18" s="17">
         <v>878.8</v>
       </c>
-      <c r="S18" s="19">
+      <c r="S18" s="17">
         <f t="shared" si="13"/>
         <v>1520.6</v>
       </c>
-      <c r="T18" s="23">
+      <c r="T18" s="21">
         <v>86.36</v>
       </c>
-      <c r="U18" s="19">
+      <c r="U18" s="17">
         <v>250.7</v>
       </c>
-      <c r="V18" s="19">
+      <c r="V18" s="17">
         <f t="shared" si="14"/>
         <v>337.06</v>
       </c>
-      <c r="W18" s="23">
+      <c r="W18" s="21">
         <v>37.18</v>
       </c>
-      <c r="X18" s="19">
+      <c r="X18" s="17">
         <v>124.9</v>
       </c>
-      <c r="Y18" s="19">
+      <c r="Y18" s="17">
         <f t="shared" si="15"/>
         <v>162.08000000000001</v>
       </c>
-      <c r="Z18" s="23">
+      <c r="Z18" s="21">
         <f t="shared" si="16"/>
         <v>765.33999999999992</v>
       </c>
-      <c r="AA18" s="19">
+      <c r="AA18" s="17">
         <f t="shared" si="17"/>
         <v>1254.4000000000001</v>
       </c>
-      <c r="AB18" s="19">
+      <c r="AB18" s="17">
         <f t="shared" si="18"/>
         <v>2019.74</v>
       </c>
-      <c r="AC18" s="23">
+      <c r="AC18" s="21">
         <f t="shared" si="19"/>
         <v>0.8385815454569211</v>
       </c>
-      <c r="AD18" s="30">
+      <c r="AD18" s="17">
         <f t="shared" si="20"/>
         <v>0.70057397959183665</v>
       </c>
-      <c r="AE18" s="30">
+      <c r="AE18" s="17">
         <f t="shared" si="21"/>
         <v>0.75286918118173618</v>
       </c>
     </row>
     <row r="19" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A19" s="25"/>
-      <c r="B19" s="26"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="29"/>
       <c r="C19" s="7">
         <v>705.18499999999995</v>
       </c>
@@ -3966,94 +4671,94 @@
       <c r="G19">
         <v>4.5419000000000001E-2</v>
       </c>
-      <c r="H19" s="32">
+      <c r="H19" s="23">
         <f t="shared" si="10"/>
         <v>6.0558666666666667</v>
       </c>
-      <c r="I19" s="23">
+      <c r="I19" s="21">
         <v>0.51253000000000004</v>
       </c>
-      <c r="J19" s="19">
+      <c r="J19" s="17">
         <v>0.48747000000000001</v>
       </c>
-      <c r="K19" s="23">
+      <c r="K19" s="21">
         <v>7969</v>
       </c>
-      <c r="L19" s="19">
+      <c r="L19" s="17">
         <v>503.3</v>
       </c>
-      <c r="M19" s="19">
+      <c r="M19" s="17">
         <f t="shared" si="11"/>
         <v>8472.2999999999993</v>
       </c>
-      <c r="N19" s="23">
+      <c r="N19" s="21">
         <v>186800</v>
       </c>
-      <c r="O19" s="19">
+      <c r="O19" s="17">
         <v>286500</v>
       </c>
-      <c r="P19" s="19">
+      <c r="P19" s="17">
         <f t="shared" si="12"/>
         <v>473300</v>
       </c>
-      <c r="Q19" s="23">
+      <c r="Q19" s="21">
         <v>951.8</v>
       </c>
-      <c r="R19" s="19">
+      <c r="R19" s="17">
         <v>1143</v>
       </c>
-      <c r="S19" s="19">
+      <c r="S19" s="17">
         <f t="shared" si="13"/>
         <v>2094.8000000000002</v>
       </c>
-      <c r="T19" s="23">
+      <c r="T19" s="21">
         <v>203.8</v>
       </c>
-      <c r="U19" s="19">
+      <c r="U19" s="17">
         <v>478.7</v>
       </c>
-      <c r="V19" s="19">
+      <c r="V19" s="17">
         <f t="shared" si="14"/>
         <v>682.5</v>
       </c>
-      <c r="W19" s="23">
+      <c r="W19" s="21">
         <v>131.5</v>
       </c>
-      <c r="X19" s="19">
+      <c r="X19" s="17">
         <v>272.10000000000002</v>
       </c>
-      <c r="Y19" s="19">
+      <c r="Y19" s="17">
         <f t="shared" si="15"/>
         <v>403.6</v>
       </c>
-      <c r="Z19" s="23">
+      <c r="Z19" s="21">
         <f t="shared" si="16"/>
         <v>1287.0999999999999</v>
       </c>
-      <c r="AA19" s="19">
+      <c r="AA19" s="17">
         <f t="shared" si="17"/>
         <v>1893.8000000000002</v>
       </c>
-      <c r="AB19" s="19">
+      <c r="AB19" s="17">
         <f t="shared" si="18"/>
         <v>3180.9</v>
       </c>
-      <c r="AC19" s="23">
+      <c r="AC19" s="21">
         <f t="shared" si="19"/>
         <v>0.73949188097272944</v>
       </c>
-      <c r="AD19" s="30">
+      <c r="AD19" s="17">
         <f t="shared" si="20"/>
         <v>0.60354842116379759</v>
       </c>
-      <c r="AE19" s="30">
+      <c r="AE19" s="17">
         <f t="shared" si="21"/>
         <v>0.65855575466063065</v>
       </c>
     </row>
     <row r="20" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A20" s="25"/>
-      <c r="B20" s="26"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="29"/>
       <c r="C20" s="7">
         <v>1057.78</v>
       </c>
@@ -4069,94 +4774,94 @@
       <c r="G20">
         <v>-1.2381E-2</v>
       </c>
-      <c r="H20" s="32">
+      <c r="H20" s="23">
         <f t="shared" si="10"/>
         <v>-1.6508</v>
       </c>
-      <c r="I20" s="23">
+      <c r="I20" s="21">
         <v>0.484315</v>
       </c>
-      <c r="J20" s="19">
+      <c r="J20" s="17">
         <v>0.51568499999999995</v>
       </c>
-      <c r="K20" s="23">
+      <c r="K20" s="21">
         <v>5843</v>
       </c>
-      <c r="L20" s="19">
+      <c r="L20" s="17">
         <v>255.6</v>
       </c>
-      <c r="M20" s="19">
+      <c r="M20" s="17">
         <f t="shared" si="11"/>
         <v>6098.6</v>
       </c>
-      <c r="N20" s="23">
+      <c r="N20" s="21">
         <v>185500</v>
       </c>
-      <c r="O20" s="19">
+      <c r="O20" s="17">
         <v>283700</v>
       </c>
-      <c r="P20" s="19">
+      <c r="P20" s="17">
         <f t="shared" si="12"/>
         <v>469200</v>
       </c>
-      <c r="Q20" s="23">
+      <c r="Q20" s="21">
         <v>1098</v>
       </c>
-      <c r="R20" s="19">
+      <c r="R20" s="17">
         <v>1272</v>
       </c>
-      <c r="S20" s="19">
+      <c r="S20" s="17">
         <f t="shared" si="13"/>
         <v>2370</v>
       </c>
-      <c r="T20" s="23">
+      <c r="T20" s="21">
         <v>318.2</v>
       </c>
-      <c r="U20" s="19">
+      <c r="U20" s="17">
         <v>647.20000000000005</v>
       </c>
-      <c r="V20" s="19">
+      <c r="V20" s="17">
         <f t="shared" si="14"/>
         <v>965.40000000000009</v>
       </c>
-      <c r="W20" s="23">
+      <c r="W20" s="21">
         <v>223.1</v>
       </c>
-      <c r="X20" s="19">
+      <c r="X20" s="17">
         <v>362.1</v>
       </c>
-      <c r="Y20" s="19">
+      <c r="Y20" s="17">
         <f t="shared" si="15"/>
         <v>585.20000000000005</v>
       </c>
-      <c r="Z20" s="23">
+      <c r="Z20" s="21">
         <f t="shared" si="16"/>
         <v>1639.3</v>
       </c>
-      <c r="AA20" s="19">
+      <c r="AA20" s="17">
         <f t="shared" si="17"/>
         <v>2281.3000000000002</v>
       </c>
-      <c r="AB20" s="19">
+      <c r="AB20" s="17">
         <f t="shared" si="18"/>
         <v>3920.6000000000004</v>
       </c>
-      <c r="AC20" s="23">
+      <c r="AC20" s="21">
         <f t="shared" si="19"/>
         <v>0.66979808454828282</v>
       </c>
-      <c r="AD20" s="30">
+      <c r="AD20" s="17">
         <f t="shared" si="20"/>
         <v>0.55757682023407706</v>
       </c>
-      <c r="AE20" s="30">
+      <c r="AE20" s="17">
         <f t="shared" si="21"/>
         <v>0.60449931132989843</v>
       </c>
     </row>
     <row r="21" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A21" s="25"/>
-      <c r="B21" s="26"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="29"/>
       <c r="C21" s="7">
         <v>1410.37</v>
       </c>
@@ -4172,190 +4877,190 @@
       <c r="G21">
         <v>-6.8650000000000003E-2</v>
       </c>
-      <c r="H21" s="32">
+      <c r="H21" s="23">
         <f t="shared" si="10"/>
         <v>-9.1533333333333342</v>
       </c>
-      <c r="I21" s="23">
+      <c r="I21" s="21">
         <v>0.455762</v>
       </c>
-      <c r="J21" s="19">
+      <c r="J21" s="17">
         <v>0.544238</v>
       </c>
-      <c r="K21" s="23">
+      <c r="K21" s="21">
         <v>4146</v>
       </c>
-      <c r="L21" s="19">
+      <c r="L21" s="17">
         <v>129.80000000000001</v>
       </c>
-      <c r="M21" s="19">
+      <c r="M21" s="17">
         <f t="shared" si="11"/>
         <v>4275.8</v>
       </c>
-      <c r="N21" s="23">
+      <c r="N21" s="21">
         <v>184100</v>
       </c>
-      <c r="O21" s="19">
+      <c r="O21" s="17">
         <v>280700</v>
       </c>
-      <c r="P21" s="19">
+      <c r="P21" s="17">
         <f t="shared" si="12"/>
         <v>464800</v>
       </c>
-      <c r="Q21" s="23">
+      <c r="Q21" s="21">
         <v>1154</v>
       </c>
-      <c r="R21" s="19">
+      <c r="R21" s="17">
         <v>1347</v>
       </c>
-      <c r="S21" s="19">
+      <c r="S21" s="17">
         <f t="shared" si="13"/>
         <v>2501</v>
       </c>
-      <c r="T21" s="23">
+      <c r="T21" s="21">
         <v>421.4</v>
       </c>
-      <c r="U21" s="19">
+      <c r="U21" s="17">
         <v>765.5</v>
       </c>
-      <c r="V21" s="19">
+      <c r="V21" s="17">
         <f t="shared" si="14"/>
         <v>1186.9000000000001</v>
       </c>
-      <c r="W21" s="23">
+      <c r="W21" s="21">
         <v>292.39999999999998</v>
       </c>
-      <c r="X21" s="19">
+      <c r="X21" s="17">
         <v>421.5</v>
       </c>
-      <c r="Y21" s="19">
+      <c r="Y21" s="17">
         <f t="shared" si="15"/>
         <v>713.9</v>
       </c>
-      <c r="Z21" s="23">
+      <c r="Z21" s="21">
         <f t="shared" si="16"/>
         <v>1867.8000000000002</v>
       </c>
-      <c r="AA21" s="19">
+      <c r="AA21" s="17">
         <f t="shared" si="17"/>
         <v>2534</v>
       </c>
-      <c r="AB21" s="19">
+      <c r="AB21" s="17">
         <f t="shared" si="18"/>
         <v>4401.8</v>
       </c>
-      <c r="AC21" s="23">
+      <c r="AC21" s="21">
         <f t="shared" si="19"/>
         <v>0.61783916907591818</v>
       </c>
-      <c r="AD21" s="30">
+      <c r="AD21" s="17">
         <f t="shared" si="20"/>
         <v>0.5315706393054459</v>
       </c>
-      <c r="AE21" s="30">
+      <c r="AE21" s="17">
         <f t="shared" si="21"/>
         <v>0.56817665500477077</v>
       </c>
     </row>
-    <row r="22" spans="1:51" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="27"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="22">
+    <row r="22" spans="1:51" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="30"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="20">
         <v>1762.96</v>
       </c>
-      <c r="D22" s="20">
+      <c r="D22" s="18">
         <v>50</v>
       </c>
-      <c r="E22" s="20">
+      <c r="E22" s="18">
         <v>0.88985999999999998</v>
       </c>
-      <c r="F22" s="20">
+      <c r="F22" s="18">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="G22" s="20">
+      <c r="G22" s="18">
         <v>-0.12377199999999999</v>
       </c>
-      <c r="H22" s="33">
+      <c r="H22" s="24">
         <f t="shared" si="10"/>
         <v>-16.502933333333335</v>
       </c>
-      <c r="I22" s="24">
+      <c r="I22" s="22">
         <v>0.427315</v>
       </c>
-      <c r="J22" s="21">
+      <c r="J22" s="19">
         <v>0.572685</v>
       </c>
-      <c r="K22" s="24">
+      <c r="K22" s="22">
         <v>2836</v>
       </c>
-      <c r="L22" s="21">
+      <c r="L22" s="19">
         <v>65.459999999999994</v>
       </c>
-      <c r="M22" s="21">
+      <c r="M22" s="19">
         <f t="shared" si="11"/>
         <v>2901.46</v>
       </c>
-      <c r="N22" s="24">
+      <c r="N22" s="22">
         <v>182600</v>
       </c>
-      <c r="O22" s="21">
+      <c r="O22" s="19">
         <v>277600</v>
       </c>
-      <c r="P22" s="21">
+      <c r="P22" s="19">
         <f t="shared" si="12"/>
         <v>460200</v>
       </c>
-      <c r="Q22" s="24">
+      <c r="Q22" s="22">
         <v>1159</v>
       </c>
-      <c r="R22" s="21">
+      <c r="R22" s="19">
         <v>1396</v>
       </c>
-      <c r="S22" s="21">
+      <c r="S22" s="19">
         <f t="shared" si="13"/>
         <v>2555</v>
       </c>
-      <c r="T22" s="24">
+      <c r="T22" s="22">
         <v>7.9</v>
       </c>
-      <c r="U22" s="21">
+      <c r="U22" s="19">
         <v>847.6</v>
       </c>
-      <c r="V22" s="21">
+      <c r="V22" s="19">
         <f t="shared" si="14"/>
         <v>855.5</v>
       </c>
-      <c r="W22" s="24">
+      <c r="W22" s="22">
         <v>337.5</v>
       </c>
-      <c r="X22" s="21">
+      <c r="X22" s="19">
         <v>462.5</v>
       </c>
-      <c r="Y22" s="21">
+      <c r="Y22" s="19">
         <f t="shared" si="15"/>
         <v>800</v>
       </c>
-      <c r="Z22" s="24">
+      <c r="Z22" s="22">
         <f t="shared" si="16"/>
         <v>1504.4</v>
       </c>
-      <c r="AA22" s="21">
+      <c r="AA22" s="19">
         <f t="shared" si="17"/>
         <v>2706.1</v>
       </c>
-      <c r="AB22" s="21">
+      <c r="AB22" s="19">
         <f t="shared" si="18"/>
         <v>4210.5</v>
       </c>
-      <c r="AC22" s="24">
+      <c r="AC22" s="22">
         <f t="shared" si="19"/>
         <v>0.77040680670034556</v>
       </c>
-      <c r="AD22" s="21">
+      <c r="AD22" s="19">
         <f t="shared" si="20"/>
         <v>0.51587154946232583</v>
       </c>
-      <c r="AE22" s="21">
+      <c r="AE22" s="19">
         <f t="shared" si="21"/>
         <v>0.60681629260182879</v>
       </c>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MCNP\dprk-elwr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99DF00EA-2FAF-4C51-B411-626DDD904B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E71A06-DCF3-4599-B0F7-2A3B3674D61B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="87">
   <si>
     <t>Input File</t>
   </si>
@@ -313,9 +313,6 @@
     <t>Rod 2</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>elwr-coreA.inp</t>
   </si>
   <si>
@@ -359,6 +356,21 @@
   </si>
   <si>
     <t>167 days EFPO</t>
+  </si>
+  <si>
+    <t>U metal</t>
+  </si>
+  <si>
+    <t>BOL CXS</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>elwr-coreA-reflBeO.inp</t>
   </si>
 </sst>
 </file>
@@ -366,8 +378,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="0.0000"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -498,7 +510,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -527,6 +539,10 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -545,16 +561,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1838,130 +1844,131 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAC066E8-F6D1-4540-A521-7E3172A66DC3}">
-  <dimension ref="A1:AB28"/>
+  <dimension ref="A1:AC11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="34.33203125" customWidth="1"/>
     <col min="2" max="2" width="11.109375" style="7" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="7"/>
-    <col min="7" max="7" width="8.88671875" style="7"/>
-    <col min="8" max="8" width="6.21875" customWidth="1"/>
-    <col min="9" max="9" width="7.44140625" customWidth="1"/>
-    <col min="11" max="11" width="12.21875" customWidth="1"/>
-    <col min="12" max="12" width="7.44140625" customWidth="1"/>
-    <col min="13" max="13" width="12.21875" customWidth="1"/>
-    <col min="14" max="14" width="7.44140625" customWidth="1"/>
-    <col min="15" max="15" width="8.88671875" style="7"/>
-    <col min="16" max="16" width="6.33203125" customWidth="1"/>
-    <col min="17" max="17" width="7.21875" customWidth="1"/>
-    <col min="19" max="19" width="9.44140625" customWidth="1"/>
-    <col min="20" max="20" width="7.77734375" customWidth="1"/>
-    <col min="21" max="21" width="12.88671875" customWidth="1"/>
-    <col min="22" max="22" width="10.33203125" customWidth="1"/>
-    <col min="23" max="23" width="6.88671875" style="7" customWidth="1"/>
-    <col min="24" max="24" width="8.6640625" style="7" customWidth="1"/>
-    <col min="25" max="25" width="11.77734375" style="7" customWidth="1"/>
-    <col min="26" max="26" width="11.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.44140625" customWidth="1"/>
-    <col min="28" max="28" width="22.21875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="7"/>
+    <col min="8" max="8" width="8.88671875" style="7"/>
+    <col min="9" max="9" width="6.21875" customWidth="1"/>
+    <col min="10" max="10" width="7.44140625" customWidth="1"/>
+    <col min="12" max="12" width="12.21875" customWidth="1"/>
+    <col min="13" max="13" width="7.44140625" customWidth="1"/>
+    <col min="14" max="14" width="12.21875" customWidth="1"/>
+    <col min="15" max="15" width="7.44140625" customWidth="1"/>
+    <col min="16" max="16" width="8.88671875" style="7"/>
+    <col min="17" max="17" width="6.33203125" customWidth="1"/>
+    <col min="18" max="18" width="7.21875" customWidth="1"/>
+    <col min="20" max="20" width="9.44140625" customWidth="1"/>
+    <col min="21" max="21" width="7.77734375" customWidth="1"/>
+    <col min="22" max="22" width="12.88671875" customWidth="1"/>
+    <col min="23" max="23" width="10.33203125" customWidth="1"/>
+    <col min="24" max="24" width="6.88671875" style="7" customWidth="1"/>
+    <col min="25" max="25" width="8.6640625" style="7" customWidth="1"/>
+    <col min="26" max="26" width="11.77734375" style="7" customWidth="1"/>
+    <col min="27" max="27" width="11.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.44140625" customWidth="1"/>
+    <col min="29" max="29" width="22.21875" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1"/>
-      <c r="D1"/>
-      <c r="G1"/>
-      <c r="O1"/>
-      <c r="X1"/>
+      <c r="E1"/>
+      <c r="H1"/>
+      <c r="P1"/>
       <c r="Y1"/>
       <c r="Z1"/>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AA1"/>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B2"/>
-      <c r="C2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D2"/>
-      <c r="E2">
+      <c r="D2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2"/>
+      <c r="F2">
         <f>100*167/4000</f>
         <v>4.1749999999999998</v>
       </c>
-      <c r="G2"/>
-      <c r="O2"/>
-      <c r="X2"/>
+      <c r="H2"/>
+      <c r="P2"/>
       <c r="Y2"/>
       <c r="Z2"/>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AA2"/>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B3"/>
-      <c r="D3"/>
-      <c r="G3"/>
-      <c r="O3"/>
-      <c r="X3"/>
+      <c r="E3"/>
+      <c r="H3"/>
+      <c r="P3"/>
       <c r="Y3"/>
       <c r="Z3"/>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AA3"/>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B4"/>
-      <c r="D4"/>
-      <c r="G4"/>
-      <c r="O4"/>
-      <c r="X4"/>
+      <c r="E4"/>
+      <c r="H4"/>
+      <c r="P4"/>
       <c r="Y4"/>
       <c r="Z4"/>
-    </row>
-    <row r="5" spans="1:28" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="W5" s="32"/>
-      <c r="AB5" s="32"/>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="D6" s="8" t="s">
+      <c r="AA4"/>
+    </row>
+    <row r="5" spans="1:29" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="X5" s="26"/>
+      <c r="AC5" s="26"/>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="E6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="3"/>
+      <c r="H6" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="L6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2" t="s">
+      <c r="O6" s="3"/>
+      <c r="P6" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="W6" s="3"/>
+      <c r="X6" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z6" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA6" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="N6" s="3"/>
-      <c r="O6" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="V6" s="3"/>
-      <c r="W6" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="X6" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y6" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z6" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA6" s="1"/>
-    </row>
-    <row r="7" spans="1:28" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AB6" s="1"/>
+    </row>
+    <row r="7" spans="1:29" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>0</v>
       </c>
@@ -1969,485 +1976,468 @@
         <v>1</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="G7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="H7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="J7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="K7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="L7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="M7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="M7" s="5" t="s">
+      <c r="N7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="5" t="s">
+      <c r="O7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="O7" s="9" t="s">
+      <c r="P7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="P7" s="4" t="s">
+      <c r="Q7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="Q7" s="4" t="s">
+      <c r="R7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="R7" s="4" t="s">
+      <c r="S7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="S7" s="5" t="s">
+      <c r="T7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="T7" s="5" t="s">
+      <c r="U7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="U7" s="5" t="s">
+      <c r="V7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="V7" s="5" t="s">
+      <c r="W7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="W7" s="38" t="s">
+      <c r="X7" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z7" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="X7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y7" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z7" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA7" s="4"/>
-      <c r="AB7" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:29" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="C8" s="15">
         <v>1.22766</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="15">
+        <f>(C8-1)/C8</f>
+        <v>0.18544222341690694</v>
+      </c>
+      <c r="E8" s="7">
         <v>0.40949999999999998</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>144.16</v>
       </c>
-      <c r="F8" s="3">
-        <f>PI()*D8^2*E8</f>
+      <c r="G8" s="3">
+        <f>PI()*E8^2*F8</f>
         <v>75.945572190120131</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>9.5</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>264</v>
       </c>
-      <c r="K8" s="10">
-        <f>F8*J8*I8*((H8*235+(1-H8)*238)/((H8*235+(1-H8)*238)+2*16))</f>
+      <c r="L8" s="10">
+        <f>G8*K8*J8*((I8*235+(1-I8)*238)/((I8*235+(1-I8)*238)+2*16))</f>
         <v>167888.31329069051</v>
       </c>
-      <c r="L8" s="10">
-        <f>F8*J8</f>
+      <c r="M8" s="10">
+        <f>G8*K8</f>
         <v>20049.631058191713</v>
       </c>
-      <c r="M8" s="10">
-        <f>K8*W8</f>
+      <c r="N8" s="10">
+        <f>L8*X8</f>
         <v>3525654.5791045008</v>
       </c>
-      <c r="N8" s="10">
-        <f>L8*W8</f>
+      <c r="O8" s="10">
+        <f>M8*X8</f>
         <v>421042.252222026</v>
       </c>
-      <c r="O8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>0</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>9.5</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>0</v>
       </c>
-      <c r="S8" s="10">
-        <f>F8*R8*Q8*((P8*235+(1-P8)*238)/((P8*235+(1-P8)*238)+2*16))</f>
+      <c r="T8" s="10">
+        <f>G8*S8*R8*((Q8*235+(1-Q8)*238)/((Q8*235+(1-Q8)*238)+2*16))</f>
         <v>0</v>
       </c>
-      <c r="T8" s="10">
-        <f>F8*R8</f>
+      <c r="U8" s="10">
+        <f>G8*S8</f>
         <v>0</v>
       </c>
-      <c r="U8" s="10">
-        <f>S8*W8</f>
+      <c r="V8" s="10">
+        <f>T8*X8</f>
         <v>0</v>
       </c>
-      <c r="V8" s="10">
-        <f>T8*W8</f>
+      <c r="W8" s="10">
+        <f>U8*X8</f>
         <v>0</v>
       </c>
-      <c r="W8" s="37">
+      <c r="X8" s="27">
         <v>21</v>
       </c>
-      <c r="X8" s="13">
-        <f>W8*(L8+T8)</f>
+      <c r="Y8" s="13">
+        <f>X8*(M8+U8)</f>
         <v>421042.252222026</v>
       </c>
-      <c r="Y8" s="13">
-        <f>(I8*L8+Q8*T8)*W8/1000</f>
+      <c r="Z8" s="13">
+        <f>(J8*M8+R8*U8)*X8/1000</f>
         <v>3999.9013961092464</v>
       </c>
-      <c r="Z8" s="40">
-        <f>100000000/(W8*(K8+S8))</f>
+      <c r="AA8" s="28">
+        <f>100000000/(X8*(L8+T8))</f>
         <v>28.363527327001933</v>
       </c>
-      <c r="AB8" s="7" t="e" vm="1">
+      <c r="AC8" s="7" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="120" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="9" spans="1:29" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="15">
+        <v>1.23109</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="7">
+        <v>0.40949999999999998</v>
+      </c>
+      <c r="F9">
+        <v>144.16</v>
+      </c>
+      <c r="G9" s="3">
+        <f>PI()*E9^2*F9</f>
+        <v>75.945572190120131</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="J9">
+        <v>9.5</v>
+      </c>
+      <c r="K9">
+        <v>264</v>
+      </c>
+      <c r="L9" s="10">
+        <f>G9*K9*J9*((I9*235+(1-I9)*238)/((I9*235+(1-I9)*238)+2*16))</f>
+        <v>167888.31329069051</v>
+      </c>
+      <c r="M9" s="10">
+        <f>G9*K9</f>
+        <v>20049.631058191713</v>
+      </c>
+      <c r="N9" s="10">
+        <f>L9*X9</f>
+        <v>3525654.5791045008</v>
+      </c>
+      <c r="O9" s="10">
+        <f>M9*X9</f>
+        <v>421042.252222026</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>9.5</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9" s="10">
+        <f>G9*S9*R9*((Q9*235+(1-Q9)*238)/((Q9*235+(1-Q9)*238)+2*16))</f>
+        <v>0</v>
+      </c>
+      <c r="U9" s="10">
+        <f>G9*S9</f>
+        <v>0</v>
+      </c>
+      <c r="V9" s="10">
+        <f>T9*X9</f>
+        <v>0</v>
+      </c>
+      <c r="W9" s="10">
+        <f>U9*X9</f>
+        <v>0</v>
+      </c>
+      <c r="X9" s="27">
+        <v>21</v>
+      </c>
+      <c r="Y9" s="13">
+        <f>X9*(M9+U9)</f>
+        <v>421042.252222026</v>
+      </c>
+      <c r="Z9" s="13">
+        <f>(J9*M9+R9*U9)*X9/1000</f>
+        <v>3999.9013961092464</v>
+      </c>
+      <c r="AA9" s="28">
+        <f>100000000/(X9*(L9+T9))</f>
+        <v>28.363527327001933</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="15">
+        <v>1.2268699999999999</v>
+      </c>
+      <c r="D10" s="15">
+        <f>(C10-1)/C10</f>
+        <v>0.18491771744357588</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0.40949999999999998</v>
+      </c>
+      <c r="F10">
+        <v>144.16</v>
+      </c>
+      <c r="G10" s="3">
+        <f>PI()*E10^2*F10</f>
+        <v>75.945572190120131</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="29">
+        <v>0.04</v>
+      </c>
+      <c r="J10">
+        <v>9.5</v>
+      </c>
+      <c r="K10">
+        <v>196</v>
+      </c>
+      <c r="L10" s="10">
+        <f>G10*K10*J10*((I10*235+(1-I10)*238)/((I10*235+(1-I10)*238)+2*16))</f>
+        <v>124643.42193135733</v>
+      </c>
+      <c r="M10" s="10">
+        <f>G10*K10</f>
+        <v>14885.332149263546</v>
+      </c>
+      <c r="N10" s="10">
+        <f>L10*X10</f>
+        <v>2617511.8605585038</v>
+      </c>
+      <c r="O10" s="10">
+        <f>M10*X10</f>
+        <v>312591.97513453447</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q10">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R10">
+        <v>9.5</v>
+      </c>
+      <c r="S10">
+        <v>68</v>
+      </c>
+      <c r="T10" s="10">
+        <f>G10*S10*R10*((Q10*235+(1-Q10)*238)/((Q10*235+(1-Q10)*238)+2*16))</f>
+        <v>43244.799905423883</v>
+      </c>
+      <c r="U10" s="10">
+        <f>G10*S10</f>
+        <v>5164.2989089281691</v>
+      </c>
+      <c r="V10" s="10">
+        <f>T10*X10</f>
+        <v>908140.79801390157</v>
+      </c>
+      <c r="W10" s="10">
+        <f>U10*X10</f>
+        <v>108450.27708749156</v>
+      </c>
+      <c r="X10" s="27">
+        <v>21</v>
+      </c>
+      <c r="Y10" s="13">
+        <f>X10*(M10+U10)</f>
+        <v>421042.252222026</v>
+      </c>
+      <c r="Z10" s="13">
+        <f>(J10*M10+R10*U10)*X10/1000</f>
+        <v>3999.9013961092469</v>
+      </c>
+      <c r="AA10" s="28">
+        <f>100000000/(X10*(L10+T10))</f>
+        <v>28.363542777492903</v>
+      </c>
+      <c r="AC10" s="7" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="15">
-        <v>1.2268699999999999</v>
-      </c>
-      <c r="D9" s="7">
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="7">
         <v>0.40949999999999998</v>
       </c>
-      <c r="E9">
+      <c r="F11">
         <v>144.16</v>
       </c>
-      <c r="F9" s="3">
-        <f>PI()*D9^2*E9</f>
+      <c r="G11" s="3">
+        <f>PI()*E11^2*F11</f>
         <v>75.945572190120131</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="H11" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="41">
+      <c r="I11" s="29">
         <v>0.04</v>
       </c>
-      <c r="I9">
+      <c r="J11">
         <v>9.5</v>
       </c>
-      <c r="J9">
+      <c r="K11">
         <v>196</v>
       </c>
-      <c r="K9" s="10">
-        <f>F9*J9*I9*((H9*235+(1-H9)*238)/((H9*235+(1-H9)*238)+2*16))</f>
+      <c r="L11" s="10">
+        <f>G11*K11*J11*((I11*235+(1-I11)*238)/((I11*235+(1-I11)*238)+2*16))</f>
         <v>124643.42193135733</v>
       </c>
-      <c r="L9" s="10">
-        <f>F9*J9</f>
+      <c r="M11" s="10">
+        <f>G11*K11</f>
         <v>14885.332149263546</v>
       </c>
-      <c r="M9" s="10">
-        <f>K9*W9</f>
+      <c r="N11" s="10">
+        <f>L11*X11</f>
         <v>2617511.8605585038</v>
       </c>
-      <c r="N9" s="10">
-        <f>L9*W9</f>
+      <c r="O11" s="10">
+        <f>M11*X11</f>
         <v>312591.97513453447</v>
       </c>
-      <c r="O9" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="P9">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="Q9">
-        <v>9.5</v>
-      </c>
-      <c r="R9">
+      <c r="P11" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q11">
+        <v>7.2040000000000003E-3</v>
+      </c>
+      <c r="R11">
+        <v>18.7</v>
+      </c>
+      <c r="S11">
         <v>68</v>
       </c>
-      <c r="S9" s="10">
-        <f>F9*R9*Q9*((P9*235+(1-P9)*238)/((P9*235+(1-P9)*238)+2*16))</f>
-        <v>43244.799905423883</v>
-      </c>
-      <c r="T9" s="10">
-        <f>F9*R9</f>
+      <c r="T11" s="10">
+        <f>G11*S11*R11*((Q11*235+(1-Q11)*238)/((Q11*235+(1-Q11)*238)+2*16))</f>
+        <v>85125.856820775371</v>
+      </c>
+      <c r="U11" s="10">
+        <f>G11*S11</f>
         <v>5164.2989089281691</v>
       </c>
-      <c r="U9" s="10">
-        <f>S9*W9</f>
-        <v>908140.79801390157</v>
-      </c>
-      <c r="V9" s="10">
-        <f>T9*W9</f>
+      <c r="V11" s="10">
+        <f>T11*X11</f>
+        <v>1787642.9932362828</v>
+      </c>
+      <c r="W11" s="10">
+        <f>U11*X11</f>
         <v>108450.27708749156</v>
       </c>
-      <c r="W9" s="37">
+      <c r="X11" s="27">
         <v>21</v>
       </c>
-      <c r="X9" s="13">
-        <f>W9*(L9+T9)</f>
+      <c r="Y11" s="13">
+        <f>X11*(M11+U11)</f>
         <v>421042.252222026</v>
       </c>
-      <c r="Y9" s="13">
-        <f>(I9*L9+Q9*T9)*W9/1000</f>
-        <v>3999.9013961092469</v>
-      </c>
-      <c r="Z9" s="40">
-        <f>100000000/(W9*(K9+S9))</f>
-        <v>28.363542777492903</v>
-      </c>
-      <c r="AB9" s="7" t="e" vm="2">
+      <c r="Z11" s="13">
+        <f>(J11*M11+R11*U11)*X11/1000</f>
+        <v>4997.6439453141693</v>
+      </c>
+      <c r="AA11" s="28">
+        <f>100000000/(X11*(L11+T11))</f>
+        <v>22.7006775741052</v>
+      </c>
+      <c r="AC11" s="7" t="e" vm="2">
         <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" ht="120" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="15"/>
-      <c r="F10" s="3"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="37"/>
-      <c r="X10" s="13"/>
-      <c r="Y10" s="13"/>
-      <c r="Z10" s="33"/>
-    </row>
-    <row r="11" spans="1:28" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="34"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="34"/>
-      <c r="S11" s="36"/>
-      <c r="T11" s="36"/>
-      <c r="U11" s="36"/>
-      <c r="V11" s="36"/>
-      <c r="W11" s="37"/>
-      <c r="X11" s="37"/>
-      <c r="Y11" s="37"/>
-    </row>
-    <row r="12" spans="1:28" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="34"/>
-      <c r="S12" s="36"/>
-      <c r="T12" s="36"/>
-      <c r="U12" s="36"/>
-      <c r="V12" s="36"/>
-      <c r="W12" s="37"/>
-      <c r="X12" s="37"/>
-      <c r="Y12" s="37"/>
-    </row>
-    <row r="13" spans="1:28" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="34"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="34"/>
-      <c r="R13" s="34"/>
-      <c r="S13" s="36"/>
-      <c r="T13" s="36"/>
-      <c r="U13" s="36"/>
-      <c r="V13" s="36"/>
-      <c r="W13" s="37"/>
-      <c r="X13" s="37"/>
-      <c r="Y13" s="37"/>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="C14" s="34"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="34"/>
-      <c r="R14" s="34"/>
-      <c r="S14" s="34"/>
-      <c r="T14" s="34"/>
-      <c r="U14" s="34"/>
-      <c r="V14" s="34"/>
-      <c r="W14" s="35"/>
-      <c r="X14" s="35"/>
-      <c r="Y14" s="35"/>
-    </row>
-    <row r="15" spans="1:28" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="34"/>
-      <c r="R15" s="34"/>
-      <c r="S15" s="36"/>
-      <c r="T15" s="36"/>
-      <c r="U15" s="36"/>
-      <c r="V15" s="36"/>
-      <c r="W15" s="37"/>
-      <c r="X15" s="37"/>
-      <c r="Y15" s="37"/>
-    </row>
-    <row r="16" spans="1:28" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="34"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="34"/>
-      <c r="Q16" s="34"/>
-      <c r="R16" s="34"/>
-      <c r="S16" s="34"/>
-      <c r="T16" s="34"/>
-      <c r="U16" s="34"/>
-      <c r="V16" s="34"/>
-      <c r="W16" s="35"/>
-      <c r="X16" s="35"/>
-      <c r="Y16" s="35"/>
-    </row>
-    <row r="17" spans="1:25" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="34"/>
-      <c r="S17" s="36"/>
-      <c r="T17" s="36"/>
-      <c r="U17" s="36"/>
-      <c r="V17" s="36"/>
-      <c r="W17" s="37"/>
-      <c r="X17" s="37"/>
-      <c r="Y17" s="37"/>
-    </row>
-    <row r="18" spans="1:25" ht="52.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="1:25" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:25" ht="53.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B27" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B28" s="7" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2685,7 +2675,7 @@
         <f>100000000/(238/(238+32)*4000000)</f>
         <v>28.361344537815125</v>
       </c>
-      <c r="V8" s="26" t="e" vm="3">
+      <c r="V8" s="30" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2747,7 +2737,7 @@
         <f>L9+R9</f>
         <v>24278.644651890612</v>
       </c>
-      <c r="V9" s="27"/>
+      <c r="V9" s="31"/>
     </row>
     <row r="10" spans="1:22" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
@@ -2817,7 +2807,7 @@
         <f>100000000/(238/(238+32)*4000000)</f>
         <v>28.361344537815125</v>
       </c>
-      <c r="V10" s="26" t="e" vm="4">
+      <c r="V10" s="30" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2879,7 +2869,7 @@
         <f>L11+R11</f>
         <v>32371.526202520818</v>
       </c>
-      <c r="V11" s="27"/>
+      <c r="V11" s="31"/>
     </row>
     <row r="12" spans="1:22" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
@@ -2976,7 +2966,7 @@
         <f>100000000/(238/(238+32)*4000000)</f>
         <v>28.361344537815125</v>
       </c>
-      <c r="V15" s="27" t="e" vm="5">
+      <c r="V15" s="31" t="e" vm="5">
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2987,7 +2977,7 @@
       <c r="B16" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="V16" s="27"/>
+      <c r="V16" s="31"/>
     </row>
     <row r="17" spans="1:22" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
@@ -3057,7 +3047,7 @@
         <f>100000000/(238/(238+32)*4000000)</f>
         <v>28.361344537815125</v>
       </c>
-      <c r="V17" s="27" t="e" vm="6">
+      <c r="V17" s="31" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
     </row>
@@ -3086,7 +3076,7 @@
       <c r="O18">
         <v>18.5</v>
       </c>
-      <c r="V18" s="27"/>
+      <c r="V18" s="31"/>
     </row>
     <row r="19" spans="1:22" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
@@ -3113,7 +3103,7 @@
       <c r="O19">
         <v>9.5</v>
       </c>
-      <c r="V19" s="27"/>
+      <c r="V19" s="31"/>
     </row>
     <row r="20" spans="1:22" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -3140,7 +3130,7 @@
       <c r="O20">
         <v>18.5</v>
       </c>
-      <c r="V20" s="27"/>
+      <c r="V20" s="31"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
@@ -3520,10 +3510,10 @@
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A6" s="28" t="e" vm="4">
+      <c r="A6" s="32" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
-      <c r="B6" s="29"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="7">
         <v>35.259300000000003</v>
       </c>
@@ -3629,8 +3619,8 @@
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A7" s="28"/>
-      <c r="B7" s="29"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="7">
         <v>352.59300000000002</v>
       </c>
@@ -3732,8 +3722,8 @@
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A8" s="28"/>
-      <c r="B8" s="29"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="33"/>
       <c r="C8" s="7">
         <v>705.18499999999995</v>
       </c>
@@ -3835,8 +3825,8 @@
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A9" s="28"/>
-      <c r="B9" s="29"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="33"/>
       <c r="C9" s="7">
         <v>1057.78</v>
       </c>
@@ -3938,8 +3928,8 @@
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A10" s="28"/>
-      <c r="B10" s="29"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="33"/>
       <c r="C10" s="7">
         <v>1410.37</v>
       </c>
@@ -4041,8 +4031,8 @@
       </c>
     </row>
     <row r="11" spans="1:33" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="30"/>
-      <c r="B11" s="31"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="35"/>
       <c r="C11" s="20">
         <v>1762.96</v>
       </c>
@@ -4439,10 +4429,10 @@
       </c>
     </row>
     <row r="17" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A17" s="28" t="e" vm="3">
+      <c r="A17" s="32" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
-      <c r="B17" s="29"/>
+      <c r="B17" s="33"/>
       <c r="C17" s="7">
         <v>35.259300000000003</v>
       </c>
@@ -4551,8 +4541,8 @@
       </c>
     </row>
     <row r="18" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A18" s="28"/>
-      <c r="B18" s="29"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="33"/>
       <c r="C18" s="7">
         <v>352.59300000000002</v>
       </c>
@@ -4654,8 +4644,8 @@
       </c>
     </row>
     <row r="19" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A19" s="28"/>
-      <c r="B19" s="29"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="33"/>
       <c r="C19" s="7">
         <v>705.18499999999995</v>
       </c>
@@ -4757,8 +4747,8 @@
       </c>
     </row>
     <row r="20" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A20" s="28"/>
-      <c r="B20" s="29"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="33"/>
       <c r="C20" s="7">
         <v>1057.78</v>
       </c>
@@ -4860,8 +4850,8 @@
       </c>
     </row>
     <row r="21" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A21" s="28"/>
-      <c r="B21" s="29"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="33"/>
       <c r="C21" s="7">
         <v>1410.37</v>
       </c>
@@ -4963,8 +4953,8 @@
       </c>
     </row>
     <row r="22" spans="1:51" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="30"/>
-      <c r="B22" s="31"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="35"/>
       <c r="C22" s="20">
         <v>1762.96</v>
       </c>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10714"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MCNP\dprk-elwr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrickpark/Desktop/elwr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E71A06-DCF3-4599-B0F7-2A3B3674D61B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{472DC699-17BF-1243-8217-CCC7F6C1DEA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MCODE (2)" sheetId="3" r:id="rId1"/>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="94">
   <si>
     <t>Input File</t>
   </si>
@@ -371,6 +371,27 @@
   </si>
   <si>
     <t>elwr-coreA-reflBeO.inp</t>
+  </si>
+  <si>
+    <t>3.5%e UO2</t>
+  </si>
+  <si>
+    <t>Pu-242</t>
+  </si>
+  <si>
+    <t>ELWR A2 BeO</t>
+  </si>
+  <si>
+    <t>ELWR A3 Grph</t>
+  </si>
+  <si>
+    <t>ELWR B3 Grph</t>
+  </si>
+  <si>
+    <t>4.0%e UO2</t>
+  </si>
+  <si>
+    <t>2.2%e UO2</t>
   </si>
 </sst>
 </file>
@@ -381,7 +402,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -396,6 +417,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -418,7 +445,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -506,11 +533,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -561,6 +608,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -670,7 +725,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$AE$5:$AE$11</c:f>
+              <c:f>Sheet1!$AH$5:$AH$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="7"/>
@@ -895,7 +950,424 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Burnup</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> (MWd/kg) vs. Pu-239 (g)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$26:$D$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Q$26:$Q$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1507</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5577</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8622</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10930</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15060</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16630</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16940</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16710</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8D0D-AA40-8061-6EE0797CCC01}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1600288047"/>
+        <c:axId val="1445968319"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1600288047"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1445968319"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1445968319"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1600288047"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1451,17 +1923,533 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>560949</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>101405</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
+      <xdr:col>48</xdr:col>
       <xdr:colOff>263769</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>29308</xdr:rowOff>
@@ -1484,6 +2472,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>434730</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>68385</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>288191</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>194406</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53A07222-7655-32CB-7A92-76697BE5DF0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1846,40 +2870,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAC066E8-F6D1-4540-A521-7E3172A66DC3}">
   <dimension ref="A1:AC11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" style="7" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="7"/>
-    <col min="8" max="8" width="8.88671875" style="7"/>
-    <col min="9" max="9" width="6.21875" customWidth="1"/>
-    <col min="10" max="10" width="7.44140625" customWidth="1"/>
-    <col min="12" max="12" width="12.21875" customWidth="1"/>
-    <col min="13" max="13" width="7.44140625" customWidth="1"/>
-    <col min="14" max="14" width="12.21875" customWidth="1"/>
-    <col min="15" max="15" width="7.44140625" customWidth="1"/>
-    <col min="16" max="16" width="8.88671875" style="7"/>
+    <col min="5" max="5" width="8.83203125" style="7"/>
+    <col min="8" max="8" width="8.83203125" style="7"/>
+    <col min="9" max="9" width="6.1640625" customWidth="1"/>
+    <col min="10" max="10" width="7.5" customWidth="1"/>
+    <col min="12" max="12" width="12.1640625" customWidth="1"/>
+    <col min="13" max="13" width="7.5" customWidth="1"/>
+    <col min="14" max="14" width="12.1640625" customWidth="1"/>
+    <col min="15" max="15" width="7.5" customWidth="1"/>
+    <col min="16" max="16" width="8.83203125" style="7"/>
     <col min="17" max="17" width="6.33203125" customWidth="1"/>
-    <col min="18" max="18" width="7.21875" customWidth="1"/>
-    <col min="20" max="20" width="9.44140625" customWidth="1"/>
-    <col min="21" max="21" width="7.77734375" customWidth="1"/>
-    <col min="22" max="22" width="12.88671875" customWidth="1"/>
+    <col min="18" max="18" width="7.1640625" customWidth="1"/>
+    <col min="20" max="20" width="9.5" customWidth="1"/>
+    <col min="21" max="21" width="7.83203125" customWidth="1"/>
+    <col min="22" max="22" width="12.83203125" customWidth="1"/>
     <col min="23" max="23" width="10.33203125" customWidth="1"/>
-    <col min="24" max="24" width="6.88671875" style="7" customWidth="1"/>
+    <col min="24" max="24" width="6.83203125" style="7" customWidth="1"/>
     <col min="25" max="25" width="8.6640625" style="7" customWidth="1"/>
-    <col min="26" max="26" width="11.77734375" style="7" customWidth="1"/>
+    <col min="26" max="26" width="11.83203125" style="7" customWidth="1"/>
     <col min="27" max="27" width="11.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.44140625" customWidth="1"/>
-    <col min="29" max="29" width="22.21875" style="7" customWidth="1"/>
+    <col min="28" max="28" width="15.5" customWidth="1"/>
+    <col min="29" max="29" width="22.1640625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1"/>
       <c r="E1"/>
@@ -1889,7 +2913,7 @@
       <c r="Z1"/>
       <c r="AA1"/>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B2"/>
       <c r="D2" t="s">
         <v>81</v>
@@ -1905,7 +2929,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B3"/>
       <c r="E3"/>
       <c r="H3"/>
@@ -1914,7 +2938,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B4"/>
       <c r="E4"/>
       <c r="H4"/>
@@ -1923,11 +2947,11 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:29" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" s="6" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="X5" s="26"/>
       <c r="AC5" s="26"/>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="E6" s="8" t="s">
         <v>25</v>
       </c>
@@ -1968,7 +2992,7 @@
       </c>
       <c r="AB6" s="1"/>
     </row>
-    <row r="7" spans="1:29" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" s="6" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>0</v>
       </c>
@@ -2055,7 +3079,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>67</v>
       </c>
@@ -2154,7 +3178,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>86</v>
       </c>
@@ -2247,7 +3271,7 @@
         <v>28.363527327001933</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -2346,7 +3370,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -2454,27 +3478,27 @@
       <selection activeCell="W13" sqref="W13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" style="7" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="7"/>
-    <col min="7" max="7" width="8.88671875" style="7"/>
-    <col min="8" max="8" width="6.21875" customWidth="1"/>
-    <col min="9" max="9" width="7.44140625" customWidth="1"/>
-    <col min="11" max="11" width="12.21875" customWidth="1"/>
-    <col min="13" max="13" width="8.88671875" style="7"/>
+    <col min="4" max="4" width="8.83203125" style="7"/>
+    <col min="7" max="7" width="8.83203125" style="7"/>
+    <col min="8" max="8" width="6.1640625" customWidth="1"/>
+    <col min="9" max="9" width="7.5" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" customWidth="1"/>
+    <col min="13" max="13" width="8.83203125" style="7"/>
     <col min="14" max="14" width="9.6640625" customWidth="1"/>
-    <col min="15" max="15" width="7.21875" customWidth="1"/>
+    <col min="15" max="15" width="7.1640625" customWidth="1"/>
     <col min="17" max="17" width="10.6640625" customWidth="1"/>
-    <col min="19" max="19" width="8.88671875" style="7"/>
+    <col min="19" max="19" width="8.83203125" style="7"/>
     <col min="20" max="20" width="11.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.5546875" customWidth="1"/>
-    <col min="22" max="22" width="19.77734375" style="7" customWidth="1"/>
+    <col min="21" max="21" width="6.5" customWidth="1"/>
+    <col min="22" max="22" width="19.83203125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1"/>
       <c r="D1"/>
@@ -2484,7 +3508,7 @@
       <c r="T1"/>
       <c r="V1"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B2"/>
       <c r="D2"/>
       <c r="G2"/>
@@ -2493,7 +3517,7 @@
       <c r="T2"/>
       <c r="V2"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B3"/>
       <c r="D3"/>
       <c r="G3"/>
@@ -2502,7 +3526,7 @@
       <c r="T3"/>
       <c r="V3"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B4"/>
       <c r="D4"/>
       <c r="G4"/>
@@ -2511,8 +3535,8 @@
       <c r="T4"/>
       <c r="V4"/>
     </row>
-    <row r="5" spans="1:22" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" s="6" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D6" s="8" t="s">
         <v>25</v>
       </c>
@@ -2539,7 +3563,7 @@
       </c>
       <c r="U6" s="1"/>
     </row>
-    <row r="7" spans="1:22" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" s="6" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>0</v>
       </c>
@@ -2607,7 +3631,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" ht="52.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -2679,7 +3703,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="52.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" ht="52.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -2739,7 +3763,7 @@
       </c>
       <c r="V9" s="31"/>
     </row>
-    <row r="10" spans="1:22" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" ht="52.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -2811,7 +3835,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" ht="52.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -2871,7 +3895,7 @@
       </c>
       <c r="V11" s="31"/>
     </row>
-    <row r="12" spans="1:22" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" ht="52.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>64</v>
       </c>
@@ -2886,7 +3910,7 @@
       <c r="S12" s="13"/>
       <c r="V12" s="16"/>
     </row>
-    <row r="13" spans="1:22" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" ht="52.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -2898,7 +3922,7 @@
       <c r="S13" s="13"/>
       <c r="V13" s="16"/>
     </row>
-    <row r="15" spans="1:22" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" ht="53.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
@@ -2970,7 +3994,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" ht="53.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -2979,7 +4003,7 @@
       </c>
       <c r="V16" s="31"/>
     </row>
-    <row r="17" spans="1:22" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" ht="53.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
@@ -3051,7 +4075,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" ht="52.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -3078,7 +4102,7 @@
       </c>
       <c r="V18" s="31"/>
     </row>
-    <row r="19" spans="1:22" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" ht="53.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>33</v>
       </c>
@@ -3105,7 +4129,7 @@
       </c>
       <c r="V19" s="31"/>
     </row>
-    <row r="20" spans="1:22" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" ht="53.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -3132,12 +4156,12 @@
       </c>
       <c r="V20" s="31"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B27" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B28" s="7" t="s">
         <v>32</v>
       </c>
@@ -3157,38 +4181,37 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E48A428C-A2D0-4C30-9161-4343E51EC6DC}">
-  <dimension ref="A1:AY22"/>
+  <dimension ref="A1:BB61"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" customWidth="1"/>
+    <col min="1" max="2" width="10.83203125" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" customWidth="1"/>
-    <col min="6" max="6" width="9.44140625" customWidth="1"/>
-    <col min="7" max="8" width="11.88671875" customWidth="1"/>
-    <col min="9" max="9" width="10.21875" style="7" customWidth="1"/>
-    <col min="10" max="10" width="12.109375" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="7"/>
-    <col min="12" max="12" width="9.77734375" customWidth="1"/>
-    <col min="14" max="14" width="8.88671875" style="7"/>
-    <col min="15" max="15" width="9.77734375" customWidth="1"/>
-    <col min="17" max="17" width="8.88671875" style="7"/>
-    <col min="18" max="18" width="9.77734375" customWidth="1"/>
-    <col min="20" max="20" width="8.88671875" style="7"/>
-    <col min="21" max="21" width="9.77734375" customWidth="1"/>
-    <col min="23" max="23" width="8.88671875" style="7"/>
-    <col min="24" max="24" width="9.77734375" customWidth="1"/>
-    <col min="26" max="26" width="8.88671875" style="7"/>
-    <col min="27" max="27" width="10.33203125" customWidth="1"/>
-    <col min="29" max="29" width="8.88671875" style="7"/>
+    <col min="4" max="4" width="16.5" customWidth="1"/>
+    <col min="6" max="6" width="9.5" customWidth="1"/>
+    <col min="7" max="8" width="11.83203125" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" customWidth="1"/>
+    <col min="11" max="11" width="8.83203125" style="7"/>
+    <col min="12" max="12" width="9.83203125" customWidth="1"/>
+    <col min="14" max="14" width="8.83203125" style="7"/>
+    <col min="15" max="15" width="9.83203125" customWidth="1"/>
+    <col min="17" max="17" width="8.83203125" style="7"/>
+    <col min="18" max="18" width="9.83203125" customWidth="1"/>
+    <col min="20" max="20" width="8.83203125" style="7"/>
+    <col min="21" max="21" width="9.83203125" customWidth="1"/>
+    <col min="23" max="23" width="8.83203125" style="7"/>
+    <col min="24" max="24" width="9.83203125" customWidth="1"/>
+    <col min="29" max="29" width="8.83203125" style="7"/>
+    <col min="30" max="30" width="10.33203125" customWidth="1"/>
+    <col min="32" max="32" width="8.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C1" s="20"/>
       <c r="I1" s="20"/>
       <c r="K1" s="20"/>
@@ -3196,10 +4219,10 @@
       <c r="Q1" s="20"/>
       <c r="T1" s="20"/>
       <c r="W1" s="20"/>
-      <c r="Z1" s="20"/>
       <c r="AC1" s="20"/>
+      <c r="AF1" s="20"/>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3228,14 +4251,14 @@
       <c r="W2" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="Z2" s="8" t="s">
+      <c r="AC2" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="AC2" s="8" t="s">
+      <c r="AF2" s="8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
@@ -3311,15 +4334,9 @@
       <c r="Y3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="Z3" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
       <c r="AC3" s="8" t="s">
         <v>56</v>
       </c>
@@ -3329,8 +4346,17 @@
       <c r="AE3" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="AF3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>38</v>
       </c>
@@ -3389,17 +4415,17 @@
       <c r="Y4">
         <v>0</v>
       </c>
-      <c r="Z4" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
+      <c r="AC4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>40</v>
       </c>
@@ -3481,35 +4507,38 @@
         <f>W5+X5</f>
         <v>1.2751E-4</v>
       </c>
-      <c r="Z5" s="21">
+      <c r="Z5" s="17"/>
+      <c r="AA5" s="17"/>
+      <c r="AB5" s="17"/>
+      <c r="AC5" s="21">
         <f>Q5+T5+W5</f>
         <v>4.9844902799999993</v>
       </c>
-      <c r="AA5" s="17">
+      <c r="AD5" s="17">
         <f>R5+U5+X5</f>
         <v>4.5112072300000001</v>
       </c>
-      <c r="AB5" s="17">
-        <f>Z5+AA5</f>
+      <c r="AE5" s="17">
+        <f>AC5+AD5</f>
         <v>9.4956975099999994</v>
       </c>
-      <c r="AC5" s="21">
-        <f>Q5/Z5</f>
+      <c r="AF5" s="21">
+        <f>Q5/AC5</f>
         <v>0.99709292642055281</v>
       </c>
-      <c r="AD5" s="17">
-        <f>R5/AA5</f>
+      <c r="AG5" s="17">
+        <f>R5/AD5</f>
         <v>0.99640734083501636</v>
       </c>
-      <c r="AE5" s="17">
-        <f>S5/AB5</f>
+      <c r="AH5" s="17">
+        <f>S5/AE5</f>
         <v>0.99676721905182097</v>
       </c>
-      <c r="AG5" s="1" t="s">
+      <c r="AJ5" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" s="32" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
@@ -3589,36 +4618,39 @@
         <f t="shared" ref="Y6:Y11" si="5">W6+X6</f>
         <v>0.19878000000000001</v>
       </c>
-      <c r="Z6" s="21">
-        <f t="shared" ref="Z6:Z11" si="6">Q6+T6+W6</f>
+      <c r="Z6" s="17"/>
+      <c r="AA6" s="17"/>
+      <c r="AB6" s="17"/>
+      <c r="AC6" s="21">
+        <f t="shared" ref="AC6:AC11" si="6">Q6+T6+W6</f>
         <v>119.77157999999999</v>
       </c>
-      <c r="AA6" s="17">
-        <f t="shared" ref="AA6:AA11" si="7">R6+U6+X6</f>
+      <c r="AD6" s="17">
+        <f t="shared" ref="AD6:AD11" si="7">R6+U6+X6</f>
         <v>102.73820000000001</v>
       </c>
-      <c r="AB6" s="17">
-        <f t="shared" ref="AB6:AB11" si="8">Z6+AA6</f>
+      <c r="AE6" s="17">
+        <f t="shared" ref="AE6:AE11" si="8">AC6+AD6</f>
         <v>222.50977999999998</v>
       </c>
-      <c r="AC6" s="21">
-        <f t="shared" ref="AC6:AE11" si="9">Q6/Z6</f>
+      <c r="AF6" s="21">
+        <f>Q6/AC6</f>
         <v>0.98186898761793084</v>
       </c>
-      <c r="AD6" s="17">
-        <f t="shared" si="9"/>
+      <c r="AG6" s="17">
+        <f>R6/AD6</f>
         <v>0.9743211385833116</v>
       </c>
-      <c r="AE6" s="17">
-        <f t="shared" si="9"/>
+      <c r="AH6" s="17">
+        <f>S6/AE6</f>
         <v>0.97838396137014749</v>
       </c>
-      <c r="AG6" s="25">
+      <c r="AJ6" s="25">
         <f>4.77*222.50978*7</f>
         <v>7429.6015541999986</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" s="32"/>
       <c r="B7" s="33"/>
       <c r="C7" s="7">
@@ -3696,32 +4728,35 @@
         <f t="shared" si="5"/>
         <v>91.97999999999999</v>
       </c>
-      <c r="Z7" s="21">
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="17"/>
+      <c r="AB7" s="17"/>
+      <c r="AC7" s="21">
         <f t="shared" si="6"/>
         <v>1071.8599999999999</v>
       </c>
-      <c r="AA7" s="17">
+      <c r="AD7" s="17">
         <f t="shared" si="7"/>
         <v>716.02</v>
       </c>
-      <c r="AB7" s="17">
+      <c r="AE7" s="17">
         <f t="shared" si="8"/>
         <v>1787.8799999999999</v>
       </c>
-      <c r="AC7" s="21">
-        <f t="shared" si="9"/>
+      <c r="AF7" s="21">
+        <f>Q7/AC7</f>
         <v>0.83341107980519846</v>
       </c>
-      <c r="AD7" s="17">
-        <f t="shared" si="9"/>
+      <c r="AG7" s="17">
+        <f>R7/AD7</f>
         <v>0.8055640903885366</v>
       </c>
-      <c r="AE7" s="17">
-        <f t="shared" si="9"/>
+      <c r="AH7" s="17">
+        <f>S7/AE7</f>
         <v>0.82225876457032909</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" s="32"/>
       <c r="B8" s="33"/>
       <c r="C8" s="7">
@@ -3799,32 +4834,35 @@
         <f t="shared" si="5"/>
         <v>325.89999999999998</v>
       </c>
-      <c r="Z8" s="21">
+      <c r="Z8" s="17"/>
+      <c r="AA8" s="17"/>
+      <c r="AB8" s="17"/>
+      <c r="AC8" s="21">
         <f t="shared" si="6"/>
         <v>1807</v>
       </c>
-      <c r="AA8" s="17">
+      <c r="AD8" s="17">
         <f t="shared" si="7"/>
         <v>1203.0000000000002</v>
       </c>
-      <c r="AB8" s="17">
+      <c r="AE8" s="17">
         <f t="shared" si="8"/>
         <v>3010</v>
       </c>
-      <c r="AC8" s="21">
-        <f t="shared" si="9"/>
+      <c r="AF8" s="21">
+        <f>Q8/AC8</f>
         <v>0.7277255118981738</v>
       </c>
-      <c r="AD8" s="17">
-        <f t="shared" si="9"/>
+      <c r="AG8" s="17">
+        <f>R8/AD8</f>
         <v>0.69634247714048203</v>
       </c>
-      <c r="AE8" s="17">
-        <f t="shared" si="9"/>
+      <c r="AH8" s="17">
+        <f>S8/AE8</f>
         <v>0.71518272425249163</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" s="32"/>
       <c r="B9" s="33"/>
       <c r="C9" s="7">
@@ -3902,32 +4940,35 @@
         <f t="shared" si="5"/>
         <v>541.20000000000005</v>
       </c>
-      <c r="Z9" s="21">
+      <c r="Z9" s="17"/>
+      <c r="AA9" s="17"/>
+      <c r="AB9" s="17"/>
+      <c r="AC9" s="21">
         <f t="shared" si="6"/>
         <v>2295.6</v>
       </c>
-      <c r="AA9" s="17">
+      <c r="AD9" s="17">
         <f t="shared" si="7"/>
         <v>1548.1000000000001</v>
       </c>
-      <c r="AB9" s="17">
+      <c r="AE9" s="17">
         <f t="shared" si="8"/>
         <v>3843.7</v>
       </c>
-      <c r="AC9" s="21">
-        <f t="shared" si="9"/>
+      <c r="AF9" s="21">
+        <f>Q9/AC9</f>
         <v>0.65473078933612128</v>
       </c>
-      <c r="AD9" s="17">
-        <f t="shared" si="9"/>
+      <c r="AG9" s="17">
+        <f>R9/AD9</f>
         <v>0.63025644338221043</v>
       </c>
-      <c r="AE9" s="17">
-        <f t="shared" si="9"/>
+      <c r="AH9" s="17">
+        <f>S9/AE9</f>
         <v>0.64487342924786006</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" s="32"/>
       <c r="B10" s="33"/>
       <c r="C10" s="7">
@@ -4005,32 +5046,35 @@
         <f t="shared" si="5"/>
         <v>699.3</v>
       </c>
-      <c r="Z10" s="21">
+      <c r="Z10" s="17"/>
+      <c r="AA10" s="17"/>
+      <c r="AB10" s="17"/>
+      <c r="AC10" s="21">
         <f t="shared" si="6"/>
         <v>2590.1</v>
       </c>
-      <c r="AA10" s="17">
+      <c r="AD10" s="17">
         <f t="shared" si="7"/>
         <v>1794.1</v>
       </c>
-      <c r="AB10" s="17">
+      <c r="AE10" s="17">
         <f t="shared" si="8"/>
         <v>4384.2</v>
       </c>
-      <c r="AC10" s="21">
-        <f t="shared" si="9"/>
+      <c r="AF10" s="21">
+        <f>Q10/AC10</f>
         <v>0.6003629203505656</v>
       </c>
-      <c r="AD10" s="17">
-        <f t="shared" si="9"/>
+      <c r="AG10" s="17">
+        <f>R10/AD10</f>
         <v>0.58636642327629451</v>
       </c>
-      <c r="AE10" s="17">
-        <f t="shared" si="9"/>
+      <c r="AH10" s="17">
+        <f>S10/AE10</f>
         <v>0.59463528123716991</v>
       </c>
     </row>
-    <row r="11" spans="1:33" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:36" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="34"/>
       <c r="B11" s="35"/>
       <c r="C11" s="20">
@@ -4108,32 +5152,35 @@
         <f t="shared" si="5"/>
         <v>801.9</v>
       </c>
-      <c r="Z11" s="22">
+      <c r="Z11" s="19"/>
+      <c r="AA11" s="19"/>
+      <c r="AB11" s="19"/>
+      <c r="AC11" s="22">
         <f t="shared" si="6"/>
         <v>2743</v>
       </c>
-      <c r="AA11" s="19">
+      <c r="AD11" s="19">
         <f t="shared" si="7"/>
         <v>1969.4</v>
       </c>
-      <c r="AB11" s="19">
+      <c r="AE11" s="19">
         <f t="shared" si="8"/>
         <v>4712.3999999999996</v>
       </c>
-      <c r="AC11" s="22">
-        <f t="shared" si="9"/>
+      <c r="AF11" s="22">
+        <f>Q11/AC11</f>
         <v>0.55997083485235144</v>
       </c>
-      <c r="AD11" s="19">
-        <f t="shared" si="9"/>
+      <c r="AG11" s="19">
+        <f>R11/AD11</f>
         <v>0.55549913679293184</v>
       </c>
-      <c r="AE11" s="19">
-        <f t="shared" si="9"/>
+      <c r="AH11" s="19">
+        <f>S11/AE11</f>
         <v>0.55810202869026404</v>
       </c>
     </row>
-    <row r="12" spans="1:33" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:36" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C12" s="20"/>
       <c r="I12" s="22"/>
       <c r="J12" s="19"/>
@@ -4142,10 +5189,10 @@
       <c r="Q12" s="20"/>
       <c r="T12" s="20"/>
       <c r="W12" s="20"/>
-      <c r="Z12" s="20"/>
       <c r="AC12" s="20"/>
+      <c r="AF12" s="20"/>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
@@ -4174,14 +5221,14 @@
       <c r="W13" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="Z13" s="8" t="s">
+      <c r="AC13" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="AC13" s="8" t="s">
+      <c r="AF13" s="8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>36</v>
       </c>
@@ -4257,15 +5304,9 @@
       <c r="Y14" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="Z14" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA14" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB14" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
       <c r="AC14" s="8" t="s">
         <v>56</v>
       </c>
@@ -4275,8 +5316,17 @@
       <c r="AE14" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="AF14" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH14" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>38</v>
       </c>
@@ -4308,17 +5358,17 @@
       <c r="J15" s="17">
         <v>0.36163800000000001</v>
       </c>
-      <c r="Z15" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA15">
-        <v>0</v>
-      </c>
-      <c r="AB15">
+      <c r="AC15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>40</v>
       </c>
@@ -4341,7 +5391,7 @@
         <v>0.16094</v>
       </c>
       <c r="H16" s="23">
-        <f t="shared" ref="H16:H22" si="10">G16/0.0075</f>
+        <f t="shared" ref="H16:H22" si="9">G16/0.0075</f>
         <v>21.458666666666666</v>
       </c>
       <c r="I16" s="21">
@@ -4400,35 +5450,38 @@
         <f>W16+X16</f>
         <v>4.8025999999999999E-4</v>
       </c>
-      <c r="Z16" s="21">
+      <c r="Z16" s="17"/>
+      <c r="AA16" s="17"/>
+      <c r="AB16" s="17"/>
+      <c r="AC16" s="21">
         <f>Q16+T16+W16</f>
         <v>3.5860699600000001</v>
       </c>
-      <c r="AA16" s="17">
+      <c r="AD16" s="17">
         <f>R16+U16+X16</f>
         <v>10.2671803</v>
       </c>
-      <c r="AB16" s="17">
-        <f>Z16+AA16</f>
+      <c r="AE16" s="17">
+        <f>AC16+AD16</f>
         <v>13.853250259999999</v>
       </c>
-      <c r="AC16" s="21">
-        <f>Q16/Z16</f>
+      <c r="AF16" s="21">
+        <f>Q16/AC16</f>
         <v>0.99719192316036132</v>
       </c>
-      <c r="AD16" s="17">
-        <f>R16/AA16</f>
+      <c r="AG16" s="17">
+        <f>R16/AD16</f>
         <v>0.99345679163733003</v>
       </c>
-      <c r="AE16" s="17">
-        <f>S16/AB16</f>
+      <c r="AH16" s="17">
+        <f>S16/AE16</f>
         <v>0.99442367252809594</v>
       </c>
-      <c r="AG16" s="1" t="s">
+      <c r="AJ16" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A17" s="32" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
@@ -4449,7 +5502,7 @@
         <v>0.15795899999999999</v>
       </c>
       <c r="H17" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>21.061199999999999</v>
       </c>
       <c r="I17" s="21">
@@ -4465,7 +5518,7 @@
         <v>1907</v>
       </c>
       <c r="M17" s="17">
-        <f t="shared" ref="M17:M22" si="11">K17+L17</f>
+        <f t="shared" ref="M17:M22" si="10">K17+L17</f>
         <v>15577</v>
       </c>
       <c r="N17" s="21">
@@ -4475,7 +5528,7 @@
         <v>291200</v>
       </c>
       <c r="P17" s="17">
-        <f t="shared" ref="P17:P22" si="12">N17+O17</f>
+        <f t="shared" ref="P17:P22" si="11">N17+O17</f>
         <v>480300</v>
       </c>
       <c r="Q17" s="21">
@@ -4485,7 +5538,7 @@
         <v>210.4</v>
       </c>
       <c r="S17" s="17">
-        <f t="shared" ref="S17:S22" si="13">Q17+R17</f>
+        <f t="shared" ref="S17:S22" si="12">Q17+R17</f>
         <v>295</v>
       </c>
       <c r="T17" s="21">
@@ -4495,7 +5548,7 @@
         <v>9.7750000000000004</v>
       </c>
       <c r="V17" s="17">
-        <f t="shared" ref="V17:V22" si="14">T17+U17</f>
+        <f t="shared" ref="V17:V22" si="13">T17+U17</f>
         <v>11.249000000000001</v>
       </c>
       <c r="W17" s="21">
@@ -4505,42 +5558,45 @@
         <v>8.0299999999999996E-2</v>
       </c>
       <c r="Y17" s="17">
-        <f t="shared" ref="Y17:Y22" si="15">W17+X17</f>
+        <f t="shared" ref="Y17:Y22" si="14">W17+X17</f>
         <v>0.14202999999999999</v>
       </c>
-      <c r="Z17" s="21">
-        <f t="shared" ref="Z17:Z22" si="16">Q17+T17+W17</f>
+      <c r="Z17" s="17"/>
+      <c r="AA17" s="17"/>
+      <c r="AB17" s="17"/>
+      <c r="AC17" s="21">
+        <f t="shared" ref="AC17:AC22" si="15">Q17+T17+W17</f>
         <v>86.135729999999995</v>
       </c>
-      <c r="AA17" s="17">
-        <f t="shared" ref="AA17:AA22" si="17">R17+U17+X17</f>
+      <c r="AD17" s="17">
+        <f t="shared" ref="AD17:AD22" si="16">R17+U17+X17</f>
         <v>220.25530000000001</v>
       </c>
-      <c r="AB17" s="17">
-        <f t="shared" ref="AB17:AB22" si="18">Z17+AA17</f>
+      <c r="AE17" s="17">
+        <f t="shared" ref="AE17:AE22" si="17">AC17+AD17</f>
         <v>306.39103</v>
       </c>
-      <c r="AC17" s="21">
-        <f t="shared" ref="AC17:AC22" si="19">Q17/Z17</f>
+      <c r="AF17" s="21">
+        <f t="shared" ref="AF17:AF22" si="18">Q17/AC17</f>
         <v>0.98217081343595736</v>
       </c>
-      <c r="AD17" s="17">
-        <f t="shared" ref="AD17:AD22" si="20">R17/AA17</f>
+      <c r="AG17" s="17">
+        <f t="shared" ref="AG17:AG22" si="19">R17/AD17</f>
         <v>0.95525510623353904</v>
       </c>
-      <c r="AE17" s="17">
-        <f t="shared" ref="AE17:AE22" si="21">S17/AB17</f>
+      <c r="AH17" s="17">
+        <f t="shared" ref="AH17:AH22" si="20">S17/AE17</f>
         <v>0.96282192073312334</v>
       </c>
-      <c r="AG17" s="25">
+      <c r="AJ17" s="25">
         <f>4.77*306.39103*7</f>
         <v>10230.396491699998</v>
       </c>
-      <c r="AY17" t="s">
+      <c r="BB17" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A18" s="32"/>
       <c r="B18" s="33"/>
       <c r="C18" s="7">
@@ -4559,7 +5615,7 @@
         <v>0.103935</v>
       </c>
       <c r="H18" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>13.858000000000001</v>
       </c>
       <c r="I18" s="21">
@@ -4575,7 +5631,7 @@
         <v>1002</v>
       </c>
       <c r="M18" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>11612</v>
       </c>
       <c r="N18" s="21">
@@ -4585,7 +5641,7 @@
         <v>289100</v>
       </c>
       <c r="P18" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>477100</v>
       </c>
       <c r="Q18" s="21">
@@ -4595,7 +5651,7 @@
         <v>878.8</v>
       </c>
       <c r="S18" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1520.6</v>
       </c>
       <c r="T18" s="21">
@@ -4605,7 +5661,7 @@
         <v>250.7</v>
       </c>
       <c r="V18" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>337.06</v>
       </c>
       <c r="W18" s="21">
@@ -4615,35 +5671,38 @@
         <v>124.9</v>
       </c>
       <c r="Y18" s="17">
+        <f t="shared" si="14"/>
+        <v>162.08000000000001</v>
+      </c>
+      <c r="Z18" s="17"/>
+      <c r="AA18" s="17"/>
+      <c r="AB18" s="17"/>
+      <c r="AC18" s="21">
         <f t="shared" si="15"/>
-        <v>162.08000000000001</v>
-      </c>
-      <c r="Z18" s="21">
+        <v>765.33999999999992</v>
+      </c>
+      <c r="AD18" s="17">
         <f t="shared" si="16"/>
-        <v>765.33999999999992</v>
-      </c>
-      <c r="AA18" s="17">
+        <v>1254.4000000000001</v>
+      </c>
+      <c r="AE18" s="17">
         <f t="shared" si="17"/>
-        <v>1254.4000000000001</v>
-      </c>
-      <c r="AB18" s="17">
+        <v>2019.74</v>
+      </c>
+      <c r="AF18" s="21">
         <f t="shared" si="18"/>
-        <v>2019.74</v>
-      </c>
-      <c r="AC18" s="21">
+        <v>0.8385815454569211</v>
+      </c>
+      <c r="AG18" s="17">
         <f t="shared" si="19"/>
-        <v>0.8385815454569211</v>
-      </c>
-      <c r="AD18" s="17">
+        <v>0.70057397959183665</v>
+      </c>
+      <c r="AH18" s="17">
         <f t="shared" si="20"/>
-        <v>0.70057397959183665</v>
-      </c>
-      <c r="AE18" s="17">
-        <f t="shared" si="21"/>
         <v>0.75286918118173618</v>
       </c>
     </row>
-    <row r="19" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A19" s="32"/>
       <c r="B19" s="33"/>
       <c r="C19" s="7">
@@ -4662,7 +5721,7 @@
         <v>4.5419000000000001E-2</v>
       </c>
       <c r="H19" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>6.0558666666666667</v>
       </c>
       <c r="I19" s="21">
@@ -4678,7 +5737,7 @@
         <v>503.3</v>
       </c>
       <c r="M19" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>8472.2999999999993</v>
       </c>
       <c r="N19" s="21">
@@ -4688,7 +5747,7 @@
         <v>286500</v>
       </c>
       <c r="P19" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>473300</v>
       </c>
       <c r="Q19" s="21">
@@ -4698,7 +5757,7 @@
         <v>1143</v>
       </c>
       <c r="S19" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>2094.8000000000002</v>
       </c>
       <c r="T19" s="21">
@@ -4708,7 +5767,7 @@
         <v>478.7</v>
       </c>
       <c r="V19" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>682.5</v>
       </c>
       <c r="W19" s="21">
@@ -4718,35 +5777,38 @@
         <v>272.10000000000002</v>
       </c>
       <c r="Y19" s="17">
+        <f t="shared" si="14"/>
+        <v>403.6</v>
+      </c>
+      <c r="Z19" s="17"/>
+      <c r="AA19" s="17"/>
+      <c r="AB19" s="17"/>
+      <c r="AC19" s="21">
         <f t="shared" si="15"/>
-        <v>403.6</v>
-      </c>
-      <c r="Z19" s="21">
+        <v>1287.0999999999999</v>
+      </c>
+      <c r="AD19" s="17">
         <f t="shared" si="16"/>
-        <v>1287.0999999999999</v>
-      </c>
-      <c r="AA19" s="17">
+        <v>1893.8000000000002</v>
+      </c>
+      <c r="AE19" s="17">
         <f t="shared" si="17"/>
-        <v>1893.8000000000002</v>
-      </c>
-      <c r="AB19" s="17">
+        <v>3180.9</v>
+      </c>
+      <c r="AF19" s="21">
         <f t="shared" si="18"/>
-        <v>3180.9</v>
-      </c>
-      <c r="AC19" s="21">
+        <v>0.73949188097272944</v>
+      </c>
+      <c r="AG19" s="17">
         <f t="shared" si="19"/>
-        <v>0.73949188097272944</v>
-      </c>
-      <c r="AD19" s="17">
+        <v>0.60354842116379759</v>
+      </c>
+      <c r="AH19" s="17">
         <f t="shared" si="20"/>
-        <v>0.60354842116379759</v>
-      </c>
-      <c r="AE19" s="17">
-        <f t="shared" si="21"/>
         <v>0.65855575466063065</v>
       </c>
     </row>
-    <row r="20" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A20" s="32"/>
       <c r="B20" s="33"/>
       <c r="C20" s="7">
@@ -4765,7 +5827,7 @@
         <v>-1.2381E-2</v>
       </c>
       <c r="H20" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>-1.6508</v>
       </c>
       <c r="I20" s="21">
@@ -4781,7 +5843,7 @@
         <v>255.6</v>
       </c>
       <c r="M20" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>6098.6</v>
       </c>
       <c r="N20" s="21">
@@ -4791,7 +5853,7 @@
         <v>283700</v>
       </c>
       <c r="P20" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>469200</v>
       </c>
       <c r="Q20" s="21">
@@ -4801,7 +5863,7 @@
         <v>1272</v>
       </c>
       <c r="S20" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>2370</v>
       </c>
       <c r="T20" s="21">
@@ -4811,7 +5873,7 @@
         <v>647.20000000000005</v>
       </c>
       <c r="V20" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>965.40000000000009</v>
       </c>
       <c r="W20" s="21">
@@ -4821,35 +5883,38 @@
         <v>362.1</v>
       </c>
       <c r="Y20" s="17">
+        <f t="shared" si="14"/>
+        <v>585.20000000000005</v>
+      </c>
+      <c r="Z20" s="17"/>
+      <c r="AA20" s="17"/>
+      <c r="AB20" s="17"/>
+      <c r="AC20" s="21">
         <f t="shared" si="15"/>
-        <v>585.20000000000005</v>
-      </c>
-      <c r="Z20" s="21">
+        <v>1639.3</v>
+      </c>
+      <c r="AD20" s="17">
         <f t="shared" si="16"/>
-        <v>1639.3</v>
-      </c>
-      <c r="AA20" s="17">
+        <v>2281.3000000000002</v>
+      </c>
+      <c r="AE20" s="17">
         <f t="shared" si="17"/>
-        <v>2281.3000000000002</v>
-      </c>
-      <c r="AB20" s="17">
+        <v>3920.6000000000004</v>
+      </c>
+      <c r="AF20" s="21">
         <f t="shared" si="18"/>
-        <v>3920.6000000000004</v>
-      </c>
-      <c r="AC20" s="21">
+        <v>0.66979808454828282</v>
+      </c>
+      <c r="AG20" s="17">
         <f t="shared" si="19"/>
-        <v>0.66979808454828282</v>
-      </c>
-      <c r="AD20" s="17">
+        <v>0.55757682023407706</v>
+      </c>
+      <c r="AH20" s="17">
         <f t="shared" si="20"/>
-        <v>0.55757682023407706</v>
-      </c>
-      <c r="AE20" s="17">
-        <f t="shared" si="21"/>
         <v>0.60449931132989843</v>
       </c>
     </row>
-    <row r="21" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A21" s="32"/>
       <c r="B21" s="33"/>
       <c r="C21" s="7">
@@ -4868,7 +5933,7 @@
         <v>-6.8650000000000003E-2</v>
       </c>
       <c r="H21" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>-9.1533333333333342</v>
       </c>
       <c r="I21" s="21">
@@ -4884,7 +5949,7 @@
         <v>129.80000000000001</v>
       </c>
       <c r="M21" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>4275.8</v>
       </c>
       <c r="N21" s="21">
@@ -4894,7 +5959,7 @@
         <v>280700</v>
       </c>
       <c r="P21" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>464800</v>
       </c>
       <c r="Q21" s="21">
@@ -4904,7 +5969,7 @@
         <v>1347</v>
       </c>
       <c r="S21" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>2501</v>
       </c>
       <c r="T21" s="21">
@@ -4914,7 +5979,7 @@
         <v>765.5</v>
       </c>
       <c r="V21" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1186.9000000000001</v>
       </c>
       <c r="W21" s="21">
@@ -4924,35 +5989,38 @@
         <v>421.5</v>
       </c>
       <c r="Y21" s="17">
+        <f t="shared" si="14"/>
+        <v>713.9</v>
+      </c>
+      <c r="Z21" s="17"/>
+      <c r="AA21" s="17"/>
+      <c r="AB21" s="17"/>
+      <c r="AC21" s="21">
         <f t="shared" si="15"/>
-        <v>713.9</v>
-      </c>
-      <c r="Z21" s="21">
+        <v>1867.8000000000002</v>
+      </c>
+      <c r="AD21" s="17">
         <f t="shared" si="16"/>
-        <v>1867.8000000000002</v>
-      </c>
-      <c r="AA21" s="17">
+        <v>2534</v>
+      </c>
+      <c r="AE21" s="17">
         <f t="shared" si="17"/>
-        <v>2534</v>
-      </c>
-      <c r="AB21" s="17">
+        <v>4401.8</v>
+      </c>
+      <c r="AF21" s="21">
         <f t="shared" si="18"/>
-        <v>4401.8</v>
-      </c>
-      <c r="AC21" s="21">
+        <v>0.61783916907591818</v>
+      </c>
+      <c r="AG21" s="17">
         <f t="shared" si="19"/>
-        <v>0.61783916907591818</v>
-      </c>
-      <c r="AD21" s="17">
+        <v>0.5315706393054459</v>
+      </c>
+      <c r="AH21" s="17">
         <f t="shared" si="20"/>
-        <v>0.5315706393054459</v>
-      </c>
-      <c r="AE21" s="17">
-        <f t="shared" si="21"/>
         <v>0.56817665500477077</v>
       </c>
     </row>
-    <row r="22" spans="1:51" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:54" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="34"/>
       <c r="B22" s="35"/>
       <c r="C22" s="20">
@@ -4971,7 +6039,7 @@
         <v>-0.12377199999999999</v>
       </c>
       <c r="H22" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>-16.502933333333335</v>
       </c>
       <c r="I22" s="22">
@@ -4987,7 +6055,7 @@
         <v>65.459999999999994</v>
       </c>
       <c r="M22" s="19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2901.46</v>
       </c>
       <c r="N22" s="22">
@@ -4997,7 +6065,7 @@
         <v>277600</v>
       </c>
       <c r="P22" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>460200</v>
       </c>
       <c r="Q22" s="22">
@@ -5007,7 +6075,7 @@
         <v>1396</v>
       </c>
       <c r="S22" s="19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>2555</v>
       </c>
       <c r="T22" s="22">
@@ -5017,7 +6085,7 @@
         <v>847.6</v>
       </c>
       <c r="V22" s="19">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>855.5</v>
       </c>
       <c r="W22" s="22">
@@ -5027,38 +6095,2987 @@
         <v>462.5</v>
       </c>
       <c r="Y22" s="19">
+        <f t="shared" si="14"/>
+        <v>800</v>
+      </c>
+      <c r="Z22" s="19"/>
+      <c r="AA22" s="19"/>
+      <c r="AB22" s="19"/>
+      <c r="AC22" s="22">
         <f t="shared" si="15"/>
-        <v>800</v>
-      </c>
-      <c r="Z22" s="22">
+        <v>1504.4</v>
+      </c>
+      <c r="AD22" s="19">
         <f t="shared" si="16"/>
-        <v>1504.4</v>
-      </c>
-      <c r="AA22" s="19">
+        <v>2706.1</v>
+      </c>
+      <c r="AE22" s="19">
         <f t="shared" si="17"/>
-        <v>2706.1</v>
-      </c>
-      <c r="AB22" s="19">
+        <v>4210.5</v>
+      </c>
+      <c r="AF22" s="22">
         <f t="shared" si="18"/>
-        <v>4210.5</v>
-      </c>
-      <c r="AC22" s="22">
+        <v>0.77040680670034556</v>
+      </c>
+      <c r="AG22" s="19">
         <f t="shared" si="19"/>
-        <v>0.77040680670034556</v>
-      </c>
-      <c r="AD22" s="19">
+        <v>0.51587154946232583</v>
+      </c>
+      <c r="AH22" s="19">
         <f t="shared" si="20"/>
-        <v>0.51587154946232583</v>
-      </c>
-      <c r="AE22" s="19">
+        <v>0.60681629260182879</v>
+      </c>
+    </row>
+    <row r="24" spans="1:54" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="39"/>
+      <c r="I24" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="K24" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="N24" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="O24" s="37"/>
+      <c r="P24" s="37"/>
+      <c r="Q24" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="T24" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="U24" s="37"/>
+      <c r="V24" s="37"/>
+      <c r="W24" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z24" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC24" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF24" s="40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N25" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q25" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="T25" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="U25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="V25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="W25" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="X25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z25" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC25" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF25" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH25" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" s="36">
+        <v>1.2342900000000001</v>
+      </c>
+      <c r="F26" s="36">
+        <v>1.8000000000000001E-4</v>
+      </c>
+      <c r="G26" s="36">
+        <v>0.18981799999999999</v>
+      </c>
+      <c r="H26" s="23">
+        <f>G26/0.0075</f>
+        <v>25.309066666666666</v>
+      </c>
+      <c r="I26" s="21"/>
+      <c r="J26" s="17"/>
+      <c r="Q26" s="7">
+        <v>0</v>
+      </c>
+      <c r="T26" s="7">
+        <v>0</v>
+      </c>
+      <c r="W26" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="7">
+        <v>3.5259299999999998</v>
+      </c>
+      <c r="D27">
+        <v>0.1</v>
+      </c>
+      <c r="E27" s="36">
+        <v>1.19486</v>
+      </c>
+      <c r="F27" s="36">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="G27" s="36">
+        <v>0.163082</v>
+      </c>
+      <c r="H27" s="23">
+        <f t="shared" ref="H27:H35" si="21">G27/0.0075</f>
+        <v>21.744266666666668</v>
+      </c>
+      <c r="I27" s="21"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="42">
+        <v>121400</v>
+      </c>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17">
+        <f>K27+L27</f>
+        <v>121400</v>
+      </c>
+      <c r="N27" s="42">
+        <v>3403000</v>
+      </c>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17">
+        <f>N27+O27</f>
+        <v>3403000</v>
+      </c>
+      <c r="Q27" s="42">
+        <v>64.5</v>
+      </c>
+      <c r="R27" s="17"/>
+      <c r="S27" s="17">
+        <f>Q27+R27</f>
+        <v>64.5</v>
+      </c>
+      <c r="T27" s="42">
+        <v>0.19919999999999999</v>
+      </c>
+      <c r="U27" s="17"/>
+      <c r="V27" s="17">
+        <f>T27+U27</f>
+        <v>0.19919999999999999</v>
+      </c>
+      <c r="W27" s="42">
+        <v>8.0769999999999995E-4</v>
+      </c>
+      <c r="X27" s="17"/>
+      <c r="Y27" s="17">
+        <f>W27+X27</f>
+        <v>8.0769999999999995E-4</v>
+      </c>
+      <c r="Z27" s="42">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="17"/>
+      <c r="AB27" s="17">
+        <f>Z27+AA27</f>
+        <v>0</v>
+      </c>
+      <c r="AC27" s="21">
+        <f>Q27+T27+W27+Z27</f>
+        <v>64.7000077</v>
+      </c>
+      <c r="AD27" s="17"/>
+      <c r="AE27" s="17">
+        <f>AC27+AD27</f>
+        <v>64.7000077</v>
+      </c>
+      <c r="AF27" s="43">
+        <f>Q27/AC27</f>
+        <v>0.99690869124888837</v>
+      </c>
+      <c r="AG27" s="17" t="e">
+        <f>R27/AD27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH27" s="17">
+        <f>S27/AE27</f>
+        <v>0.99690869124888837</v>
+      </c>
+      <c r="AJ27" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A28" s="32" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B28" s="33"/>
+      <c r="C28" s="7">
+        <v>35.256599999999999</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" s="36">
+        <v>1.17886</v>
+      </c>
+      <c r="F28" s="36">
+        <v>2.2000000000000001E-4</v>
+      </c>
+      <c r="G28" s="36">
+        <v>0.151723</v>
+      </c>
+      <c r="H28" s="23">
+        <f>G28/0.0075</f>
+        <v>20.229733333333332</v>
+      </c>
+      <c r="I28" s="21"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="42">
+        <v>117700</v>
+      </c>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="42">
+        <v>3401000</v>
+      </c>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17">
+        <f t="shared" ref="P28:P29" si="22">N28+O28</f>
+        <v>3401000</v>
+      </c>
+      <c r="Q28" s="42">
+        <v>1507</v>
+      </c>
+      <c r="R28" s="17"/>
+      <c r="S28" s="17">
+        <f t="shared" ref="S28:S29" si="23">Q28+R28</f>
+        <v>1507</v>
+      </c>
+      <c r="T28" s="42">
+        <v>30.96</v>
+      </c>
+      <c r="U28" s="17"/>
+      <c r="V28" s="17"/>
+      <c r="W28" s="42">
+        <v>1.3260000000000001</v>
+      </c>
+      <c r="X28" s="17"/>
+      <c r="Y28" s="17">
+        <f t="shared" ref="Y28:Y29" si="24">W28+X28</f>
+        <v>1.3260000000000001</v>
+      </c>
+      <c r="Z28" s="42">
+        <v>8.9949999999999995E-3</v>
+      </c>
+      <c r="AA28" s="17"/>
+      <c r="AB28" s="17">
+        <f t="shared" ref="AB28:AB35" si="25">Z28+AA28</f>
+        <v>8.9949999999999995E-3</v>
+      </c>
+      <c r="AC28" s="21">
+        <f t="shared" ref="AC28:AC35" si="26">Q28+T28+W28+Z28</f>
+        <v>1539.294995</v>
+      </c>
+      <c r="AD28" s="17"/>
+      <c r="AE28" s="17"/>
+      <c r="AF28" s="43">
+        <f t="shared" ref="AF28:AF35" si="27">Q28/AC28</f>
+        <v>0.97901961930305637</v>
+      </c>
+      <c r="AG28" s="17"/>
+      <c r="AH28" s="17"/>
+      <c r="AJ28" s="1"/>
+    </row>
+    <row r="29" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A29" s="32"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="7">
+        <v>141.02600000000001</v>
+      </c>
+      <c r="D29">
+        <v>4</v>
+      </c>
+      <c r="E29" s="36">
+        <v>1.1470199999999999</v>
+      </c>
+      <c r="F29" s="36">
+        <v>2.1000000000000001E-4</v>
+      </c>
+      <c r="G29" s="36">
+        <v>0.12817600000000001</v>
+      </c>
+      <c r="H29" s="23">
         <f t="shared" si="21"/>
-        <v>0.60681629260182879</v>
+        <v>17.090133333333334</v>
+      </c>
+      <c r="I29" s="21"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="42">
+        <v>106000</v>
+      </c>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="42">
+        <v>3395000</v>
+      </c>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17">
+        <f t="shared" si="22"/>
+        <v>3395000</v>
+      </c>
+      <c r="Q29" s="42">
+        <v>5577</v>
+      </c>
+      <c r="R29" s="17"/>
+      <c r="S29" s="17">
+        <f t="shared" si="23"/>
+        <v>5577</v>
+      </c>
+      <c r="T29" s="42">
+        <v>421.8</v>
+      </c>
+      <c r="U29" s="17"/>
+      <c r="V29" s="17"/>
+      <c r="W29" s="42">
+        <v>73.56</v>
+      </c>
+      <c r="X29" s="17"/>
+      <c r="Y29" s="17">
+        <f t="shared" si="24"/>
+        <v>73.56</v>
+      </c>
+      <c r="Z29" s="42">
+        <v>2.1320000000000001</v>
+      </c>
+      <c r="AA29" s="17"/>
+      <c r="AB29" s="17">
+        <f t="shared" si="25"/>
+        <v>2.1320000000000001</v>
+      </c>
+      <c r="AC29" s="21">
+        <f t="shared" si="26"/>
+        <v>6074.4920000000002</v>
+      </c>
+      <c r="AD29" s="17"/>
+      <c r="AE29" s="17"/>
+      <c r="AF29" s="43">
+        <f t="shared" si="27"/>
+        <v>0.91810146428705475</v>
+      </c>
+      <c r="AG29" s="17"/>
+      <c r="AH29" s="17"/>
+      <c r="AJ29" s="1"/>
+    </row>
+    <row r="30" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A30" s="32"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="7">
+        <v>246.79599999999999</v>
+      </c>
+      <c r="D30">
+        <v>7</v>
+      </c>
+      <c r="E30" s="36">
+        <v>1.1138699999999999</v>
+      </c>
+      <c r="F30" s="36">
+        <v>2.1000000000000001E-4</v>
+      </c>
+      <c r="G30" s="36">
+        <v>0.102229</v>
+      </c>
+      <c r="H30" s="23">
+        <f t="shared" si="21"/>
+        <v>13.630533333333334</v>
+      </c>
+      <c r="I30" s="21"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="42">
+        <v>95340</v>
+      </c>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17">
+        <f t="shared" ref="M30:M35" si="28">K30+L30</f>
+        <v>95340</v>
+      </c>
+      <c r="N30" s="42">
+        <v>3389000</v>
+      </c>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17">
+        <f t="shared" ref="P30:P35" si="29">N30+O30</f>
+        <v>3389000</v>
+      </c>
+      <c r="Q30" s="42">
+        <v>8622</v>
+      </c>
+      <c r="R30" s="17"/>
+      <c r="S30" s="17">
+        <f t="shared" ref="S30:S35" si="30">Q30+R30</f>
+        <v>8622</v>
+      </c>
+      <c r="T30" s="42">
+        <v>1044</v>
+      </c>
+      <c r="U30" s="17"/>
+      <c r="V30" s="17">
+        <f t="shared" ref="V30:V35" si="31">T30+U30</f>
+        <v>1044</v>
+      </c>
+      <c r="W30" s="42">
+        <v>300.3</v>
+      </c>
+      <c r="X30" s="17"/>
+      <c r="Y30" s="17">
+        <f t="shared" ref="Y30:Y35" si="32">W30+X30</f>
+        <v>300.3</v>
+      </c>
+      <c r="Z30" s="42">
+        <v>16.11</v>
+      </c>
+      <c r="AA30" s="17"/>
+      <c r="AB30" s="17">
+        <f t="shared" si="25"/>
+        <v>16.11</v>
+      </c>
+      <c r="AC30" s="21">
+        <f t="shared" si="26"/>
+        <v>9982.41</v>
+      </c>
+      <c r="AD30" s="17"/>
+      <c r="AE30" s="17">
+        <f t="shared" ref="AE30:AE35" si="33">AC30+AD30</f>
+        <v>9982.41</v>
+      </c>
+      <c r="AF30" s="43">
+        <f t="shared" si="27"/>
+        <v>0.86371928221742045</v>
+      </c>
+      <c r="AG30" s="17" t="e">
+        <f t="shared" ref="AG30:AG35" si="34">R30/AD30</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH30" s="17">
+        <f t="shared" ref="AH30:AH35" si="35">S30/AE30</f>
+        <v>0.86371928221742045</v>
+      </c>
+      <c r="AJ30" s="25">
+        <f>4.77*306.39103*7</f>
+        <v>10230.396491699998</v>
+      </c>
+      <c r="BB30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A31" s="32"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="7">
+        <v>352.59300000000002</v>
+      </c>
+      <c r="D31">
+        <v>10</v>
+      </c>
+      <c r="E31" s="36">
+        <v>1.0826899999999999</v>
+      </c>
+      <c r="F31" s="36">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="G31" s="36">
+        <v>7.6374999999999998E-2</v>
+      </c>
+      <c r="H31" s="23">
+        <f t="shared" si="21"/>
+        <v>10.183333333333334</v>
+      </c>
+      <c r="I31" s="21"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="42">
+        <v>85540</v>
+      </c>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17">
+        <f t="shared" si="28"/>
+        <v>85540</v>
+      </c>
+      <c r="N31" s="42">
+        <v>3383000</v>
+      </c>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17">
+        <f t="shared" si="29"/>
+        <v>3383000</v>
+      </c>
+      <c r="Q31" s="42">
+        <v>10930</v>
+      </c>
+      <c r="R31" s="17"/>
+      <c r="S31" s="17">
+        <f t="shared" si="30"/>
+        <v>10930</v>
+      </c>
+      <c r="T31" s="42">
+        <v>1769</v>
+      </c>
+      <c r="U31" s="17"/>
+      <c r="V31" s="17">
+        <f t="shared" si="31"/>
+        <v>1769</v>
+      </c>
+      <c r="W31" s="42">
+        <v>658.5</v>
+      </c>
+      <c r="X31" s="17"/>
+      <c r="Y31" s="17">
+        <f t="shared" si="32"/>
+        <v>658.5</v>
+      </c>
+      <c r="Z31" s="42">
+        <v>53.69</v>
+      </c>
+      <c r="AA31" s="17"/>
+      <c r="AB31" s="17">
+        <f t="shared" si="25"/>
+        <v>53.69</v>
+      </c>
+      <c r="AC31" s="21">
+        <f t="shared" si="26"/>
+        <v>13411.19</v>
+      </c>
+      <c r="AD31" s="17"/>
+      <c r="AE31" s="17">
+        <f t="shared" si="33"/>
+        <v>13411.19</v>
+      </c>
+      <c r="AF31" s="43">
+        <f t="shared" si="27"/>
+        <v>0.81499106343284966</v>
+      </c>
+      <c r="AG31" s="17" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH31" s="17">
+        <f t="shared" si="35"/>
+        <v>0.81499106343284966</v>
+      </c>
+    </row>
+    <row r="32" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A32" s="32"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="7">
+        <v>705.18499999999995</v>
+      </c>
+      <c r="D32">
+        <v>20</v>
+      </c>
+      <c r="E32" s="36">
+        <v>0.99443999999999999</v>
+      </c>
+      <c r="F32" s="36">
+        <v>1.9000000000000001E-4</v>
+      </c>
+      <c r="G32" s="36">
+        <v>-5.5909999999999996E-3</v>
+      </c>
+      <c r="H32" s="23">
+        <f t="shared" si="21"/>
+        <v>-0.74546666666666661</v>
+      </c>
+      <c r="I32" s="21"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="42">
+        <v>58150</v>
+      </c>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17">
+        <f t="shared" si="28"/>
+        <v>58150</v>
+      </c>
+      <c r="N32" s="42">
+        <v>3360000</v>
+      </c>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17">
+        <f t="shared" si="29"/>
+        <v>3360000</v>
+      </c>
+      <c r="Q32" s="42">
+        <v>15060</v>
+      </c>
+      <c r="R32" s="17"/>
+      <c r="S32" s="17">
+        <f t="shared" si="30"/>
+        <v>15060</v>
+      </c>
+      <c r="T32" s="42">
+        <v>4116</v>
+      </c>
+      <c r="U32" s="17"/>
+      <c r="V32" s="17">
+        <f t="shared" si="31"/>
+        <v>4116</v>
+      </c>
+      <c r="W32" s="42">
+        <v>2458</v>
+      </c>
+      <c r="X32" s="17"/>
+      <c r="Y32" s="17">
+        <f t="shared" si="32"/>
+        <v>2458</v>
+      </c>
+      <c r="Z32" s="42">
+        <v>458.7</v>
+      </c>
+      <c r="AA32" s="17"/>
+      <c r="AB32" s="17">
+        <f t="shared" si="25"/>
+        <v>458.7</v>
+      </c>
+      <c r="AC32" s="21">
+        <f t="shared" si="26"/>
+        <v>22092.7</v>
+      </c>
+      <c r="AD32" s="17"/>
+      <c r="AE32" s="17">
+        <f t="shared" si="33"/>
+        <v>22092.7</v>
+      </c>
+      <c r="AF32" s="43">
+        <f t="shared" si="27"/>
+        <v>0.68167313184898182</v>
+      </c>
+      <c r="AG32" s="17" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH32" s="17">
+        <f t="shared" si="35"/>
+        <v>0.68167313184898182</v>
+      </c>
+    </row>
+    <row r="33" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A33" s="32"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="7">
+        <v>1057.78</v>
+      </c>
+      <c r="D33">
+        <v>30</v>
+      </c>
+      <c r="E33" s="36">
+        <v>0.91393999999999997</v>
+      </c>
+      <c r="F33" s="36">
+        <v>1.9000000000000001E-4</v>
+      </c>
+      <c r="G33" s="36">
+        <v>-9.4163999999999998E-2</v>
+      </c>
+      <c r="H33" s="23">
+        <f t="shared" si="21"/>
+        <v>-12.555200000000001</v>
+      </c>
+      <c r="I33" s="21"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="42">
+        <v>37440</v>
+      </c>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17">
+        <f t="shared" si="28"/>
+        <v>37440</v>
+      </c>
+      <c r="N33" s="42">
+        <v>3334000</v>
+      </c>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17">
+        <f t="shared" si="29"/>
+        <v>3334000</v>
+      </c>
+      <c r="Q33" s="42">
+        <v>16630</v>
+      </c>
+      <c r="R33" s="17"/>
+      <c r="S33" s="17">
+        <f t="shared" si="30"/>
+        <v>16630</v>
+      </c>
+      <c r="T33" s="42">
+        <v>6322</v>
+      </c>
+      <c r="U33" s="17"/>
+      <c r="V33" s="17">
+        <f t="shared" si="31"/>
+        <v>6322</v>
+      </c>
+      <c r="W33" s="42">
+        <v>3890</v>
+      </c>
+      <c r="X33" s="17"/>
+      <c r="Y33" s="17">
+        <f t="shared" si="32"/>
+        <v>3890</v>
+      </c>
+      <c r="Z33" s="42">
+        <v>3890</v>
+      </c>
+      <c r="AA33" s="17"/>
+      <c r="AB33" s="17">
+        <f t="shared" si="25"/>
+        <v>3890</v>
+      </c>
+      <c r="AC33" s="21">
+        <f t="shared" si="26"/>
+        <v>30732</v>
+      </c>
+      <c r="AD33" s="17"/>
+      <c r="AE33" s="17">
+        <f t="shared" si="33"/>
+        <v>30732</v>
+      </c>
+      <c r="AF33" s="43">
+        <f t="shared" si="27"/>
+        <v>0.5411297670180919</v>
+      </c>
+      <c r="AG33" s="17" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH33" s="17">
+        <f t="shared" si="35"/>
+        <v>0.5411297670180919</v>
+      </c>
+    </row>
+    <row r="34" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A34" s="32"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="7">
+        <v>1410.37</v>
+      </c>
+      <c r="D34">
+        <v>40</v>
+      </c>
+      <c r="E34" s="36">
+        <v>0.84211000000000003</v>
+      </c>
+      <c r="F34" s="36">
+        <v>1.8000000000000001E-4</v>
+      </c>
+      <c r="G34" s="36">
+        <v>-0.18749299999999999</v>
+      </c>
+      <c r="H34" s="23">
+        <f t="shared" si="21"/>
+        <v>-24.999066666666668</v>
+      </c>
+      <c r="I34" s="21"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="42">
+        <v>22530</v>
+      </c>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17">
+        <f t="shared" si="28"/>
+        <v>22530</v>
+      </c>
+      <c r="N34" s="42">
+        <v>3305000</v>
+      </c>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17">
+        <f t="shared" si="29"/>
+        <v>3305000</v>
+      </c>
+      <c r="Q34" s="42">
+        <v>16940</v>
+      </c>
+      <c r="R34" s="17"/>
+      <c r="S34" s="17">
+        <f t="shared" si="30"/>
+        <v>16940</v>
+      </c>
+      <c r="T34" s="42">
+        <v>8167</v>
+      </c>
+      <c r="U34" s="17"/>
+      <c r="V34" s="17">
+        <f t="shared" si="31"/>
+        <v>8167</v>
+      </c>
+      <c r="W34" s="42">
+        <v>4801</v>
+      </c>
+      <c r="X34" s="17"/>
+      <c r="Y34" s="17">
+        <f t="shared" si="32"/>
+        <v>4801</v>
+      </c>
+      <c r="Z34" s="42">
+        <v>4801</v>
+      </c>
+      <c r="AA34" s="17"/>
+      <c r="AB34" s="17">
+        <f t="shared" si="25"/>
+        <v>4801</v>
+      </c>
+      <c r="AC34" s="21">
+        <f t="shared" si="26"/>
+        <v>34709</v>
+      </c>
+      <c r="AD34" s="17"/>
+      <c r="AE34" s="17">
+        <f t="shared" si="33"/>
+        <v>34709</v>
+      </c>
+      <c r="AF34" s="43">
+        <f t="shared" si="27"/>
+        <v>0.48805785243020544</v>
+      </c>
+      <c r="AG34" s="17" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH34" s="17">
+        <f t="shared" si="35"/>
+        <v>0.48805785243020544</v>
+      </c>
+    </row>
+    <row r="35" spans="1:54" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="34"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="20">
+        <v>1762.96</v>
+      </c>
+      <c r="D35" s="18">
+        <v>50</v>
+      </c>
+      <c r="E35" s="41">
+        <v>0.78198999999999996</v>
+      </c>
+      <c r="F35" s="41">
+        <v>1.9000000000000001E-4</v>
+      </c>
+      <c r="G35" s="41">
+        <v>-0.27878900000000001</v>
+      </c>
+      <c r="H35" s="24">
+        <f t="shared" si="21"/>
+        <v>-37.171866666666666</v>
+      </c>
+      <c r="I35" s="22"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="42">
+        <v>12580</v>
+      </c>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19">
+        <f t="shared" si="28"/>
+        <v>12580</v>
+      </c>
+      <c r="N35" s="42">
+        <v>3274000</v>
+      </c>
+      <c r="O35" s="19"/>
+      <c r="P35" s="19">
+        <f t="shared" si="29"/>
+        <v>3274000</v>
+      </c>
+      <c r="Q35" s="42">
+        <v>16710</v>
+      </c>
+      <c r="R35" s="19"/>
+      <c r="S35" s="19">
+        <f t="shared" si="30"/>
+        <v>16710</v>
+      </c>
+      <c r="T35" s="42">
+        <v>9558</v>
+      </c>
+      <c r="U35" s="19"/>
+      <c r="V35" s="19">
+        <f t="shared" si="31"/>
+        <v>9558</v>
+      </c>
+      <c r="W35" s="42">
+        <v>5286</v>
+      </c>
+      <c r="X35" s="19"/>
+      <c r="Y35" s="19">
+        <f t="shared" si="32"/>
+        <v>5286</v>
+      </c>
+      <c r="Z35" s="42">
+        <v>5286</v>
+      </c>
+      <c r="AA35" s="19"/>
+      <c r="AB35" s="19">
+        <f t="shared" si="25"/>
+        <v>5286</v>
+      </c>
+      <c r="AC35" s="21">
+        <f t="shared" si="26"/>
+        <v>36840</v>
+      </c>
+      <c r="AD35" s="19"/>
+      <c r="AE35" s="19">
+        <f t="shared" si="33"/>
+        <v>36840</v>
+      </c>
+      <c r="AF35" s="43">
+        <f t="shared" si="27"/>
+        <v>0.45358306188925079</v>
+      </c>
+      <c r="AG35" s="19" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH35" s="19">
+        <f t="shared" si="35"/>
+        <v>0.45358306188925079</v>
+      </c>
+    </row>
+    <row r="37" spans="1:54" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" s="39"/>
+      <c r="I37" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="K37" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="N37" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="O37" s="37"/>
+      <c r="P37" s="37"/>
+      <c r="Q37" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="T37" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="U37" s="37"/>
+      <c r="V37" s="37"/>
+      <c r="W37" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z37" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC37" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF37" s="40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K38" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N38" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q38" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="S38" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="T38" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="U38" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="V38" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="W38" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="X38" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y38" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z38" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA38" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB38" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC38" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD38" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE38" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF38" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG38" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH38" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="7">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39" s="36">
+        <v>1.2324299999999999</v>
+      </c>
+      <c r="F39" s="36">
+        <v>2.2000000000000001E-4</v>
+      </c>
+      <c r="G39" s="36">
+        <v>0.18859500000000001</v>
+      </c>
+      <c r="H39" s="23">
+        <f>G39/0.0075</f>
+        <v>25.146000000000004</v>
+      </c>
+      <c r="I39" s="21"/>
+      <c r="J39" s="17"/>
+      <c r="Q39" s="7">
+        <v>0</v>
+      </c>
+      <c r="T39" s="7">
+        <v>0</v>
+      </c>
+      <c r="W39" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="7">
+        <v>3.5259299999999998</v>
+      </c>
+      <c r="D40">
+        <v>0.1</v>
+      </c>
+      <c r="E40" s="36">
+        <v>1.1938</v>
+      </c>
+      <c r="F40" s="36">
+        <v>2.1000000000000001E-4</v>
+      </c>
+      <c r="G40" s="36">
+        <v>0.16233900000000001</v>
+      </c>
+      <c r="H40" s="23">
+        <f t="shared" ref="H40:H48" si="36">G40/0.0075</f>
+        <v>21.645200000000003</v>
+      </c>
+      <c r="I40" s="21"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="42">
+        <v>121400</v>
+      </c>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17">
+        <f>K40+L40</f>
+        <v>121400</v>
+      </c>
+      <c r="N40" s="42">
+        <v>3403000</v>
+      </c>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17">
+        <f>N40+O40</f>
+        <v>3403000</v>
+      </c>
+      <c r="Q40" s="42">
+        <v>64.83</v>
+      </c>
+      <c r="R40" s="17"/>
+      <c r="S40" s="17">
+        <f>Q40+R40</f>
+        <v>64.83</v>
+      </c>
+      <c r="T40" s="42">
+        <v>0.2006</v>
+      </c>
+      <c r="U40" s="17"/>
+      <c r="V40" s="17">
+        <f>T40+U40</f>
+        <v>0.2006</v>
+      </c>
+      <c r="W40" s="42">
+        <v>8.1590000000000005E-4</v>
+      </c>
+      <c r="X40" s="17"/>
+      <c r="Y40" s="17">
+        <f>W40+X40</f>
+        <v>8.1590000000000005E-4</v>
+      </c>
+      <c r="Z40" s="42">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="17"/>
+      <c r="AB40" s="17">
+        <f>Z40+AA40</f>
+        <v>0</v>
+      </c>
+      <c r="AC40" s="21">
+        <f>Q40+T40+W40+Z40</f>
+        <v>65.031415899999999</v>
+      </c>
+      <c r="AD40" s="17"/>
+      <c r="AE40" s="17">
+        <f>AC40+AD40</f>
+        <v>65.031415899999999</v>
+      </c>
+      <c r="AF40" s="43">
+        <f>Q40/AC40</f>
+        <v>0.99690279079407218</v>
+      </c>
+      <c r="AG40" s="17" t="e">
+        <f>R40/AD40</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH40" s="17">
+        <f>S40/AE40</f>
+        <v>0.99690279079407218</v>
+      </c>
+      <c r="AJ40" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A41" s="32" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B41" s="33"/>
+      <c r="C41" s="7">
+        <v>35.256599999999999</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" s="36">
+        <v>1.17763</v>
+      </c>
+      <c r="F41" s="36">
+        <v>2.1000000000000001E-4</v>
+      </c>
+      <c r="G41" s="36">
+        <v>0.150837</v>
+      </c>
+      <c r="H41" s="23">
+        <f>G41/0.0075</f>
+        <v>20.111599999999999</v>
+      </c>
+      <c r="I41" s="21"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="42">
+        <v>117700</v>
+      </c>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="42">
+        <v>3401000</v>
+      </c>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17">
+        <f t="shared" ref="P41:P48" si="37">N41+O41</f>
+        <v>3401000</v>
+      </c>
+      <c r="Q41" s="42">
+        <v>1510</v>
+      </c>
+      <c r="R41" s="17"/>
+      <c r="S41" s="17">
+        <f t="shared" ref="S41:S48" si="38">Q41+R41</f>
+        <v>1510</v>
+      </c>
+      <c r="T41" s="42">
+        <v>31.08</v>
+      </c>
+      <c r="U41" s="17"/>
+      <c r="V41" s="17">
+        <f>T41+U41</f>
+        <v>31.08</v>
+      </c>
+      <c r="W41" s="42">
+        <v>1.3340000000000001</v>
+      </c>
+      <c r="X41" s="17"/>
+      <c r="Y41" s="17">
+        <f t="shared" ref="Y41:Y48" si="39">W41+X41</f>
+        <v>1.3340000000000001</v>
+      </c>
+      <c r="Z41" s="42">
+        <v>9.0570000000000008E-3</v>
+      </c>
+      <c r="AA41" s="17"/>
+      <c r="AB41" s="17">
+        <f t="shared" ref="AB41:AB48" si="40">Z41+AA41</f>
+        <v>9.0570000000000008E-3</v>
+      </c>
+      <c r="AC41" s="21">
+        <f t="shared" ref="AC41:AC48" si="41">Q41+T41+W41+Z41</f>
+        <v>1542.423057</v>
+      </c>
+      <c r="AD41" s="17"/>
+      <c r="AE41" s="17">
+        <f t="shared" ref="AE41:AE43" si="42">AC41+AD41</f>
+        <v>1542.423057</v>
+      </c>
+      <c r="AF41" s="43">
+        <f t="shared" ref="AF41:AF48" si="43">Q41/AC41</f>
+        <v>0.97897914138870401</v>
+      </c>
+      <c r="AG41" s="17"/>
+      <c r="AH41" s="17">
+        <f t="shared" ref="AH41:AH43" si="44">S41/AE41</f>
+        <v>0.97897914138870401</v>
+      </c>
+      <c r="AJ41" s="1"/>
+    </row>
+    <row r="42" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A42" s="32"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="7">
+        <v>141.02600000000001</v>
+      </c>
+      <c r="D42">
+        <v>4</v>
+      </c>
+      <c r="E42" s="36">
+        <v>1.14588</v>
+      </c>
+      <c r="F42" s="36">
+        <v>2.2000000000000001E-4</v>
+      </c>
+      <c r="G42" s="36">
+        <v>0.127308</v>
+      </c>
+      <c r="H42" s="23">
+        <f t="shared" ref="H42:H48" si="45">G42/0.0075</f>
+        <v>16.974400000000003</v>
+      </c>
+      <c r="I42" s="21"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="42">
+        <v>106000</v>
+      </c>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="42">
+        <v>3395000</v>
+      </c>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17">
+        <f t="shared" si="37"/>
+        <v>3395000</v>
+      </c>
+      <c r="Q42" s="42">
+        <v>5591</v>
+      </c>
+      <c r="R42" s="17"/>
+      <c r="S42" s="17">
+        <f t="shared" si="38"/>
+        <v>5591</v>
+      </c>
+      <c r="T42" s="42">
+        <v>422.6</v>
+      </c>
+      <c r="U42" s="17"/>
+      <c r="V42" s="17">
+        <f>T42+U42</f>
+        <v>422.6</v>
+      </c>
+      <c r="W42" s="42">
+        <v>74.28</v>
+      </c>
+      <c r="X42" s="17"/>
+      <c r="Y42" s="17">
+        <f t="shared" si="39"/>
+        <v>74.28</v>
+      </c>
+      <c r="Z42" s="42">
+        <v>2.1539999999999999</v>
+      </c>
+      <c r="AA42" s="17"/>
+      <c r="AB42" s="17">
+        <f t="shared" si="40"/>
+        <v>2.1539999999999999</v>
+      </c>
+      <c r="AC42" s="21">
+        <f t="shared" si="41"/>
+        <v>6090.0340000000006</v>
+      </c>
+      <c r="AD42" s="17"/>
+      <c r="AE42" s="17">
+        <f t="shared" si="42"/>
+        <v>6090.0340000000006</v>
+      </c>
+      <c r="AF42" s="43">
+        <f t="shared" si="43"/>
+        <v>0.91805727192984465</v>
+      </c>
+      <c r="AG42" s="17"/>
+      <c r="AH42" s="17">
+        <f t="shared" si="44"/>
+        <v>0.91805727192984465</v>
+      </c>
+      <c r="AJ42" s="1"/>
+    </row>
+    <row r="43" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A43" s="32"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="7">
+        <v>246.79599999999999</v>
+      </c>
+      <c r="D43">
+        <v>7</v>
+      </c>
+      <c r="E43" s="36">
+        <v>1.1128899999999999</v>
+      </c>
+      <c r="F43" s="36">
+        <v>2.1000000000000001E-4</v>
+      </c>
+      <c r="G43" s="36">
+        <v>0.101439</v>
+      </c>
+      <c r="H43" s="23">
+        <f t="shared" si="45"/>
+        <v>13.5252</v>
+      </c>
+      <c r="I43" s="21"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="42">
+        <v>95350</v>
+      </c>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17">
+        <f t="shared" ref="M43:M48" si="46">K43+L43</f>
+        <v>95350</v>
+      </c>
+      <c r="N43" s="42">
+        <v>3389000</v>
+      </c>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17">
+        <f t="shared" si="37"/>
+        <v>3389000</v>
+      </c>
+      <c r="Q43" s="42">
+        <v>8645</v>
+      </c>
+      <c r="R43" s="17"/>
+      <c r="S43" s="17">
+        <f t="shared" si="38"/>
+        <v>8645</v>
+      </c>
+      <c r="T43" s="42">
+        <v>1045</v>
+      </c>
+      <c r="U43" s="17"/>
+      <c r="V43" s="17">
+        <f>T43+U43</f>
+        <v>1045</v>
+      </c>
+      <c r="W43" s="42">
+        <v>301.8</v>
+      </c>
+      <c r="X43" s="17"/>
+      <c r="Y43" s="17">
+        <f t="shared" si="39"/>
+        <v>301.8</v>
+      </c>
+      <c r="Z43" s="42">
+        <v>16.2</v>
+      </c>
+      <c r="AA43" s="17"/>
+      <c r="AB43" s="17">
+        <f t="shared" si="40"/>
+        <v>16.2</v>
+      </c>
+      <c r="AC43" s="21">
+        <f t="shared" si="41"/>
+        <v>10008</v>
+      </c>
+      <c r="AD43" s="17"/>
+      <c r="AE43" s="17">
+        <f t="shared" si="42"/>
+        <v>10008</v>
+      </c>
+      <c r="AF43" s="43">
+        <f t="shared" si="43"/>
+        <v>0.86380895283772985</v>
+      </c>
+      <c r="AG43" s="17" t="e">
+        <f t="shared" ref="AG43:AG48" si="47">R43/AD43</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH43" s="17">
+        <f t="shared" si="44"/>
+        <v>0.86380895283772985</v>
+      </c>
+      <c r="AJ43" s="25">
+        <f>4.77*306.39103*7</f>
+        <v>10230.396491699998</v>
+      </c>
+      <c r="BB43" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A44" s="32"/>
+      <c r="B44" s="33"/>
+      <c r="C44" s="7">
+        <v>352.59300000000002</v>
+      </c>
+      <c r="D44">
+        <v>10</v>
+      </c>
+      <c r="E44" s="36">
+        <v>1.0814999999999999</v>
+      </c>
+      <c r="F44" s="36">
+        <v>2.1000000000000001E-4</v>
+      </c>
+      <c r="G44" s="36">
+        <v>7.5357999999999994E-2</v>
+      </c>
+      <c r="H44" s="23">
+        <f t="shared" si="45"/>
+        <v>10.047733333333333</v>
+      </c>
+      <c r="I44" s="21"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="42">
+        <v>85560</v>
+      </c>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17">
+        <f t="shared" si="46"/>
+        <v>85560</v>
+      </c>
+      <c r="N44" s="42">
+        <v>3383000</v>
+      </c>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17">
+        <f t="shared" si="37"/>
+        <v>3383000</v>
+      </c>
+      <c r="Q44" s="42">
+        <v>10960</v>
+      </c>
+      <c r="R44" s="17"/>
+      <c r="S44" s="17">
+        <f t="shared" si="38"/>
+        <v>10960</v>
+      </c>
+      <c r="T44" s="42">
+        <v>1772</v>
+      </c>
+      <c r="U44" s="17"/>
+      <c r="V44" s="17">
+        <f t="shared" ref="V43:V48" si="48">T44+U44</f>
+        <v>1772</v>
+      </c>
+      <c r="W44" s="42">
+        <v>661.3</v>
+      </c>
+      <c r="X44" s="17"/>
+      <c r="Y44" s="17">
+        <f t="shared" si="39"/>
+        <v>661.3</v>
+      </c>
+      <c r="Z44" s="42">
+        <v>53.89</v>
+      </c>
+      <c r="AA44" s="17"/>
+      <c r="AB44" s="17">
+        <f t="shared" si="40"/>
+        <v>53.89</v>
+      </c>
+      <c r="AC44" s="21">
+        <f t="shared" si="41"/>
+        <v>13447.189999999999</v>
+      </c>
+      <c r="AD44" s="17"/>
+      <c r="AE44" s="17">
+        <f t="shared" ref="AE43:AE48" si="49">AC44+AD44</f>
+        <v>13447.189999999999</v>
+      </c>
+      <c r="AF44" s="43">
+        <f t="shared" si="43"/>
+        <v>0.81504016824332826</v>
+      </c>
+      <c r="AG44" s="17" t="e">
+        <f t="shared" si="47"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH44" s="17">
+        <f t="shared" ref="AH43:AH48" si="50">S44/AE44</f>
+        <v>0.81504016824332826</v>
+      </c>
+    </row>
+    <row r="45" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A45" s="32"/>
+      <c r="B45" s="33"/>
+      <c r="C45" s="7">
+        <v>705.18499999999995</v>
+      </c>
+      <c r="D45">
+        <v>20</v>
+      </c>
+      <c r="E45" s="36">
+        <v>0.99263000000000001</v>
+      </c>
+      <c r="F45" s="36">
+        <v>1.9000000000000001E-4</v>
+      </c>
+      <c r="G45" s="36">
+        <v>-7.4250000000000002E-3</v>
+      </c>
+      <c r="H45" s="23">
+        <f t="shared" si="45"/>
+        <v>-0.9900000000000001</v>
+      </c>
+      <c r="I45" s="21"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="42">
+        <v>58190</v>
+      </c>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17">
+        <f t="shared" si="46"/>
+        <v>58190</v>
+      </c>
+      <c r="N45" s="42">
+        <v>3360000</v>
+      </c>
+      <c r="O45" s="17"/>
+      <c r="P45" s="17">
+        <f t="shared" si="37"/>
+        <v>3360000</v>
+      </c>
+      <c r="Q45" s="42">
+        <v>15110</v>
+      </c>
+      <c r="R45" s="17"/>
+      <c r="S45" s="17">
+        <f t="shared" si="38"/>
+        <v>15110</v>
+      </c>
+      <c r="T45" s="42">
+        <v>4121</v>
+      </c>
+      <c r="U45" s="17"/>
+      <c r="V45" s="17">
+        <f t="shared" si="48"/>
+        <v>4121</v>
+      </c>
+      <c r="W45" s="42">
+        <v>2467</v>
+      </c>
+      <c r="X45" s="17"/>
+      <c r="Y45" s="17">
+        <f t="shared" si="39"/>
+        <v>2467</v>
+      </c>
+      <c r="Z45" s="42">
+        <v>460.1</v>
+      </c>
+      <c r="AA45" s="17"/>
+      <c r="AB45" s="17">
+        <f t="shared" si="40"/>
+        <v>460.1</v>
+      </c>
+      <c r="AC45" s="21">
+        <f t="shared" si="41"/>
+        <v>22158.1</v>
+      </c>
+      <c r="AD45" s="17"/>
+      <c r="AE45" s="17">
+        <f t="shared" si="49"/>
+        <v>22158.1</v>
+      </c>
+      <c r="AF45" s="43">
+        <f t="shared" si="43"/>
+        <v>0.6819176734467306</v>
+      </c>
+      <c r="AG45" s="17" t="e">
+        <f t="shared" si="47"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH45" s="17">
+        <f t="shared" si="50"/>
+        <v>0.6819176734467306</v>
+      </c>
+    </row>
+    <row r="46" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A46" s="32"/>
+      <c r="B46" s="33"/>
+      <c r="C46" s="7">
+        <v>1057.78</v>
+      </c>
+      <c r="D46">
+        <v>30</v>
+      </c>
+      <c r="E46" s="36">
+        <v>0.91374999999999995</v>
+      </c>
+      <c r="F46" s="36">
+        <v>1.9000000000000001E-4</v>
+      </c>
+      <c r="G46" s="36">
+        <v>-9.4391000000000003E-2</v>
+      </c>
+      <c r="H46" s="23">
+        <f t="shared" si="45"/>
+        <v>-12.585466666666667</v>
+      </c>
+      <c r="I46" s="21"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="42">
+        <v>37520</v>
+      </c>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17">
+        <f t="shared" si="46"/>
+        <v>37520</v>
+      </c>
+      <c r="N46" s="42">
+        <v>3334000</v>
+      </c>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17">
+        <f t="shared" si="37"/>
+        <v>3334000</v>
+      </c>
+      <c r="Q46" s="42">
+        <v>16700</v>
+      </c>
+      <c r="R46" s="17"/>
+      <c r="S46" s="17">
+        <f t="shared" si="38"/>
+        <v>16700</v>
+      </c>
+      <c r="T46" s="42">
+        <v>6321</v>
+      </c>
+      <c r="U46" s="17"/>
+      <c r="V46" s="17">
+        <f t="shared" si="48"/>
+        <v>6321</v>
+      </c>
+      <c r="W46" s="42">
+        <v>3908</v>
+      </c>
+      <c r="X46" s="17"/>
+      <c r="Y46" s="17">
+        <f t="shared" si="39"/>
+        <v>3908</v>
+      </c>
+      <c r="Z46" s="42">
+        <v>1322</v>
+      </c>
+      <c r="AA46" s="17"/>
+      <c r="AB46" s="17">
+        <f t="shared" si="40"/>
+        <v>1322</v>
+      </c>
+      <c r="AC46" s="21">
+        <f t="shared" si="41"/>
+        <v>28251</v>
+      </c>
+      <c r="AD46" s="17"/>
+      <c r="AE46" s="17">
+        <f t="shared" si="49"/>
+        <v>28251</v>
+      </c>
+      <c r="AF46" s="43">
+        <f t="shared" si="43"/>
+        <v>0.59112951753920218</v>
+      </c>
+      <c r="AG46" s="17" t="e">
+        <f t="shared" si="47"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH46" s="17">
+        <f t="shared" si="50"/>
+        <v>0.59112951753920218</v>
+      </c>
+    </row>
+    <row r="47" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A47" s="32"/>
+      <c r="B47" s="33"/>
+      <c r="C47" s="7">
+        <v>1410.37</v>
+      </c>
+      <c r="D47">
+        <v>40</v>
+      </c>
+      <c r="E47" s="36">
+        <v>0.84228999999999998</v>
+      </c>
+      <c r="F47" s="36">
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="G47" s="36">
+        <v>-0.18723999999999999</v>
+      </c>
+      <c r="H47" s="23">
+        <f t="shared" si="45"/>
+        <v>-24.965333333333334</v>
+      </c>
+      <c r="I47" s="21"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="42">
+        <v>22610</v>
+      </c>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17">
+        <f t="shared" si="46"/>
+        <v>22610</v>
+      </c>
+      <c r="N47" s="42">
+        <v>3305000</v>
+      </c>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17">
+        <f t="shared" si="37"/>
+        <v>3305000</v>
+      </c>
+      <c r="Q47" s="42">
+        <v>17020</v>
+      </c>
+      <c r="R47" s="17"/>
+      <c r="S47" s="17">
+        <f t="shared" si="38"/>
+        <v>17020</v>
+      </c>
+      <c r="T47" s="42">
+        <v>8168</v>
+      </c>
+      <c r="U47" s="17"/>
+      <c r="V47" s="17">
+        <f t="shared" si="48"/>
+        <v>8168</v>
+      </c>
+      <c r="W47" s="42">
+        <v>4822</v>
+      </c>
+      <c r="X47" s="17"/>
+      <c r="Y47" s="17">
+        <f t="shared" si="39"/>
+        <v>4822</v>
+      </c>
+      <c r="Z47" s="42">
+        <v>2521</v>
+      </c>
+      <c r="AA47" s="17"/>
+      <c r="AB47" s="17">
+        <f t="shared" si="40"/>
+        <v>2521</v>
+      </c>
+      <c r="AC47" s="21">
+        <f t="shared" si="41"/>
+        <v>32531</v>
+      </c>
+      <c r="AD47" s="17"/>
+      <c r="AE47" s="17">
+        <f t="shared" si="49"/>
+        <v>32531</v>
+      </c>
+      <c r="AF47" s="43">
+        <f t="shared" si="43"/>
+        <v>0.52319326181181025</v>
+      </c>
+      <c r="AG47" s="17" t="e">
+        <f t="shared" si="47"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH47" s="17">
+        <f t="shared" si="50"/>
+        <v>0.52319326181181025</v>
+      </c>
+    </row>
+    <row r="48" spans="1:54" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="34"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="20">
+        <v>1762.96</v>
+      </c>
+      <c r="D48" s="18">
+        <v>50</v>
+      </c>
+      <c r="E48" s="36">
+        <v>0.78154000000000001</v>
+      </c>
+      <c r="F48" s="36">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="G48" s="36">
+        <v>-0.27952500000000002</v>
+      </c>
+      <c r="H48" s="24">
+        <f t="shared" si="45"/>
+        <v>-37.270000000000003</v>
+      </c>
+      <c r="I48" s="22"/>
+      <c r="J48" s="19"/>
+      <c r="K48" s="42">
+        <v>12670</v>
+      </c>
+      <c r="L48" s="19"/>
+      <c r="M48" s="19">
+        <f t="shared" si="46"/>
+        <v>12670</v>
+      </c>
+      <c r="N48" s="42">
+        <v>3274000</v>
+      </c>
+      <c r="O48" s="19"/>
+      <c r="P48" s="19">
+        <f t="shared" si="37"/>
+        <v>3274000</v>
+      </c>
+      <c r="Q48" s="42">
+        <v>16790</v>
+      </c>
+      <c r="R48" s="19"/>
+      <c r="S48" s="19">
+        <f t="shared" si="38"/>
+        <v>16790</v>
+      </c>
+      <c r="T48" s="42">
+        <v>9553</v>
+      </c>
+      <c r="U48" s="19"/>
+      <c r="V48" s="19">
+        <f t="shared" si="48"/>
+        <v>9553</v>
+      </c>
+      <c r="W48" s="42">
+        <v>5320</v>
+      </c>
+      <c r="X48" s="19"/>
+      <c r="Y48" s="19">
+        <f t="shared" si="39"/>
+        <v>5320</v>
+      </c>
+      <c r="Z48" s="42">
+        <v>3914</v>
+      </c>
+      <c r="AA48" s="19"/>
+      <c r="AB48" s="19">
+        <f t="shared" si="40"/>
+        <v>3914</v>
+      </c>
+      <c r="AC48" s="21">
+        <f t="shared" si="41"/>
+        <v>35577</v>
+      </c>
+      <c r="AD48" s="19"/>
+      <c r="AE48" s="19">
+        <f t="shared" si="49"/>
+        <v>35577</v>
+      </c>
+      <c r="AF48" s="43">
+        <f t="shared" si="43"/>
+        <v>0.47193411473704922</v>
+      </c>
+      <c r="AG48" s="19" t="e">
+        <f t="shared" si="47"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH48" s="19">
+        <f t="shared" si="50"/>
+        <v>0.47193411473704922</v>
+      </c>
+    </row>
+    <row r="50" spans="1:54" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="C50" s="39"/>
+      <c r="I50" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="K50" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="N50" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="O50" s="37"/>
+      <c r="P50" s="37"/>
+      <c r="Q50" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="T50" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="U50" s="37"/>
+      <c r="V50" s="37"/>
+      <c r="W50" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z50" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC50" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF50" s="40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B51" t="s">
+        <v>92</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I51" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K51" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N51" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q51" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="R51" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="S51" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="T51" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="U51" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="V51" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="W51" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="X51" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y51" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z51" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA51" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB51" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC51" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD51" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE51" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF51" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG51" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH51" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B52" t="s">
+        <v>93</v>
+      </c>
+      <c r="C52" s="7">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="23">
+        <f>G52/0.0075</f>
+        <v>0</v>
+      </c>
+      <c r="I52" s="21"/>
+      <c r="J52" s="17"/>
+      <c r="Q52" s="7">
+        <v>0</v>
+      </c>
+      <c r="T52" s="7">
+        <v>0</v>
+      </c>
+      <c r="W52" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C53" s="7">
+        <v>3.5259299999999998</v>
+      </c>
+      <c r="D53">
+        <v>0.1</v>
+      </c>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="23">
+        <f t="shared" ref="H53:H61" si="51">G53/0.0075</f>
+        <v>0</v>
+      </c>
+      <c r="I53" s="21"/>
+      <c r="J53" s="17"/>
+      <c r="K53" s="42"/>
+      <c r="L53" s="17"/>
+      <c r="M53" s="17">
+        <f>K53+L53</f>
+        <v>0</v>
+      </c>
+      <c r="N53" s="42"/>
+      <c r="O53" s="17"/>
+      <c r="P53" s="17">
+        <f>N53+O53</f>
+        <v>0</v>
+      </c>
+      <c r="Q53" s="42"/>
+      <c r="R53" s="17"/>
+      <c r="S53" s="17">
+        <f>Q53+R53</f>
+        <v>0</v>
+      </c>
+      <c r="T53" s="42"/>
+      <c r="U53" s="17"/>
+      <c r="V53" s="17">
+        <f>T53+U53</f>
+        <v>0</v>
+      </c>
+      <c r="W53" s="42"/>
+      <c r="X53" s="17"/>
+      <c r="Y53" s="17">
+        <f>W53+X53</f>
+        <v>0</v>
+      </c>
+      <c r="Z53" s="42"/>
+      <c r="AA53" s="17"/>
+      <c r="AB53" s="17">
+        <f>Z53+AA53</f>
+        <v>0</v>
+      </c>
+      <c r="AC53" s="21">
+        <f>Q53+T53+W53+Z53</f>
+        <v>0</v>
+      </c>
+      <c r="AD53" s="17"/>
+      <c r="AE53" s="17">
+        <f>AC53+AD53</f>
+        <v>0</v>
+      </c>
+      <c r="AF53" s="43" t="e">
+        <f>Q53/AC53</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG53" s="17" t="e">
+        <f>R53/AD53</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH53" s="17" t="e">
+        <f>S53/AE53</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ53" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A54" s="32" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B54" s="33"/>
+      <c r="C54" s="7">
+        <v>35.256599999999999</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="23">
+        <f>G54/0.0075</f>
+        <v>0</v>
+      </c>
+      <c r="I54" s="21"/>
+      <c r="J54" s="17"/>
+      <c r="K54" s="42"/>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17">
+        <f t="shared" ref="M54:M56" si="52">K54+L54</f>
+        <v>0</v>
+      </c>
+      <c r="N54" s="42"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="17">
+        <f t="shared" ref="P54:P61" si="53">N54+O54</f>
+        <v>0</v>
+      </c>
+      <c r="Q54" s="42"/>
+      <c r="R54" s="17"/>
+      <c r="S54" s="17">
+        <f t="shared" ref="S54:S61" si="54">Q54+R54</f>
+        <v>0</v>
+      </c>
+      <c r="T54" s="42"/>
+      <c r="U54" s="17"/>
+      <c r="V54" s="17">
+        <f>T54+U54</f>
+        <v>0</v>
+      </c>
+      <c r="W54" s="42"/>
+      <c r="X54" s="17"/>
+      <c r="Y54" s="17">
+        <f t="shared" ref="Y54:Y61" si="55">W54+X54</f>
+        <v>0</v>
+      </c>
+      <c r="Z54" s="42"/>
+      <c r="AA54" s="17"/>
+      <c r="AB54" s="17">
+        <f t="shared" ref="AB54:AB61" si="56">Z54+AA54</f>
+        <v>0</v>
+      </c>
+      <c r="AC54" s="21">
+        <f t="shared" ref="AC54:AC61" si="57">Q54+T54+W54+Z54</f>
+        <v>0</v>
+      </c>
+      <c r="AD54" s="17"/>
+      <c r="AE54" s="17">
+        <f t="shared" ref="AE54:AE61" si="58">AC54+AD54</f>
+        <v>0</v>
+      </c>
+      <c r="AF54" s="43" t="e">
+        <f t="shared" ref="AF54:AF61" si="59">Q54/AC54</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG54" s="17"/>
+      <c r="AH54" s="17" t="e">
+        <f t="shared" ref="AH54:AH56" si="60">S54/AE54</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ54" s="1"/>
+    </row>
+    <row r="55" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A55" s="32"/>
+      <c r="B55" s="33"/>
+      <c r="C55" s="7">
+        <v>141.02600000000001</v>
+      </c>
+      <c r="D55">
+        <v>4</v>
+      </c>
+      <c r="E55" s="36"/>
+      <c r="F55" s="36"/>
+      <c r="G55" s="36"/>
+      <c r="H55" s="23">
+        <f t="shared" ref="H55:H61" si="61">G55/0.0075</f>
+        <v>0</v>
+      </c>
+      <c r="I55" s="21"/>
+      <c r="J55" s="17"/>
+      <c r="K55" s="42"/>
+      <c r="L55" s="17"/>
+      <c r="M55" s="17">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="N55" s="42"/>
+      <c r="O55" s="17"/>
+      <c r="P55" s="17">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="Q55" s="42"/>
+      <c r="R55" s="17"/>
+      <c r="S55" s="17">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="T55" s="42"/>
+      <c r="U55" s="17"/>
+      <c r="V55" s="17">
+        <f>T55+U55</f>
+        <v>0</v>
+      </c>
+      <c r="W55" s="42"/>
+      <c r="X55" s="17"/>
+      <c r="Y55" s="17">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="Z55" s="42"/>
+      <c r="AA55" s="17"/>
+      <c r="AB55" s="17">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="AC55" s="21">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="AD55" s="17"/>
+      <c r="AE55" s="17">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="AF55" s="43" t="e">
+        <f t="shared" si="59"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG55" s="17"/>
+      <c r="AH55" s="17" t="e">
+        <f t="shared" si="60"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ55" s="1"/>
+    </row>
+    <row r="56" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A56" s="32"/>
+      <c r="B56" s="33"/>
+      <c r="C56" s="7">
+        <v>246.79599999999999</v>
+      </c>
+      <c r="D56">
+        <v>7</v>
+      </c>
+      <c r="E56" s="36"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="36"/>
+      <c r="H56" s="23">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="I56" s="21"/>
+      <c r="J56" s="17"/>
+      <c r="K56" s="42"/>
+      <c r="L56" s="17"/>
+      <c r="M56" s="17">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="N56" s="42"/>
+      <c r="O56" s="17"/>
+      <c r="P56" s="17">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="Q56" s="42"/>
+      <c r="R56" s="17"/>
+      <c r="S56" s="17">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="T56" s="42"/>
+      <c r="U56" s="17"/>
+      <c r="V56" s="17">
+        <f>T56+U56</f>
+        <v>0</v>
+      </c>
+      <c r="W56" s="42"/>
+      <c r="X56" s="17"/>
+      <c r="Y56" s="17">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="Z56" s="42"/>
+      <c r="AA56" s="17"/>
+      <c r="AB56" s="17">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="AC56" s="21">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="AD56" s="17"/>
+      <c r="AE56" s="17">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="AF56" s="43" t="e">
+        <f t="shared" si="59"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG56" s="17" t="e">
+        <f t="shared" ref="AG56:AG61" si="62">R56/AD56</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH56" s="17" t="e">
+        <f t="shared" si="60"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ56" s="25">
+        <f>4.77*306.39103*7</f>
+        <v>10230.396491699998</v>
+      </c>
+      <c r="BB56" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="57" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A57" s="32"/>
+      <c r="B57" s="33"/>
+      <c r="C57" s="7">
+        <v>352.59300000000002</v>
+      </c>
+      <c r="D57">
+        <v>10</v>
+      </c>
+      <c r="E57" s="36"/>
+      <c r="F57" s="36"/>
+      <c r="G57" s="36"/>
+      <c r="H57" s="23">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="I57" s="21"/>
+      <c r="J57" s="17"/>
+      <c r="K57" s="42"/>
+      <c r="L57" s="17"/>
+      <c r="M57" s="17">
+        <f t="shared" ref="M56:M61" si="63">K57+L57</f>
+        <v>0</v>
+      </c>
+      <c r="N57" s="42"/>
+      <c r="O57" s="17"/>
+      <c r="P57" s="17">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="Q57" s="42"/>
+      <c r="R57" s="17"/>
+      <c r="S57" s="17">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="T57" s="42"/>
+      <c r="U57" s="17"/>
+      <c r="V57" s="17">
+        <f t="shared" ref="V57:V61" si="64">T57+U57</f>
+        <v>0</v>
+      </c>
+      <c r="W57" s="42"/>
+      <c r="X57" s="17"/>
+      <c r="Y57" s="17">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="Z57" s="42"/>
+      <c r="AA57" s="17"/>
+      <c r="AB57" s="17">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="AC57" s="21">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="AD57" s="17"/>
+      <c r="AE57" s="17">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="AF57" s="43" t="e">
+        <f t="shared" si="59"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG57" s="17" t="e">
+        <f t="shared" si="62"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH57" s="17" t="e">
+        <f t="shared" ref="AH56:AH61" si="65">S57/AE57</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="58" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A58" s="32"/>
+      <c r="B58" s="33"/>
+      <c r="C58" s="7">
+        <v>705.18499999999995</v>
+      </c>
+      <c r="D58">
+        <v>20</v>
+      </c>
+      <c r="E58" s="36"/>
+      <c r="F58" s="36"/>
+      <c r="G58" s="36"/>
+      <c r="H58" s="23">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="I58" s="21"/>
+      <c r="J58" s="17"/>
+      <c r="K58" s="42"/>
+      <c r="L58" s="17"/>
+      <c r="M58" s="17">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="N58" s="42"/>
+      <c r="O58" s="17"/>
+      <c r="P58" s="17">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="Q58" s="42"/>
+      <c r="R58" s="17"/>
+      <c r="S58" s="17">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="T58" s="42"/>
+      <c r="U58" s="17"/>
+      <c r="V58" s="17">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="W58" s="42"/>
+      <c r="X58" s="17"/>
+      <c r="Y58" s="17">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="Z58" s="42"/>
+      <c r="AA58" s="17"/>
+      <c r="AB58" s="17">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="AC58" s="21">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="AD58" s="17"/>
+      <c r="AE58" s="17">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="AF58" s="43" t="e">
+        <f t="shared" si="59"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG58" s="17" t="e">
+        <f t="shared" si="62"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH58" s="17" t="e">
+        <f t="shared" si="65"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="59" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A59" s="32"/>
+      <c r="B59" s="33"/>
+      <c r="C59" s="7">
+        <v>1057.78</v>
+      </c>
+      <c r="D59">
+        <v>30</v>
+      </c>
+      <c r="E59" s="36"/>
+      <c r="F59" s="36"/>
+      <c r="G59" s="36"/>
+      <c r="H59" s="23">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="I59" s="21"/>
+      <c r="J59" s="17"/>
+      <c r="K59" s="42"/>
+      <c r="L59" s="17"/>
+      <c r="M59" s="17">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="N59" s="42"/>
+      <c r="O59" s="17"/>
+      <c r="P59" s="17">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="Q59" s="42"/>
+      <c r="R59" s="17"/>
+      <c r="S59" s="17">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="T59" s="42"/>
+      <c r="U59" s="17"/>
+      <c r="V59" s="17">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="W59" s="42"/>
+      <c r="X59" s="17"/>
+      <c r="Y59" s="17">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="Z59" s="42"/>
+      <c r="AA59" s="17"/>
+      <c r="AB59" s="17">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="AC59" s="21">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="AD59" s="17"/>
+      <c r="AE59" s="17">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="AF59" s="43" t="e">
+        <f t="shared" si="59"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG59" s="17" t="e">
+        <f t="shared" si="62"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH59" s="17" t="e">
+        <f t="shared" si="65"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="60" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A60" s="32"/>
+      <c r="B60" s="33"/>
+      <c r="C60" s="7">
+        <v>1410.37</v>
+      </c>
+      <c r="D60">
+        <v>40</v>
+      </c>
+      <c r="E60" s="36"/>
+      <c r="F60" s="36"/>
+      <c r="G60" s="36"/>
+      <c r="H60" s="23">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="I60" s="21"/>
+      <c r="J60" s="17"/>
+      <c r="K60" s="42"/>
+      <c r="L60" s="17"/>
+      <c r="M60" s="17">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="N60" s="42"/>
+      <c r="O60" s="17"/>
+      <c r="P60" s="17">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="Q60" s="42"/>
+      <c r="R60" s="17"/>
+      <c r="S60" s="17">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="T60" s="42"/>
+      <c r="U60" s="17"/>
+      <c r="V60" s="17">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="W60" s="42"/>
+      <c r="X60" s="17"/>
+      <c r="Y60" s="17">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="Z60" s="42"/>
+      <c r="AA60" s="17"/>
+      <c r="AB60" s="17">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="AC60" s="21">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="AD60" s="17"/>
+      <c r="AE60" s="17">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="AF60" s="43" t="e">
+        <f t="shared" si="59"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG60" s="17" t="e">
+        <f t="shared" si="62"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH60" s="17" t="e">
+        <f t="shared" si="65"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="61" spans="1:54" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="34"/>
+      <c r="B61" s="35"/>
+      <c r="C61" s="20">
+        <v>1762.96</v>
+      </c>
+      <c r="D61" s="18">
+        <v>50</v>
+      </c>
+      <c r="E61" s="36"/>
+      <c r="F61" s="36"/>
+      <c r="G61" s="36"/>
+      <c r="H61" s="24">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="I61" s="22"/>
+      <c r="J61" s="19"/>
+      <c r="K61" s="42"/>
+      <c r="L61" s="19"/>
+      <c r="M61" s="19">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="N61" s="42"/>
+      <c r="O61" s="19"/>
+      <c r="P61" s="19">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="Q61" s="42"/>
+      <c r="R61" s="19"/>
+      <c r="S61" s="19">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="T61" s="42"/>
+      <c r="U61" s="19"/>
+      <c r="V61" s="19">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="W61" s="42"/>
+      <c r="X61" s="19"/>
+      <c r="Y61" s="19">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="Z61" s="42"/>
+      <c r="AA61" s="19"/>
+      <c r="AB61" s="19">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="AC61" s="21">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="AD61" s="19"/>
+      <c r="AE61" s="19">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="AF61" s="43" t="e">
+        <f t="shared" si="59"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG61" s="19" t="e">
+        <f t="shared" si="62"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH61" s="19" t="e">
+        <f t="shared" si="65"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
+    <mergeCell ref="A54:B61"/>
     <mergeCell ref="A6:B11"/>
     <mergeCell ref="A17:B22"/>
+    <mergeCell ref="A28:B35"/>
+    <mergeCell ref="A41:B48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrickpark/Desktop/elwr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{472DC699-17BF-1243-8217-CCC7F6C1DEA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0919E8CD-3F47-CE46-9340-A4DCE011C3AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="19200" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MCODE (2)" sheetId="3" r:id="rId1"/>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="97">
   <si>
     <t>Input File</t>
   </si>
@@ -229,15 +229,6 @@
     <t>Blanket</t>
   </si>
   <si>
-    <t>nUO2</t>
-  </si>
-  <si>
-    <t>Blankets</t>
-  </si>
-  <si>
-    <t>2 rings</t>
-  </si>
-  <si>
     <t>Burnup (MWd/kg)</t>
   </si>
   <si>
@@ -287,9 +278,6 @@
   </si>
   <si>
     <t>in Total</t>
-  </si>
-  <si>
-    <t>3 rings</t>
   </si>
   <si>
     <t>Pu-239/Pu</t>
@@ -379,19 +367,40 @@
     <t>Pu-242</t>
   </si>
   <si>
-    <t>ELWR A2 BeO</t>
-  </si>
-  <si>
-    <t>ELWR A3 Grph</t>
-  </si>
-  <si>
-    <t>ELWR B3 Grph</t>
-  </si>
-  <si>
     <t>4.0%e UO2</t>
   </si>
   <si>
     <t>2.2%e UO2</t>
+  </si>
+  <si>
+    <t>Reflector</t>
+  </si>
+  <si>
+    <t>Graphite</t>
+  </si>
+  <si>
+    <t>BeO</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>nUO2 (3 rings)</t>
+  </si>
+  <si>
+    <t>nUO2 (2 rings)</t>
+  </si>
+  <si>
+    <t>AP600 (Infinite)</t>
+  </si>
+  <si>
+    <t>ELWR B3 (Finite)</t>
+  </si>
+  <si>
+    <t>ELWR A3 (Finite)</t>
+  </si>
+  <si>
+    <t>ELWR A2 (Finite)</t>
   </si>
 </sst>
 </file>
@@ -402,7 +411,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -423,6 +432,13 @@
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -557,7 +573,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -616,6 +632,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1140,6 +1160,116 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$39:$D$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Q$39:$Q$48</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64.83</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1510</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5591</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8645</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10960</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15110</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16700</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17020</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16790</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8D0D-AA40-8061-6EE0797CCC01}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1234,6 +1364,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Pu-239 (grams)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2480,15 +2665,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>434730</xdr:colOff>
+      <xdr:colOff>667266</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>68385</xdr:rowOff>
+      <xdr:rowOff>175708</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>44</xdr:col>
-      <xdr:colOff>288191</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>194406</xdr:rowOff>
+      <xdr:colOff>520727</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>114891</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2870,8 +3055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAC066E8-F6D1-4540-A521-7E3172A66DC3}">
   <dimension ref="A1:AC11"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2916,7 +3101,7 @@
     <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B2"/>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E2"/>
       <c r="F2">
@@ -2957,38 +3142,38 @@
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="O6" s="3"/>
       <c r="P6" s="8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="U6" s="2"/>
       <c r="V6" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="W6" s="3"/>
       <c r="X6" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Y6" s="11" t="s">
         <v>13</v>
       </c>
       <c r="Z6" s="11" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="AA6" s="11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AB6" s="1"/>
     </row>
@@ -3000,10 +3185,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>24</v>
@@ -3063,28 +3248,28 @@
         <v>4</v>
       </c>
       <c r="X7" s="9" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Y7" s="12" t="s">
         <v>4</v>
       </c>
       <c r="Z7" s="12" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AA7" s="12" t="s">
         <v>14</v>
       </c>
       <c r="AB7" s="4"/>
       <c r="AC7" s="9" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:29" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C8" s="15">
         <v>1.22766</v>
@@ -3180,10 +3365,10 @@
     </row>
     <row r="9" spans="1:29" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C9" s="15">
         <v>1.23109</v>
@@ -3273,10 +3458,10 @@
     </row>
     <row r="10" spans="1:29" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C10" s="15">
         <v>1.2268699999999999</v>
@@ -3372,10 +3557,10 @@
     </row>
     <row r="11" spans="1:29" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
@@ -3418,7 +3603,7 @@
         <v>312591.97513453447</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="Q11">
         <v>7.2040000000000003E-3</v>
@@ -3474,8 +3659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W13" sqref="W13"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W17" sqref="W17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3542,14 +3727,14 @@
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="Q6" s="2" t="s">
         <v>8</v>
@@ -3897,7 +4082,7 @@
     </row>
     <row r="12" spans="1:22" ht="52.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>2</v>
@@ -4183,13 +4368,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E48A428C-A2D0-4C30-9161-4343E51EC6DC}">
   <dimension ref="A1:BB61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" topLeftCell="P33" zoomScale="141" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AI53" sqref="AI53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" style="7" customWidth="1"/>
     <col min="4" max="4" width="16.5" customWidth="1"/>
     <col min="6" max="6" width="9.5" customWidth="1"/>
@@ -4227,35 +4413,35 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>93</v>
       </c>
       <c r="I2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="K2" s="8" t="s">
-        <v>50</v>
-      </c>
       <c r="N2" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="T2" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
       <c r="W2" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="AC2" s="8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="AF2" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.2">
@@ -4266,94 +4452,94 @@
         <v>37</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="K3" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="T3" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="W3" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
       <c r="AC3" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AF3" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.2">
@@ -4361,7 +4547,7 @@
         <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="C4" s="7">
         <v>0</v>
@@ -4427,10 +4613,10 @@
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="C5" s="7">
         <v>3.5259299999999998</v>
@@ -4535,7 +4721,7 @@
         <v>0.99676721905182097</v>
       </c>
       <c r="AJ5" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.2">
@@ -5197,35 +5383,35 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>2</v>
+        <v>93</v>
       </c>
       <c r="I13" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="K13" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="K13" s="8" t="s">
-        <v>50</v>
-      </c>
       <c r="N13" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="T13" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
       <c r="W13" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="AC13" s="8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="AF13" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.2">
@@ -5236,94 +5422,94 @@
         <v>37</v>
       </c>
       <c r="C14" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="K14" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="N14" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q14" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="T14" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="W14" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
       <c r="AC14" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AD14" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="AE14" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AF14" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AG14" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="AH14" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.2">
@@ -5331,7 +5517,7 @@
         <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="C15" s="7">
         <v>0</v>
@@ -5370,10 +5556,10 @@
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="C16" s="7">
         <v>3.5259299999999998</v>
@@ -5478,7 +5664,7 @@
         <v>0.99442367252809594</v>
       </c>
       <c r="AJ16" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:54" x14ac:dyDescent="0.2">
@@ -5593,7 +5779,7 @@
         <v>10230.396491699998</v>
       </c>
       <c r="BB17" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:54" x14ac:dyDescent="0.2">
@@ -6131,39 +6317,39 @@
         <v>1</v>
       </c>
       <c r="B24" s="38" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C24" s="39"/>
       <c r="I24" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="K24" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="K24" s="40" t="s">
-        <v>50</v>
-      </c>
       <c r="N24" s="40" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="O24" s="37"/>
       <c r="P24" s="37"/>
       <c r="Q24" s="40" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="T24" s="40" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="U24" s="37"/>
       <c r="V24" s="37"/>
       <c r="W24" s="40" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="Z24" s="40" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AC24" s="40" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="AF24" s="40" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:54" x14ac:dyDescent="0.2">
@@ -6171,109 +6357,112 @@
         <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C25" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J25" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="K25" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="N25" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q25" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="T25" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="W25" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="X25" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="Y25" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Z25" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AA25" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="AB25" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AC25" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AD25" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="AE25" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AF25" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AG25" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="AH25" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="B26" t="s">
+        <v>90</v>
+      </c>
       <c r="C26" s="7">
         <v>0</v>
       </c>
@@ -6319,7 +6508,10 @@
     </row>
     <row r="27" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>40</v>
+        <v>87</v>
+      </c>
+      <c r="B27" t="s">
+        <v>89</v>
       </c>
       <c r="C27" s="7">
         <v>3.5259299999999998</v>
@@ -6412,7 +6604,7 @@
         <v>0.99690869124888837</v>
       </c>
       <c r="AJ27" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:54" x14ac:dyDescent="0.2">
@@ -6675,7 +6867,7 @@
         <v>10230.396491699998</v>
       </c>
       <c r="BB30" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:54" x14ac:dyDescent="0.2">
@@ -7153,39 +7345,39 @@
         <v>1</v>
       </c>
       <c r="B37" s="38" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C37" s="39"/>
       <c r="I37" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="K37" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="K37" s="40" t="s">
-        <v>50</v>
-      </c>
       <c r="N37" s="40" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="O37" s="37"/>
       <c r="P37" s="37"/>
       <c r="Q37" s="40" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="T37" s="40" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="U37" s="37"/>
       <c r="V37" s="37"/>
       <c r="W37" s="40" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="Z37" s="40" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AC37" s="40" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="AF37" s="40" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:54" x14ac:dyDescent="0.2">
@@ -7193,109 +7385,112 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C38" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J38" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I38" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="K38" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="N38" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q38" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R38" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="S38" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="T38" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="U38" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="V38" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="W38" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="X38" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="Y38" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Z38" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AA38" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="AB38" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AC38" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AD38" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="AE38" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AF38" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AG38" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="AH38" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="B39" t="s">
+        <v>90</v>
+      </c>
       <c r="C39" s="7">
         <v>0</v>
       </c>
@@ -7341,7 +7536,10 @@
     </row>
     <row r="40" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>87</v>
+      </c>
+      <c r="B40" t="s">
+        <v>88</v>
       </c>
       <c r="C40" s="7">
         <v>3.5259299999999998</v>
@@ -7434,7 +7632,7 @@
         <v>0.99690279079407218</v>
       </c>
       <c r="AJ40" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:54" x14ac:dyDescent="0.2">
@@ -7467,13 +7665,16 @@
         <v>117700</v>
       </c>
       <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
+      <c r="M41" s="17">
+        <f t="shared" ref="M41:M42" si="37">K41+L41</f>
+        <v>117700</v>
+      </c>
       <c r="N41" s="42">
         <v>3401000</v>
       </c>
       <c r="O41" s="17"/>
       <c r="P41" s="17">
-        <f t="shared" ref="P41:P48" si="37">N41+O41</f>
+        <f t="shared" ref="P41:P48" si="38">N41+O41</f>
         <v>3401000</v>
       </c>
       <c r="Q41" s="42">
@@ -7481,7 +7682,7 @@
       </c>
       <c r="R41" s="17"/>
       <c r="S41" s="17">
-        <f t="shared" ref="S41:S48" si="38">Q41+R41</f>
+        <f t="shared" ref="S41:S48" si="39">Q41+R41</f>
         <v>1510</v>
       </c>
       <c r="T41" s="42">
@@ -7497,7 +7698,7 @@
       </c>
       <c r="X41" s="17"/>
       <c r="Y41" s="17">
-        <f t="shared" ref="Y41:Y48" si="39">W41+X41</f>
+        <f t="shared" ref="Y41:Y48" si="40">W41+X41</f>
         <v>1.3340000000000001</v>
       </c>
       <c r="Z41" s="42">
@@ -7505,25 +7706,25 @@
       </c>
       <c r="AA41" s="17"/>
       <c r="AB41" s="17">
-        <f t="shared" ref="AB41:AB48" si="40">Z41+AA41</f>
+        <f t="shared" ref="AB41:AB48" si="41">Z41+AA41</f>
         <v>9.0570000000000008E-3</v>
       </c>
       <c r="AC41" s="21">
-        <f t="shared" ref="AC41:AC48" si="41">Q41+T41+W41+Z41</f>
+        <f t="shared" ref="AC41:AC48" si="42">Q41+T41+W41+Z41</f>
         <v>1542.423057</v>
       </c>
       <c r="AD41" s="17"/>
       <c r="AE41" s="17">
-        <f t="shared" ref="AE41:AE43" si="42">AC41+AD41</f>
+        <f t="shared" ref="AE41:AE43" si="43">AC41+AD41</f>
         <v>1542.423057</v>
       </c>
       <c r="AF41" s="43">
-        <f t="shared" ref="AF41:AF48" si="43">Q41/AC41</f>
+        <f t="shared" ref="AF41:AF48" si="44">Q41/AC41</f>
         <v>0.97897914138870401</v>
       </c>
       <c r="AG41" s="17"/>
       <c r="AH41" s="17">
-        <f t="shared" ref="AH41:AH43" si="44">S41/AE41</f>
+        <f t="shared" ref="AH41:AH43" si="45">S41/AE41</f>
         <v>0.97897914138870401</v>
       </c>
       <c r="AJ41" s="1"/>
@@ -7547,7 +7748,7 @@
         <v>0.127308</v>
       </c>
       <c r="H42" s="23">
-        <f t="shared" ref="H42:H48" si="45">G42/0.0075</f>
+        <f t="shared" ref="H42:H48" si="46">G42/0.0075</f>
         <v>16.974400000000003</v>
       </c>
       <c r="I42" s="21"/>
@@ -7556,13 +7757,16 @@
         <v>106000</v>
       </c>
       <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
+      <c r="M42" s="17">
+        <f t="shared" si="37"/>
+        <v>106000</v>
+      </c>
       <c r="N42" s="42">
         <v>3395000</v>
       </c>
       <c r="O42" s="17"/>
       <c r="P42" s="17">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>3395000</v>
       </c>
       <c r="Q42" s="42">
@@ -7570,7 +7774,7 @@
       </c>
       <c r="R42" s="17"/>
       <c r="S42" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>5591</v>
       </c>
       <c r="T42" s="42">
@@ -7586,7 +7790,7 @@
       </c>
       <c r="X42" s="17"/>
       <c r="Y42" s="17">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>74.28</v>
       </c>
       <c r="Z42" s="42">
@@ -7594,25 +7798,25 @@
       </c>
       <c r="AA42" s="17"/>
       <c r="AB42" s="17">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>2.1539999999999999</v>
       </c>
       <c r="AC42" s="21">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>6090.0340000000006</v>
       </c>
       <c r="AD42" s="17"/>
       <c r="AE42" s="17">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>6090.0340000000006</v>
       </c>
       <c r="AF42" s="43">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0.91805727192984465</v>
       </c>
       <c r="AG42" s="17"/>
       <c r="AH42" s="17">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0.91805727192984465</v>
       </c>
       <c r="AJ42" s="1"/>
@@ -7636,7 +7840,7 @@
         <v>0.101439</v>
       </c>
       <c r="H43" s="23">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>13.5252</v>
       </c>
       <c r="I43" s="21"/>
@@ -7646,7 +7850,7 @@
       </c>
       <c r="L43" s="17"/>
       <c r="M43" s="17">
-        <f t="shared" ref="M43:M48" si="46">K43+L43</f>
+        <f t="shared" ref="M43:M48" si="47">K43+L43</f>
         <v>95350</v>
       </c>
       <c r="N43" s="42">
@@ -7654,7 +7858,7 @@
       </c>
       <c r="O43" s="17"/>
       <c r="P43" s="17">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>3389000</v>
       </c>
       <c r="Q43" s="42">
@@ -7662,7 +7866,7 @@
       </c>
       <c r="R43" s="17"/>
       <c r="S43" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>8645</v>
       </c>
       <c r="T43" s="42">
@@ -7678,7 +7882,7 @@
       </c>
       <c r="X43" s="17"/>
       <c r="Y43" s="17">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>301.8</v>
       </c>
       <c r="Z43" s="42">
@@ -7686,28 +7890,28 @@
       </c>
       <c r="AA43" s="17"/>
       <c r="AB43" s="17">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>16.2</v>
       </c>
       <c r="AC43" s="21">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>10008</v>
       </c>
       <c r="AD43" s="17"/>
       <c r="AE43" s="17">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>10008</v>
       </c>
       <c r="AF43" s="43">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0.86380895283772985</v>
       </c>
       <c r="AG43" s="17" t="e">
-        <f t="shared" ref="AG43:AG48" si="47">R43/AD43</f>
+        <f t="shared" ref="AG43:AG48" si="48">R43/AD43</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AH43" s="17">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0.86380895283772985</v>
       </c>
       <c r="AJ43" s="25">
@@ -7715,7 +7919,7 @@
         <v>10230.396491699998</v>
       </c>
       <c r="BB43" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:54" x14ac:dyDescent="0.2">
@@ -7737,7 +7941,7 @@
         <v>7.5357999999999994E-2</v>
       </c>
       <c r="H44" s="23">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>10.047733333333333</v>
       </c>
       <c r="I44" s="21"/>
@@ -7747,7 +7951,7 @@
       </c>
       <c r="L44" s="17"/>
       <c r="M44" s="17">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>85560</v>
       </c>
       <c r="N44" s="42">
@@ -7755,7 +7959,7 @@
       </c>
       <c r="O44" s="17"/>
       <c r="P44" s="17">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>3383000</v>
       </c>
       <c r="Q44" s="42">
@@ -7763,7 +7967,7 @@
       </c>
       <c r="R44" s="17"/>
       <c r="S44" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>10960</v>
       </c>
       <c r="T44" s="42">
@@ -7771,7 +7975,7 @@
       </c>
       <c r="U44" s="17"/>
       <c r="V44" s="17">
-        <f t="shared" ref="V43:V48" si="48">T44+U44</f>
+        <f t="shared" ref="V43:V48" si="49">T44+U44</f>
         <v>1772</v>
       </c>
       <c r="W44" s="42">
@@ -7779,7 +7983,7 @@
       </c>
       <c r="X44" s="17"/>
       <c r="Y44" s="17">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>661.3</v>
       </c>
       <c r="Z44" s="42">
@@ -7787,28 +7991,28 @@
       </c>
       <c r="AA44" s="17"/>
       <c r="AB44" s="17">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>53.89</v>
       </c>
       <c r="AC44" s="21">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>13447.189999999999</v>
       </c>
       <c r="AD44" s="17"/>
       <c r="AE44" s="17">
-        <f t="shared" ref="AE43:AE48" si="49">AC44+AD44</f>
+        <f t="shared" ref="AE43:AE48" si="50">AC44+AD44</f>
         <v>13447.189999999999</v>
       </c>
       <c r="AF44" s="43">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0.81504016824332826</v>
       </c>
       <c r="AG44" s="17" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH44" s="17">
-        <f t="shared" ref="AH43:AH48" si="50">S44/AE44</f>
+        <f t="shared" ref="AH43:AH48" si="51">S44/AE44</f>
         <v>0.81504016824332826</v>
       </c>
     </row>
@@ -7831,7 +8035,7 @@
         <v>-7.4250000000000002E-3</v>
       </c>
       <c r="H45" s="23">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-0.9900000000000001</v>
       </c>
       <c r="I45" s="21"/>
@@ -7841,7 +8045,7 @@
       </c>
       <c r="L45" s="17"/>
       <c r="M45" s="17">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>58190</v>
       </c>
       <c r="N45" s="42">
@@ -7849,7 +8053,7 @@
       </c>
       <c r="O45" s="17"/>
       <c r="P45" s="17">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>3360000</v>
       </c>
       <c r="Q45" s="42">
@@ -7857,7 +8061,7 @@
       </c>
       <c r="R45" s="17"/>
       <c r="S45" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>15110</v>
       </c>
       <c r="T45" s="42">
@@ -7865,7 +8069,7 @@
       </c>
       <c r="U45" s="17"/>
       <c r="V45" s="17">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>4121</v>
       </c>
       <c r="W45" s="42">
@@ -7873,7 +8077,7 @@
       </c>
       <c r="X45" s="17"/>
       <c r="Y45" s="17">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>2467</v>
       </c>
       <c r="Z45" s="42">
@@ -7881,28 +8085,28 @@
       </c>
       <c r="AA45" s="17"/>
       <c r="AB45" s="17">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>460.1</v>
       </c>
       <c r="AC45" s="21">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>22158.1</v>
       </c>
       <c r="AD45" s="17"/>
       <c r="AE45" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>22158.1</v>
       </c>
       <c r="AF45" s="43">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0.6819176734467306</v>
       </c>
       <c r="AG45" s="17" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH45" s="17">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0.6819176734467306</v>
       </c>
     </row>
@@ -7925,7 +8129,7 @@
         <v>-9.4391000000000003E-2</v>
       </c>
       <c r="H46" s="23">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-12.585466666666667</v>
       </c>
       <c r="I46" s="21"/>
@@ -7935,7 +8139,7 @@
       </c>
       <c r="L46" s="17"/>
       <c r="M46" s="17">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>37520</v>
       </c>
       <c r="N46" s="42">
@@ -7943,7 +8147,7 @@
       </c>
       <c r="O46" s="17"/>
       <c r="P46" s="17">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>3334000</v>
       </c>
       <c r="Q46" s="42">
@@ -7951,7 +8155,7 @@
       </c>
       <c r="R46" s="17"/>
       <c r="S46" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>16700</v>
       </c>
       <c r="T46" s="42">
@@ -7959,7 +8163,7 @@
       </c>
       <c r="U46" s="17"/>
       <c r="V46" s="17">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>6321</v>
       </c>
       <c r="W46" s="42">
@@ -7967,7 +8171,7 @@
       </c>
       <c r="X46" s="17"/>
       <c r="Y46" s="17">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>3908</v>
       </c>
       <c r="Z46" s="42">
@@ -7975,28 +8179,28 @@
       </c>
       <c r="AA46" s="17"/>
       <c r="AB46" s="17">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1322</v>
       </c>
       <c r="AC46" s="21">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>28251</v>
       </c>
       <c r="AD46" s="17"/>
       <c r="AE46" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>28251</v>
       </c>
       <c r="AF46" s="43">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0.59112951753920218</v>
       </c>
       <c r="AG46" s="17" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH46" s="17">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0.59112951753920218</v>
       </c>
     </row>
@@ -8019,7 +8223,7 @@
         <v>-0.18723999999999999</v>
       </c>
       <c r="H47" s="23">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-24.965333333333334</v>
       </c>
       <c r="I47" s="21"/>
@@ -8029,7 +8233,7 @@
       </c>
       <c r="L47" s="17"/>
       <c r="M47" s="17">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>22610</v>
       </c>
       <c r="N47" s="42">
@@ -8037,7 +8241,7 @@
       </c>
       <c r="O47" s="17"/>
       <c r="P47" s="17">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>3305000</v>
       </c>
       <c r="Q47" s="42">
@@ -8045,7 +8249,7 @@
       </c>
       <c r="R47" s="17"/>
       <c r="S47" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>17020</v>
       </c>
       <c r="T47" s="42">
@@ -8053,7 +8257,7 @@
       </c>
       <c r="U47" s="17"/>
       <c r="V47" s="17">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>8168</v>
       </c>
       <c r="W47" s="42">
@@ -8061,7 +8265,7 @@
       </c>
       <c r="X47" s="17"/>
       <c r="Y47" s="17">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>4822</v>
       </c>
       <c r="Z47" s="42">
@@ -8069,28 +8273,28 @@
       </c>
       <c r="AA47" s="17"/>
       <c r="AB47" s="17">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>2521</v>
       </c>
       <c r="AC47" s="21">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>32531</v>
       </c>
       <c r="AD47" s="17"/>
       <c r="AE47" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>32531</v>
       </c>
       <c r="AF47" s="43">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0.52319326181181025</v>
       </c>
       <c r="AG47" s="17" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH47" s="17">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0.52319326181181025</v>
       </c>
     </row>
@@ -8113,7 +8317,7 @@
         <v>-0.27952500000000002</v>
       </c>
       <c r="H48" s="24">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-37.270000000000003</v>
       </c>
       <c r="I48" s="22"/>
@@ -8123,7 +8327,7 @@
       </c>
       <c r="L48" s="19"/>
       <c r="M48" s="19">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>12670</v>
       </c>
       <c r="N48" s="42">
@@ -8131,7 +8335,7 @@
       </c>
       <c r="O48" s="19"/>
       <c r="P48" s="19">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>3274000</v>
       </c>
       <c r="Q48" s="42">
@@ -8139,7 +8343,7 @@
       </c>
       <c r="R48" s="19"/>
       <c r="S48" s="19">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>16790</v>
       </c>
       <c r="T48" s="42">
@@ -8147,7 +8351,7 @@
       </c>
       <c r="U48" s="19"/>
       <c r="V48" s="19">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>9553</v>
       </c>
       <c r="W48" s="42">
@@ -8155,7 +8359,7 @@
       </c>
       <c r="X48" s="19"/>
       <c r="Y48" s="19">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>5320</v>
       </c>
       <c r="Z48" s="42">
@@ -8163,28 +8367,28 @@
       </c>
       <c r="AA48" s="19"/>
       <c r="AB48" s="19">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>3914</v>
       </c>
       <c r="AC48" s="21">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>35577</v>
       </c>
       <c r="AD48" s="19"/>
       <c r="AE48" s="19">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>35577</v>
       </c>
       <c r="AF48" s="43">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0.47193411473704922</v>
       </c>
       <c r="AG48" s="19" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH48" s="19">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0.47193411473704922</v>
       </c>
     </row>
@@ -8192,40 +8396,40 @@
       <c r="A50" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B50" s="38" t="s">
-        <v>91</v>
+      <c r="B50" s="45" t="s">
+        <v>94</v>
       </c>
       <c r="C50" s="39"/>
       <c r="I50" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="K50" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="K50" s="40" t="s">
-        <v>50</v>
-      </c>
       <c r="N50" s="40" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="O50" s="37"/>
       <c r="P50" s="37"/>
       <c r="Q50" s="40" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="T50" s="40" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="U50" s="37"/>
       <c r="V50" s="37"/>
       <c r="W50" s="40" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="Z50" s="40" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AC50" s="40" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="AF50" s="40" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:54" x14ac:dyDescent="0.2">
@@ -8233,103 +8437,103 @@
         <v>36</v>
       </c>
       <c r="B51" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C51" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I51" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J51" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I51" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="K51" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="N51" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q51" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R51" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="S51" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="T51" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="U51" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="V51" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="W51" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="X51" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="Y51" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Z51" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AA51" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="AB51" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AC51" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AD51" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="AE51" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AF51" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AG51" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="AH51" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:54" x14ac:dyDescent="0.2">
@@ -8337,7 +8541,7 @@
         <v>38</v>
       </c>
       <c r="B52" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C52" s="7">
         <v>0</v>
@@ -8345,25 +8549,63 @@
       <c r="D52">
         <v>0</v>
       </c>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
+      <c r="E52" s="36">
+        <v>1.23176</v>
+      </c>
+      <c r="F52" s="36">
+        <v>2.4000000000000001E-4</v>
+      </c>
+      <c r="G52" s="36">
+        <v>0.18815399999999999</v>
+      </c>
       <c r="H52" s="23">
         <f>G52/0.0075</f>
-        <v>0</v>
-      </c>
-      <c r="I52" s="21"/>
-      <c r="J52" s="17"/>
+        <v>25.087199999999999</v>
+      </c>
+      <c r="I52" s="44">
+        <v>0.92206999999999995</v>
+      </c>
+      <c r="J52" s="44">
+        <v>7.7930100000000002E-2</v>
+      </c>
       <c r="Q52" s="7">
         <v>0</v>
       </c>
+      <c r="R52">
+        <v>0</v>
+      </c>
+      <c r="S52" s="17">
+        <f t="shared" ref="S52:S61" si="52">Q52+R52</f>
+        <v>0</v>
+      </c>
       <c r="T52" s="7">
         <v>0</v>
       </c>
+      <c r="U52" s="46">
+        <v>0</v>
+      </c>
+      <c r="V52" s="17">
+        <f t="shared" ref="V52:V53" si="53">T52+U52</f>
+        <v>0</v>
+      </c>
       <c r="W52" s="7">
         <v>0</v>
       </c>
+      <c r="X52" s="46">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="17">
+        <f t="shared" ref="Y52:Y61" si="54">W52+X52</f>
+        <v>0</v>
+      </c>
       <c r="Z52" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="17">
+        <f t="shared" ref="AB52:AB61" si="55">Z52+AA52</f>
         <v>0</v>
       </c>
       <c r="AC52" s="7">
@@ -8378,7 +8620,10 @@
     </row>
     <row r="53" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>40</v>
+        <v>87</v>
+      </c>
+      <c r="B53" t="s">
+        <v>88</v>
       </c>
       <c r="C53" s="7">
         <v>3.5259299999999998</v>
@@ -8386,78 +8631,115 @@
       <c r="D53">
         <v>0.1</v>
       </c>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
+      <c r="E53" s="36">
+        <v>1.1937500000000001</v>
+      </c>
+      <c r="F53" s="36">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="G53" s="36">
+        <v>0.162304</v>
+      </c>
       <c r="H53" s="23">
-        <f t="shared" ref="H53:H61" si="51">G53/0.0075</f>
-        <v>0</v>
-      </c>
-      <c r="I53" s="21"/>
-      <c r="J53" s="17"/>
-      <c r="K53" s="42"/>
-      <c r="L53" s="17"/>
+        <f t="shared" ref="H53:H61" si="56">G53/0.0075</f>
+        <v>21.640533333333334</v>
+      </c>
+      <c r="I53" s="44">
+        <v>0.92130199999999995</v>
+      </c>
+      <c r="J53" s="44">
+        <v>7.8697500000000004E-2</v>
+      </c>
+      <c r="K53" s="42">
+        <v>103000</v>
+      </c>
+      <c r="L53" s="17">
+        <v>19700</v>
+      </c>
       <c r="M53" s="17">
         <f>K53+L53</f>
-        <v>0</v>
-      </c>
-      <c r="N53" s="42"/>
-      <c r="O53" s="17"/>
+        <v>122700</v>
+      </c>
+      <c r="N53" s="42">
+        <v>2513000</v>
+      </c>
+      <c r="O53" s="17">
+        <v>888200</v>
+      </c>
       <c r="P53" s="17">
         <f>N53+O53</f>
+        <v>3401200</v>
+      </c>
+      <c r="Q53" s="42">
+        <v>54.63</v>
+      </c>
+      <c r="R53" s="17">
+        <v>6.9379999999999997</v>
+      </c>
+      <c r="S53" s="17">
+        <f t="shared" si="52"/>
+        <v>61.568000000000005</v>
+      </c>
+      <c r="T53" s="42">
+        <v>54.63</v>
+      </c>
+      <c r="U53" s="17">
+        <v>9.2420000000000002E-3</v>
+      </c>
+      <c r="V53" s="17">
+        <f t="shared" si="53"/>
+        <v>54.639242000000003</v>
+      </c>
+      <c r="W53" s="42">
+        <v>9.2420000000000002E-3</v>
+      </c>
+      <c r="X53" s="17">
         <v>0</v>
       </c>
-      <c r="Q53" s="42"/>
-      <c r="R53" s="17"/>
-      <c r="S53" s="17">
-        <f>Q53+R53</f>
-        <v>0</v>
-      </c>
-      <c r="T53" s="42"/>
-      <c r="U53" s="17"/>
-      <c r="V53" s="17">
-        <f>T53+U53</f>
-        <v>0</v>
-      </c>
-      <c r="W53" s="42"/>
-      <c r="X53" s="17"/>
       <c r="Y53" s="17">
         <f>W53+X53</f>
+        <v>9.2420000000000002E-3</v>
+      </c>
+      <c r="Z53" s="42">
         <v>0</v>
       </c>
-      <c r="Z53" s="42"/>
-      <c r="AA53" s="17"/>
+      <c r="AA53" s="17">
+        <v>0</v>
+      </c>
       <c r="AB53" s="17">
         <f>Z53+AA53</f>
         <v>0</v>
       </c>
       <c r="AC53" s="21">
         <f>Q53+T53+W53+Z53</f>
-        <v>0</v>
-      </c>
-      <c r="AD53" s="17"/>
+        <v>109.26924200000001</v>
+      </c>
+      <c r="AD53" s="21">
+        <f>R53+U53+X53+AA53</f>
+        <v>6.9472420000000001</v>
+      </c>
       <c r="AE53" s="17">
         <f>AC53+AD53</f>
-        <v>0</v>
-      </c>
-      <c r="AF53" s="43" t="e">
+        <v>116.21648400000001</v>
+      </c>
+      <c r="AF53" s="43">
         <f>Q53/AC53</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG53" s="17" t="e">
+        <v>0.49995770996562783</v>
+      </c>
+      <c r="AG53" s="23">
         <f>R53/AD53</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH53" s="17" t="e">
+        <v>0.99866968791356336</v>
+      </c>
+      <c r="AH53" s="17">
         <f>S53/AE53</f>
-        <v>#DIV/0!</v>
+        <v>0.5297699421021892</v>
       </c>
       <c r="AJ53" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A54" s="32" t="e" vm="1">
+      <c r="A54" s="32" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
       <c r="B54" s="33"/>
@@ -8467,68 +8749,108 @@
       <c r="D54">
         <v>1</v>
       </c>
-      <c r="E54" s="36"/>
-      <c r="F54" s="36"/>
-      <c r="G54" s="36"/>
+      <c r="E54" s="36">
+        <v>1.17828</v>
+      </c>
+      <c r="F54" s="36">
+        <v>2.3000000000000001E-4</v>
+      </c>
+      <c r="G54" s="36">
+        <v>0.151305</v>
+      </c>
       <c r="H54" s="23">
         <f>G54/0.0075</f>
-        <v>0</v>
-      </c>
-      <c r="I54" s="21"/>
-      <c r="J54" s="17"/>
-      <c r="K54" s="42"/>
-      <c r="L54" s="17"/>
+        <v>20.173999999999999</v>
+      </c>
+      <c r="I54" s="44">
+        <v>0.92059199999999997</v>
+      </c>
+      <c r="J54" s="44">
+        <v>7.9407900000000003E-2</v>
+      </c>
+      <c r="K54" s="42">
+        <v>99550</v>
+      </c>
+      <c r="L54" s="17">
+        <v>19400</v>
+      </c>
       <c r="M54" s="17">
-        <f t="shared" ref="M54:M56" si="52">K54+L54</f>
-        <v>0</v>
-      </c>
-      <c r="N54" s="42"/>
-      <c r="O54" s="17"/>
+        <f t="shared" ref="M54:M56" si="57">K54+L54</f>
+        <v>118950</v>
+      </c>
+      <c r="N54" s="42">
+        <v>2512000</v>
+      </c>
+      <c r="O54" s="17">
+        <v>888000</v>
+      </c>
       <c r="P54" s="17">
-        <f t="shared" ref="P54:P61" si="53">N54+O54</f>
-        <v>0</v>
-      </c>
-      <c r="Q54" s="42"/>
-      <c r="R54" s="17"/>
+        <f t="shared" ref="P54:P61" si="58">N54+O54</f>
+        <v>3400000</v>
+      </c>
+      <c r="Q54" s="42">
+        <v>1271</v>
+      </c>
+      <c r="R54" s="17">
+        <v>166.5</v>
+      </c>
       <c r="S54" s="17">
-        <f t="shared" ref="S54:S61" si="54">Q54+R54</f>
-        <v>0</v>
-      </c>
-      <c r="T54" s="42"/>
-      <c r="U54" s="17"/>
+        <f t="shared" si="52"/>
+        <v>1437.5</v>
+      </c>
+      <c r="T54" s="42">
+        <v>1271</v>
+      </c>
+      <c r="U54" s="17">
+        <v>1.571</v>
+      </c>
       <c r="V54" s="17">
         <f>T54+U54</f>
+        <v>1272.5709999999999</v>
+      </c>
+      <c r="W54" s="42">
+        <v>1.571</v>
+      </c>
+      <c r="X54" s="17">
+        <v>2.7519999999999999E-2</v>
+      </c>
+      <c r="Y54" s="17">
+        <f t="shared" si="54"/>
+        <v>1.5985199999999999</v>
+      </c>
+      <c r="Z54" s="42">
         <v>0</v>
       </c>
-      <c r="W54" s="42"/>
-      <c r="X54" s="17"/>
-      <c r="Y54" s="17">
-        <f t="shared" ref="Y54:Y61" si="55">W54+X54</f>
+      <c r="AA54" s="17">
         <v>0</v>
       </c>
-      <c r="Z54" s="42"/>
-      <c r="AA54" s="17"/>
       <c r="AB54" s="17">
-        <f t="shared" ref="AB54:AB61" si="56">Z54+AA54</f>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="AC54" s="21">
-        <f t="shared" ref="AC54:AC61" si="57">Q54+T54+W54+Z54</f>
-        <v>0</v>
-      </c>
-      <c r="AD54" s="17"/>
+        <f t="shared" ref="AC54:AD61" si="59">Q54+T54+W54+Z54</f>
+        <v>2543.5709999999999</v>
+      </c>
+      <c r="AD54" s="21">
+        <f t="shared" si="59"/>
+        <v>168.09852000000001</v>
+      </c>
       <c r="AE54" s="17">
-        <f t="shared" ref="AE54:AE61" si="58">AC54+AD54</f>
-        <v>0</v>
-      </c>
-      <c r="AF54" s="43" t="e">
-        <f t="shared" ref="AF54:AF61" si="59">Q54/AC54</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG54" s="17"/>
-      <c r="AH54" s="17" t="e">
-        <f t="shared" ref="AH54:AH56" si="60">S54/AE54</f>
-        <v>#DIV/0!</v>
+        <f t="shared" ref="AE54:AE61" si="60">AC54+AD54</f>
+        <v>2711.6695199999999</v>
+      </c>
+      <c r="AF54" s="43">
+        <f t="shared" ref="AF54:AF61" si="61">Q54/AC54</f>
+        <v>0.49969118220014302</v>
+      </c>
+      <c r="AG54" s="23">
+        <f t="shared" ref="AG54:AG55" si="62">R54/AD54</f>
+        <v>0.990490576597581</v>
+      </c>
+      <c r="AH54" s="17">
+        <f t="shared" ref="AH54:AH56" si="63">S54/AE54</f>
+        <v>0.53011622153720273</v>
       </c>
       <c r="AJ54" s="1"/>
     </row>
@@ -8541,68 +8863,108 @@
       <c r="D55">
         <v>4</v>
       </c>
-      <c r="E55" s="36"/>
-      <c r="F55" s="36"/>
-      <c r="G55" s="36"/>
+      <c r="E55" s="36">
+        <v>1.1462000000000001</v>
+      </c>
+      <c r="F55" s="36">
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="G55" s="36">
+        <v>0.127552</v>
+      </c>
       <c r="H55" s="23">
-        <f t="shared" ref="H55:H61" si="61">G55/0.0075</f>
-        <v>0</v>
-      </c>
-      <c r="I55" s="21"/>
-      <c r="J55" s="17"/>
-      <c r="K55" s="42"/>
-      <c r="L55" s="17"/>
+        <f t="shared" ref="H55:H61" si="64">G55/0.0075</f>
+        <v>17.006933333333333</v>
+      </c>
+      <c r="I55" s="44">
+        <v>0.91813199999999995</v>
+      </c>
+      <c r="J55" s="44">
+        <v>8.1867599999999999E-2</v>
+      </c>
+      <c r="K55" s="42">
+        <v>88740</v>
+      </c>
+      <c r="L55" s="17">
+        <v>18470</v>
+      </c>
       <c r="M55" s="17">
+        <f t="shared" si="57"/>
+        <v>107210</v>
+      </c>
+      <c r="N55" s="42">
+        <v>2507000</v>
+      </c>
+      <c r="O55" s="17">
+        <v>887400</v>
+      </c>
+      <c r="P55" s="17">
+        <f t="shared" si="58"/>
+        <v>3394400</v>
+      </c>
+      <c r="Q55" s="42">
+        <v>4645</v>
+      </c>
+      <c r="R55" s="17">
+        <v>669.9</v>
+      </c>
+      <c r="S55" s="17">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="N55" s="42"/>
-      <c r="O55" s="17"/>
-      <c r="P55" s="17">
-        <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
-      <c r="Q55" s="42"/>
-      <c r="R55" s="17"/>
-      <c r="S55" s="17">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="T55" s="42"/>
-      <c r="U55" s="17"/>
+        <v>5314.9</v>
+      </c>
+      <c r="T55" s="42">
+        <v>4645</v>
+      </c>
+      <c r="U55" s="17">
+        <v>24.64</v>
+      </c>
       <c r="V55" s="17">
         <f>T55+U55</f>
-        <v>0</v>
-      </c>
-      <c r="W55" s="42"/>
-      <c r="X55" s="17"/>
+        <v>4669.6400000000003</v>
+      </c>
+      <c r="W55" s="42">
+        <v>24.64</v>
+      </c>
+      <c r="X55" s="17">
+        <v>1.768</v>
+      </c>
       <c r="Y55" s="17">
+        <f t="shared" si="54"/>
+        <v>26.408000000000001</v>
+      </c>
+      <c r="Z55" s="42">
+        <v>2.3279999999999999E-2</v>
+      </c>
+      <c r="AA55" s="17">
+        <v>2.3279999999999999E-2</v>
+      </c>
+      <c r="AB55" s="17">
         <f t="shared" si="55"/>
-        <v>0</v>
-      </c>
-      <c r="Z55" s="42"/>
-      <c r="AA55" s="17"/>
-      <c r="AB55" s="17">
-        <f t="shared" si="56"/>
-        <v>0</v>
+        <v>4.6559999999999997E-2</v>
       </c>
       <c r="AC55" s="21">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="AD55" s="17"/>
+        <f t="shared" si="59"/>
+        <v>9314.6632799999988</v>
+      </c>
+      <c r="AD55" s="21">
+        <f t="shared" si="59"/>
+        <v>696.33127999999999</v>
+      </c>
       <c r="AE55" s="17">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="AF55" s="43" t="e">
-        <f t="shared" si="59"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG55" s="17"/>
-      <c r="AH55" s="17" t="e">
         <f t="shared" si="60"/>
-        <v>#DIV/0!</v>
+        <v>10010.994559999999</v>
+      </c>
+      <c r="AF55" s="43">
+        <f t="shared" si="61"/>
+        <v>0.49867610458592987</v>
+      </c>
+      <c r="AG55" s="23">
+        <f t="shared" si="62"/>
+        <v>0.96204209008103148</v>
+      </c>
+      <c r="AH55" s="17">
+        <f t="shared" si="63"/>
+        <v>0.53090629189194161</v>
       </c>
       <c r="AJ55" s="1"/>
     </row>
@@ -8615,78 +8977,115 @@
       <c r="D56">
         <v>7</v>
       </c>
-      <c r="E56" s="36"/>
-      <c r="F56" s="36"/>
-      <c r="G56" s="36"/>
+      <c r="E56" s="36">
+        <v>1.1138699999999999</v>
+      </c>
+      <c r="F56" s="36">
+        <v>2.2000000000000001E-4</v>
+      </c>
+      <c r="G56" s="36">
+        <v>0.102229</v>
+      </c>
       <c r="H56" s="23">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="I56" s="21"/>
-      <c r="J56" s="17"/>
-      <c r="K56" s="42"/>
-      <c r="L56" s="17"/>
+        <f t="shared" si="64"/>
+        <v>13.630533333333334</v>
+      </c>
+      <c r="I56" s="44">
+        <v>0.91541300000000003</v>
+      </c>
+      <c r="J56" s="44">
+        <v>8.4587099999999998E-2</v>
+      </c>
+      <c r="K56" s="42">
+        <v>78920</v>
+      </c>
+      <c r="L56" s="17">
+        <v>17560</v>
+      </c>
       <c r="M56" s="17">
+        <f t="shared" si="57"/>
+        <v>96480</v>
+      </c>
+      <c r="N56" s="42">
+        <v>2502000</v>
+      </c>
+      <c r="O56" s="17">
+        <v>886700</v>
+      </c>
+      <c r="P56" s="17">
+        <f t="shared" si="58"/>
+        <v>3388700</v>
+      </c>
+      <c r="Q56" s="42">
+        <v>7096</v>
+      </c>
+      <c r="R56" s="17">
+        <v>1116</v>
+      </c>
+      <c r="S56" s="17">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="N56" s="42"/>
-      <c r="O56" s="17"/>
-      <c r="P56" s="17">
-        <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
-      <c r="Q56" s="42"/>
-      <c r="R56" s="17"/>
-      <c r="S56" s="17">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="T56" s="42"/>
-      <c r="U56" s="17"/>
+        <v>8212</v>
+      </c>
+      <c r="T56" s="42">
+        <v>7096</v>
+      </c>
+      <c r="U56" s="17">
+        <v>69.36</v>
+      </c>
       <c r="V56" s="17">
         <f>T56+U56</f>
-        <v>0</v>
-      </c>
-      <c r="W56" s="42"/>
-      <c r="X56" s="17"/>
+        <v>7165.36</v>
+      </c>
+      <c r="W56" s="42">
+        <v>69.36</v>
+      </c>
+      <c r="X56" s="17">
+        <v>8.6720000000000006</v>
+      </c>
       <c r="Y56" s="17">
+        <f t="shared" si="54"/>
+        <v>78.031999999999996</v>
+      </c>
+      <c r="Z56" s="42">
+        <v>0.2056</v>
+      </c>
+      <c r="AA56" s="17">
+        <v>0.2056</v>
+      </c>
+      <c r="AB56" s="17">
         <f t="shared" si="55"/>
-        <v>0</v>
-      </c>
-      <c r="Z56" s="42"/>
-      <c r="AA56" s="17"/>
-      <c r="AB56" s="17">
-        <f t="shared" si="56"/>
-        <v>0</v>
+        <v>0.41120000000000001</v>
       </c>
       <c r="AC56" s="21">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="AD56" s="17"/>
+        <f t="shared" si="59"/>
+        <v>14261.5656</v>
+      </c>
+      <c r="AD56" s="21">
+        <f t="shared" si="59"/>
+        <v>1194.2375999999999</v>
+      </c>
       <c r="AE56" s="17">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="AF56" s="43" t="e">
-        <f t="shared" si="59"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG56" s="17" t="e">
-        <f t="shared" ref="AG56:AG61" si="62">R56/AD56</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH56" s="17" t="e">
         <f t="shared" si="60"/>
-        <v>#DIV/0!</v>
+        <v>15455.8032</v>
+      </c>
+      <c r="AF56" s="43">
+        <f t="shared" si="61"/>
+        <v>0.49756108123220355</v>
+      </c>
+      <c r="AG56" s="23">
+        <f t="shared" ref="AG56:AG61" si="65">R56/AD56</f>
+        <v>0.93448740853578893</v>
+      </c>
+      <c r="AH56" s="17">
+        <f t="shared" si="63"/>
+        <v>0.53132146506627365</v>
       </c>
       <c r="AJ56" s="25">
         <f>4.77*306.39103*7</f>
         <v>10230.396491699998</v>
       </c>
       <c r="BB56" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="57" spans="1:54" x14ac:dyDescent="0.2">
@@ -8698,71 +9097,108 @@
       <c r="D57">
         <v>10</v>
       </c>
-      <c r="E57" s="36"/>
-      <c r="F57" s="36"/>
-      <c r="G57" s="36"/>
+      <c r="E57" s="36">
+        <v>1.0836600000000001</v>
+      </c>
+      <c r="F57" s="36">
+        <v>1.9000000000000001E-4</v>
+      </c>
+      <c r="G57" s="36">
+        <v>7.7201000000000006E-2</v>
+      </c>
       <c r="H57" s="23">
+        <f t="shared" si="64"/>
+        <v>10.293466666666667</v>
+      </c>
+      <c r="I57" s="44">
+        <v>0.91265700000000005</v>
+      </c>
+      <c r="J57" s="44">
+        <v>8.7343400000000002E-2</v>
+      </c>
+      <c r="K57" s="42">
+        <v>69930</v>
+      </c>
+      <c r="L57" s="17">
+        <v>16680</v>
+      </c>
+      <c r="M57" s="17">
+        <f t="shared" ref="M56:M61" si="66">K57+L57</f>
+        <v>86610</v>
+      </c>
+      <c r="N57" s="42">
+        <v>2496000</v>
+      </c>
+      <c r="O57" s="17">
+        <v>886100</v>
+      </c>
+      <c r="P57" s="17">
+        <f t="shared" si="58"/>
+        <v>3382100</v>
+      </c>
+      <c r="Q57" s="42">
+        <v>8896</v>
+      </c>
+      <c r="R57" s="17">
+        <v>1514</v>
+      </c>
+      <c r="S57" s="17">
+        <f t="shared" si="52"/>
+        <v>10410</v>
+      </c>
+      <c r="T57" s="42">
+        <v>8896</v>
+      </c>
+      <c r="U57" s="17">
+        <v>130.4</v>
+      </c>
+      <c r="V57" s="17">
+        <f t="shared" ref="V57:V61" si="67">T57+U57</f>
+        <v>9026.4</v>
+      </c>
+      <c r="W57" s="42">
+        <v>130.4</v>
+      </c>
+      <c r="X57" s="17">
+        <v>22.67</v>
+      </c>
+      <c r="Y57" s="17">
+        <f t="shared" si="54"/>
+        <v>153.07</v>
+      </c>
+      <c r="Z57" s="42">
+        <v>0.7964</v>
+      </c>
+      <c r="AA57" s="17">
+        <v>0.7964</v>
+      </c>
+      <c r="AB57" s="17">
+        <f t="shared" si="55"/>
+        <v>1.5928</v>
+      </c>
+      <c r="AC57" s="21">
+        <f t="shared" si="59"/>
+        <v>17923.196400000001</v>
+      </c>
+      <c r="AD57" s="21">
+        <f t="shared" si="59"/>
+        <v>1667.8664000000001</v>
+      </c>
+      <c r="AE57" s="17">
+        <f t="shared" si="60"/>
+        <v>19591.0628</v>
+      </c>
+      <c r="AF57" s="43">
         <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="I57" s="21"/>
-      <c r="J57" s="17"/>
-      <c r="K57" s="42"/>
-      <c r="L57" s="17"/>
-      <c r="M57" s="17">
-        <f t="shared" ref="M56:M61" si="63">K57+L57</f>
-        <v>0</v>
-      </c>
-      <c r="N57" s="42"/>
-      <c r="O57" s="17"/>
-      <c r="P57" s="17">
-        <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
-      <c r="Q57" s="42"/>
-      <c r="R57" s="17"/>
-      <c r="S57" s="17">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="T57" s="42"/>
-      <c r="U57" s="17"/>
-      <c r="V57" s="17">
-        <f t="shared" ref="V57:V61" si="64">T57+U57</f>
-        <v>0</v>
-      </c>
-      <c r="W57" s="42"/>
-      <c r="X57" s="17"/>
-      <c r="Y57" s="17">
-        <f t="shared" si="55"/>
-        <v>0</v>
-      </c>
-      <c r="Z57" s="42"/>
-      <c r="AA57" s="17"/>
-      <c r="AB57" s="17">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="AC57" s="21">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="AD57" s="17"/>
-      <c r="AE57" s="17">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="AF57" s="43" t="e">
-        <f t="shared" si="59"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG57" s="17" t="e">
-        <f t="shared" si="62"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH57" s="17" t="e">
-        <f t="shared" ref="AH56:AH61" si="65">S57/AE57</f>
-        <v>#DIV/0!</v>
+        <v>0.49634003898992035</v>
+      </c>
+      <c r="AG57" s="23">
+        <f t="shared" si="65"/>
+        <v>0.90774656771069906</v>
+      </c>
+      <c r="AH57" s="17">
+        <f t="shared" ref="AH56:AH61" si="68">S57/AE57</f>
+        <v>0.53136474045706183</v>
       </c>
     </row>
     <row r="58" spans="1:54" x14ac:dyDescent="0.2">
@@ -8774,71 +9210,108 @@
       <c r="D58">
         <v>20</v>
       </c>
-      <c r="E58" s="36"/>
-      <c r="F58" s="36"/>
-      <c r="G58" s="36"/>
+      <c r="E58" s="36">
+        <v>0.99561999999999995</v>
+      </c>
+      <c r="F58" s="36">
+        <v>1.8000000000000001E-4</v>
+      </c>
+      <c r="G58" s="36">
+        <v>-4.3990000000000001E-3</v>
+      </c>
       <c r="H58" s="23">
+        <f t="shared" si="64"/>
+        <v>-0.58653333333333335</v>
+      </c>
+      <c r="I58" s="44">
+        <v>0.90303199999999995</v>
+      </c>
+      <c r="J58" s="44">
+        <v>9.6968399999999996E-2</v>
+      </c>
+      <c r="K58" s="42">
+        <v>45080</v>
+      </c>
+      <c r="L58" s="17">
+        <v>13990</v>
+      </c>
+      <c r="M58" s="17">
+        <f t="shared" si="66"/>
+        <v>59070</v>
+      </c>
+      <c r="N58" s="42">
+        <v>2476000</v>
+      </c>
+      <c r="O58" s="17">
+        <v>883700</v>
+      </c>
+      <c r="P58" s="17">
+        <f t="shared" si="58"/>
+        <v>3359700</v>
+      </c>
+      <c r="Q58" s="42">
+        <v>11890</v>
+      </c>
+      <c r="R58" s="17">
+        <v>2498</v>
+      </c>
+      <c r="S58" s="17">
+        <f t="shared" si="52"/>
+        <v>14388</v>
+      </c>
+      <c r="T58" s="42">
+        <v>11890</v>
+      </c>
+      <c r="U58" s="17">
+        <v>395.2</v>
+      </c>
+      <c r="V58" s="17">
+        <f t="shared" si="67"/>
+        <v>12285.2</v>
+      </c>
+      <c r="W58" s="42">
+        <v>395.2</v>
+      </c>
+      <c r="X58" s="17">
+        <v>126.6</v>
+      </c>
+      <c r="Y58" s="17">
+        <f t="shared" si="54"/>
+        <v>521.79999999999995</v>
+      </c>
+      <c r="Z58" s="42">
+        <v>9.6630000000000003</v>
+      </c>
+      <c r="AA58" s="17">
+        <v>9.6630000000000003</v>
+      </c>
+      <c r="AB58" s="17">
+        <f t="shared" si="55"/>
+        <v>19.326000000000001</v>
+      </c>
+      <c r="AC58" s="21">
+        <f t="shared" si="59"/>
+        <v>24184.863000000001</v>
+      </c>
+      <c r="AD58" s="21">
+        <f t="shared" si="59"/>
+        <v>3029.4629999999997</v>
+      </c>
+      <c r="AE58" s="17">
+        <f t="shared" si="60"/>
+        <v>27214.326000000001</v>
+      </c>
+      <c r="AF58" s="43">
         <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="I58" s="21"/>
-      <c r="J58" s="17"/>
-      <c r="K58" s="42"/>
-      <c r="L58" s="17"/>
-      <c r="M58" s="17">
-        <f t="shared" si="63"/>
-        <v>0</v>
-      </c>
-      <c r="N58" s="42"/>
-      <c r="O58" s="17"/>
-      <c r="P58" s="17">
-        <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
-      <c r="Q58" s="42"/>
-      <c r="R58" s="17"/>
-      <c r="S58" s="17">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="T58" s="42"/>
-      <c r="U58" s="17"/>
-      <c r="V58" s="17">
-        <f t="shared" si="64"/>
-        <v>0</v>
-      </c>
-      <c r="W58" s="42"/>
-      <c r="X58" s="17"/>
-      <c r="Y58" s="17">
-        <f t="shared" si="55"/>
-        <v>0</v>
-      </c>
-      <c r="Z58" s="42"/>
-      <c r="AA58" s="17"/>
-      <c r="AB58" s="17">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="AC58" s="21">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="AD58" s="17"/>
-      <c r="AE58" s="17">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="AF58" s="43" t="e">
-        <f t="shared" si="59"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG58" s="17" t="e">
-        <f t="shared" si="62"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH58" s="17" t="e">
+        <v>0.49162982647451836</v>
+      </c>
+      <c r="AG58" s="23">
         <f t="shared" si="65"/>
-        <v>#DIV/0!</v>
+        <v>0.82456857865568922</v>
+      </c>
+      <c r="AH58" s="17">
+        <f t="shared" si="68"/>
+        <v>0.52869213075495602</v>
       </c>
     </row>
     <row r="59" spans="1:54" x14ac:dyDescent="0.2">
@@ -8850,71 +9323,108 @@
       <c r="D59">
         <v>30</v>
       </c>
-      <c r="E59" s="36"/>
-      <c r="F59" s="36"/>
-      <c r="G59" s="36"/>
+      <c r="E59" s="36">
+        <v>0.91596</v>
+      </c>
+      <c r="F59" s="36">
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="G59" s="36">
+        <v>-9.1750999999999999E-2</v>
+      </c>
       <c r="H59" s="23">
+        <f t="shared" si="64"/>
+        <v>-12.233466666666667</v>
+      </c>
+      <c r="I59" s="44">
+        <v>0.89268099999999995</v>
+      </c>
+      <c r="J59" s="44">
+        <v>0.107319</v>
+      </c>
+      <c r="K59" s="42">
+        <v>26970</v>
+      </c>
+      <c r="L59" s="17">
+        <v>11480</v>
+      </c>
+      <c r="M59" s="17">
+        <f t="shared" si="66"/>
+        <v>38450</v>
+      </c>
+      <c r="N59" s="42">
+        <v>2453000</v>
+      </c>
+      <c r="O59" s="17">
+        <v>881100</v>
+      </c>
+      <c r="P59" s="17">
+        <f t="shared" si="58"/>
+        <v>3334100</v>
+      </c>
+      <c r="Q59" s="42">
+        <v>2453000</v>
+      </c>
+      <c r="R59" s="17">
+        <v>3165</v>
+      </c>
+      <c r="S59" s="17">
+        <f t="shared" si="52"/>
+        <v>2456165</v>
+      </c>
+      <c r="T59" s="42">
+        <v>12830</v>
+      </c>
+      <c r="U59" s="17">
+        <v>722.2</v>
+      </c>
+      <c r="V59" s="17">
+        <f t="shared" si="67"/>
+        <v>13552.2</v>
+      </c>
+      <c r="W59" s="42">
+        <v>5162</v>
+      </c>
+      <c r="X59" s="17">
+        <v>294.3</v>
+      </c>
+      <c r="Y59" s="17">
+        <f t="shared" si="54"/>
+        <v>5456.3</v>
+      </c>
+      <c r="Z59" s="42">
+        <v>1342</v>
+      </c>
+      <c r="AA59" s="17">
+        <v>38.85</v>
+      </c>
+      <c r="AB59" s="17">
+        <f t="shared" si="55"/>
+        <v>1380.85</v>
+      </c>
+      <c r="AC59" s="21">
+        <f t="shared" si="59"/>
+        <v>2472334</v>
+      </c>
+      <c r="AD59" s="21">
+        <f t="shared" si="59"/>
+        <v>4220.3500000000004</v>
+      </c>
+      <c r="AE59" s="17">
+        <f t="shared" si="60"/>
+        <v>2476554.35</v>
+      </c>
+      <c r="AF59" s="43">
         <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="I59" s="21"/>
-      <c r="J59" s="17"/>
-      <c r="K59" s="42"/>
-      <c r="L59" s="17"/>
-      <c r="M59" s="17">
-        <f t="shared" si="63"/>
-        <v>0</v>
-      </c>
-      <c r="N59" s="42"/>
-      <c r="O59" s="17"/>
-      <c r="P59" s="17">
-        <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
-      <c r="Q59" s="42"/>
-      <c r="R59" s="17"/>
-      <c r="S59" s="17">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="T59" s="42"/>
-      <c r="U59" s="17"/>
-      <c r="V59" s="17">
-        <f t="shared" si="64"/>
-        <v>0</v>
-      </c>
-      <c r="W59" s="42"/>
-      <c r="X59" s="17"/>
-      <c r="Y59" s="17">
-        <f t="shared" si="55"/>
-        <v>0</v>
-      </c>
-      <c r="Z59" s="42"/>
-      <c r="AA59" s="17"/>
-      <c r="AB59" s="17">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="AC59" s="21">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="AD59" s="17"/>
-      <c r="AE59" s="17">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="AF59" s="43" t="e">
-        <f t="shared" si="59"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG59" s="17" t="e">
-        <f t="shared" si="62"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH59" s="17" t="e">
+        <v>0.99217985919378204</v>
+      </c>
+      <c r="AG59" s="23">
         <f t="shared" si="65"/>
-        <v>#DIV/0!</v>
+        <v>0.74993780136718513</v>
+      </c>
+      <c r="AH59" s="17">
+        <f t="shared" si="68"/>
+        <v>0.99176704924727366</v>
       </c>
     </row>
     <row r="60" spans="1:54" x14ac:dyDescent="0.2">
@@ -8926,71 +9436,108 @@
       <c r="D60">
         <v>40</v>
       </c>
-      <c r="E60" s="36"/>
-      <c r="F60" s="36"/>
-      <c r="G60" s="36"/>
+      <c r="E60" s="36">
+        <v>0.84567999999999999</v>
+      </c>
+      <c r="F60" s="36">
+        <v>2.1000000000000001E-4</v>
+      </c>
+      <c r="G60" s="36">
+        <v>-0.18248</v>
+      </c>
       <c r="H60" s="23">
+        <f t="shared" si="64"/>
+        <v>-24.330666666666669</v>
+      </c>
+      <c r="I60" s="44">
+        <v>0.883525</v>
+      </c>
+      <c r="J60" s="44">
+        <v>0.116475</v>
+      </c>
+      <c r="K60" s="42">
+        <v>14720</v>
+      </c>
+      <c r="L60" s="17">
+        <v>9147</v>
+      </c>
+      <c r="M60" s="17">
+        <f t="shared" si="66"/>
+        <v>23867</v>
+      </c>
+      <c r="N60" s="42">
+        <v>2427000</v>
+      </c>
+      <c r="O60" s="17">
+        <v>878000</v>
+      </c>
+      <c r="P60" s="17">
+        <f t="shared" si="58"/>
+        <v>3305000</v>
+      </c>
+      <c r="Q60" s="42">
+        <v>2427000</v>
+      </c>
+      <c r="R60" s="17">
+        <v>3580</v>
+      </c>
+      <c r="S60" s="17">
+        <f t="shared" si="52"/>
+        <v>2430580</v>
+      </c>
+      <c r="T60" s="42">
+        <v>12860</v>
+      </c>
+      <c r="U60" s="17">
+        <v>1083</v>
+      </c>
+      <c r="V60" s="17">
+        <f t="shared" si="67"/>
+        <v>13943</v>
+      </c>
+      <c r="W60" s="42">
+        <v>6515</v>
+      </c>
+      <c r="X60" s="17">
+        <v>490.1</v>
+      </c>
+      <c r="Y60" s="17">
+        <f t="shared" si="54"/>
+        <v>7005.1</v>
+      </c>
+      <c r="Z60" s="42">
+        <v>2465</v>
+      </c>
+      <c r="AA60" s="17">
+        <v>99.65</v>
+      </c>
+      <c r="AB60" s="17">
+        <f t="shared" si="55"/>
+        <v>2564.65</v>
+      </c>
+      <c r="AC60" s="21">
+        <f t="shared" si="59"/>
+        <v>2448840</v>
+      </c>
+      <c r="AD60" s="21">
+        <f t="shared" si="59"/>
+        <v>5252.75</v>
+      </c>
+      <c r="AE60" s="17">
+        <f t="shared" si="60"/>
+        <v>2454092.75</v>
+      </c>
+      <c r="AF60" s="43">
         <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="I60" s="21"/>
-      <c r="J60" s="17"/>
-      <c r="K60" s="42"/>
-      <c r="L60" s="17"/>
-      <c r="M60" s="17">
-        <f t="shared" si="63"/>
-        <v>0</v>
-      </c>
-      <c r="N60" s="42"/>
-      <c r="O60" s="17"/>
-      <c r="P60" s="17">
-        <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
-      <c r="Q60" s="42"/>
-      <c r="R60" s="17"/>
-      <c r="S60" s="17">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="T60" s="42"/>
-      <c r="U60" s="17"/>
-      <c r="V60" s="17">
-        <f t="shared" si="64"/>
-        <v>0</v>
-      </c>
-      <c r="W60" s="42"/>
-      <c r="X60" s="17"/>
-      <c r="Y60" s="17">
-        <f t="shared" si="55"/>
-        <v>0</v>
-      </c>
-      <c r="Z60" s="42"/>
-      <c r="AA60" s="17"/>
-      <c r="AB60" s="17">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="AC60" s="21">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="AD60" s="17"/>
-      <c r="AE60" s="17">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="AF60" s="43" t="e">
-        <f t="shared" si="59"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG60" s="17" t="e">
-        <f t="shared" si="62"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH60" s="17" t="e">
+        <v>0.99108149164502379</v>
+      </c>
+      <c r="AG60" s="23">
         <f t="shared" si="65"/>
-        <v>#DIV/0!</v>
+        <v>0.68154776069677792</v>
+      </c>
+      <c r="AH60" s="17">
+        <f t="shared" si="68"/>
+        <v>0.99041896440140664</v>
       </c>
     </row>
     <row r="61" spans="1:54" s="18" customFormat="1" x14ac:dyDescent="0.2">
@@ -9002,71 +9549,108 @@
       <c r="D61" s="18">
         <v>50</v>
       </c>
-      <c r="E61" s="36"/>
-      <c r="F61" s="36"/>
-      <c r="G61" s="36"/>
+      <c r="E61" s="36">
+        <v>0.78844999999999998</v>
+      </c>
+      <c r="F61" s="36">
+        <v>1.9000000000000001E-4</v>
+      </c>
+      <c r="G61" s="36">
+        <v>-0.26831100000000002</v>
+      </c>
       <c r="H61" s="24">
+        <f t="shared" si="64"/>
+        <v>-35.774800000000006</v>
+      </c>
+      <c r="I61" s="44">
+        <v>0.87685100000000005</v>
+      </c>
+      <c r="J61" s="44">
+        <v>0.12314899999999999</v>
+      </c>
+      <c r="K61" s="42">
+        <v>7307</v>
+      </c>
+      <c r="L61" s="19">
+        <v>7057</v>
+      </c>
+      <c r="M61" s="19">
+        <f t="shared" si="66"/>
+        <v>14364</v>
+      </c>
+      <c r="N61" s="42">
+        <v>2399000</v>
+      </c>
+      <c r="O61" s="19">
+        <v>874600</v>
+      </c>
+      <c r="P61" s="19">
+        <f t="shared" si="58"/>
+        <v>3273600</v>
+      </c>
+      <c r="Q61" s="42">
+        <v>2399000</v>
+      </c>
+      <c r="R61" s="19">
+        <v>3811</v>
+      </c>
+      <c r="S61" s="19">
+        <f t="shared" si="52"/>
+        <v>2402811</v>
+      </c>
+      <c r="T61" s="42">
+        <v>12560</v>
+      </c>
+      <c r="U61" s="19">
+        <v>1446</v>
+      </c>
+      <c r="V61" s="19">
+        <f t="shared" si="67"/>
+        <v>14006</v>
+      </c>
+      <c r="W61" s="42">
+        <v>7461</v>
+      </c>
+      <c r="X61" s="19">
+        <v>684</v>
+      </c>
+      <c r="Y61" s="19">
+        <f t="shared" si="54"/>
+        <v>8145</v>
+      </c>
+      <c r="Z61" s="42">
+        <v>3687</v>
+      </c>
+      <c r="AA61" s="19">
+        <v>199</v>
+      </c>
+      <c r="AB61" s="19">
+        <f t="shared" si="55"/>
+        <v>3886</v>
+      </c>
+      <c r="AC61" s="21">
+        <f t="shared" si="59"/>
+        <v>2422708</v>
+      </c>
+      <c r="AD61" s="21">
+        <f t="shared" si="59"/>
+        <v>6140</v>
+      </c>
+      <c r="AE61" s="19">
+        <f t="shared" si="60"/>
+        <v>2428848</v>
+      </c>
+      <c r="AF61" s="43">
         <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="I61" s="22"/>
-      <c r="J61" s="19"/>
-      <c r="K61" s="42"/>
-      <c r="L61" s="19"/>
-      <c r="M61" s="19">
-        <f t="shared" si="63"/>
-        <v>0</v>
-      </c>
-      <c r="N61" s="42"/>
-      <c r="O61" s="19"/>
-      <c r="P61" s="19">
-        <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
-      <c r="Q61" s="42"/>
-      <c r="R61" s="19"/>
-      <c r="S61" s="19">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="T61" s="42"/>
-      <c r="U61" s="19"/>
-      <c r="V61" s="19">
-        <f t="shared" si="64"/>
-        <v>0</v>
-      </c>
-      <c r="W61" s="42"/>
-      <c r="X61" s="19"/>
-      <c r="Y61" s="19">
-        <f t="shared" si="55"/>
-        <v>0</v>
-      </c>
-      <c r="Z61" s="42"/>
-      <c r="AA61" s="19"/>
-      <c r="AB61" s="19">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="AC61" s="21">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="AD61" s="19"/>
-      <c r="AE61" s="19">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="AF61" s="43" t="e">
-        <f t="shared" si="59"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG61" s="19" t="e">
-        <f t="shared" si="62"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH61" s="19" t="e">
+        <v>0.99021425611340697</v>
+      </c>
+      <c r="AG61" s="47">
         <f t="shared" si="65"/>
-        <v>#DIV/0!</v>
+        <v>0.62068403908794789</v>
+      </c>
+      <c r="AH61" s="19">
+        <f t="shared" si="68"/>
+        <v>0.98928010316001658</v>
       </c>
     </row>
   </sheetData>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrickpark/Desktop/elwr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0919E8CD-3F47-CE46-9340-A4DCE011C3AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE9350C-0A05-2944-AA7D-D086E7872E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="19200" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4368,8 +4368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E48A428C-A2D0-4C30-9161-4343E51EC6DC}">
   <dimension ref="A1:BB61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P33" zoomScale="141" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AI53" sqref="AI53"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="141" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7627,7 +7627,7 @@
         <f>R40/AD40</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH40" s="17">
+      <c r="AH40" s="23">
         <f>S40/AE40</f>
         <v>0.99690279079407218</v>
       </c>
@@ -7723,7 +7723,7 @@
         <v>0.97897914138870401</v>
       </c>
       <c r="AG41" s="17"/>
-      <c r="AH41" s="17">
+      <c r="AH41" s="23">
         <f t="shared" ref="AH41:AH43" si="45">S41/AE41</f>
         <v>0.97897914138870401</v>
       </c>
@@ -7815,7 +7815,7 @@
         <v>0.91805727192984465</v>
       </c>
       <c r="AG42" s="17"/>
-      <c r="AH42" s="17">
+      <c r="AH42" s="23">
         <f t="shared" si="45"/>
         <v>0.91805727192984465</v>
       </c>
@@ -7910,7 +7910,7 @@
         <f t="shared" ref="AG43:AG48" si="48">R43/AD43</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH43" s="17">
+      <c r="AH43" s="23">
         <f t="shared" si="45"/>
         <v>0.86380895283772985</v>
       </c>
@@ -8011,7 +8011,7 @@
         <f t="shared" si="48"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH44" s="17">
+      <c r="AH44" s="23">
         <f t="shared" ref="AH43:AH48" si="51">S44/AE44</f>
         <v>0.81504016824332826</v>
       </c>
@@ -8105,7 +8105,7 @@
         <f t="shared" si="48"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH45" s="17">
+      <c r="AH45" s="23">
         <f t="shared" si="51"/>
         <v>0.6819176734467306</v>
       </c>
@@ -8199,7 +8199,7 @@
         <f t="shared" si="48"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH46" s="17">
+      <c r="AH46" s="23">
         <f t="shared" si="51"/>
         <v>0.59112951753920218</v>
       </c>
@@ -8293,7 +8293,7 @@
         <f t="shared" si="48"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH47" s="17">
+      <c r="AH47" s="23">
         <f t="shared" si="51"/>
         <v>0.52319326181181025</v>
       </c>
@@ -8387,7 +8387,7 @@
         <f t="shared" si="48"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH48" s="19">
+      <c r="AH48" s="47">
         <f t="shared" si="51"/>
         <v>0.47193411473704922</v>
       </c>
@@ -8681,14 +8681,14 @@
         <v>61.568000000000005</v>
       </c>
       <c r="T53" s="42">
-        <v>54.63</v>
+        <v>0.19020000000000001</v>
       </c>
       <c r="U53" s="17">
         <v>9.2420000000000002E-3</v>
       </c>
       <c r="V53" s="17">
         <f t="shared" si="53"/>
-        <v>54.639242000000003</v>
+        <v>0.19944200000000001</v>
       </c>
       <c r="W53" s="42">
         <v>9.2420000000000002E-3</v>
@@ -8712,7 +8712,7 @@
       </c>
       <c r="AC53" s="21">
         <f>Q53+T53+W53+Z53</f>
-        <v>109.26924200000001</v>
+        <v>54.829442</v>
       </c>
       <c r="AD53" s="21">
         <f>R53+U53+X53+AA53</f>
@@ -8720,19 +8720,19 @@
       </c>
       <c r="AE53" s="17">
         <f>AC53+AD53</f>
-        <v>116.21648400000001</v>
+        <v>61.776684000000003</v>
       </c>
       <c r="AF53" s="43">
         <f>Q53/AC53</f>
-        <v>0.49995770996562783</v>
+        <v>0.99636250173766139</v>
       </c>
       <c r="AG53" s="23">
         <f>R53/AD53</f>
         <v>0.99866968791356336</v>
       </c>
-      <c r="AH53" s="17">
+      <c r="AH53" s="23">
         <f>S53/AE53</f>
-        <v>0.5297699421021892</v>
+        <v>0.99662196177444551</v>
       </c>
       <c r="AJ53" s="1" t="s">
         <v>58</v>
@@ -8799,14 +8799,14 @@
         <v>1437.5</v>
       </c>
       <c r="T54" s="42">
-        <v>1271</v>
+        <v>28.88</v>
       </c>
       <c r="U54" s="17">
         <v>1.571</v>
       </c>
       <c r="V54" s="17">
         <f>T54+U54</f>
-        <v>1272.5709999999999</v>
+        <v>30.451000000000001</v>
       </c>
       <c r="W54" s="42">
         <v>1.571</v>
@@ -8830,7 +8830,7 @@
       </c>
       <c r="AC54" s="21">
         <f t="shared" ref="AC54:AD61" si="59">Q54+T54+W54+Z54</f>
-        <v>2543.5709999999999</v>
+        <v>1301.451</v>
       </c>
       <c r="AD54" s="21">
         <f t="shared" si="59"/>
@@ -8838,19 +8838,19 @@
       </c>
       <c r="AE54" s="17">
         <f t="shared" ref="AE54:AE61" si="60">AC54+AD54</f>
-        <v>2711.6695199999999</v>
+        <v>1469.54952</v>
       </c>
       <c r="AF54" s="43">
         <f t="shared" ref="AF54:AF61" si="61">Q54/AC54</f>
-        <v>0.49969118220014302</v>
+        <v>0.97660226931325111</v>
       </c>
       <c r="AG54" s="23">
         <f t="shared" ref="AG54:AG55" si="62">R54/AD54</f>
         <v>0.990490576597581</v>
       </c>
-      <c r="AH54" s="17">
+      <c r="AH54" s="23">
         <f t="shared" ref="AH54:AH56" si="63">S54/AE54</f>
-        <v>0.53011622153720273</v>
+        <v>0.97819092207250014</v>
       </c>
       <c r="AJ54" s="1"/>
     </row>
@@ -8913,14 +8913,14 @@
         <v>5314.9</v>
       </c>
       <c r="T55" s="42">
-        <v>4645</v>
+        <v>383.1</v>
       </c>
       <c r="U55" s="17">
         <v>24.64</v>
       </c>
       <c r="V55" s="17">
         <f>T55+U55</f>
-        <v>4669.6400000000003</v>
+        <v>407.74</v>
       </c>
       <c r="W55" s="42">
         <v>24.64</v>
@@ -8944,7 +8944,7 @@
       </c>
       <c r="AC55" s="21">
         <f t="shared" si="59"/>
-        <v>9314.6632799999988</v>
+        <v>5052.763280000001</v>
       </c>
       <c r="AD55" s="21">
         <f t="shared" si="59"/>
@@ -8952,19 +8952,19 @@
       </c>
       <c r="AE55" s="17">
         <f t="shared" si="60"/>
-        <v>10010.994559999999</v>
+        <v>5749.0945600000014</v>
       </c>
       <c r="AF55" s="43">
         <f t="shared" si="61"/>
-        <v>0.49867610458592987</v>
+        <v>0.91929895437333831</v>
       </c>
       <c r="AG55" s="23">
         <f t="shared" si="62"/>
         <v>0.96204209008103148</v>
       </c>
-      <c r="AH55" s="17">
+      <c r="AH55" s="23">
         <f t="shared" si="63"/>
-        <v>0.53090629189194161</v>
+        <v>0.92447601001017421</v>
       </c>
       <c r="AJ55" s="1"/>
     </row>
@@ -9027,14 +9027,14 @@
         <v>8212</v>
       </c>
       <c r="T56" s="42">
-        <v>7096</v>
+        <v>928.9</v>
       </c>
       <c r="U56" s="17">
         <v>69.36</v>
       </c>
       <c r="V56" s="17">
         <f>T56+U56</f>
-        <v>7165.36</v>
+        <v>998.26</v>
       </c>
       <c r="W56" s="42">
         <v>69.36</v>
@@ -9058,7 +9058,7 @@
       </c>
       <c r="AC56" s="21">
         <f t="shared" si="59"/>
-        <v>14261.5656</v>
+        <v>8094.4655999999995</v>
       </c>
       <c r="AD56" s="21">
         <f t="shared" si="59"/>
@@ -9066,19 +9066,19 @@
       </c>
       <c r="AE56" s="17">
         <f t="shared" si="60"/>
-        <v>15455.8032</v>
+        <v>9288.7031999999999</v>
       </c>
       <c r="AF56" s="43">
         <f t="shared" si="61"/>
-        <v>0.49756108123220355</v>
+        <v>0.87664836082569808</v>
       </c>
       <c r="AG56" s="23">
         <f t="shared" ref="AG56:AG61" si="65">R56/AD56</f>
         <v>0.93448740853578893</v>
       </c>
-      <c r="AH56" s="17">
+      <c r="AH56" s="23">
         <f t="shared" si="63"/>
-        <v>0.53132146506627365</v>
+        <v>0.88408465887897036</v>
       </c>
       <c r="AJ56" s="25">
         <f>4.77*306.39103*7</f>
@@ -9147,14 +9147,14 @@
         <v>10410</v>
       </c>
       <c r="T57" s="42">
-        <v>8896</v>
+        <v>1552</v>
       </c>
       <c r="U57" s="17">
         <v>130.4</v>
       </c>
       <c r="V57" s="17">
         <f t="shared" ref="V57:V61" si="67">T57+U57</f>
-        <v>9026.4</v>
+        <v>1682.4</v>
       </c>
       <c r="W57" s="42">
         <v>130.4</v>
@@ -9178,7 +9178,7 @@
       </c>
       <c r="AC57" s="21">
         <f t="shared" si="59"/>
-        <v>17923.196400000001</v>
+        <v>10579.196399999999</v>
       </c>
       <c r="AD57" s="21">
         <f t="shared" si="59"/>
@@ -9186,19 +9186,19 @@
       </c>
       <c r="AE57" s="17">
         <f t="shared" si="60"/>
-        <v>19591.0628</v>
+        <v>12247.0628</v>
       </c>
       <c r="AF57" s="43">
         <f t="shared" si="61"/>
-        <v>0.49634003898992035</v>
+        <v>0.84089562795147665</v>
       </c>
       <c r="AG57" s="23">
         <f t="shared" si="65"/>
         <v>0.90774656771069906</v>
       </c>
-      <c r="AH57" s="17">
+      <c r="AH57" s="23">
         <f t="shared" ref="AH56:AH61" si="68">S57/AE57</f>
-        <v>0.53136474045706183</v>
+        <v>0.84999972401545942</v>
       </c>
     </row>
     <row r="58" spans="1:54" x14ac:dyDescent="0.2">
@@ -9260,14 +9260,14 @@
         <v>14388</v>
       </c>
       <c r="T58" s="42">
-        <v>11890</v>
+        <v>3454</v>
       </c>
       <c r="U58" s="17">
         <v>395.2</v>
       </c>
       <c r="V58" s="17">
         <f t="shared" si="67"/>
-        <v>12285.2</v>
+        <v>3849.2</v>
       </c>
       <c r="W58" s="42">
         <v>395.2</v>
@@ -9291,7 +9291,7 @@
       </c>
       <c r="AC58" s="21">
         <f t="shared" si="59"/>
-        <v>24184.863000000001</v>
+        <v>15748.863000000001</v>
       </c>
       <c r="AD58" s="21">
         <f t="shared" si="59"/>
@@ -9299,19 +9299,19 @@
       </c>
       <c r="AE58" s="17">
         <f t="shared" si="60"/>
-        <v>27214.326000000001</v>
+        <v>18778.326000000001</v>
       </c>
       <c r="AF58" s="43">
         <f t="shared" si="61"/>
-        <v>0.49162982647451836</v>
+        <v>0.75497513693528218</v>
       </c>
       <c r="AG58" s="23">
         <f t="shared" si="65"/>
         <v>0.82456857865568922</v>
       </c>
-      <c r="AH58" s="17">
+      <c r="AH58" s="23">
         <f t="shared" si="68"/>
-        <v>0.52869213075495602</v>
+        <v>0.76620248258550838</v>
       </c>
     </row>
     <row r="59" spans="1:54" x14ac:dyDescent="0.2">
@@ -9363,24 +9363,24 @@
         <v>3334100</v>
       </c>
       <c r="Q59" s="42">
-        <v>2453000</v>
+        <v>12830</v>
       </c>
       <c r="R59" s="17">
         <v>3165</v>
       </c>
       <c r="S59" s="17">
         <f t="shared" si="52"/>
-        <v>2456165</v>
+        <v>15995</v>
       </c>
       <c r="T59" s="42">
-        <v>12830</v>
+        <v>5162</v>
       </c>
       <c r="U59" s="17">
         <v>722.2</v>
       </c>
       <c r="V59" s="17">
         <f t="shared" si="67"/>
-        <v>13552.2</v>
+        <v>5884.2</v>
       </c>
       <c r="W59" s="42">
         <v>5162</v>
@@ -9404,7 +9404,7 @@
       </c>
       <c r="AC59" s="21">
         <f t="shared" si="59"/>
-        <v>2472334</v>
+        <v>24496</v>
       </c>
       <c r="AD59" s="21">
         <f t="shared" si="59"/>
@@ -9412,19 +9412,19 @@
       </c>
       <c r="AE59" s="17">
         <f t="shared" si="60"/>
-        <v>2476554.35</v>
+        <v>28716.35</v>
       </c>
       <c r="AF59" s="43">
         <f t="shared" si="61"/>
-        <v>0.99217985919378204</v>
+        <v>0.5237589810581319</v>
       </c>
       <c r="AG59" s="23">
         <f t="shared" si="65"/>
         <v>0.74993780136718513</v>
       </c>
-      <c r="AH59" s="17">
+      <c r="AH59" s="23">
         <f t="shared" si="68"/>
-        <v>0.99176704924727366</v>
+        <v>0.55699975797759815</v>
       </c>
     </row>
     <row r="60" spans="1:54" x14ac:dyDescent="0.2">
@@ -9476,24 +9476,24 @@
         <v>3305000</v>
       </c>
       <c r="Q60" s="42">
-        <v>2427000</v>
+        <v>12860</v>
       </c>
       <c r="R60" s="17">
         <v>3580</v>
       </c>
       <c r="S60" s="17">
         <f t="shared" si="52"/>
-        <v>2430580</v>
+        <v>16440</v>
       </c>
       <c r="T60" s="42">
-        <v>12860</v>
+        <v>6515</v>
       </c>
       <c r="U60" s="17">
         <v>1083</v>
       </c>
       <c r="V60" s="17">
         <f t="shared" si="67"/>
-        <v>13943</v>
+        <v>7598</v>
       </c>
       <c r="W60" s="42">
         <v>6515</v>
@@ -9517,7 +9517,7 @@
       </c>
       <c r="AC60" s="21">
         <f t="shared" si="59"/>
-        <v>2448840</v>
+        <v>28355</v>
       </c>
       <c r="AD60" s="21">
         <f t="shared" si="59"/>
@@ -9525,19 +9525,19 @@
       </c>
       <c r="AE60" s="17">
         <f t="shared" si="60"/>
-        <v>2454092.75</v>
+        <v>33607.75</v>
       </c>
       <c r="AF60" s="43">
         <f t="shared" si="61"/>
-        <v>0.99108149164502379</v>
+        <v>0.4535355316522659</v>
       </c>
       <c r="AG60" s="23">
         <f t="shared" si="65"/>
         <v>0.68154776069677792</v>
       </c>
-      <c r="AH60" s="17">
+      <c r="AH60" s="23">
         <f t="shared" si="68"/>
-        <v>0.99041896440140664</v>
+        <v>0.48917288423057181</v>
       </c>
     </row>
     <row r="61" spans="1:54" s="18" customFormat="1" x14ac:dyDescent="0.2">
@@ -9589,24 +9589,24 @@
         <v>3273600</v>
       </c>
       <c r="Q61" s="42">
-        <v>2399000</v>
+        <v>12560</v>
       </c>
       <c r="R61" s="19">
         <v>3811</v>
       </c>
       <c r="S61" s="19">
         <f t="shared" si="52"/>
-        <v>2402811</v>
+        <v>16371</v>
       </c>
       <c r="T61" s="42">
-        <v>12560</v>
+        <v>7461</v>
       </c>
       <c r="U61" s="19">
         <v>1446</v>
       </c>
       <c r="V61" s="19">
         <f t="shared" si="67"/>
-        <v>14006</v>
+        <v>8907</v>
       </c>
       <c r="W61" s="42">
         <v>7461</v>
@@ -9630,7 +9630,7 @@
       </c>
       <c r="AC61" s="21">
         <f t="shared" si="59"/>
-        <v>2422708</v>
+        <v>31169</v>
       </c>
       <c r="AD61" s="21">
         <f t="shared" si="59"/>
@@ -9638,19 +9638,19 @@
       </c>
       <c r="AE61" s="19">
         <f t="shared" si="60"/>
-        <v>2428848</v>
+        <v>37309</v>
       </c>
       <c r="AF61" s="43">
         <f t="shared" si="61"/>
-        <v>0.99021425611340697</v>
+        <v>0.40296448394237866</v>
       </c>
       <c r="AG61" s="47">
         <f t="shared" si="65"/>
         <v>0.62068403908794789</v>
       </c>
-      <c r="AH61" s="19">
+      <c r="AH61" s="47">
         <f t="shared" si="68"/>
-        <v>0.98928010316001658</v>
+        <v>0.43879492883754589</v>
       </c>
     </row>
   </sheetData>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrickpark/Desktop/elwr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE9350C-0A05-2944-AA7D-D086E7872E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F8A40D-39EE-9248-B320-BF71BFF55279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="19200" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="97">
   <si>
     <t>Input File</t>
   </si>
@@ -573,7 +573,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -636,6 +636,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2664,16 +2672,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>667266</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>175708</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>315991</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>49607</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>520727</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>114891</xdr:rowOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>63050</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>36026</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4368,8 +4376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E48A428C-A2D0-4C30-9161-4343E51EC6DC}">
   <dimension ref="A1:BB61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="141" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView tabSelected="1" topLeftCell="Y28" zoomScale="141" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AK32" sqref="AK32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6603,9 +6611,7 @@
         <f>S27/AE27</f>
         <v>0.99690869124888837</v>
       </c>
-      <c r="AJ27" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="AJ27" s="1"/>
     </row>
     <row r="28" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A28" s="32" t="e" vm="1">
@@ -6685,9 +6691,12 @@
         <f t="shared" ref="AF28:AF35" si="27">Q28/AC28</f>
         <v>0.97901961930305637</v>
       </c>
-      <c r="AG28" s="17"/>
+      <c r="AG28" s="17" t="e">
+        <f t="shared" ref="AG28:AG29" si="28">R28/AD28</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AH28" s="17"/>
-      <c r="AJ28" s="1"/>
+      <c r="AJ28" s="48"/>
     </row>
     <row r="29" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A29" s="32"/>
@@ -6765,9 +6774,12 @@
         <f t="shared" si="27"/>
         <v>0.91810146428705475</v>
       </c>
-      <c r="AG29" s="17"/>
+      <c r="AG29" s="17" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AH29" s="17"/>
-      <c r="AJ29" s="1"/>
+      <c r="AJ29" s="48"/>
     </row>
     <row r="30" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A30" s="32"/>
@@ -6798,7 +6810,7 @@
       </c>
       <c r="L30" s="17"/>
       <c r="M30" s="17">
-        <f t="shared" ref="M30:M35" si="28">K30+L30</f>
+        <f t="shared" ref="M30:M35" si="29">K30+L30</f>
         <v>95340</v>
       </c>
       <c r="N30" s="42">
@@ -6806,7 +6818,7 @@
       </c>
       <c r="O30" s="17"/>
       <c r="P30" s="17">
-        <f t="shared" ref="P30:P35" si="29">N30+O30</f>
+        <f t="shared" ref="P30:P35" si="30">N30+O30</f>
         <v>3389000</v>
       </c>
       <c r="Q30" s="42">
@@ -6814,7 +6826,7 @@
       </c>
       <c r="R30" s="17"/>
       <c r="S30" s="17">
-        <f t="shared" ref="S30:S35" si="30">Q30+R30</f>
+        <f t="shared" ref="S30:S35" si="31">Q30+R30</f>
         <v>8622</v>
       </c>
       <c r="T30" s="42">
@@ -6822,7 +6834,7 @@
       </c>
       <c r="U30" s="17"/>
       <c r="V30" s="17">
-        <f t="shared" ref="V30:V35" si="31">T30+U30</f>
+        <f t="shared" ref="V30:V35" si="32">T30+U30</f>
         <v>1044</v>
       </c>
       <c r="W30" s="42">
@@ -6830,7 +6842,7 @@
       </c>
       <c r="X30" s="17"/>
       <c r="Y30" s="17">
-        <f t="shared" ref="Y30:Y35" si="32">W30+X30</f>
+        <f t="shared" ref="Y30:Y35" si="33">W30+X30</f>
         <v>300.3</v>
       </c>
       <c r="Z30" s="42">
@@ -6847,7 +6859,7 @@
       </c>
       <c r="AD30" s="17"/>
       <c r="AE30" s="17">
-        <f t="shared" ref="AE30:AE35" si="33">AC30+AD30</f>
+        <f t="shared" ref="AE30:AE35" si="34">AC30+AD30</f>
         <v>9982.41</v>
       </c>
       <c r="AF30" s="43">
@@ -6855,17 +6867,14 @@
         <v>0.86371928221742045</v>
       </c>
       <c r="AG30" s="17" t="e">
-        <f t="shared" ref="AG30:AG35" si="34">R30/AD30</f>
+        <f t="shared" ref="AG30:AG35" si="35">R30/AD30</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AH30" s="17">
-        <f t="shared" ref="AH30:AH35" si="35">S30/AE30</f>
+        <f t="shared" ref="AH30:AH35" si="36">S30/AE30</f>
         <v>0.86371928221742045</v>
       </c>
-      <c r="AJ30" s="25">
-        <f>4.77*306.39103*7</f>
-        <v>10230.396491699998</v>
-      </c>
+      <c r="AJ30" s="49"/>
       <c r="BB30" t="s">
         <v>59</v>
       </c>
@@ -6899,7 +6908,7 @@
       </c>
       <c r="L31" s="17"/>
       <c r="M31" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>85540</v>
       </c>
       <c r="N31" s="42">
@@ -6907,7 +6916,7 @@
       </c>
       <c r="O31" s="17"/>
       <c r="P31" s="17">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>3383000</v>
       </c>
       <c r="Q31" s="42">
@@ -6915,7 +6924,7 @@
       </c>
       <c r="R31" s="17"/>
       <c r="S31" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>10930</v>
       </c>
       <c r="T31" s="42">
@@ -6923,7 +6932,7 @@
       </c>
       <c r="U31" s="17"/>
       <c r="V31" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1769</v>
       </c>
       <c r="W31" s="42">
@@ -6931,7 +6940,7 @@
       </c>
       <c r="X31" s="17"/>
       <c r="Y31" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>658.5</v>
       </c>
       <c r="Z31" s="42">
@@ -6948,7 +6957,7 @@
       </c>
       <c r="AD31" s="17"/>
       <c r="AE31" s="17">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>13411.19</v>
       </c>
       <c r="AF31" s="43">
@@ -6956,13 +6965,14 @@
         <v>0.81499106343284966</v>
       </c>
       <c r="AG31" s="17" t="e">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH31" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.81499106343284966</v>
       </c>
+      <c r="AJ31" s="50"/>
     </row>
     <row r="32" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A32" s="32"/>
@@ -6993,7 +7003,7 @@
       </c>
       <c r="L32" s="17"/>
       <c r="M32" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>58150</v>
       </c>
       <c r="N32" s="42">
@@ -7001,7 +7011,7 @@
       </c>
       <c r="O32" s="17"/>
       <c r="P32" s="17">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>3360000</v>
       </c>
       <c r="Q32" s="42">
@@ -7009,7 +7019,7 @@
       </c>
       <c r="R32" s="17"/>
       <c r="S32" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>15060</v>
       </c>
       <c r="T32" s="42">
@@ -7017,7 +7027,7 @@
       </c>
       <c r="U32" s="17"/>
       <c r="V32" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>4116</v>
       </c>
       <c r="W32" s="42">
@@ -7025,7 +7035,7 @@
       </c>
       <c r="X32" s="17"/>
       <c r="Y32" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>2458</v>
       </c>
       <c r="Z32" s="42">
@@ -7042,7 +7052,7 @@
       </c>
       <c r="AD32" s="17"/>
       <c r="AE32" s="17">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>22092.7</v>
       </c>
       <c r="AF32" s="43">
@@ -7050,13 +7060,14 @@
         <v>0.68167313184898182</v>
       </c>
       <c r="AG32" s="17" t="e">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH32" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.68167313184898182</v>
       </c>
+      <c r="AJ32" s="50"/>
     </row>
     <row r="33" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A33" s="32"/>
@@ -7087,7 +7098,7 @@
       </c>
       <c r="L33" s="17"/>
       <c r="M33" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>37440</v>
       </c>
       <c r="N33" s="42">
@@ -7095,7 +7106,7 @@
       </c>
       <c r="O33" s="17"/>
       <c r="P33" s="17">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>3334000</v>
       </c>
       <c r="Q33" s="42">
@@ -7103,7 +7114,7 @@
       </c>
       <c r="R33" s="17"/>
       <c r="S33" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>16630</v>
       </c>
       <c r="T33" s="42">
@@ -7111,7 +7122,7 @@
       </c>
       <c r="U33" s="17"/>
       <c r="V33" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>6322</v>
       </c>
       <c r="W33" s="42">
@@ -7119,7 +7130,7 @@
       </c>
       <c r="X33" s="17"/>
       <c r="Y33" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>3890</v>
       </c>
       <c r="Z33" s="42">
@@ -7136,7 +7147,7 @@
       </c>
       <c r="AD33" s="17"/>
       <c r="AE33" s="17">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>30732</v>
       </c>
       <c r="AF33" s="43">
@@ -7144,13 +7155,14 @@
         <v>0.5411297670180919</v>
       </c>
       <c r="AG33" s="17" t="e">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH33" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.5411297670180919</v>
       </c>
+      <c r="AJ33" s="50"/>
     </row>
     <row r="34" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A34" s="32"/>
@@ -7181,7 +7193,7 @@
       </c>
       <c r="L34" s="17"/>
       <c r="M34" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>22530</v>
       </c>
       <c r="N34" s="42">
@@ -7189,7 +7201,7 @@
       </c>
       <c r="O34" s="17"/>
       <c r="P34" s="17">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>3305000</v>
       </c>
       <c r="Q34" s="42">
@@ -7197,7 +7209,7 @@
       </c>
       <c r="R34" s="17"/>
       <c r="S34" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>16940</v>
       </c>
       <c r="T34" s="42">
@@ -7205,7 +7217,7 @@
       </c>
       <c r="U34" s="17"/>
       <c r="V34" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>8167</v>
       </c>
       <c r="W34" s="42">
@@ -7213,7 +7225,7 @@
       </c>
       <c r="X34" s="17"/>
       <c r="Y34" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>4801</v>
       </c>
       <c r="Z34" s="42">
@@ -7230,7 +7242,7 @@
       </c>
       <c r="AD34" s="17"/>
       <c r="AE34" s="17">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>34709</v>
       </c>
       <c r="AF34" s="43">
@@ -7238,13 +7250,14 @@
         <v>0.48805785243020544</v>
       </c>
       <c r="AG34" s="17" t="e">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH34" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.48805785243020544</v>
       </c>
+      <c r="AJ34" s="50"/>
     </row>
     <row r="35" spans="1:54" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="34"/>
@@ -7275,7 +7288,7 @@
       </c>
       <c r="L35" s="19"/>
       <c r="M35" s="19">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>12580</v>
       </c>
       <c r="N35" s="42">
@@ -7283,7 +7296,7 @@
       </c>
       <c r="O35" s="19"/>
       <c r="P35" s="19">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>3274000</v>
       </c>
       <c r="Q35" s="42">
@@ -7291,7 +7304,7 @@
       </c>
       <c r="R35" s="19"/>
       <c r="S35" s="19">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>16710</v>
       </c>
       <c r="T35" s="42">
@@ -7299,7 +7312,7 @@
       </c>
       <c r="U35" s="19"/>
       <c r="V35" s="19">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>9558</v>
       </c>
       <c r="W35" s="42">
@@ -7307,7 +7320,7 @@
       </c>
       <c r="X35" s="19"/>
       <c r="Y35" s="19">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>5286</v>
       </c>
       <c r="Z35" s="42">
@@ -7324,7 +7337,7 @@
       </c>
       <c r="AD35" s="19"/>
       <c r="AE35" s="19">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>36840</v>
       </c>
       <c r="AF35" s="43">
@@ -7332,13 +7345,17 @@
         <v>0.45358306188925079</v>
       </c>
       <c r="AG35" s="19" t="e">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH35" s="19">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.45358306188925079</v>
       </c>
+      <c r="AJ35" s="51"/>
+    </row>
+    <row r="36" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="AJ36" s="50"/>
     </row>
     <row r="37" spans="1:54" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="37" t="s">
@@ -7379,6 +7396,7 @@
       <c r="AF37" s="40" t="s">
         <v>56</v>
       </c>
+      <c r="AJ37" s="52"/>
     </row>
     <row r="38" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
@@ -7483,6 +7501,7 @@
       <c r="AH38" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="AJ38" s="50"/>
     </row>
     <row r="39" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
@@ -7533,6 +7552,7 @@
       <c r="AE39">
         <v>0</v>
       </c>
+      <c r="AJ39" s="50"/>
     </row>
     <row r="40" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
@@ -7557,7 +7577,7 @@
         <v>0.16233900000000001</v>
       </c>
       <c r="H40" s="23">
-        <f t="shared" ref="H40:H48" si="36">G40/0.0075</f>
+        <f t="shared" ref="H40:H48" si="37">G40/0.0075</f>
         <v>21.645200000000003</v>
       </c>
       <c r="I40" s="21"/>
@@ -7631,9 +7651,7 @@
         <f>S40/AE40</f>
         <v>0.99690279079407218</v>
       </c>
-      <c r="AJ40" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="AJ40" s="48"/>
     </row>
     <row r="41" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A41" s="32" t="e" vm="1">
@@ -7666,7 +7684,7 @@
       </c>
       <c r="L41" s="17"/>
       <c r="M41" s="17">
-        <f t="shared" ref="M41:M42" si="37">K41+L41</f>
+        <f t="shared" ref="M41:M42" si="38">K41+L41</f>
         <v>117700</v>
       </c>
       <c r="N41" s="42">
@@ -7674,7 +7692,7 @@
       </c>
       <c r="O41" s="17"/>
       <c r="P41" s="17">
-        <f t="shared" ref="P41:P48" si="38">N41+O41</f>
+        <f t="shared" ref="P41:P48" si="39">N41+O41</f>
         <v>3401000</v>
       </c>
       <c r="Q41" s="42">
@@ -7682,7 +7700,7 @@
       </c>
       <c r="R41" s="17"/>
       <c r="S41" s="17">
-        <f t="shared" ref="S41:S48" si="39">Q41+R41</f>
+        <f t="shared" ref="S41:S48" si="40">Q41+R41</f>
         <v>1510</v>
       </c>
       <c r="T41" s="42">
@@ -7698,7 +7716,7 @@
       </c>
       <c r="X41" s="17"/>
       <c r="Y41" s="17">
-        <f t="shared" ref="Y41:Y48" si="40">W41+X41</f>
+        <f t="shared" ref="Y41:Y48" si="41">W41+X41</f>
         <v>1.3340000000000001</v>
       </c>
       <c r="Z41" s="42">
@@ -7706,28 +7724,31 @@
       </c>
       <c r="AA41" s="17"/>
       <c r="AB41" s="17">
-        <f t="shared" ref="AB41:AB48" si="41">Z41+AA41</f>
+        <f t="shared" ref="AB41:AB48" si="42">Z41+AA41</f>
         <v>9.0570000000000008E-3</v>
       </c>
       <c r="AC41" s="21">
-        <f t="shared" ref="AC41:AC48" si="42">Q41+T41+W41+Z41</f>
+        <f t="shared" ref="AC41:AC48" si="43">Q41+T41+W41+Z41</f>
         <v>1542.423057</v>
       </c>
       <c r="AD41" s="17"/>
       <c r="AE41" s="17">
-        <f t="shared" ref="AE41:AE43" si="43">AC41+AD41</f>
+        <f t="shared" ref="AE41:AE43" si="44">AC41+AD41</f>
         <v>1542.423057</v>
       </c>
       <c r="AF41" s="43">
-        <f t="shared" ref="AF41:AF48" si="44">Q41/AC41</f>
+        <f t="shared" ref="AF41:AF48" si="45">Q41/AC41</f>
         <v>0.97897914138870401</v>
       </c>
-      <c r="AG41" s="17"/>
+      <c r="AG41" s="17" t="e">
+        <f>R41/AD41</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AH41" s="23">
-        <f t="shared" ref="AH41:AH43" si="45">S41/AE41</f>
+        <f t="shared" ref="AH41:AH43" si="46">S41/AE41</f>
         <v>0.97897914138870401</v>
       </c>
-      <c r="AJ41" s="1"/>
+      <c r="AJ41" s="48"/>
     </row>
     <row r="42" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A42" s="32"/>
@@ -7748,7 +7769,7 @@
         <v>0.127308</v>
       </c>
       <c r="H42" s="23">
-        <f t="shared" ref="H42:H48" si="46">G42/0.0075</f>
+        <f t="shared" ref="H42:H48" si="47">G42/0.0075</f>
         <v>16.974400000000003</v>
       </c>
       <c r="I42" s="21"/>
@@ -7758,7 +7779,7 @@
       </c>
       <c r="L42" s="17"/>
       <c r="M42" s="17">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>106000</v>
       </c>
       <c r="N42" s="42">
@@ -7766,7 +7787,7 @@
       </c>
       <c r="O42" s="17"/>
       <c r="P42" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>3395000</v>
       </c>
       <c r="Q42" s="42">
@@ -7774,7 +7795,7 @@
       </c>
       <c r="R42" s="17"/>
       <c r="S42" s="17">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>5591</v>
       </c>
       <c r="T42" s="42">
@@ -7790,7 +7811,7 @@
       </c>
       <c r="X42" s="17"/>
       <c r="Y42" s="17">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>74.28</v>
       </c>
       <c r="Z42" s="42">
@@ -7798,28 +7819,31 @@
       </c>
       <c r="AA42" s="17"/>
       <c r="AB42" s="17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>2.1539999999999999</v>
       </c>
       <c r="AC42" s="21">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>6090.0340000000006</v>
       </c>
       <c r="AD42" s="17"/>
       <c r="AE42" s="17">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>6090.0340000000006</v>
       </c>
       <c r="AF42" s="43">
-        <f t="shared" si="44"/>
-        <v>0.91805727192984465</v>
-      </c>
-      <c r="AG42" s="17"/>
-      <c r="AH42" s="23">
         <f t="shared" si="45"/>
         <v>0.91805727192984465</v>
       </c>
-      <c r="AJ42" s="1"/>
+      <c r="AG42" s="17" t="e">
+        <f>R42/AD42</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH42" s="23">
+        <f t="shared" si="46"/>
+        <v>0.91805727192984465</v>
+      </c>
+      <c r="AJ42" s="48"/>
     </row>
     <row r="43" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A43" s="32"/>
@@ -7840,7 +7864,7 @@
         <v>0.101439</v>
       </c>
       <c r="H43" s="23">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>13.5252</v>
       </c>
       <c r="I43" s="21"/>
@@ -7850,7 +7874,7 @@
       </c>
       <c r="L43" s="17"/>
       <c r="M43" s="17">
-        <f t="shared" ref="M43:M48" si="47">K43+L43</f>
+        <f t="shared" ref="M43:M48" si="48">K43+L43</f>
         <v>95350</v>
       </c>
       <c r="N43" s="42">
@@ -7858,7 +7882,7 @@
       </c>
       <c r="O43" s="17"/>
       <c r="P43" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>3389000</v>
       </c>
       <c r="Q43" s="42">
@@ -7866,7 +7890,7 @@
       </c>
       <c r="R43" s="17"/>
       <c r="S43" s="17">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>8645</v>
       </c>
       <c r="T43" s="42">
@@ -7882,7 +7906,7 @@
       </c>
       <c r="X43" s="17"/>
       <c r="Y43" s="17">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>301.8</v>
       </c>
       <c r="Z43" s="42">
@@ -7890,34 +7914,31 @@
       </c>
       <c r="AA43" s="17"/>
       <c r="AB43" s="17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>16.2</v>
       </c>
       <c r="AC43" s="21">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>10008</v>
       </c>
       <c r="AD43" s="17"/>
       <c r="AE43" s="17">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>10008</v>
       </c>
       <c r="AF43" s="43">
-        <f t="shared" si="44"/>
-        <v>0.86380895283772985</v>
-      </c>
-      <c r="AG43" s="17" t="e">
-        <f t="shared" ref="AG43:AG48" si="48">R43/AD43</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH43" s="23">
         <f t="shared" si="45"/>
         <v>0.86380895283772985</v>
       </c>
-      <c r="AJ43" s="25">
-        <f>4.77*306.39103*7</f>
-        <v>10230.396491699998</v>
-      </c>
+      <c r="AG43" s="17" t="e">
+        <f t="shared" ref="AG43:AG48" si="49">R43/AD43</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH43" s="23">
+        <f t="shared" si="46"/>
+        <v>0.86380895283772985</v>
+      </c>
+      <c r="AJ43" s="49"/>
       <c r="BB43" t="s">
         <v>59</v>
       </c>
@@ -7941,7 +7962,7 @@
         <v>7.5357999999999994E-2</v>
       </c>
       <c r="H44" s="23">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>10.047733333333333</v>
       </c>
       <c r="I44" s="21"/>
@@ -7951,7 +7972,7 @@
       </c>
       <c r="L44" s="17"/>
       <c r="M44" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>85560</v>
       </c>
       <c r="N44" s="42">
@@ -7959,7 +7980,7 @@
       </c>
       <c r="O44" s="17"/>
       <c r="P44" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>3383000</v>
       </c>
       <c r="Q44" s="42">
@@ -7967,7 +7988,7 @@
       </c>
       <c r="R44" s="17"/>
       <c r="S44" s="17">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>10960</v>
       </c>
       <c r="T44" s="42">
@@ -7975,7 +7996,7 @@
       </c>
       <c r="U44" s="17"/>
       <c r="V44" s="17">
-        <f t="shared" ref="V43:V48" si="49">T44+U44</f>
+        <f t="shared" ref="V43:V48" si="50">T44+U44</f>
         <v>1772</v>
       </c>
       <c r="W44" s="42">
@@ -7983,7 +8004,7 @@
       </c>
       <c r="X44" s="17"/>
       <c r="Y44" s="17">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>661.3</v>
       </c>
       <c r="Z44" s="42">
@@ -7991,30 +8012,31 @@
       </c>
       <c r="AA44" s="17"/>
       <c r="AB44" s="17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>53.89</v>
       </c>
       <c r="AC44" s="21">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>13447.189999999999</v>
       </c>
       <c r="AD44" s="17"/>
       <c r="AE44" s="17">
-        <f t="shared" ref="AE43:AE48" si="50">AC44+AD44</f>
+        <f t="shared" ref="AE43:AE48" si="51">AC44+AD44</f>
         <v>13447.189999999999</v>
       </c>
       <c r="AF44" s="43">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0.81504016824332826</v>
       </c>
       <c r="AG44" s="17" t="e">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH44" s="23">
-        <f t="shared" ref="AH43:AH48" si="51">S44/AE44</f>
+        <f t="shared" ref="AH43:AH48" si="52">S44/AE44</f>
         <v>0.81504016824332826</v>
       </c>
+      <c r="AJ44" s="50"/>
     </row>
     <row r="45" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A45" s="32"/>
@@ -8035,7 +8057,7 @@
         <v>-7.4250000000000002E-3</v>
       </c>
       <c r="H45" s="23">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>-0.9900000000000001</v>
       </c>
       <c r="I45" s="21"/>
@@ -8045,7 +8067,7 @@
       </c>
       <c r="L45" s="17"/>
       <c r="M45" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>58190</v>
       </c>
       <c r="N45" s="42">
@@ -8053,7 +8075,7 @@
       </c>
       <c r="O45" s="17"/>
       <c r="P45" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>3360000</v>
       </c>
       <c r="Q45" s="42">
@@ -8061,7 +8083,7 @@
       </c>
       <c r="R45" s="17"/>
       <c r="S45" s="17">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>15110</v>
       </c>
       <c r="T45" s="42">
@@ -8069,7 +8091,7 @@
       </c>
       <c r="U45" s="17"/>
       <c r="V45" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>4121</v>
       </c>
       <c r="W45" s="42">
@@ -8077,7 +8099,7 @@
       </c>
       <c r="X45" s="17"/>
       <c r="Y45" s="17">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>2467</v>
       </c>
       <c r="Z45" s="42">
@@ -8085,30 +8107,31 @@
       </c>
       <c r="AA45" s="17"/>
       <c r="AB45" s="17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>460.1</v>
       </c>
       <c r="AC45" s="21">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>22158.1</v>
       </c>
       <c r="AD45" s="17"/>
       <c r="AE45" s="17">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>22158.1</v>
       </c>
       <c r="AF45" s="43">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0.6819176734467306</v>
       </c>
       <c r="AG45" s="17" t="e">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH45" s="23">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.6819176734467306</v>
       </c>
+      <c r="AJ45" s="50"/>
     </row>
     <row r="46" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A46" s="32"/>
@@ -8129,7 +8152,7 @@
         <v>-9.4391000000000003E-2</v>
       </c>
       <c r="H46" s="23">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>-12.585466666666667</v>
       </c>
       <c r="I46" s="21"/>
@@ -8139,7 +8162,7 @@
       </c>
       <c r="L46" s="17"/>
       <c r="M46" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>37520</v>
       </c>
       <c r="N46" s="42">
@@ -8147,7 +8170,7 @@
       </c>
       <c r="O46" s="17"/>
       <c r="P46" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>3334000</v>
       </c>
       <c r="Q46" s="42">
@@ -8155,7 +8178,7 @@
       </c>
       <c r="R46" s="17"/>
       <c r="S46" s="17">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>16700</v>
       </c>
       <c r="T46" s="42">
@@ -8163,7 +8186,7 @@
       </c>
       <c r="U46" s="17"/>
       <c r="V46" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>6321</v>
       </c>
       <c r="W46" s="42">
@@ -8171,7 +8194,7 @@
       </c>
       <c r="X46" s="17"/>
       <c r="Y46" s="17">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>3908</v>
       </c>
       <c r="Z46" s="42">
@@ -8179,30 +8202,31 @@
       </c>
       <c r="AA46" s="17"/>
       <c r="AB46" s="17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>1322</v>
       </c>
       <c r="AC46" s="21">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>28251</v>
       </c>
       <c r="AD46" s="17"/>
       <c r="AE46" s="17">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>28251</v>
       </c>
       <c r="AF46" s="43">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0.59112951753920218</v>
       </c>
       <c r="AG46" s="17" t="e">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH46" s="23">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.59112951753920218</v>
       </c>
+      <c r="AJ46" s="50"/>
     </row>
     <row r="47" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A47" s="32"/>
@@ -8223,7 +8247,7 @@
         <v>-0.18723999999999999</v>
       </c>
       <c r="H47" s="23">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>-24.965333333333334</v>
       </c>
       <c r="I47" s="21"/>
@@ -8233,7 +8257,7 @@
       </c>
       <c r="L47" s="17"/>
       <c r="M47" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>22610</v>
       </c>
       <c r="N47" s="42">
@@ -8241,7 +8265,7 @@
       </c>
       <c r="O47" s="17"/>
       <c r="P47" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>3305000</v>
       </c>
       <c r="Q47" s="42">
@@ -8249,7 +8273,7 @@
       </c>
       <c r="R47" s="17"/>
       <c r="S47" s="17">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>17020</v>
       </c>
       <c r="T47" s="42">
@@ -8257,7 +8281,7 @@
       </c>
       <c r="U47" s="17"/>
       <c r="V47" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>8168</v>
       </c>
       <c r="W47" s="42">
@@ -8265,7 +8289,7 @@
       </c>
       <c r="X47" s="17"/>
       <c r="Y47" s="17">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>4822</v>
       </c>
       <c r="Z47" s="42">
@@ -8273,30 +8297,31 @@
       </c>
       <c r="AA47" s="17"/>
       <c r="AB47" s="17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>2521</v>
       </c>
       <c r="AC47" s="21">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>32531</v>
       </c>
       <c r="AD47" s="17"/>
       <c r="AE47" s="17">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>32531</v>
       </c>
       <c r="AF47" s="43">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0.52319326181181025</v>
       </c>
       <c r="AG47" s="17" t="e">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH47" s="23">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.52319326181181025</v>
       </c>
+      <c r="AJ47" s="50"/>
     </row>
     <row r="48" spans="1:54" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="34"/>
@@ -8317,7 +8342,7 @@
         <v>-0.27952500000000002</v>
       </c>
       <c r="H48" s="24">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>-37.270000000000003</v>
       </c>
       <c r="I48" s="22"/>
@@ -8327,7 +8352,7 @@
       </c>
       <c r="L48" s="19"/>
       <c r="M48" s="19">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>12670</v>
       </c>
       <c r="N48" s="42">
@@ -8335,7 +8360,7 @@
       </c>
       <c r="O48" s="19"/>
       <c r="P48" s="19">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>3274000</v>
       </c>
       <c r="Q48" s="42">
@@ -8343,7 +8368,7 @@
       </c>
       <c r="R48" s="19"/>
       <c r="S48" s="19">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>16790</v>
       </c>
       <c r="T48" s="42">
@@ -8351,7 +8376,7 @@
       </c>
       <c r="U48" s="19"/>
       <c r="V48" s="19">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>9553</v>
       </c>
       <c r="W48" s="42">
@@ -8359,7 +8384,7 @@
       </c>
       <c r="X48" s="19"/>
       <c r="Y48" s="19">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>5320</v>
       </c>
       <c r="Z48" s="42">
@@ -8367,30 +8392,34 @@
       </c>
       <c r="AA48" s="19"/>
       <c r="AB48" s="19">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>3914</v>
       </c>
       <c r="AC48" s="21">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>35577</v>
       </c>
       <c r="AD48" s="19"/>
       <c r="AE48" s="19">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>35577</v>
       </c>
       <c r="AF48" s="43">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0.47193411473704922</v>
       </c>
       <c r="AG48" s="19" t="e">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH48" s="47">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.47193411473704922</v>
       </c>
+      <c r="AJ48" s="51"/>
+    </row>
+    <row r="49" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="AJ49" s="50"/>
     </row>
     <row r="50" spans="1:54" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="37" t="s">
@@ -8431,6 +8460,7 @@
       <c r="AF50" s="40" t="s">
         <v>56</v>
       </c>
+      <c r="AJ50" s="52"/>
     </row>
     <row r="51" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
@@ -8535,6 +8565,7 @@
       <c r="AH51" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="AJ51" s="50"/>
     </row>
     <row r="52" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
@@ -8575,7 +8606,7 @@
         <v>0</v>
       </c>
       <c r="S52" s="17">
-        <f t="shared" ref="S52:S61" si="52">Q52+R52</f>
+        <f t="shared" ref="S52:S61" si="53">Q52+R52</f>
         <v>0</v>
       </c>
       <c r="T52" s="7">
@@ -8585,7 +8616,7 @@
         <v>0</v>
       </c>
       <c r="V52" s="17">
-        <f t="shared" ref="V52:V53" si="53">T52+U52</f>
+        <f t="shared" ref="V52:V53" si="54">T52+U52</f>
         <v>0</v>
       </c>
       <c r="W52" s="7">
@@ -8595,7 +8626,7 @@
         <v>0</v>
       </c>
       <c r="Y52" s="17">
-        <f t="shared" ref="Y52:Y61" si="54">W52+X52</f>
+        <f t="shared" ref="Y52:Y61" si="55">W52+X52</f>
         <v>0</v>
       </c>
       <c r="Z52" s="7">
@@ -8605,7 +8636,7 @@
         <v>0</v>
       </c>
       <c r="AB52" s="17">
-        <f t="shared" ref="AB52:AB61" si="55">Z52+AA52</f>
+        <f t="shared" ref="AB52:AB61" si="56">Z52+AA52</f>
         <v>0</v>
       </c>
       <c r="AC52" s="7">
@@ -8617,6 +8648,7 @@
       <c r="AE52">
         <v>0</v>
       </c>
+      <c r="AJ52" s="50"/>
     </row>
     <row r="53" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
@@ -8641,7 +8673,7 @@
         <v>0.162304</v>
       </c>
       <c r="H53" s="23">
-        <f t="shared" ref="H53:H61" si="56">G53/0.0075</f>
+        <f t="shared" ref="H53:H61" si="57">G53/0.0075</f>
         <v>21.640533333333334</v>
       </c>
       <c r="I53" s="44">
@@ -8677,7 +8709,7 @@
         <v>6.9379999999999997</v>
       </c>
       <c r="S53" s="17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>61.568000000000005</v>
       </c>
       <c r="T53" s="42">
@@ -8687,7 +8719,7 @@
         <v>9.2420000000000002E-3</v>
       </c>
       <c r="V53" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>0.19944200000000001</v>
       </c>
       <c r="W53" s="42">
@@ -8734,9 +8766,7 @@
         <f>S53/AE53</f>
         <v>0.99662196177444551</v>
       </c>
-      <c r="AJ53" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="AJ53" s="48"/>
     </row>
     <row r="54" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A54" s="32" t="e" vm="2">
@@ -8775,7 +8805,7 @@
         <v>19400</v>
       </c>
       <c r="M54" s="17">
-        <f t="shared" ref="M54:M56" si="57">K54+L54</f>
+        <f t="shared" ref="M54:M56" si="58">K54+L54</f>
         <v>118950</v>
       </c>
       <c r="N54" s="42">
@@ -8785,7 +8815,7 @@
         <v>888000</v>
       </c>
       <c r="P54" s="17">
-        <f t="shared" ref="P54:P61" si="58">N54+O54</f>
+        <f t="shared" ref="P54:P61" si="59">N54+O54</f>
         <v>3400000</v>
       </c>
       <c r="Q54" s="42">
@@ -8795,7 +8825,7 @@
         <v>166.5</v>
       </c>
       <c r="S54" s="17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>1437.5</v>
       </c>
       <c r="T54" s="42">
@@ -8815,7 +8845,7 @@
         <v>2.7519999999999999E-2</v>
       </c>
       <c r="Y54" s="17">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>1.5985199999999999</v>
       </c>
       <c r="Z54" s="42">
@@ -8825,34 +8855,34 @@
         <v>0</v>
       </c>
       <c r="AB54" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="AC54" s="21">
-        <f t="shared" ref="AC54:AD61" si="59">Q54+T54+W54+Z54</f>
+        <f t="shared" ref="AC54:AD61" si="60">Q54+T54+W54+Z54</f>
         <v>1301.451</v>
       </c>
       <c r="AD54" s="21">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>168.09852000000001</v>
       </c>
       <c r="AE54" s="17">
-        <f t="shared" ref="AE54:AE61" si="60">AC54+AD54</f>
+        <f t="shared" ref="AE54:AE61" si="61">AC54+AD54</f>
         <v>1469.54952</v>
       </c>
       <c r="AF54" s="43">
-        <f t="shared" ref="AF54:AF61" si="61">Q54/AC54</f>
+        <f t="shared" ref="AF54:AF61" si="62">Q54/AC54</f>
         <v>0.97660226931325111</v>
       </c>
       <c r="AG54" s="23">
-        <f t="shared" ref="AG54:AG55" si="62">R54/AD54</f>
+        <f t="shared" ref="AG54:AG55" si="63">R54/AD54</f>
         <v>0.990490576597581</v>
       </c>
       <c r="AH54" s="23">
-        <f t="shared" ref="AH54:AH56" si="63">S54/AE54</f>
+        <f t="shared" ref="AH54:AH56" si="64">S54/AE54</f>
         <v>0.97819092207250014</v>
       </c>
-      <c r="AJ54" s="1"/>
+      <c r="AJ54" s="48"/>
     </row>
     <row r="55" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A55" s="32"/>
@@ -8873,7 +8903,7 @@
         <v>0.127552</v>
       </c>
       <c r="H55" s="23">
-        <f t="shared" ref="H55:H61" si="64">G55/0.0075</f>
+        <f t="shared" ref="H55:H61" si="65">G55/0.0075</f>
         <v>17.006933333333333</v>
       </c>
       <c r="I55" s="44">
@@ -8889,7 +8919,7 @@
         <v>18470</v>
       </c>
       <c r="M55" s="17">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>107210</v>
       </c>
       <c r="N55" s="42">
@@ -8899,7 +8929,7 @@
         <v>887400</v>
       </c>
       <c r="P55" s="17">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>3394400</v>
       </c>
       <c r="Q55" s="42">
@@ -8909,7 +8939,7 @@
         <v>669.9</v>
       </c>
       <c r="S55" s="17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>5314.9</v>
       </c>
       <c r="T55" s="42">
@@ -8929,7 +8959,7 @@
         <v>1.768</v>
       </c>
       <c r="Y55" s="17">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>26.408000000000001</v>
       </c>
       <c r="Z55" s="42">
@@ -8939,34 +8969,34 @@
         <v>2.3279999999999999E-2</v>
       </c>
       <c r="AB55" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>4.6559999999999997E-2</v>
       </c>
       <c r="AC55" s="21">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>5052.763280000001</v>
       </c>
       <c r="AD55" s="21">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>696.33127999999999</v>
       </c>
       <c r="AE55" s="17">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>5749.0945600000014</v>
       </c>
       <c r="AF55" s="43">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>0.91929895437333831</v>
       </c>
       <c r="AG55" s="23">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>0.96204209008103148</v>
       </c>
       <c r="AH55" s="23">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>0.92447601001017421</v>
       </c>
-      <c r="AJ55" s="1"/>
+      <c r="AJ55" s="48"/>
     </row>
     <row r="56" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A56" s="32"/>
@@ -8987,7 +9017,7 @@
         <v>0.102229</v>
       </c>
       <c r="H56" s="23">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>13.630533333333334</v>
       </c>
       <c r="I56" s="44">
@@ -9003,7 +9033,7 @@
         <v>17560</v>
       </c>
       <c r="M56" s="17">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>96480</v>
       </c>
       <c r="N56" s="42">
@@ -9013,7 +9043,7 @@
         <v>886700</v>
       </c>
       <c r="P56" s="17">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>3388700</v>
       </c>
       <c r="Q56" s="42">
@@ -9023,7 +9053,7 @@
         <v>1116</v>
       </c>
       <c r="S56" s="17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>8212</v>
       </c>
       <c r="T56" s="42">
@@ -9043,7 +9073,7 @@
         <v>8.6720000000000006</v>
       </c>
       <c r="Y56" s="17">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>78.031999999999996</v>
       </c>
       <c r="Z56" s="42">
@@ -9053,37 +9083,34 @@
         <v>0.2056</v>
       </c>
       <c r="AB56" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0.41120000000000001</v>
       </c>
       <c r="AC56" s="21">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>8094.4655999999995</v>
       </c>
       <c r="AD56" s="21">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>1194.2375999999999</v>
       </c>
       <c r="AE56" s="17">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>9288.7031999999999</v>
       </c>
       <c r="AF56" s="43">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>0.87664836082569808</v>
       </c>
       <c r="AG56" s="23">
-        <f t="shared" ref="AG56:AG61" si="65">R56/AD56</f>
+        <f t="shared" ref="AG56:AG61" si="66">R56/AD56</f>
         <v>0.93448740853578893</v>
       </c>
       <c r="AH56" s="23">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>0.88408465887897036</v>
       </c>
-      <c r="AJ56" s="25">
-        <f>4.77*306.39103*7</f>
-        <v>10230.396491699998</v>
-      </c>
+      <c r="AJ56" s="49"/>
       <c r="BB56" t="s">
         <v>59</v>
       </c>
@@ -9107,7 +9134,7 @@
         <v>7.7201000000000006E-2</v>
       </c>
       <c r="H57" s="23">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>10.293466666666667</v>
       </c>
       <c r="I57" s="44">
@@ -9123,7 +9150,7 @@
         <v>16680</v>
       </c>
       <c r="M57" s="17">
-        <f t="shared" ref="M56:M61" si="66">K57+L57</f>
+        <f t="shared" ref="M56:M61" si="67">K57+L57</f>
         <v>86610</v>
       </c>
       <c r="N57" s="42">
@@ -9133,7 +9160,7 @@
         <v>886100</v>
       </c>
       <c r="P57" s="17">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>3382100</v>
       </c>
       <c r="Q57" s="42">
@@ -9143,7 +9170,7 @@
         <v>1514</v>
       </c>
       <c r="S57" s="17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>10410</v>
       </c>
       <c r="T57" s="42">
@@ -9153,7 +9180,7 @@
         <v>130.4</v>
       </c>
       <c r="V57" s="17">
-        <f t="shared" ref="V57:V61" si="67">T57+U57</f>
+        <f t="shared" ref="V57:V61" si="68">T57+U57</f>
         <v>1682.4</v>
       </c>
       <c r="W57" s="42">
@@ -9163,7 +9190,7 @@
         <v>22.67</v>
       </c>
       <c r="Y57" s="17">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>153.07</v>
       </c>
       <c r="Z57" s="42">
@@ -9173,33 +9200,34 @@
         <v>0.7964</v>
       </c>
       <c r="AB57" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>1.5928</v>
       </c>
       <c r="AC57" s="21">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>10579.196399999999</v>
       </c>
       <c r="AD57" s="21">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>1667.8664000000001</v>
       </c>
       <c r="AE57" s="17">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>12247.0628</v>
       </c>
       <c r="AF57" s="43">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>0.84089562795147665</v>
       </c>
       <c r="AG57" s="23">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>0.90774656771069906</v>
       </c>
       <c r="AH57" s="23">
-        <f t="shared" ref="AH56:AH61" si="68">S57/AE57</f>
+        <f t="shared" ref="AH56:AH61" si="69">S57/AE57</f>
         <v>0.84999972401545942</v>
       </c>
+      <c r="AJ57" s="50"/>
     </row>
     <row r="58" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A58" s="32"/>
@@ -9220,7 +9248,7 @@
         <v>-4.3990000000000001E-3</v>
       </c>
       <c r="H58" s="23">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-0.58653333333333335</v>
       </c>
       <c r="I58" s="44">
@@ -9236,7 +9264,7 @@
         <v>13990</v>
       </c>
       <c r="M58" s="17">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>59070</v>
       </c>
       <c r="N58" s="42">
@@ -9246,7 +9274,7 @@
         <v>883700</v>
       </c>
       <c r="P58" s="17">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>3359700</v>
       </c>
       <c r="Q58" s="42">
@@ -9256,7 +9284,7 @@
         <v>2498</v>
       </c>
       <c r="S58" s="17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>14388</v>
       </c>
       <c r="T58" s="42">
@@ -9266,7 +9294,7 @@
         <v>395.2</v>
       </c>
       <c r="V58" s="17">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>3849.2</v>
       </c>
       <c r="W58" s="42">
@@ -9276,7 +9304,7 @@
         <v>126.6</v>
       </c>
       <c r="Y58" s="17">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>521.79999999999995</v>
       </c>
       <c r="Z58" s="42">
@@ -9286,33 +9314,34 @@
         <v>9.6630000000000003</v>
       </c>
       <c r="AB58" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>19.326000000000001</v>
       </c>
       <c r="AC58" s="21">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>15748.863000000001</v>
       </c>
       <c r="AD58" s="21">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>3029.4629999999997</v>
       </c>
       <c r="AE58" s="17">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>18778.326000000001</v>
       </c>
       <c r="AF58" s="43">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>0.75497513693528218</v>
       </c>
       <c r="AG58" s="23">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>0.82456857865568922</v>
       </c>
       <c r="AH58" s="23">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0.76620248258550838</v>
       </c>
+      <c r="AJ58" s="50"/>
     </row>
     <row r="59" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A59" s="32"/>
@@ -9333,7 +9362,7 @@
         <v>-9.1750999999999999E-2</v>
       </c>
       <c r="H59" s="23">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-12.233466666666667</v>
       </c>
       <c r="I59" s="44">
@@ -9349,7 +9378,7 @@
         <v>11480</v>
       </c>
       <c r="M59" s="17">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>38450</v>
       </c>
       <c r="N59" s="42">
@@ -9359,7 +9388,7 @@
         <v>881100</v>
       </c>
       <c r="P59" s="17">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>3334100</v>
       </c>
       <c r="Q59" s="42">
@@ -9369,7 +9398,7 @@
         <v>3165</v>
       </c>
       <c r="S59" s="17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>15995</v>
       </c>
       <c r="T59" s="42">
@@ -9379,7 +9408,7 @@
         <v>722.2</v>
       </c>
       <c r="V59" s="17">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>5884.2</v>
       </c>
       <c r="W59" s="42">
@@ -9389,7 +9418,7 @@
         <v>294.3</v>
       </c>
       <c r="Y59" s="17">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>5456.3</v>
       </c>
       <c r="Z59" s="42">
@@ -9399,31 +9428,31 @@
         <v>38.85</v>
       </c>
       <c r="AB59" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>1380.85</v>
       </c>
       <c r="AC59" s="21">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>24496</v>
       </c>
       <c r="AD59" s="21">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>4220.3500000000004</v>
       </c>
       <c r="AE59" s="17">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>28716.35</v>
       </c>
       <c r="AF59" s="43">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>0.5237589810581319</v>
       </c>
       <c r="AG59" s="23">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>0.74993780136718513</v>
       </c>
       <c r="AH59" s="23">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0.55699975797759815</v>
       </c>
     </row>
@@ -9446,7 +9475,7 @@
         <v>-0.18248</v>
       </c>
       <c r="H60" s="23">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-24.330666666666669</v>
       </c>
       <c r="I60" s="44">
@@ -9462,7 +9491,7 @@
         <v>9147</v>
       </c>
       <c r="M60" s="17">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>23867</v>
       </c>
       <c r="N60" s="42">
@@ -9472,7 +9501,7 @@
         <v>878000</v>
       </c>
       <c r="P60" s="17">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>3305000</v>
       </c>
       <c r="Q60" s="42">
@@ -9482,7 +9511,7 @@
         <v>3580</v>
       </c>
       <c r="S60" s="17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>16440</v>
       </c>
       <c r="T60" s="42">
@@ -9492,7 +9521,7 @@
         <v>1083</v>
       </c>
       <c r="V60" s="17">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>7598</v>
       </c>
       <c r="W60" s="42">
@@ -9502,7 +9531,7 @@
         <v>490.1</v>
       </c>
       <c r="Y60" s="17">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>7005.1</v>
       </c>
       <c r="Z60" s="42">
@@ -9512,31 +9541,31 @@
         <v>99.65</v>
       </c>
       <c r="AB60" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>2564.65</v>
       </c>
       <c r="AC60" s="21">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>28355</v>
       </c>
       <c r="AD60" s="21">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>5252.75</v>
       </c>
       <c r="AE60" s="17">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>33607.75</v>
       </c>
       <c r="AF60" s="43">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>0.4535355316522659</v>
       </c>
       <c r="AG60" s="23">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>0.68154776069677792</v>
       </c>
       <c r="AH60" s="23">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0.48917288423057181</v>
       </c>
     </row>
@@ -9549,107 +9578,107 @@
       <c r="D61" s="18">
         <v>50</v>
       </c>
-      <c r="E61" s="36">
+      <c r="E61" s="41">
         <v>0.78844999999999998</v>
       </c>
-      <c r="F61" s="36">
+      <c r="F61" s="41">
         <v>1.9000000000000001E-4</v>
       </c>
-      <c r="G61" s="36">
+      <c r="G61" s="41">
         <v>-0.26831100000000002</v>
       </c>
       <c r="H61" s="24">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-35.774800000000006</v>
       </c>
-      <c r="I61" s="44">
+      <c r="I61" s="53">
         <v>0.87685100000000005</v>
       </c>
-      <c r="J61" s="44">
+      <c r="J61" s="53">
         <v>0.12314899999999999</v>
       </c>
-      <c r="K61" s="42">
+      <c r="K61" s="54">
         <v>7307</v>
       </c>
       <c r="L61" s="19">
         <v>7057</v>
       </c>
       <c r="M61" s="19">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>14364</v>
       </c>
-      <c r="N61" s="42">
+      <c r="N61" s="54">
         <v>2399000</v>
       </c>
       <c r="O61" s="19">
         <v>874600</v>
       </c>
       <c r="P61" s="19">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>3273600</v>
       </c>
-      <c r="Q61" s="42">
+      <c r="Q61" s="54">
         <v>12560</v>
       </c>
       <c r="R61" s="19">
         <v>3811</v>
       </c>
       <c r="S61" s="19">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>16371</v>
       </c>
-      <c r="T61" s="42">
+      <c r="T61" s="54">
         <v>7461</v>
       </c>
       <c r="U61" s="19">
         <v>1446</v>
       </c>
       <c r="V61" s="19">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>8907</v>
       </c>
-      <c r="W61" s="42">
+      <c r="W61" s="54">
         <v>7461</v>
       </c>
       <c r="X61" s="19">
         <v>684</v>
       </c>
       <c r="Y61" s="19">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>8145</v>
       </c>
-      <c r="Z61" s="42">
+      <c r="Z61" s="54">
         <v>3687</v>
       </c>
       <c r="AA61" s="19">
         <v>199</v>
       </c>
       <c r="AB61" s="19">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>3886</v>
       </c>
-      <c r="AC61" s="21">
-        <f t="shared" si="59"/>
+      <c r="AC61" s="22">
+        <f t="shared" si="60"/>
         <v>31169</v>
       </c>
-      <c r="AD61" s="21">
-        <f t="shared" si="59"/>
+      <c r="AD61" s="22">
+        <f t="shared" si="60"/>
         <v>6140</v>
       </c>
       <c r="AE61" s="19">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>37309</v>
       </c>
-      <c r="AF61" s="43">
-        <f t="shared" si="61"/>
+      <c r="AF61" s="55">
+        <f t="shared" si="62"/>
         <v>0.40296448394237866</v>
       </c>
       <c r="AG61" s="47">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>0.62068403908794789</v>
       </c>
       <c r="AH61" s="47">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0.43879492883754589</v>
       </c>
     </row>
